--- a/static/Upload/4th sem.xlsx
+++ b/static/Upload/4th sem.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mech Staff data\Amit Jangra\Website\MechanicalCodingThunder.github.io\static\Upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study Material\Teaching\MechanicalCodingThunder.github.io\static\Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="144">
   <si>
     <t>S.N</t>
   </si>
@@ -381,6 +381,81 @@
   </si>
   <si>
     <t>Mech 2nd sem WT-III</t>
+  </si>
+  <si>
+    <t>Naveen</t>
+  </si>
+  <si>
+    <t>Parmod</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Rahul Jangra</t>
+  </si>
+  <si>
+    <t>Raman</t>
+  </si>
+  <si>
+    <t>Ravi</t>
+  </si>
+  <si>
+    <t>Sahil Verma</t>
+  </si>
+  <si>
+    <t>Vikas</t>
+  </si>
+  <si>
+    <t>Vijender Singh</t>
+  </si>
+  <si>
+    <t>Vikash</t>
+  </si>
+  <si>
+    <t>Abhishek</t>
+  </si>
+  <si>
+    <t>Akshay</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>Anil Kkumar</t>
+  </si>
+  <si>
+    <t>Ankush</t>
+  </si>
+  <si>
+    <t>Atul</t>
+  </si>
+  <si>
+    <t>Bjarang</t>
+  </si>
+  <si>
+    <t>Banti</t>
+  </si>
+  <si>
+    <t>Chavi</t>
+  </si>
+  <si>
+    <t>Himanshu</t>
+  </si>
+  <si>
+    <t>Joni</t>
+  </si>
+  <si>
+    <t>Kamal</t>
+  </si>
+  <si>
+    <t>Lokesh</t>
+  </si>
+  <si>
+    <t>Mohit</t>
+  </si>
+  <si>
+    <t>Manav</t>
   </si>
 </sst>
 </file>
@@ -479,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -488,9 +563,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -502,16 +574,31 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -925,37 +1012,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L120"/>
+  <dimension ref="A1:L139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="6" width="9.140625" style="9"/>
+    <col min="5" max="5" width="16.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="7"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -964,34 +1052,34 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -999,16 +1087,16 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>220041700001</v>
       </c>
       <c r="D3" s="2">
         <v>17</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="14">
         <v>15</v>
       </c>
       <c r="F3" s="2">
@@ -1037,16 +1125,16 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9">
         <v>220041700002</v>
       </c>
       <c r="D4" s="2">
         <v>7</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="14">
         <v>11</v>
       </c>
       <c r="F4" s="2">
@@ -1075,16 +1163,16 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>220041700003</v>
       </c>
       <c r="D5" s="2">
         <v>14</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="14">
         <v>10</v>
       </c>
       <c r="F5" s="2">
@@ -1113,16 +1201,16 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>220041700004</v>
       </c>
       <c r="D6" s="2">
         <v>8</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="14">
         <v>17</v>
       </c>
       <c r="F6" s="2">
@@ -1151,16 +1239,16 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>220041700005</v>
       </c>
       <c r="D7" s="2">
         <v>17</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="14">
         <v>21</v>
       </c>
       <c r="F7" s="2">
@@ -1189,16 +1277,16 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="9">
         <v>220041700006</v>
       </c>
       <c r="D8" s="2">
         <v>14</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="14">
         <v>8</v>
       </c>
       <c r="F8" s="2">
@@ -1227,16 +1315,16 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="9">
         <v>220041700007</v>
       </c>
       <c r="D9" s="2">
         <v>8.5</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="2">
@@ -1265,16 +1353,16 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="9">
         <v>220041700008</v>
       </c>
       <c r="D10" s="2">
         <v>11</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="14">
         <v>14</v>
       </c>
       <c r="F10" s="2">
@@ -1303,16 +1391,16 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="9">
         <v>220041700009</v>
       </c>
       <c r="D11" s="2">
         <v>13</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="14">
         <v>10</v>
       </c>
       <c r="F11" s="2">
@@ -1341,16 +1429,16 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="9">
         <v>220041700010</v>
       </c>
       <c r="D12" s="2">
         <v>8</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="14">
         <v>10.5</v>
       </c>
       <c r="F12" s="2">
@@ -1379,16 +1467,16 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="9">
         <v>220041700011</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="14">
         <v>16</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1417,16 +1505,16 @@
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="9">
         <v>220041700012</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="14">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -1455,16 +1543,16 @@
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="9">
         <v>220041700013</v>
       </c>
       <c r="D15" s="2">
         <v>15</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="2">
@@ -1493,16 +1581,16 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="9">
         <v>220041700014</v>
       </c>
       <c r="D16" s="2">
         <v>10</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="14">
         <v>11</v>
       </c>
       <c r="F16" s="2">
@@ -1531,16 +1619,16 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="9">
         <v>220041700016</v>
       </c>
       <c r="D17" s="2">
         <v>10</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="14">
         <v>12</v>
       </c>
       <c r="F17" s="2">
@@ -1569,16 +1657,16 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="9">
         <v>220041700017</v>
       </c>
       <c r="D18" s="2">
         <v>14</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="14">
         <v>20</v>
       </c>
       <c r="F18" s="2">
@@ -1607,16 +1695,16 @@
       <c r="A19" s="2">
         <v>19</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="8">
+      <c r="B19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="9">
         <v>220041700020</v>
       </c>
       <c r="D19" s="2">
         <v>19</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="14">
         <v>12</v>
       </c>
       <c r="F19" s="2">
@@ -1645,16 +1733,16 @@
       <c r="A20" s="2">
         <v>20</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="9">
         <v>220041700021</v>
       </c>
       <c r="D20" s="2">
         <v>4</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="14">
         <v>11.5</v>
       </c>
       <c r="F20" s="2">
@@ -1683,16 +1771,16 @@
       <c r="A21" s="2">
         <v>21</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="9">
         <v>220041700022</v>
       </c>
       <c r="D21" s="2">
         <v>26</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="14">
         <v>22</v>
       </c>
       <c r="F21" s="2">
@@ -1721,16 +1809,16 @@
       <c r="A22" s="2">
         <v>22</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="9">
         <v>220041700023</v>
       </c>
       <c r="D22" s="2">
         <v>16</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="14">
         <v>14.5</v>
       </c>
       <c r="F22" s="2">
@@ -1759,16 +1847,16 @@
       <c r="A23" s="2">
         <v>23</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="9">
         <v>220041700024</v>
       </c>
       <c r="D23" s="2">
         <v>13</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="14">
         <v>8</v>
       </c>
       <c r="F23" s="2">
@@ -1797,16 +1885,16 @@
       <c r="A24" s="2">
         <v>24</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="9">
         <v>220041700025</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="14">
         <v>4</v>
       </c>
       <c r="F24" s="2">
@@ -1835,16 +1923,16 @@
       <c r="A25" s="2">
         <v>25</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="9">
         <v>220041700026</v>
       </c>
       <c r="D25" s="2">
         <v>7</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="14">
         <v>8</v>
       </c>
       <c r="F25" s="2">
@@ -1873,16 +1961,16 @@
       <c r="A26" s="2">
         <v>26</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="9">
         <v>220041700027</v>
       </c>
       <c r="D26" s="2">
         <v>12</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="14">
         <v>12</v>
       </c>
       <c r="F26" s="2">
@@ -1911,16 +1999,16 @@
       <c r="A27" s="2">
         <v>27</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="9">
         <v>220041700028</v>
       </c>
       <c r="D27" s="2">
         <v>15</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="14">
         <v>22</v>
       </c>
       <c r="F27" s="2">
@@ -1949,16 +2037,16 @@
       <c r="A28" s="2">
         <v>28</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="9">
         <v>220041700029</v>
       </c>
       <c r="D28" s="2">
         <v>6</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="14">
         <v>4.5</v>
       </c>
       <c r="F28" s="2">
@@ -1987,16 +2075,16 @@
       <c r="A29" s="2">
         <v>29</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="9">
         <v>220041700030</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="14">
         <v>1</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -2025,16 +2113,16 @@
       <c r="A30" s="2">
         <v>30</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="9">
         <v>220041700031</v>
       </c>
       <c r="D30" s="2">
         <v>10</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="14">
         <v>9</v>
       </c>
       <c r="F30" s="2">
@@ -2063,16 +2151,16 @@
       <c r="A31" s="2">
         <v>31</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="9">
         <v>220041700032</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="14">
         <v>1</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -2098,16 +2186,16 @@
       <c r="A32" s="2">
         <v>32</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="9">
         <v>220041700033</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="14">
         <v>13.5</v>
       </c>
       <c r="F32" s="2">
@@ -2136,16 +2224,16 @@
       <c r="A33" s="2">
         <v>33</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="9">
         <v>220041700034</v>
       </c>
       <c r="D33" s="2">
         <v>15.5</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="14">
         <v>13.5</v>
       </c>
       <c r="F33" s="2">
@@ -2174,16 +2262,16 @@
       <c r="A34" s="2">
         <v>34</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="9">
         <v>220041700035</v>
       </c>
       <c r="D34" s="2">
         <v>14</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="14">
         <v>9</v>
       </c>
       <c r="F34" s="2">
@@ -2212,16 +2300,16 @@
       <c r="A35" s="2">
         <v>35</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="9">
         <v>220041700036</v>
       </c>
       <c r="D35" s="2">
         <v>16.5</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="14">
         <v>16</v>
       </c>
       <c r="F35" s="2">
@@ -2250,16 +2338,16 @@
       <c r="A36" s="2">
         <v>36</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="9">
         <v>220041700037</v>
       </c>
       <c r="D36" s="2">
         <v>10</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="14">
         <v>6</v>
       </c>
       <c r="F36" s="2">
@@ -2288,16 +2376,16 @@
       <c r="A37" s="2">
         <v>37</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="9">
         <v>220041700038</v>
       </c>
       <c r="D37" s="2">
         <v>13</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="14">
         <v>8</v>
       </c>
       <c r="F37" s="2">
@@ -2326,16 +2414,16 @@
       <c r="A38" s="2">
         <v>38</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="9">
         <v>220041700039</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="14">
         <v>3</v>
       </c>
       <c r="F38" s="2">
@@ -2364,16 +2452,16 @@
       <c r="A39" s="2">
         <v>39</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="9">
         <v>220041700040</v>
       </c>
       <c r="D39" s="2">
         <v>7</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="14">
         <v>14.5</v>
       </c>
       <c r="F39" s="2">
@@ -2402,16 +2490,16 @@
       <c r="A40" s="2">
         <v>40</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="9">
         <v>220041700042</v>
       </c>
       <c r="D40" s="2">
         <v>10</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="14">
         <v>12</v>
       </c>
       <c r="F40" s="2">
@@ -2440,16 +2528,16 @@
       <c r="A41" s="2">
         <v>41</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="9">
         <v>220041700043</v>
       </c>
       <c r="D41" s="2">
         <v>15</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="14">
         <v>12</v>
       </c>
       <c r="F41" s="2">
@@ -2478,16 +2566,16 @@
       <c r="A42" s="2">
         <v>42</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="9">
         <v>220041700044</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="14">
         <v>7</v>
       </c>
       <c r="F42" s="2">
@@ -2516,16 +2604,16 @@
       <c r="A43" s="2">
         <v>43</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="9">
         <v>220041700045</v>
       </c>
       <c r="D43" s="2">
         <v>10</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="14">
         <v>12.5</v>
       </c>
       <c r="F43" s="2">
@@ -2554,16 +2642,16 @@
       <c r="A44" s="2">
         <v>44</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="9">
         <v>220041700046</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="14">
         <v>5</v>
       </c>
       <c r="F44" s="2">
@@ -2592,16 +2680,16 @@
       <c r="A45" s="2">
         <v>45</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="9">
         <v>220041700047</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F45" s="2" t="s">
@@ -2627,16 +2715,16 @@
       <c r="A46" s="2">
         <v>46</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="9">
         <v>220041700048</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="14">
         <v>1.5</v>
       </c>
       <c r="F46" s="2">
@@ -2665,16 +2753,16 @@
       <c r="A47" s="2">
         <v>47</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="9">
         <v>220041700049</v>
       </c>
       <c r="D47" s="2">
         <v>20</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="14">
         <v>13</v>
       </c>
       <c r="F47" s="2">
@@ -2703,16 +2791,16 @@
       <c r="A48" s="2">
         <v>49</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="9">
         <v>220041700051</v>
       </c>
       <c r="D48" s="2">
         <v>8</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="14">
         <v>12</v>
       </c>
       <c r="F48" s="2">
@@ -2741,16 +2829,16 @@
       <c r="A49" s="2">
         <v>50</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="9">
         <v>220041700052</v>
       </c>
       <c r="D49" s="2">
         <v>16</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="14">
         <v>5</v>
       </c>
       <c r="F49" s="2">
@@ -2779,16 +2867,16 @@
       <c r="A50" s="2">
         <v>51</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="9">
         <v>220041700053</v>
       </c>
       <c r="D50" s="2">
         <v>4</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="14">
         <v>2.5</v>
       </c>
       <c r="F50" s="2">
@@ -2817,16 +2905,16 @@
       <c r="A51" s="2">
         <v>52</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="9">
         <v>220041700054</v>
       </c>
       <c r="D51" s="2">
         <v>6</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="14">
         <v>9.5</v>
       </c>
       <c r="F51" s="2">
@@ -2855,16 +2943,16 @@
       <c r="A52" s="2">
         <v>53</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="9">
         <v>220041700055</v>
       </c>
       <c r="D52" s="2">
         <v>6</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="14">
         <v>6</v>
       </c>
       <c r="F52" s="2">
@@ -2893,16 +2981,16 @@
       <c r="A53" s="2">
         <v>54</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="9">
         <v>220041700056</v>
       </c>
       <c r="D53" s="2">
         <v>8</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="14">
         <v>9</v>
       </c>
       <c r="F53" s="2">
@@ -2931,16 +3019,16 @@
       <c r="A54" s="2">
         <v>55</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="9">
         <v>220041700057</v>
       </c>
       <c r="D54" s="2">
         <v>13</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="14">
         <v>13</v>
       </c>
       <c r="F54" s="2">
@@ -2969,16 +3057,16 @@
       <c r="A55" s="2">
         <v>56</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="9">
         <v>220041700058</v>
       </c>
       <c r="D55" s="2">
         <v>11</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="14">
         <v>13</v>
       </c>
       <c r="F55" s="2">
@@ -3007,16 +3095,16 @@
       <c r="A56" s="2">
         <v>57</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="9">
         <v>220041700059</v>
       </c>
       <c r="D56" s="2">
         <v>15</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="14">
         <v>6</v>
       </c>
       <c r="F56" s="2">
@@ -3045,16 +3133,16 @@
       <c r="A57" s="2">
         <v>58</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="9">
         <v>220041700060</v>
       </c>
       <c r="D57" s="2">
         <v>3</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="14">
         <v>4</v>
       </c>
       <c r="F57" s="2">
@@ -3083,16 +3171,16 @@
       <c r="A58" s="2">
         <v>59</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="9">
         <v>220041700061</v>
       </c>
       <c r="D58" s="2">
         <v>6</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="14">
         <v>9.5</v>
       </c>
       <c r="F58" s="2">
@@ -3121,16 +3209,16 @@
       <c r="A59" s="2">
         <v>60</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="9">
         <v>220041700063</v>
       </c>
       <c r="D59" s="2">
         <v>2</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="14">
         <v>9</v>
       </c>
       <c r="F59" s="2">
@@ -3159,16 +3247,16 @@
       <c r="A60" s="2">
         <v>61</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="9">
         <v>220041700064</v>
       </c>
       <c r="D60" s="2">
         <v>6</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="14">
         <v>3</v>
       </c>
       <c r="F60" s="2">
@@ -3197,16 +3285,16 @@
       <c r="A61" s="2">
         <v>62</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="9">
         <v>220041700065</v>
       </c>
       <c r="D61" s="2">
         <v>10</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="14">
         <v>11</v>
       </c>
       <c r="F61" s="2">
@@ -3235,16 +3323,16 @@
       <c r="A62" s="2">
         <v>63</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="9">
         <v>220041700066</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="14">
         <v>9</v>
       </c>
       <c r="F62" s="2">
@@ -3273,16 +3361,16 @@
       <c r="A63" s="2">
         <v>64</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="9">
         <v>220041700067</v>
       </c>
       <c r="D63" s="2">
         <v>21</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="14">
         <v>14</v>
       </c>
       <c r="F63" s="2">
@@ -3311,16 +3399,16 @@
       <c r="A64" s="2">
         <v>65</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="9">
         <v>220041700068</v>
       </c>
       <c r="D64" s="2">
         <v>14</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="14">
         <v>10</v>
       </c>
       <c r="F64" s="2">
@@ -3349,16 +3437,16 @@
       <c r="A65" s="2">
         <v>66</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="9">
         <v>220041700069</v>
       </c>
       <c r="D65" s="2">
         <v>13</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="14">
         <v>8.5</v>
       </c>
       <c r="F65" s="2">
@@ -3387,16 +3475,16 @@
       <c r="A66" s="2">
         <v>67</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="9">
         <v>220041700070</v>
       </c>
       <c r="D66" s="2">
         <v>10</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="14">
         <v>16</v>
       </c>
       <c r="F66" s="2">
@@ -3425,16 +3513,16 @@
       <c r="A67" s="2">
         <v>68</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="9">
         <v>220041700071</v>
       </c>
       <c r="D67" s="2">
         <v>22</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="14">
         <v>13.5</v>
       </c>
       <c r="F67" s="2">
@@ -3463,16 +3551,16 @@
       <c r="A68" s="2">
         <v>69</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="9">
         <v>220041700072</v>
       </c>
       <c r="D68" s="2">
         <v>10</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="14">
         <v>10.5</v>
       </c>
       <c r="F68" s="2">
@@ -3501,16 +3589,16 @@
       <c r="A69" s="2">
         <v>70</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="9">
         <v>220041700073</v>
       </c>
       <c r="D69" s="2">
         <v>14</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="14">
         <v>4</v>
       </c>
       <c r="F69" s="2">
@@ -3539,16 +3627,16 @@
       <c r="A70" s="2">
         <v>71</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="9">
         <v>220041700074</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="14">
         <v>12</v>
       </c>
       <c r="F70" s="2">
@@ -3577,16 +3665,16 @@
       <c r="A71" s="2">
         <v>72</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="9">
         <v>220041700076</v>
       </c>
       <c r="D71" s="2">
         <v>24</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="14">
         <v>12</v>
       </c>
       <c r="F71" s="2">
@@ -3615,16 +3703,16 @@
       <c r="A72" s="2">
         <v>73</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="9">
         <v>220041700077</v>
       </c>
       <c r="D72" s="2">
         <v>18</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="14">
         <v>8.5</v>
       </c>
       <c r="F72" s="2">
@@ -3653,16 +3741,16 @@
       <c r="A73" s="2">
         <v>74</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="9">
         <v>220041700078</v>
       </c>
       <c r="D73" s="2">
         <v>22</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="14">
         <v>14</v>
       </c>
       <c r="F73" s="2">
@@ -3691,16 +3779,16 @@
       <c r="A74" s="2">
         <v>75</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="9">
         <v>220041700079</v>
       </c>
       <c r="D74" s="2">
         <v>4.5</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="14">
         <v>7.5</v>
       </c>
       <c r="F74" s="2">
@@ -3729,16 +3817,16 @@
       <c r="A75" s="2">
         <v>76</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="9">
         <v>220041700080</v>
       </c>
       <c r="D75" s="2">
         <v>11</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="14">
         <v>13</v>
       </c>
       <c r="F75" s="2">
@@ -3767,16 +3855,16 @@
       <c r="A76" s="2">
         <v>77</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="9">
         <v>220041700081</v>
       </c>
       <c r="D76" s="2">
         <v>12.5</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="14">
         <v>11</v>
       </c>
       <c r="F76" s="2">
@@ -3805,16 +3893,16 @@
       <c r="A77" s="2">
         <v>78</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="9">
         <v>220041700082</v>
       </c>
       <c r="D77" s="2">
         <v>10</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="14">
         <v>3.5</v>
       </c>
       <c r="F77" s="2">
@@ -3843,16 +3931,16 @@
       <c r="A78" s="2">
         <v>79</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="9">
         <v>220041700084</v>
       </c>
       <c r="D78" s="2">
         <v>21.5</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="14">
         <v>8.5</v>
       </c>
       <c r="F78" s="2">
@@ -3881,16 +3969,16 @@
       <c r="A79" s="2">
         <v>80</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="9">
         <v>220041700085</v>
       </c>
       <c r="D79" s="2">
         <v>10.5</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="14">
         <v>14.5</v>
       </c>
       <c r="F79" s="2">
@@ -3919,16 +4007,16 @@
       <c r="A80" s="2">
         <v>81</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="9">
         <v>220041700086</v>
       </c>
       <c r="D80" s="2">
         <v>14</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="14">
         <v>11</v>
       </c>
       <c r="F80" s="2">
@@ -3957,16 +4045,16 @@
       <c r="A81" s="2">
         <v>82</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81" s="9">
         <v>220041700087</v>
       </c>
       <c r="D81" s="2">
         <v>7</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="14">
         <v>18.5</v>
       </c>
       <c r="F81" s="2">
@@ -3995,16 +4083,16 @@
       <c r="A82" s="2">
         <v>83</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82" s="9">
         <v>220041700088</v>
       </c>
       <c r="D82" s="2">
         <v>2</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="14">
         <v>15</v>
       </c>
       <c r="F82" s="2">
@@ -4033,16 +4121,16 @@
       <c r="A83" s="2">
         <v>84</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="8">
+      <c r="C83" s="9">
         <v>220041700089</v>
       </c>
       <c r="D83" s="2">
         <v>2</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="14">
         <v>14</v>
       </c>
       <c r="F83" s="2">
@@ -4071,16 +4159,16 @@
       <c r="A84" s="2">
         <v>85</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="9">
         <v>220041700090</v>
       </c>
       <c r="D84" s="2">
         <v>0</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="14">
         <v>11</v>
       </c>
       <c r="F84" s="2">
@@ -4109,16 +4197,16 @@
       <c r="A85" s="2">
         <v>86</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="9">
         <v>220041700091</v>
       </c>
       <c r="D85" s="2">
         <v>7</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="14">
         <v>10</v>
       </c>
       <c r="F85" s="2">
@@ -4147,16 +4235,16 @@
       <c r="A86" s="2">
         <v>87</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="9">
         <v>220041700092</v>
       </c>
       <c r="D86" s="2">
         <v>4</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="14">
         <v>12.5</v>
       </c>
       <c r="F86" s="2">
@@ -4185,16 +4273,16 @@
       <c r="A87" s="2">
         <v>88</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="8">
+      <c r="C87" s="9">
         <v>220041700096</v>
       </c>
       <c r="D87" s="2">
         <v>20</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="14">
         <v>16</v>
       </c>
       <c r="F87" s="2">
@@ -4223,16 +4311,16 @@
       <c r="A88" s="2">
         <v>89</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C88" s="8">
+      <c r="C88" s="9">
         <v>220041700097</v>
       </c>
       <c r="D88" s="2">
         <v>2</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="14">
         <v>9</v>
       </c>
       <c r="F88" s="2">
@@ -4261,16 +4349,16 @@
       <c r="A89" s="2">
         <v>90</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C89" s="8">
+      <c r="C89" s="9">
         <v>220041700098</v>
       </c>
       <c r="D89" s="2">
         <v>24.5</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="14">
         <v>11</v>
       </c>
       <c r="F89" s="2">
@@ -4299,16 +4387,16 @@
       <c r="A90" s="2">
         <v>91</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C90" s="9">
         <v>220041700099</v>
       </c>
       <c r="D90" s="2">
         <v>26</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="14">
         <v>11</v>
       </c>
       <c r="F90" s="2">
@@ -4337,16 +4425,16 @@
       <c r="A91" s="2">
         <v>92</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C91" s="8">
+      <c r="C91" s="9">
         <v>220041700100</v>
       </c>
       <c r="D91" s="2">
         <v>22</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="14">
         <v>14</v>
       </c>
       <c r="F91" s="2">
@@ -4375,16 +4463,16 @@
       <c r="A92" s="2">
         <v>93</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C92" s="8">
+      <c r="C92" s="9">
         <v>220041700101</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F92" s="2" t="s">
@@ -4410,16 +4498,16 @@
       <c r="A93" s="2">
         <v>94</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="8">
+      <c r="C93" s="9">
         <v>220041700102</v>
       </c>
       <c r="D93" s="2">
         <v>5</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="14">
         <v>5</v>
       </c>
       <c r="F93" s="2">
@@ -4448,16 +4536,16 @@
       <c r="A94" s="2">
         <v>95</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="8">
+      <c r="C94" s="9">
         <v>220041700103</v>
       </c>
       <c r="D94" s="2">
         <v>18</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="14">
         <v>10</v>
       </c>
       <c r="F94" s="2">
@@ -4486,16 +4574,16 @@
       <c r="A95" s="2">
         <v>96</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="8">
+      <c r="C95" s="9">
         <v>220041700104</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="14">
         <v>12.5</v>
       </c>
       <c r="F95" s="2">
@@ -4524,16 +4612,16 @@
       <c r="A96" s="2">
         <v>97</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="8">
+      <c r="C96" s="9">
         <v>220041700105</v>
       </c>
       <c r="D96" s="2">
         <v>12</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="14">
         <v>12.5</v>
       </c>
       <c r="F96" s="2">
@@ -4562,16 +4650,16 @@
       <c r="A97" s="2">
         <v>98</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C97" s="8">
+      <c r="C97" s="9">
         <v>220041700106</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="14">
         <v>14.5</v>
       </c>
       <c r="F97" s="2">
@@ -4600,16 +4688,16 @@
       <c r="A98" s="2">
         <v>99</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="8">
+      <c r="C98" s="9">
         <v>220041700107</v>
       </c>
       <c r="D98" s="2">
         <v>13</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="14">
         <v>13</v>
       </c>
       <c r="F98" s="2">
@@ -4638,16 +4726,16 @@
       <c r="A99" s="2">
         <v>100</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C99" s="8">
+      <c r="C99" s="9">
         <v>220041700108</v>
       </c>
       <c r="D99" s="2">
         <v>5</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="14">
         <v>9</v>
       </c>
       <c r="F99" s="2">
@@ -4676,16 +4764,16 @@
       <c r="A100" s="2">
         <v>101</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C100" s="8">
+      <c r="C100" s="9">
         <v>220041700109</v>
       </c>
       <c r="D100" s="2">
         <v>26</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="14">
         <v>23.5</v>
       </c>
       <c r="F100" s="2">
@@ -4714,16 +4802,16 @@
       <c r="A101" s="2">
         <v>102</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C101" s="8">
+      <c r="C101" s="9">
         <v>220041700110</v>
       </c>
       <c r="D101" s="2">
         <v>0</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="14">
         <v>7</v>
       </c>
       <c r="F101" s="2">
@@ -4752,16 +4840,16 @@
       <c r="A102" s="2">
         <v>103</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="8">
+      <c r="C102" s="9">
         <v>220041700111</v>
       </c>
       <c r="D102" s="2">
         <v>15</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E102" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F102" s="2" t="s">
@@ -4787,16 +4875,16 @@
       <c r="A103" s="2">
         <v>104</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C103" s="8">
+      <c r="C103" s="9">
         <v>220041700112</v>
       </c>
       <c r="D103" s="2">
         <v>15</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="14">
         <v>19.5</v>
       </c>
       <c r="F103" s="2">
@@ -4825,16 +4913,16 @@
       <c r="A104" s="2">
         <v>105</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="8">
+      <c r="C104" s="9">
         <v>220041700113</v>
       </c>
       <c r="D104" s="2">
         <v>4</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104" s="14">
         <v>5</v>
       </c>
       <c r="F104" s="2">
@@ -4863,16 +4951,16 @@
       <c r="A105" s="2">
         <v>106</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C105" s="8">
+      <c r="C105" s="9">
         <v>220041700115</v>
       </c>
       <c r="D105" s="2">
         <v>14</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="14">
         <v>16</v>
       </c>
       <c r="F105" s="2">
@@ -4901,16 +4989,16 @@
       <c r="A106" s="2">
         <v>107</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C106" s="8">
+      <c r="C106" s="9">
         <v>220041700116</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106" s="14">
         <v>15</v>
       </c>
       <c r="F106" s="2">
@@ -4939,16 +5027,16 @@
       <c r="A107" s="2">
         <v>108</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C107" s="8">
+      <c r="C107" s="9">
         <v>220041700117</v>
       </c>
       <c r="D107" s="2">
         <v>25</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107" s="14">
         <v>11.5</v>
       </c>
       <c r="F107" s="2">
@@ -4977,16 +5065,16 @@
       <c r="A108" s="2">
         <v>109</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C108" s="8">
+      <c r="C108" s="9">
         <v>220041700118</v>
       </c>
       <c r="D108" s="2">
         <v>19</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E108" s="14">
         <v>11</v>
       </c>
       <c r="F108" s="2">
@@ -5015,16 +5103,16 @@
       <c r="A109" s="2">
         <v>110</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C109" s="8">
+      <c r="C109" s="9">
         <v>220041700119</v>
       </c>
       <c r="D109" s="2">
         <v>10</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E109" s="14">
         <v>13</v>
       </c>
       <c r="F109" s="2">
@@ -5053,16 +5141,16 @@
       <c r="A110" s="2">
         <v>111</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C110" s="8">
+      <c r="C110" s="9">
         <v>220041700121</v>
       </c>
       <c r="D110" s="2">
         <v>21</v>
       </c>
-      <c r="E110" s="2">
+      <c r="E110" s="14">
         <v>11.5</v>
       </c>
       <c r="F110" s="2">
@@ -5091,16 +5179,16 @@
       <c r="A111" s="2">
         <v>112</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C111" s="8">
+      <c r="C111" s="9">
         <v>220041700122</v>
       </c>
       <c r="D111" s="2">
         <v>16</v>
       </c>
-      <c r="E111" s="2">
+      <c r="E111" s="14">
         <v>9.5</v>
       </c>
       <c r="F111" s="2">
@@ -5129,16 +5217,16 @@
       <c r="A112" s="2">
         <v>113</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C112" s="8">
+      <c r="C112" s="9">
         <v>220041700123</v>
       </c>
       <c r="D112" s="2">
         <v>14</v>
       </c>
-      <c r="E112" s="2">
+      <c r="E112" s="14">
         <v>11</v>
       </c>
       <c r="F112" s="2">
@@ -5167,16 +5255,16 @@
       <c r="A113" s="2">
         <v>114</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C113" s="8">
+      <c r="C113" s="9">
         <v>220041700124</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E113" s="14">
         <v>14</v>
       </c>
       <c r="F113" s="2">
@@ -5205,16 +5293,16 @@
       <c r="A114" s="2">
         <v>115</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C114" s="8">
+      <c r="C114" s="9">
         <v>220041700125</v>
       </c>
       <c r="D114" s="2">
         <v>20</v>
       </c>
-      <c r="E114" s="2">
+      <c r="E114" s="14">
         <v>9</v>
       </c>
       <c r="F114" s="2">
@@ -5243,16 +5331,16 @@
       <c r="A115" s="2">
         <v>116</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C115" s="8">
+      <c r="C115" s="9">
         <v>220041700126</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E115" s="14">
         <v>11</v>
       </c>
       <c r="F115" s="2">
@@ -5281,16 +5369,16 @@
       <c r="A116" s="2">
         <v>117</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C116" s="8">
+      <c r="C116" s="9">
         <v>220041700130</v>
       </c>
       <c r="D116" s="2">
         <v>13</v>
       </c>
-      <c r="E116" s="2">
+      <c r="E116" s="14">
         <v>6</v>
       </c>
       <c r="F116" s="2">
@@ -5319,16 +5407,16 @@
       <c r="A117" s="2">
         <v>118</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C117" s="8">
+      <c r="C117" s="9">
         <v>220041700131</v>
       </c>
       <c r="D117" s="2">
         <v>10</v>
       </c>
-      <c r="E117" s="2">
+      <c r="E117" s="14">
         <v>17</v>
       </c>
       <c r="F117" s="2">
@@ -5357,16 +5445,16 @@
       <c r="A118" s="2">
         <v>119</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C118" s="8">
+      <c r="C118" s="9">
         <v>220041700132</v>
       </c>
       <c r="D118" s="2">
         <v>11.5</v>
       </c>
-      <c r="E118" s="2">
+      <c r="E118" s="14">
         <v>9.5</v>
       </c>
       <c r="F118" s="2">
@@ -5395,16 +5483,16 @@
       <c r="A119" s="2">
         <v>120</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C119" s="8">
+      <c r="C119" s="9">
         <v>220041700133</v>
       </c>
       <c r="D119" s="2">
         <v>15</v>
       </c>
-      <c r="E119" s="2">
+      <c r="E119" s="14">
         <v>11</v>
       </c>
       <c r="F119" s="2">
@@ -5433,16 +5521,16 @@
       <c r="A120" s="2">
         <v>121</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C120" s="8">
+      <c r="C120" s="9">
         <v>220041700134</v>
       </c>
       <c r="D120" s="2">
         <v>3</v>
       </c>
-      <c r="E120" s="2">
+      <c r="E120" s="14">
         <v>8.5</v>
       </c>
       <c r="F120" s="2">
@@ -5465,6 +5553,192 @@
       </c>
       <c r="L120" s="1">
         <v>26</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B125" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C125" s="10">
+        <v>220041723018</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E125" s="15">
+        <v>220041723001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B126" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C126" s="10">
+        <v>220041723019</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E126" s="15">
+        <v>220041723002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B127" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C127" s="10">
+        <v>220041723020</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E127" s="15">
+        <v>220041723003</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C128" s="10">
+        <v>220041723021</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E128" s="15">
+        <v>220041723004</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C129" s="10">
+        <v>220041723022</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E129" s="15">
+        <v>220041723005</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C130" s="10">
+        <v>220041723023</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E130" s="15">
+        <v>220041723006</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C131" s="10">
+        <v>220041723025</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E131" s="15">
+        <v>220041723007</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C132" s="10">
+        <v>220041723027</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E132" s="15">
+        <v>220041723008</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C133" s="10">
+        <v>220041723032</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E133" s="15">
+        <v>220041723009</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C134" s="10">
+        <v>220041723033</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E134" s="15">
+        <v>220041723011</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C135" s="10">
+        <v>220041723034</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E135" s="15">
+        <v>220041723012</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D136" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E136" s="15">
+        <v>220041723013</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D137" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E137" s="15">
+        <v>220041723014</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D138" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E138" s="15">
+        <v>220041723015</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D139" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E139" s="15">
+        <v>220041723016</v>
       </c>
     </row>
   </sheetData>

--- a/static/Upload/4th sem.xlsx
+++ b/static/Upload/4th sem.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="135">
   <si>
     <t>S.N</t>
   </si>
@@ -943,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L140"/>
+  <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79:B136"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2539,15 +2539,8 @@
       <c r="L78" s="13"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>77</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C79" s="8">
-        <v>220041700069</v>
-      </c>
+      <c r="A79" s="2"/>
+      <c r="C79" s="14"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
@@ -2559,15 +2552,8 @@
       <c r="L79" s="13"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>78</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C80" s="8">
-        <v>220041700070</v>
-      </c>
+      <c r="A80" s="2"/>
+      <c r="C80" s="14"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
@@ -2580,13 +2566,13 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C81" s="8">
-        <v>220041700071</v>
+        <v>220041700069</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
@@ -2600,13 +2586,13 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C82" s="8">
-        <v>220041700072</v>
+        <v>220041700070</v>
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
@@ -2620,13 +2606,13 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C83" s="8">
-        <v>220041700073</v>
+        <v>220041700071</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
@@ -2638,15 +2624,15 @@
       <c r="K83" s="13"/>
       <c r="L83" s="13"/>
     </row>
-    <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C84" s="8">
-        <v>220041700077</v>
+        <v>220041700072</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
@@ -2660,13 +2646,13 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C85" s="8">
-        <v>220041700078</v>
+        <v>220041700073</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
@@ -2678,15 +2664,15 @@
       <c r="K85" s="13"/>
       <c r="L85" s="13"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C86" s="8">
-        <v>220041700080</v>
+        <v>220041700077</v>
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
@@ -2700,13 +2686,13 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C87" s="8">
-        <v>220041700081</v>
+        <v>220041700078</v>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
@@ -2720,13 +2706,13 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C88" s="8">
-        <v>220041700082</v>
+        <v>220041700080</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
@@ -2738,15 +2724,15 @@
       <c r="K88" s="13"/>
       <c r="L88" s="13"/>
     </row>
-    <row r="89" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C89" s="8">
-        <v>220041700084</v>
+        <v>220041700081</v>
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
@@ -2760,13 +2746,13 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C90" s="8">
-        <v>220041700085</v>
+        <v>220041700082</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
@@ -2780,13 +2766,13 @@
     </row>
     <row r="91" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C91" s="8">
-        <v>220041700086</v>
+        <v>220041700084</v>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
@@ -2798,15 +2784,15 @@
       <c r="K91" s="13"/>
       <c r="L91" s="13"/>
     </row>
-    <row r="92" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C92" s="8">
-        <v>220041700087</v>
+        <v>220041700085</v>
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13"/>
@@ -2820,13 +2806,13 @@
     </row>
     <row r="93" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C93" s="8">
-        <v>220041700088</v>
+        <v>220041700086</v>
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
@@ -2840,13 +2826,13 @@
     </row>
     <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C94" s="8">
-        <v>220041700092</v>
+        <v>220041700087</v>
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
@@ -2858,15 +2844,15 @@
       <c r="K94" s="13"/>
       <c r="L94" s="13"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C95" s="8">
-        <v>220041700096</v>
+        <v>220041700088</v>
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
@@ -2878,15 +2864,15 @@
       <c r="K95" s="13"/>
       <c r="L95" s="13"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C96" s="8">
-        <v>220041700097</v>
+        <v>220041700092</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
@@ -2898,15 +2884,15 @@
       <c r="K96" s="13"/>
       <c r="L96" s="13"/>
     </row>
-    <row r="97" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C97" s="8">
-        <v>220041700098</v>
+        <v>220041700096</v>
       </c>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
@@ -2920,13 +2906,13 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C98" s="8">
-        <v>220041700099</v>
+        <v>220041700097</v>
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
@@ -2938,15 +2924,15 @@
       <c r="K98" s="13"/>
       <c r="L98" s="13"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C99" s="8">
-        <v>220041700100</v>
+        <v>220041700098</v>
       </c>
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
@@ -2958,15 +2944,15 @@
       <c r="K99" s="13"/>
       <c r="L99" s="13"/>
     </row>
-    <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C100" s="8">
-        <v>220041700102</v>
+        <v>220041700099</v>
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
@@ -2978,15 +2964,15 @@
       <c r="K100" s="13"/>
       <c r="L100" s="13"/>
     </row>
-    <row r="101" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C101" s="8">
-        <v>220041700103</v>
+        <v>220041700100</v>
       </c>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
@@ -2998,15 +2984,15 @@
       <c r="K101" s="13"/>
       <c r="L101" s="13"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C102" s="8">
-        <v>220041700104</v>
+        <v>220041700102</v>
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
@@ -3018,15 +3004,15 @@
       <c r="K102" s="13"/>
       <c r="L102" s="13"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C103" s="8">
-        <v>220041700105</v>
+        <v>220041700103</v>
       </c>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
@@ -3038,15 +3024,15 @@
       <c r="K103" s="13"/>
       <c r="L103" s="13"/>
     </row>
-    <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C104" s="8">
-        <v>220041700106</v>
+        <v>220041700104</v>
       </c>
       <c r="D104" s="13"/>
       <c r="E104" s="13"/>
@@ -3060,13 +3046,13 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C105" s="8">
-        <v>220041700107</v>
+        <v>220041700105</v>
       </c>
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
@@ -3078,15 +3064,15 @@
       <c r="K105" s="13"/>
       <c r="L105" s="13"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C106" s="8">
-        <v>220041700108</v>
+        <v>220041700106</v>
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="13"/>
@@ -3098,15 +3084,15 @@
       <c r="K106" s="13"/>
       <c r="L106" s="13"/>
     </row>
-    <row r="107" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C107" s="8">
-        <v>220041700109</v>
+        <v>220041700107</v>
       </c>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
@@ -3120,13 +3106,13 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C108" s="8">
-        <v>220041700110</v>
+        <v>220041700108</v>
       </c>
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
@@ -3140,13 +3126,13 @@
     </row>
     <row r="109" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C109" s="8">
-        <v>220041700112</v>
+        <v>220041700109</v>
       </c>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
@@ -3158,15 +3144,15 @@
       <c r="K109" s="13"/>
       <c r="L109" s="13"/>
     </row>
-    <row r="110" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C110" s="8">
-        <v>220041700113</v>
+        <v>220041700110</v>
       </c>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
@@ -3180,13 +3166,13 @@
     </row>
     <row r="111" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C111" s="8">
-        <v>220041700115</v>
+        <v>220041700112</v>
       </c>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
@@ -3200,13 +3186,13 @@
     </row>
     <row r="112" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C112" s="8">
-        <v>220041700116</v>
+        <v>220041700113</v>
       </c>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
@@ -3218,15 +3204,15 @@
       <c r="K112" s="13"/>
       <c r="L112" s="13"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C113" s="8">
-        <v>220041700117</v>
+        <v>220041700115</v>
       </c>
       <c r="D113" s="13"/>
       <c r="E113" s="13"/>
@@ -3238,15 +3224,15 @@
       <c r="K113" s="13"/>
       <c r="L113" s="13"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C114" s="8">
-        <v>220041700118</v>
+        <v>220041700116</v>
       </c>
       <c r="D114" s="13"/>
       <c r="E114" s="13"/>
@@ -3260,13 +3246,13 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C115" s="8">
-        <v>220041700119</v>
+        <v>220041700117</v>
       </c>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
@@ -3280,13 +3266,13 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C116" s="8">
-        <v>220041700121</v>
+        <v>220041700118</v>
       </c>
       <c r="D116" s="13"/>
       <c r="E116" s="13"/>
@@ -3300,13 +3286,13 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C117" s="8">
-        <v>220041700122</v>
+        <v>220041700119</v>
       </c>
       <c r="D117" s="13"/>
       <c r="E117" s="13"/>
@@ -3320,13 +3306,13 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C118" s="8">
-        <v>220041700123</v>
+        <v>220041700121</v>
       </c>
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
@@ -3338,15 +3324,15 @@
       <c r="K118" s="13"/>
       <c r="L118" s="13"/>
     </row>
-    <row r="119" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C119" s="8">
-        <v>220041700124</v>
+        <v>220041700122</v>
       </c>
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
@@ -3360,13 +3346,13 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C120" s="8">
-        <v>220041700125</v>
+        <v>220041700123</v>
       </c>
       <c r="D120" s="13"/>
       <c r="E120" s="13"/>
@@ -3380,13 +3366,13 @@
     </row>
     <row r="121" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C121" s="8">
-        <v>220041700130</v>
+        <v>220041700124</v>
       </c>
       <c r="D121" s="13"/>
       <c r="E121" s="13"/>
@@ -3400,13 +3386,13 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C122" s="8">
-        <v>220041700131</v>
+        <v>220041700125</v>
       </c>
       <c r="D122" s="13"/>
       <c r="E122" s="13"/>
@@ -3418,15 +3404,15 @@
       <c r="K122" s="13"/>
       <c r="L122" s="13"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C123" s="8">
-        <v>220041700132</v>
+        <v>220041700130</v>
       </c>
       <c r="D123" s="13"/>
       <c r="E123" s="13"/>
@@ -3440,13 +3426,13 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C124" s="8">
-        <v>220041700133</v>
+        <v>220041700131</v>
       </c>
       <c r="D124" s="13"/>
       <c r="E124" s="13"/>
@@ -3460,13 +3446,13 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B125" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C125" s="8">
-        <v>220041700134</v>
+        <v>220041700132</v>
       </c>
       <c r="D125" s="13"/>
       <c r="E125" s="13"/>
@@ -3480,13 +3466,13 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>124</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C126" s="9">
-        <v>220041723018</v>
+        <v>122</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C126" s="8">
+        <v>220041700133</v>
       </c>
       <c r="D126" s="13"/>
       <c r="E126" s="13"/>
@@ -3500,13 +3486,13 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>125</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C127" s="9">
-        <v>220041723019</v>
+        <v>123</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C127" s="8">
+        <v>220041700134</v>
       </c>
       <c r="D127" s="13"/>
       <c r="E127" s="13"/>
@@ -3520,13 +3506,13 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C128" s="9">
-        <v>220041723020</v>
+        <v>220041723018</v>
       </c>
       <c r="D128" s="13"/>
       <c r="E128" s="13"/>
@@ -3540,13 +3526,13 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C129" s="9">
-        <v>220041723021</v>
+        <v>220041723019</v>
       </c>
       <c r="D129" s="13"/>
       <c r="E129" s="13"/>
@@ -3560,13 +3546,13 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C130" s="9">
-        <v>220041723022</v>
+        <v>220041723020</v>
       </c>
       <c r="D130" s="13"/>
       <c r="E130" s="13"/>
@@ -3580,13 +3566,13 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C131" s="9">
-        <v>220041723023</v>
+        <v>220041723021</v>
       </c>
       <c r="D131" s="13"/>
       <c r="E131" s="13"/>
@@ -3600,13 +3586,13 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C132" s="9">
-        <v>220041723025</v>
+        <v>220041723022</v>
       </c>
       <c r="D132" s="13"/>
       <c r="E132" s="13"/>
@@ -3620,13 +3606,13 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C133" s="9">
-        <v>220041723027</v>
+        <v>220041723023</v>
       </c>
       <c r="D133" s="13"/>
       <c r="E133" s="13"/>
@@ -3640,13 +3626,13 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C134" s="9">
-        <v>220041723032</v>
+        <v>220041723025</v>
       </c>
       <c r="D134" s="13"/>
       <c r="E134" s="13"/>
@@ -3660,13 +3646,13 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C135" s="9">
-        <v>220041723033</v>
+        <v>220041723027</v>
       </c>
       <c r="D135" s="13"/>
       <c r="E135" s="13"/>
@@ -3679,15 +3665,7 @@
       <c r="L135" s="13"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
-        <v>134</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C136" s="9">
-        <v>220041723034</v>
-      </c>
+      <c r="A136" s="2"/>
       <c r="D136" s="13"/>
       <c r="E136" s="13"/>
       <c r="F136" s="13"/>
@@ -3699,22 +3677,84 @@
       <c r="L136" s="13"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C137" s="1"/>
+      <c r="A137" s="2">
+        <v>132</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C137" s="9">
+        <v>220041723032</v>
+      </c>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="13"/>
+      <c r="I137" s="13"/>
+      <c r="J137" s="13"/>
+      <c r="K137" s="13"/>
+      <c r="L137" s="13"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C138" s="1"/>
+      <c r="A138" s="2">
+        <v>133</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C138" s="9">
+        <v>220041723033</v>
+      </c>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G138" s="13"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="13"/>
+      <c r="J138" s="13"/>
+      <c r="K138" s="13"/>
+      <c r="L138" s="13"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C139" s="1"/>
+      <c r="A139" s="2">
+        <v>134</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C139" s="9">
+        <v>220041723034</v>
+      </c>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="13"/>
+      <c r="I139" s="13"/>
+      <c r="J139" s="13"/>
+      <c r="K139" s="13"/>
+      <c r="L139" s="13"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C143" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="L137:L1048576">
+  <conditionalFormatting sqref="L140:L1048576">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
       <formula>20</formula>
     </cfRule>

--- a/static/Upload/4th sem.xlsx
+++ b/static/Upload/4th sem.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mech Staff data\Amit Jangra\Website\MechanicalCodingThunder.github.io\static\Upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study Material\Teaching\MechanicalCodingThunder.github.io\static\Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="138">
   <si>
     <t>S.N</t>
   </si>
@@ -429,6 +429,15 @@
   </si>
   <si>
     <t>Manav</t>
+  </si>
+  <si>
+    <t>Nitesh Sharma</t>
+  </si>
+  <si>
+    <t>Ravinder</t>
+  </si>
+  <si>
+    <t>Sanjay</t>
   </si>
 </sst>
 </file>
@@ -945,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2540,7 +2549,12 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
-      <c r="C79" s="14"/>
+      <c r="B79" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C79" s="14">
+        <v>210041700070</v>
+      </c>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
@@ -2553,7 +2567,12 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
-      <c r="C80" s="14"/>
+      <c r="B80" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80" s="14">
+        <v>210041700089</v>
+      </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
@@ -3666,6 +3685,12 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
+      <c r="B136" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C136" s="9">
+        <v>220041723028</v>
+      </c>
       <c r="D136" s="13"/>
       <c r="E136" s="13"/>
       <c r="F136" s="13"/>

--- a/static/Upload/4th sem.xlsx
+++ b/static/Upload/4th sem.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study Material\Teaching\MechanicalCodingThunder.github.io\static\Upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mech Staff data\Amit Jangra\Website\MechanicalCodingThunder.github.io\static\Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="WT-III" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="138">
   <si>
     <t>S.N</t>
   </si>
@@ -954,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,7 +1200,9 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="G11" s="13">
+        <v>3</v>
+      </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -1520,7 +1522,9 @@
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="G27" s="13">
+        <v>5</v>
+      </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
@@ -1540,7 +1544,9 @@
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="G28" s="13">
+        <v>5</v>
+      </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
@@ -1680,7 +1686,9 @@
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="G35" s="13">
+        <v>5</v>
+      </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
@@ -2220,7 +2228,9 @@
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
+      <c r="G62" s="13">
+        <v>4.5</v>
+      </c>
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
@@ -2340,7 +2350,9 @@
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
+      <c r="G68" s="13">
+        <v>4.5</v>
+      </c>
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
       <c r="J68" s="13"/>
@@ -2636,7 +2648,9 @@
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
+      <c r="G83" s="13">
+        <v>5</v>
+      </c>
       <c r="H83" s="13"/>
       <c r="I83" s="13"/>
       <c r="J83" s="13"/>
@@ -2956,7 +2970,9 @@
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
+      <c r="G99" s="13">
+        <v>4.5</v>
+      </c>
       <c r="H99" s="13"/>
       <c r="I99" s="13"/>
       <c r="J99" s="13"/>
@@ -3714,7 +3730,9 @@
       <c r="D137" s="13"/>
       <c r="E137" s="13"/>
       <c r="F137" s="13"/>
-      <c r="G137" s="13"/>
+      <c r="G137" s="13">
+        <v>4.5</v>
+      </c>
       <c r="H137" s="13"/>
       <c r="I137" s="13"/>
       <c r="J137" s="13"/>
@@ -3733,9 +3751,7 @@
       </c>
       <c r="D138" s="13"/>
       <c r="E138" s="13"/>
-      <c r="F138" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="F138" s="1"/>
       <c r="G138" s="13"/>
       <c r="H138" s="13"/>
       <c r="I138" s="13"/>

--- a/static/Upload/4th sem.xlsx
+++ b/static/Upload/4th sem.xlsx
@@ -395,9 +395,6 @@
     <t>Amit</t>
   </si>
   <si>
-    <t>Anil Kkumar</t>
-  </si>
-  <si>
     <t>Ankush</t>
   </si>
   <si>
@@ -438,13 +435,16 @@
   </si>
   <si>
     <t>Sanjay</t>
+  </si>
+  <si>
+    <t>Anil Kumar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -478,6 +478,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -541,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -581,6 +587,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -955,7 +964,7 @@
   <dimension ref="A1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,20 +983,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1242,7 +1251,9 @@
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="G13" s="13">
+        <v>4.5</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -1422,7 +1433,9 @@
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="G22" s="13">
+        <v>4.5</v>
+      </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
@@ -1799,7 +1812,7 @@
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C41" s="8">
@@ -1828,7 +1841,9 @@
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
+      <c r="G42" s="13">
+        <v>5</v>
+      </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
@@ -1948,7 +1963,9 @@
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
+      <c r="G48" s="13">
+        <v>5</v>
+      </c>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
@@ -2048,7 +2065,9 @@
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
+      <c r="G53" s="13">
+        <v>5</v>
+      </c>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
@@ -2250,7 +2269,9 @@
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
+      <c r="G63" s="13">
+        <v>5</v>
+      </c>
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
@@ -2322,7 +2343,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C67" s="14">
         <v>220041723004</v>
@@ -2330,7 +2351,9 @@
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
+      <c r="G67" s="13">
+        <v>5</v>
+      </c>
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
@@ -2342,7 +2365,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C68" s="14">
         <v>220041723005</v>
@@ -2364,7 +2387,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C69" s="14">
         <v>220041723006</v>
@@ -2384,7 +2407,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C70" s="14">
         <v>220041723007</v>
@@ -2404,7 +2427,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C71" s="14">
         <v>220041723008</v>
@@ -2424,7 +2447,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="14">
         <v>220041723009</v>
@@ -2444,7 +2467,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C73" s="14">
         <v>220041723011</v>
@@ -2464,7 +2487,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C74" s="14">
         <v>220041723012</v>
@@ -2484,7 +2507,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C75" s="14">
         <v>220041723013</v>
@@ -2504,7 +2527,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C76" s="14">
         <v>220041723014</v>
@@ -2524,7 +2547,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C77" s="14">
         <v>220041723015</v>
@@ -2544,7 +2567,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C78" s="14">
         <v>220041723016</v>
@@ -2552,7 +2575,9 @@
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
+      <c r="G78" s="13">
+        <v>5</v>
+      </c>
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
       <c r="J78" s="13"/>
@@ -2562,7 +2587,7 @@
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C79" s="14">
         <v>210041700070</v>
@@ -2580,7 +2605,7 @@
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C80" s="14">
         <v>210041700089</v>
@@ -3702,7 +3727,7 @@
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C136" s="9">
         <v>220041723028</v>

--- a/static/Upload/4th sem.xlsx
+++ b/static/Upload/4th sem.xlsx
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,7 +1353,9 @@
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="G18" s="13">
+        <v>5</v>
+      </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -1985,7 +1987,9 @@
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="G49" s="13">
+        <v>3</v>
+      </c>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
@@ -2087,7 +2091,9 @@
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
+      <c r="G54" s="13">
+        <v>3</v>
+      </c>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
@@ -2227,7 +2233,9 @@
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
+      <c r="G61" s="13">
+        <v>5</v>
+      </c>
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
@@ -2435,7 +2443,9 @@
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
+      <c r="G71" s="13">
+        <v>4.5</v>
+      </c>
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
       <c r="J71" s="13"/>

--- a/static/Upload/4th sem.xlsx
+++ b/static/Upload/4th sem.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="WT-III" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2339,7 +2339,9 @@
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
+      <c r="G66" s="13">
+        <v>5</v>
+      </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>

--- a/static/Upload/4th sem.xlsx
+++ b/static/Upload/4th sem.xlsx
@@ -14,7 +14,10 @@
   <sheets>
     <sheet name="WT-III" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WT-III'!$A$2:$L$139</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -547,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -597,6 +600,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -963,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,14 +1055,16 @@
       <c r="C3" s="8">
         <v>220041700001</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19">
+        <v>4</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
       <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1066,14 +1077,16 @@
       <c r="C4" s="8">
         <v>220041700002</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
       <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1086,14 +1099,16 @@
       <c r="C5" s="8">
         <v>220041700003</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
       <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1106,14 +1121,16 @@
       <c r="C6" s="8">
         <v>220041700004</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1126,14 +1143,16 @@
       <c r="C7" s="8">
         <v>220041700005</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
       <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1146,14 +1165,16 @@
       <c r="C8" s="8">
         <v>220041700006</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19">
+        <v>5</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1166,14 +1187,16 @@
       <c r="C9" s="8">
         <v>220041700007</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="18">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
       <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1186,14 +1209,16 @@
       <c r="C10" s="8">
         <v>220041700008</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1206,16 +1231,16 @@
       <c r="C11" s="8">
         <v>220041700009</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19">
         <v>3</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1228,14 +1253,16 @@
       <c r="C12" s="8">
         <v>220041700010</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1248,16 +1275,16 @@
       <c r="C13" s="8">
         <v>220041700011</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19">
         <v>4.5</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1270,14 +1297,16 @@
       <c r="C14" s="8">
         <v>220041700012</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19">
+        <v>4</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1290,14 +1319,16 @@
       <c r="C15" s="8">
         <v>220041700013</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
       <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1310,14 +1341,16 @@
       <c r="C16" s="8">
         <v>220041700014</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
       <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1330,14 +1363,16 @@
       <c r="C17" s="8">
         <v>220041700016</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="13"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1350,16 +1385,16 @@
       <c r="C18" s="8">
         <v>220041700017</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13">
-        <v>5</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19">
+        <v>5</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
       <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1372,14 +1407,16 @@
       <c r="C19" s="8">
         <v>220041700020</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
       <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1392,14 +1429,16 @@
       <c r="C20" s="8">
         <v>220041700021</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="18">
+        <v>0</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
       <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1412,14 +1451,16 @@
       <c r="C21" s="8">
         <v>220041700022</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
       <c r="L21" s="13"/>
     </row>
     <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1432,16 +1473,16 @@
       <c r="C22" s="8">
         <v>220041700023</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13">
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19">
         <v>4.5</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
       <c r="L22" s="13"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1454,14 +1495,16 @@
       <c r="C23" s="8">
         <v>220041700024</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="13"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1474,14 +1517,16 @@
       <c r="C24" s="8">
         <v>220041700025</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
       <c r="L24" s="13"/>
     </row>
     <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1494,14 +1539,16 @@
       <c r="C25" s="8">
         <v>220041700026</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="18">
+        <v>0</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
       <c r="L25" s="13"/>
     </row>
     <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1514,14 +1561,16 @@
       <c r="C26" s="8">
         <v>220041700027</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
       <c r="L26" s="13"/>
     </row>
     <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1534,16 +1583,16 @@
       <c r="C27" s="8">
         <v>220041700028</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13">
-        <v>5</v>
-      </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19">
+        <v>5</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
       <c r="L27" s="13"/>
     </row>
     <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1556,16 +1605,16 @@
       <c r="C28" s="8">
         <v>220041700029</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13">
-        <v>5</v>
-      </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19">
+        <v>5</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="13"/>
     </row>
     <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1578,14 +1627,16 @@
       <c r="C29" s="8">
         <v>220041700030</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="18">
+        <v>0</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
       <c r="L29" s="13"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1598,14 +1649,16 @@
       <c r="C30" s="8">
         <v>220041700031</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19">
+        <v>4</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
       <c r="L30" s="13"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1618,14 +1671,16 @@
       <c r="C31" s="8">
         <v>220041700032</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="18">
+        <v>0</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
       <c r="L31" s="13"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1638,14 +1693,16 @@
       <c r="C32" s="8">
         <v>220041700033</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19">
+        <v>4</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
       <c r="L32" s="13"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1658,14 +1715,16 @@
       <c r="C33" s="8">
         <v>220041700034</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19">
+        <v>5</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
       <c r="L33" s="13"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1678,14 +1737,16 @@
       <c r="C34" s="8">
         <v>220041700035</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19">
+        <v>4</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
       <c r="L34" s="13"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1698,16 +1759,16 @@
       <c r="C35" s="8">
         <v>220041700036</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13">
-        <v>5</v>
-      </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19">
+        <v>5</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
       <c r="L35" s="13"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1720,14 +1781,16 @@
       <c r="C36" s="8">
         <v>220041700037</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="18">
+        <v>0</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
       <c r="L36" s="13"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -1740,14 +1803,16 @@
       <c r="C37" s="8">
         <v>220041700038</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="18">
+        <v>0</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
       <c r="L37" s="13"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1760,14 +1825,16 @@
       <c r="C38" s="8">
         <v>220041700039</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="18">
+        <v>0</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
       <c r="L38" s="13"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1780,14 +1847,16 @@
       <c r="C39" s="8">
         <v>220041700040</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="18">
+        <v>0</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
       <c r="L39" s="13"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -1800,14 +1869,16 @@
       <c r="C40" s="8">
         <v>220041700042</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="18">
+        <v>0</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
       <c r="L40" s="13"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -1820,14 +1891,16 @@
       <c r="C41" s="8">
         <v>220041700043</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="18">
+        <v>0</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -1840,16 +1913,16 @@
       <c r="C42" s="8">
         <v>220041700044</v>
       </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13">
-        <v>5</v>
-      </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19">
+        <v>5</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -1862,14 +1935,16 @@
       <c r="C43" s="8">
         <v>220041700045</v>
       </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
       <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1882,14 +1957,16 @@
       <c r="C44" s="8">
         <v>220041700046</v>
       </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -1902,14 +1979,16 @@
       <c r="C45" s="8">
         <v>220041700047</v>
       </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="18">
+        <v>0</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -1922,14 +2001,16 @@
       <c r="C46" s="8">
         <v>220041700048</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="18">
+        <v>0</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -1942,14 +2023,16 @@
       <c r="C47" s="8">
         <v>220041700049</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="18">
+        <v>0</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
       <c r="L47" s="13"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -1962,16 +2045,16 @@
       <c r="C48" s="8">
         <v>220041700051</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13">
-        <v>5</v>
-      </c>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19">
+        <v>5</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
       <c r="L48" s="13"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -1984,16 +2067,16 @@
       <c r="C49" s="8">
         <v>220041700052</v>
       </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13">
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19">
         <v>3</v>
       </c>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
       <c r="L49" s="13"/>
     </row>
     <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2006,14 +2089,16 @@
       <c r="C50" s="8">
         <v>220041700053</v>
       </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="18">
+        <v>0</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
       <c r="L50" s="13"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2026,14 +2111,16 @@
       <c r="C51" s="8">
         <v>220041700054</v>
       </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
       <c r="L51" s="13"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2046,14 +2133,16 @@
       <c r="C52" s="8">
         <v>220041700055</v>
       </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
       <c r="L52" s="13"/>
     </row>
     <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2066,16 +2155,16 @@
       <c r="C53" s="8">
         <v>220041700056</v>
       </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13">
-        <v>5</v>
-      </c>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19">
+        <v>5</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
       <c r="L53" s="13"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2088,16 +2177,16 @@
       <c r="C54" s="8">
         <v>220041700057</v>
       </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13">
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19">
         <v>3</v>
       </c>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
       <c r="L54" s="13"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2110,14 +2199,16 @@
       <c r="C55" s="8">
         <v>220041700058</v>
       </c>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="18">
+        <v>0</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
       <c r="L55" s="13"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2130,14 +2221,16 @@
       <c r="C56" s="8">
         <v>220041700059</v>
       </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="18">
+        <v>0</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
       <c r="L56" s="13"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -2150,14 +2243,16 @@
       <c r="C57" s="8">
         <v>220041700060</v>
       </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
       <c r="L57" s="13"/>
     </row>
     <row r="58" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2170,14 +2265,16 @@
       <c r="C58" s="8">
         <v>220041700061</v>
       </c>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="18">
+        <v>0</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
       <c r="L58" s="13"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2190,14 +2287,16 @@
       <c r="C59" s="8">
         <v>220041700063</v>
       </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19">
+        <v>4</v>
+      </c>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
       <c r="L59" s="13"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2210,14 +2309,16 @@
       <c r="C60" s="8">
         <v>220041700064</v>
       </c>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="18">
+        <v>0</v>
+      </c>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
       <c r="L60" s="13"/>
     </row>
     <row r="61" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2230,16 +2331,16 @@
       <c r="C61" s="8">
         <v>220041700065</v>
       </c>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13">
-        <v>5</v>
-      </c>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19">
+        <v>5</v>
+      </c>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
       <c r="L61" s="13"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2252,16 +2353,16 @@
       <c r="C62" s="8">
         <v>220041700066</v>
       </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13">
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19">
         <v>4.5</v>
       </c>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
       <c r="L62" s="13"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -2274,16 +2375,16 @@
       <c r="C63" s="8">
         <v>220041700067</v>
       </c>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13">
-        <v>5</v>
-      </c>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19">
+        <v>5</v>
+      </c>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
       <c r="L63" s="13"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -2296,14 +2397,16 @@
       <c r="C64" s="14">
         <v>220041723001</v>
       </c>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
       <c r="L64" s="13"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -2316,14 +2419,16 @@
       <c r="C65" s="14">
         <v>220041723002</v>
       </c>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19">
+        <v>4</v>
+      </c>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
       <c r="L65" s="13"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -2336,16 +2441,16 @@
       <c r="C66" s="14">
         <v>220041723003</v>
       </c>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13">
-        <v>5</v>
-      </c>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19">
+        <v>5</v>
+      </c>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
       <c r="L66" s="13"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -2358,16 +2463,16 @@
       <c r="C67" s="14">
         <v>220041723004</v>
       </c>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13">
-        <v>5</v>
-      </c>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19">
+        <v>5</v>
+      </c>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
       <c r="L67" s="13"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -2380,16 +2485,16 @@
       <c r="C68" s="14">
         <v>220041723005</v>
       </c>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13">
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19">
         <v>4.5</v>
       </c>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
       <c r="L68" s="13"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -2402,14 +2507,16 @@
       <c r="C69" s="14">
         <v>220041723006</v>
       </c>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="18">
+        <v>0</v>
+      </c>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
       <c r="L69" s="13"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -2422,14 +2529,16 @@
       <c r="C70" s="14">
         <v>220041723007</v>
       </c>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19">
+        <v>5</v>
+      </c>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
       <c r="L70" s="13"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -2442,16 +2551,16 @@
       <c r="C71" s="14">
         <v>220041723008</v>
       </c>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13">
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19">
         <v>4.5</v>
       </c>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="13"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
       <c r="L71" s="13"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -2464,14 +2573,16 @@
       <c r="C72" s="14">
         <v>220041723009</v>
       </c>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19">
+        <v>5</v>
+      </c>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
       <c r="L72" s="13"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -2484,14 +2595,16 @@
       <c r="C73" s="14">
         <v>220041723011</v>
       </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19">
+        <v>5</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
       <c r="L73" s="13"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -2504,14 +2617,16 @@
       <c r="C74" s="14">
         <v>220041723012</v>
       </c>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="18">
+        <v>0</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
       <c r="L74" s="13"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -2524,14 +2639,16 @@
       <c r="C75" s="14">
         <v>220041723013</v>
       </c>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
       <c r="L75" s="13"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -2544,14 +2661,16 @@
       <c r="C76" s="14">
         <v>220041723014</v>
       </c>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19">
+        <v>5</v>
+      </c>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
       <c r="L76" s="13"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -2564,14 +2683,16 @@
       <c r="C77" s="14">
         <v>220041723015</v>
       </c>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19">
+        <v>5</v>
+      </c>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
       <c r="L77" s="13"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -2584,16 +2705,16 @@
       <c r="C78" s="14">
         <v>220041723016</v>
       </c>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13">
-        <v>5</v>
-      </c>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19">
+        <v>5</v>
+      </c>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
       <c r="L78" s="13"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -2604,14 +2725,16 @@
       <c r="C79" s="14">
         <v>210041700070</v>
       </c>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19">
+        <v>5</v>
+      </c>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
       <c r="L79" s="13"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -2622,14 +2745,16 @@
       <c r="C80" s="14">
         <v>210041700089</v>
       </c>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19">
+        <v>5</v>
+      </c>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
       <c r="L80" s="13"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -2642,14 +2767,16 @@
       <c r="C81" s="8">
         <v>220041700069</v>
       </c>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="18">
+        <v>0</v>
+      </c>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
       <c r="L81" s="13"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -2662,14 +2789,16 @@
       <c r="C82" s="8">
         <v>220041700070</v>
       </c>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="13"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19">
+        <v>5</v>
+      </c>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="19"/>
       <c r="L82" s="13"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -2682,16 +2811,16 @@
       <c r="C83" s="8">
         <v>220041700071</v>
       </c>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13">
-        <v>5</v>
-      </c>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19">
+        <v>5</v>
+      </c>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="19"/>
       <c r="L83" s="13"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -2704,14 +2833,16 @@
       <c r="C84" s="8">
         <v>220041700072</v>
       </c>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
-      <c r="K84" s="13"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19">
+        <v>3</v>
+      </c>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
       <c r="L84" s="13"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -2724,14 +2855,16 @@
       <c r="C85" s="8">
         <v>220041700073</v>
       </c>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="13"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="18">
+        <v>0</v>
+      </c>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
       <c r="L85" s="13"/>
     </row>
     <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2744,14 +2877,16 @@
       <c r="C86" s="8">
         <v>220041700077</v>
       </c>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19">
+        <v>5</v>
+      </c>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
       <c r="L86" s="13"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -2764,14 +2899,16 @@
       <c r="C87" s="8">
         <v>220041700078</v>
       </c>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
-      <c r="J87" s="13"/>
-      <c r="K87" s="13"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19">
+        <v>5</v>
+      </c>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
       <c r="L87" s="13"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -2784,14 +2921,16 @@
       <c r="C88" s="8">
         <v>220041700080</v>
       </c>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
-      <c r="K88" s="13"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19">
+        <v>3</v>
+      </c>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
       <c r="L88" s="13"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -2804,14 +2943,16 @@
       <c r="C89" s="8">
         <v>220041700081</v>
       </c>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
-      <c r="J89" s="13"/>
-      <c r="K89" s="13"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
       <c r="L89" s="13"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -2824,14 +2965,16 @@
       <c r="C90" s="8">
         <v>220041700082</v>
       </c>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
-      <c r="J90" s="13"/>
-      <c r="K90" s="13"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="18">
+        <v>0</v>
+      </c>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
       <c r="L90" s="13"/>
     </row>
     <row r="91" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2844,14 +2987,16 @@
       <c r="C91" s="8">
         <v>220041700084</v>
       </c>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19">
+        <v>5</v>
+      </c>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
       <c r="L91" s="13"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -2864,14 +3009,16 @@
       <c r="C92" s="8">
         <v>220041700085</v>
       </c>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
-      <c r="J92" s="13"/>
-      <c r="K92" s="13"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19">
+        <v>5</v>
+      </c>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="19"/>
+      <c r="K92" s="19"/>
       <c r="L92" s="13"/>
     </row>
     <row r="93" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2884,14 +3031,16 @@
       <c r="C93" s="8">
         <v>220041700086</v>
       </c>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
-      <c r="J93" s="13"/>
-      <c r="K93" s="13"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19">
+        <v>5</v>
+      </c>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="19"/>
+      <c r="K93" s="19"/>
       <c r="L93" s="13"/>
     </row>
     <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2904,14 +3053,16 @@
       <c r="C94" s="8">
         <v>220041700087</v>
       </c>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
-      <c r="J94" s="13"/>
-      <c r="K94" s="13"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19">
+        <v>5</v>
+      </c>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
       <c r="L94" s="13"/>
     </row>
     <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2924,14 +3075,16 @@
       <c r="C95" s="8">
         <v>220041700088</v>
       </c>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="13"/>
-      <c r="J95" s="13"/>
-      <c r="K95" s="13"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="18">
+        <v>0</v>
+      </c>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="19"/>
+      <c r="K95" s="19"/>
       <c r="L95" s="13"/>
     </row>
     <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2944,14 +3097,16 @@
       <c r="C96" s="8">
         <v>220041700092</v>
       </c>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
-      <c r="J96" s="13"/>
-      <c r="K96" s="13"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="19"/>
       <c r="L96" s="13"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -2964,14 +3119,16 @@
       <c r="C97" s="8">
         <v>220041700096</v>
       </c>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
-      <c r="J97" s="13"/>
-      <c r="K97" s="13"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19">
+        <v>5</v>
+      </c>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="19"/>
+      <c r="K97" s="19"/>
       <c r="L97" s="13"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -2984,14 +3141,16 @@
       <c r="C98" s="8">
         <v>220041700097</v>
       </c>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
-      <c r="J98" s="13"/>
-      <c r="K98" s="13"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="18">
+        <v>0</v>
+      </c>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="19"/>
+      <c r="K98" s="19"/>
       <c r="L98" s="13"/>
     </row>
     <row r="99" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3004,16 +3163,16 @@
       <c r="C99" s="8">
         <v>220041700098</v>
       </c>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13">
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19">
         <v>4.5</v>
       </c>
-      <c r="H99" s="13"/>
-      <c r="I99" s="13"/>
-      <c r="J99" s="13"/>
-      <c r="K99" s="13"/>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="19"/>
+      <c r="K99" s="19"/>
       <c r="L99" s="13"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -3026,14 +3185,16 @@
       <c r="C100" s="8">
         <v>220041700099</v>
       </c>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
-      <c r="J100" s="13"/>
-      <c r="K100" s="13"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19">
+        <v>5</v>
+      </c>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="19"/>
+      <c r="K100" s="19"/>
       <c r="L100" s="13"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -3046,14 +3207,16 @@
       <c r="C101" s="8">
         <v>220041700100</v>
       </c>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
-      <c r="J101" s="13"/>
-      <c r="K101" s="13"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19">
+        <v>5</v>
+      </c>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="19"/>
+      <c r="K101" s="19"/>
       <c r="L101" s="13"/>
     </row>
     <row r="102" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3066,14 +3229,16 @@
       <c r="C102" s="8">
         <v>220041700102</v>
       </c>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
-      <c r="J102" s="13"/>
-      <c r="K102" s="13"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19">
+        <v>5</v>
+      </c>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="19"/>
+      <c r="K102" s="19"/>
       <c r="L102" s="13"/>
     </row>
     <row r="103" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3086,14 +3251,16 @@
       <c r="C103" s="8">
         <v>220041700103</v>
       </c>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
-      <c r="J103" s="13"/>
-      <c r="K103" s="13"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19">
+        <v>4</v>
+      </c>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="19"/>
+      <c r="K103" s="19"/>
       <c r="L103" s="13"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -3106,14 +3273,16 @@
       <c r="C104" s="8">
         <v>220041700104</v>
       </c>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
-      <c r="J104" s="13"/>
-      <c r="K104" s="13"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="18">
+        <v>0</v>
+      </c>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="19"/>
+      <c r="K104" s="19"/>
       <c r="L104" s="13"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -3126,14 +3295,16 @@
       <c r="C105" s="8">
         <v>220041700105</v>
       </c>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
-      <c r="J105" s="13"/>
-      <c r="K105" s="13"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="19">
+        <v>4</v>
+      </c>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="19"/>
+      <c r="K105" s="19"/>
       <c r="L105" s="13"/>
     </row>
     <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3146,14 +3317,16 @@
       <c r="C106" s="8">
         <v>220041700106</v>
       </c>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13"/>
-      <c r="J106" s="13"/>
-      <c r="K106" s="13"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19">
+        <v>5</v>
+      </c>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="19"/>
+      <c r="K106" s="19"/>
       <c r="L106" s="13"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -3166,14 +3339,16 @@
       <c r="C107" s="8">
         <v>220041700107</v>
       </c>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19">
+        <v>5</v>
+      </c>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="19"/>
+      <c r="K107" s="19"/>
       <c r="L107" s="13"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -3186,14 +3361,16 @@
       <c r="C108" s="8">
         <v>220041700108</v>
       </c>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
-      <c r="J108" s="13"/>
-      <c r="K108" s="13"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="18">
+        <v>0</v>
+      </c>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="19"/>
+      <c r="K108" s="19"/>
       <c r="L108" s="13"/>
     </row>
     <row r="109" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3206,14 +3383,16 @@
       <c r="C109" s="8">
         <v>220041700109</v>
       </c>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="13"/>
-      <c r="J109" s="13"/>
-      <c r="K109" s="13"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="19">
+        <v>5</v>
+      </c>
+      <c r="H109" s="19"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="19"/>
+      <c r="K109" s="19"/>
       <c r="L109" s="13"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -3226,14 +3405,16 @@
       <c r="C110" s="8">
         <v>220041700110</v>
       </c>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="13"/>
-      <c r="J110" s="13"/>
-      <c r="K110" s="13"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="18">
+        <v>0</v>
+      </c>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="19"/>
+      <c r="K110" s="19"/>
       <c r="L110" s="13"/>
     </row>
     <row r="111" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3246,14 +3427,16 @@
       <c r="C111" s="8">
         <v>220041700112</v>
       </c>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="13"/>
-      <c r="J111" s="13"/>
-      <c r="K111" s="13"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="19"/>
+      <c r="K111" s="19"/>
       <c r="L111" s="13"/>
     </row>
     <row r="112" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3266,14 +3449,16 @@
       <c r="C112" s="8">
         <v>220041700113</v>
       </c>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="13"/>
-      <c r="J112" s="13"/>
-      <c r="K112" s="13"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="18">
+        <v>0</v>
+      </c>
+      <c r="H112" s="19"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="19"/>
+      <c r="K112" s="19"/>
       <c r="L112" s="13"/>
     </row>
     <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3286,14 +3471,16 @@
       <c r="C113" s="8">
         <v>220041700115</v>
       </c>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="13"/>
-      <c r="J113" s="13"/>
-      <c r="K113" s="13"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="18">
+        <v>0</v>
+      </c>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="19"/>
+      <c r="K113" s="19"/>
       <c r="L113" s="13"/>
     </row>
     <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3306,14 +3493,16 @@
       <c r="C114" s="8">
         <v>220041700116</v>
       </c>
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="13"/>
-      <c r="I114" s="13"/>
-      <c r="J114" s="13"/>
-      <c r="K114" s="13"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="18">
+        <v>0</v>
+      </c>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="19"/>
+      <c r="K114" s="19"/>
       <c r="L114" s="13"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -3326,14 +3515,16 @@
       <c r="C115" s="8">
         <v>220041700117</v>
       </c>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13"/>
-      <c r="I115" s="13"/>
-      <c r="J115" s="13"/>
-      <c r="K115" s="13"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="19"/>
+      <c r="K115" s="19"/>
       <c r="L115" s="13"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -3346,14 +3537,16 @@
       <c r="C116" s="8">
         <v>220041700118</v>
       </c>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
-      <c r="J116" s="13"/>
-      <c r="K116" s="13"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="19">
+        <v>3</v>
+      </c>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="19"/>
+      <c r="K116" s="19"/>
       <c r="L116" s="13"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -3366,14 +3559,16 @@
       <c r="C117" s="8">
         <v>220041700119</v>
       </c>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13"/>
-      <c r="H117" s="13"/>
-      <c r="I117" s="13"/>
-      <c r="J117" s="13"/>
-      <c r="K117" s="13"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="19"/>
+      <c r="G117" s="18">
+        <v>0</v>
+      </c>
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="19"/>
+      <c r="K117" s="19"/>
       <c r="L117" s="13"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -3386,14 +3581,16 @@
       <c r="C118" s="8">
         <v>220041700121</v>
       </c>
-      <c r="D118" s="13"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="13"/>
-      <c r="I118" s="13"/>
-      <c r="J118" s="13"/>
-      <c r="K118" s="13"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="19">
+        <v>5</v>
+      </c>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="19"/>
+      <c r="K118" s="19"/>
       <c r="L118" s="13"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -3406,14 +3603,16 @@
       <c r="C119" s="8">
         <v>220041700122</v>
       </c>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="13"/>
-      <c r="I119" s="13"/>
-      <c r="J119" s="13"/>
-      <c r="K119" s="13"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="19">
+        <v>5</v>
+      </c>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="19"/>
+      <c r="K119" s="19"/>
       <c r="L119" s="13"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -3426,14 +3625,16 @@
       <c r="C120" s="8">
         <v>220041700123</v>
       </c>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="13"/>
-      <c r="J120" s="13"/>
-      <c r="K120" s="13"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="18">
+        <v>0</v>
+      </c>
+      <c r="H120" s="19"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="19"/>
+      <c r="K120" s="19"/>
       <c r="L120" s="13"/>
     </row>
     <row r="121" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3446,14 +3647,16 @@
       <c r="C121" s="8">
         <v>220041700124</v>
       </c>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="13"/>
-      <c r="J121" s="13"/>
-      <c r="K121" s="13"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="18">
+        <v>0</v>
+      </c>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="19"/>
+      <c r="K121" s="19"/>
       <c r="L121" s="13"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -3466,14 +3669,16 @@
       <c r="C122" s="8">
         <v>220041700125</v>
       </c>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="13"/>
-      <c r="I122" s="13"/>
-      <c r="J122" s="13"/>
-      <c r="K122" s="13"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="19"/>
+      <c r="K122" s="19"/>
       <c r="L122" s="13"/>
     </row>
     <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3486,14 +3691,16 @@
       <c r="C123" s="8">
         <v>220041700130</v>
       </c>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="13"/>
-      <c r="I123" s="13"/>
-      <c r="J123" s="13"/>
-      <c r="K123" s="13"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="18">
+        <v>0</v>
+      </c>
+      <c r="H123" s="19"/>
+      <c r="I123" s="19"/>
+      <c r="J123" s="19"/>
+      <c r="K123" s="19"/>
       <c r="L123" s="13"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -3506,14 +3713,16 @@
       <c r="C124" s="8">
         <v>220041700131</v>
       </c>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="13"/>
-      <c r="I124" s="13"/>
-      <c r="J124" s="13"/>
-      <c r="K124" s="13"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="18">
+        <v>0</v>
+      </c>
+      <c r="H124" s="19"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="19"/>
+      <c r="K124" s="19"/>
       <c r="L124" s="13"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
@@ -3526,14 +3735,16 @@
       <c r="C125" s="8">
         <v>220041700132</v>
       </c>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13"/>
-      <c r="H125" s="13"/>
-      <c r="I125" s="13"/>
-      <c r="J125" s="13"/>
-      <c r="K125" s="13"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="19">
+        <v>5</v>
+      </c>
+      <c r="H125" s="19"/>
+      <c r="I125" s="19"/>
+      <c r="J125" s="19"/>
+      <c r="K125" s="19"/>
       <c r="L125" s="13"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -3546,14 +3757,16 @@
       <c r="C126" s="8">
         <v>220041700133</v>
       </c>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="13"/>
-      <c r="I126" s="13"/>
-      <c r="J126" s="13"/>
-      <c r="K126" s="13"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="H126" s="19"/>
+      <c r="I126" s="19"/>
+      <c r="J126" s="19"/>
+      <c r="K126" s="19"/>
       <c r="L126" s="13"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -3566,14 +3779,16 @@
       <c r="C127" s="8">
         <v>220041700134</v>
       </c>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="13"/>
-      <c r="H127" s="13"/>
-      <c r="I127" s="13"/>
-      <c r="J127" s="13"/>
-      <c r="K127" s="13"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="18">
+        <v>0</v>
+      </c>
+      <c r="H127" s="19"/>
+      <c r="I127" s="19"/>
+      <c r="J127" s="19"/>
+      <c r="K127" s="19"/>
       <c r="L127" s="13"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -3586,14 +3801,16 @@
       <c r="C128" s="9">
         <v>220041723018</v>
       </c>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="13"/>
-      <c r="J128" s="13"/>
-      <c r="K128" s="13"/>
+      <c r="D128" s="19"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="19"/>
+      <c r="G128" s="18">
+        <v>0</v>
+      </c>
+      <c r="H128" s="19"/>
+      <c r="I128" s="19"/>
+      <c r="J128" s="19"/>
+      <c r="K128" s="19"/>
       <c r="L128" s="13"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -3606,14 +3823,16 @@
       <c r="C129" s="9">
         <v>220041723019</v>
       </c>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="13"/>
-      <c r="J129" s="13"/>
-      <c r="K129" s="13"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="18">
+        <v>0</v>
+      </c>
+      <c r="H129" s="19"/>
+      <c r="I129" s="19"/>
+      <c r="J129" s="19"/>
+      <c r="K129" s="19"/>
       <c r="L129" s="13"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
@@ -3626,14 +3845,16 @@
       <c r="C130" s="9">
         <v>220041723020</v>
       </c>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="13"/>
-      <c r="H130" s="13"/>
-      <c r="I130" s="13"/>
-      <c r="J130" s="13"/>
-      <c r="K130" s="13"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19">
+        <v>5</v>
+      </c>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
       <c r="L130" s="13"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -3646,14 +3867,16 @@
       <c r="C131" s="9">
         <v>220041723021</v>
       </c>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13"/>
-      <c r="G131" s="13"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="13"/>
-      <c r="J131" s="13"/>
-      <c r="K131" s="13"/>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="18">
+        <v>0</v>
+      </c>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="19"/>
       <c r="L131" s="13"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
@@ -3666,14 +3889,16 @@
       <c r="C132" s="9">
         <v>220041723022</v>
       </c>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="13"/>
-      <c r="H132" s="13"/>
-      <c r="I132" s="13"/>
-      <c r="J132" s="13"/>
-      <c r="K132" s="13"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19">
+        <v>4</v>
+      </c>
+      <c r="H132" s="19"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="19"/>
+      <c r="K132" s="19"/>
       <c r="L132" s="13"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -3686,14 +3911,16 @@
       <c r="C133" s="9">
         <v>220041723023</v>
       </c>
-      <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="13"/>
-      <c r="H133" s="13"/>
-      <c r="I133" s="13"/>
-      <c r="J133" s="13"/>
-      <c r="K133" s="13"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="19">
+        <v>5</v>
+      </c>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="19"/>
+      <c r="K133" s="19"/>
       <c r="L133" s="13"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
@@ -3706,14 +3933,16 @@
       <c r="C134" s="9">
         <v>220041723025</v>
       </c>
-      <c r="D134" s="13"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="13"/>
-      <c r="G134" s="13"/>
-      <c r="H134" s="13"/>
-      <c r="I134" s="13"/>
-      <c r="J134" s="13"/>
-      <c r="K134" s="13"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="18">
+        <v>0</v>
+      </c>
+      <c r="H134" s="19"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="19"/>
+      <c r="K134" s="19"/>
       <c r="L134" s="13"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
@@ -3726,14 +3955,16 @@
       <c r="C135" s="9">
         <v>220041723027</v>
       </c>
-      <c r="D135" s="13"/>
-      <c r="E135" s="13"/>
-      <c r="F135" s="13"/>
-      <c r="G135" s="13"/>
-      <c r="H135" s="13"/>
-      <c r="I135" s="13"/>
-      <c r="J135" s="13"/>
-      <c r="K135" s="13"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="19"/>
+      <c r="G135" s="19">
+        <v>5</v>
+      </c>
+      <c r="H135" s="19"/>
+      <c r="I135" s="19"/>
+      <c r="J135" s="19"/>
+      <c r="K135" s="19"/>
       <c r="L135" s="13"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -3744,14 +3975,16 @@
       <c r="C136" s="9">
         <v>220041723028</v>
       </c>
-      <c r="D136" s="13"/>
-      <c r="E136" s="13"/>
-      <c r="F136" s="13"/>
-      <c r="G136" s="13"/>
-      <c r="H136" s="13"/>
-      <c r="I136" s="13"/>
-      <c r="J136" s="13"/>
-      <c r="K136" s="13"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="18">
+        <v>0</v>
+      </c>
+      <c r="H136" s="19"/>
+      <c r="I136" s="19"/>
+      <c r="J136" s="19"/>
+      <c r="K136" s="19"/>
       <c r="L136" s="13"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -3764,16 +3997,16 @@
       <c r="C137" s="9">
         <v>220041723032</v>
       </c>
-      <c r="D137" s="13"/>
-      <c r="E137" s="13"/>
-      <c r="F137" s="13"/>
-      <c r="G137" s="13">
+      <c r="D137" s="19"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="19">
         <v>4.5</v>
       </c>
-      <c r="H137" s="13"/>
-      <c r="I137" s="13"/>
-      <c r="J137" s="13"/>
-      <c r="K137" s="13"/>
+      <c r="H137" s="19"/>
+      <c r="I137" s="19"/>
+      <c r="J137" s="19"/>
+      <c r="K137" s="19"/>
       <c r="L137" s="13"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -3786,14 +4019,16 @@
       <c r="C138" s="9">
         <v>220041723033</v>
       </c>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
+      <c r="D138" s="19"/>
+      <c r="E138" s="19"/>
       <c r="F138" s="1"/>
-      <c r="G138" s="13"/>
-      <c r="H138" s="13"/>
-      <c r="I138" s="13"/>
-      <c r="J138" s="13"/>
-      <c r="K138" s="13"/>
+      <c r="G138" s="19">
+        <v>4</v>
+      </c>
+      <c r="H138" s="19"/>
+      <c r="I138" s="19"/>
+      <c r="J138" s="19"/>
+      <c r="K138" s="19"/>
       <c r="L138" s="13"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
@@ -3806,14 +4041,16 @@
       <c r="C139" s="9">
         <v>220041723034</v>
       </c>
-      <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="13"/>
-      <c r="G139" s="13"/>
-      <c r="H139" s="13"/>
-      <c r="I139" s="13"/>
-      <c r="J139" s="13"/>
-      <c r="K139" s="13"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="19">
+        <v>3</v>
+      </c>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="19"/>
+      <c r="K139" s="19"/>
       <c r="L139" s="13"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">

--- a/static/Upload/4th sem.xlsx
+++ b/static/Upload/4th sem.xlsx
@@ -592,12 +592,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -605,6 +599,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -972,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D138"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,26 +992,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -1049,7 +1049,7 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="8">
@@ -1073,7 +1073,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="8">
@@ -1097,7 +1097,7 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="8">
@@ -1121,7 +1121,7 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="8">
@@ -1145,7 +1145,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="8">
@@ -1169,7 +1169,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="8">
@@ -1193,7 +1193,7 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="8">
@@ -1217,7 +1217,7 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="8">
@@ -1241,7 +1241,7 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="8">
@@ -1265,7 +1265,7 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="8">
@@ -1289,7 +1289,7 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="8">
@@ -1313,7 +1313,7 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="8">
@@ -1337,7 +1337,7 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="8">
@@ -1361,7 +1361,7 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="8">
@@ -1385,7 +1385,7 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="8">
@@ -1409,7 +1409,7 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="8">
@@ -1433,7 +1433,7 @@
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="8">
@@ -1457,7 +1457,7 @@
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="8">
@@ -1481,7 +1481,7 @@
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="8">
@@ -1505,7 +1505,7 @@
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="8">
@@ -1529,7 +1529,7 @@
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="8">
@@ -1553,7 +1553,7 @@
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="8">
@@ -1577,7 +1577,7 @@
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="8">
@@ -1601,7 +1601,7 @@
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="8">
@@ -1625,7 +1625,7 @@
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="8">
@@ -1649,7 +1649,7 @@
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="8">
@@ -1673,7 +1673,7 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="8">
@@ -1697,7 +1697,7 @@
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="8">
@@ -1721,7 +1721,7 @@
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="8">
@@ -1745,7 +1745,7 @@
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="8">
@@ -1769,7 +1769,7 @@
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="8">
@@ -1793,7 +1793,7 @@
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="8">
@@ -1817,7 +1817,7 @@
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="8">
@@ -1841,7 +1841,7 @@
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="8">
@@ -1865,7 +1865,7 @@
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="8">
@@ -1889,7 +1889,7 @@
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="8">
@@ -1913,7 +1913,7 @@
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="8">
@@ -1937,7 +1937,7 @@
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C40" s="8">
@@ -1961,7 +1961,7 @@
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="8">
@@ -1985,7 +1985,7 @@
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C42" s="8">
@@ -2009,7 +2009,7 @@
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C43" s="8">
@@ -2033,7 +2033,7 @@
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="8">
@@ -2057,7 +2057,7 @@
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="8">
@@ -2081,7 +2081,7 @@
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="8">
@@ -2105,7 +2105,7 @@
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C47" s="8">
@@ -2129,7 +2129,7 @@
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C48" s="8">
@@ -2153,7 +2153,7 @@
       <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="8">
@@ -2177,7 +2177,7 @@
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="8">
@@ -2201,7 +2201,7 @@
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="8">
@@ -2225,7 +2225,7 @@
       <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C52" s="8">
@@ -2249,7 +2249,7 @@
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C53" s="8">
@@ -2273,7 +2273,7 @@
       <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C54" s="8">
@@ -2297,7 +2297,7 @@
       <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C55" s="8">
@@ -2321,7 +2321,7 @@
       <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C56" s="8">
@@ -2345,7 +2345,7 @@
       <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C57" s="8">
@@ -2369,7 +2369,7 @@
       <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="8">
@@ -2393,7 +2393,7 @@
       <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="8">
@@ -2417,7 +2417,7 @@
       <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C60" s="8">
@@ -2441,7 +2441,7 @@
       <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="16" t="s">
         <v>61</v>
       </c>
       <c r="C61" s="8">
@@ -2465,7 +2465,7 @@
       <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="8">
@@ -2893,7 +2893,7 @@
       <c r="A80" s="2">
         <v>77</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C80" s="8">
@@ -2917,7 +2917,7 @@
       <c r="A81" s="2">
         <v>78</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="16" t="s">
         <v>64</v>
       </c>
       <c r="C81" s="8">
@@ -2941,7 +2941,7 @@
       <c r="A82" s="2">
         <v>79</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="16" t="s">
         <v>65</v>
       </c>
       <c r="C82" s="8">
@@ -2965,7 +2965,7 @@
       <c r="A83" s="2">
         <v>80</v>
       </c>
-      <c r="B83" s="18" t="s">
+      <c r="B83" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C83" s="8">
@@ -2989,7 +2989,7 @@
       <c r="A84" s="2">
         <v>81</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C84" s="8">
@@ -3013,7 +3013,7 @@
       <c r="A85" s="2">
         <v>82</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="B85" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C85" s="8">
@@ -3037,7 +3037,7 @@
       <c r="A86" s="2">
         <v>83</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="B86" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C86" s="8">
@@ -3061,7 +3061,7 @@
       <c r="A87" s="2">
         <v>84</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="16" t="s">
         <v>70</v>
       </c>
       <c r="C87" s="8">
@@ -3085,7 +3085,7 @@
       <c r="A88" s="2">
         <v>85</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C88" s="8">
@@ -3109,7 +3109,7 @@
       <c r="A89" s="2">
         <v>86</v>
       </c>
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="16" t="s">
         <v>72</v>
       </c>
       <c r="C89" s="8">
@@ -3133,7 +3133,7 @@
       <c r="A90" s="2">
         <v>87</v>
       </c>
-      <c r="B90" s="18" t="s">
+      <c r="B90" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C90" s="8">
@@ -3157,7 +3157,7 @@
       <c r="A91" s="2">
         <v>88</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="16" t="s">
         <v>74</v>
       </c>
       <c r="C91" s="8">
@@ -3181,7 +3181,7 @@
       <c r="A92" s="2">
         <v>89</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C92" s="8">
@@ -3205,7 +3205,7 @@
       <c r="A93" s="2">
         <v>90</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="16" t="s">
         <v>76</v>
       </c>
       <c r="C93" s="8">
@@ -3229,7 +3229,7 @@
       <c r="A94" s="2">
         <v>91</v>
       </c>
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="16" t="s">
         <v>76</v>
       </c>
       <c r="C94" s="8">
@@ -3253,7 +3253,7 @@
       <c r="A95" s="2">
         <v>92</v>
       </c>
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C95" s="8">
@@ -3277,7 +3277,7 @@
       <c r="A96" s="2">
         <v>93</v>
       </c>
-      <c r="B96" s="18" t="s">
+      <c r="B96" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C96" s="8">
@@ -3301,7 +3301,7 @@
       <c r="A97" s="2">
         <v>94</v>
       </c>
-      <c r="B97" s="18" t="s">
+      <c r="B97" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C97" s="8">
@@ -3325,7 +3325,7 @@
       <c r="A98" s="2">
         <v>95</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="16" t="s">
         <v>79</v>
       </c>
       <c r="C98" s="8">
@@ -3349,7 +3349,7 @@
       <c r="A99" s="2">
         <v>96</v>
       </c>
-      <c r="B99" s="18" t="s">
+      <c r="B99" s="16" t="s">
         <v>80</v>
       </c>
       <c r="C99" s="8">
@@ -3373,7 +3373,7 @@
       <c r="A100" s="2">
         <v>97</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="16" t="s">
         <v>81</v>
       </c>
       <c r="C100" s="8">
@@ -3397,7 +3397,7 @@
       <c r="A101" s="2">
         <v>98</v>
       </c>
-      <c r="B101" s="18" t="s">
+      <c r="B101" s="16" t="s">
         <v>82</v>
       </c>
       <c r="C101" s="8">
@@ -3421,7 +3421,7 @@
       <c r="A102" s="2">
         <v>99</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="16" t="s">
         <v>83</v>
       </c>
       <c r="C102" s="8">
@@ -3445,7 +3445,7 @@
       <c r="A103" s="2">
         <v>100</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="16" t="s">
         <v>84</v>
       </c>
       <c r="C103" s="8">
@@ -3469,7 +3469,7 @@
       <c r="A104" s="2">
         <v>101</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="16" t="s">
         <v>85</v>
       </c>
       <c r="C104" s="8">
@@ -3493,7 +3493,7 @@
       <c r="A105" s="2">
         <v>102</v>
       </c>
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="16" t="s">
         <v>86</v>
       </c>
       <c r="C105" s="8">
@@ -3517,7 +3517,7 @@
       <c r="A106" s="2">
         <v>103</v>
       </c>
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="16" t="s">
         <v>87</v>
       </c>
       <c r="C106" s="8">
@@ -3541,7 +3541,7 @@
       <c r="A107" s="2">
         <v>104</v>
       </c>
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="16" t="s">
         <v>88</v>
       </c>
       <c r="C107" s="8">
@@ -3565,7 +3565,7 @@
       <c r="A108" s="2">
         <v>105</v>
       </c>
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="16" t="s">
         <v>89</v>
       </c>
       <c r="C108" s="8">
@@ -3589,7 +3589,7 @@
       <c r="A109" s="2">
         <v>106</v>
       </c>
-      <c r="B109" s="18" t="s">
+      <c r="B109" s="16" t="s">
         <v>90</v>
       </c>
       <c r="C109" s="8">
@@ -3613,7 +3613,7 @@
       <c r="A110" s="2">
         <v>107</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="16" t="s">
         <v>91</v>
       </c>
       <c r="C110" s="8">
@@ -3637,7 +3637,7 @@
       <c r="A111" s="2">
         <v>108</v>
       </c>
-      <c r="B111" s="18" t="s">
+      <c r="B111" s="16" t="s">
         <v>92</v>
       </c>
       <c r="C111" s="8">
@@ -3661,7 +3661,7 @@
       <c r="A112" s="2">
         <v>109</v>
       </c>
-      <c r="B112" s="18" t="s">
+      <c r="B112" s="16" t="s">
         <v>93</v>
       </c>
       <c r="C112" s="8">
@@ -3685,7 +3685,7 @@
       <c r="A113" s="2">
         <v>110</v>
       </c>
-      <c r="B113" s="18" t="s">
+      <c r="B113" s="16" t="s">
         <v>94</v>
       </c>
       <c r="C113" s="8">
@@ -3709,7 +3709,7 @@
       <c r="A114" s="2">
         <v>111</v>
       </c>
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="16" t="s">
         <v>95</v>
       </c>
       <c r="C114" s="8">
@@ -3733,7 +3733,7 @@
       <c r="A115" s="2">
         <v>112</v>
       </c>
-      <c r="B115" s="18" t="s">
+      <c r="B115" s="16" t="s">
         <v>96</v>
       </c>
       <c r="C115" s="8">
@@ -3757,7 +3757,7 @@
       <c r="A116" s="2">
         <v>113</v>
       </c>
-      <c r="B116" s="18" t="s">
+      <c r="B116" s="16" t="s">
         <v>97</v>
       </c>
       <c r="C116" s="8">
@@ -3781,7 +3781,7 @@
       <c r="A117" s="2">
         <v>114</v>
       </c>
-      <c r="B117" s="18" t="s">
+      <c r="B117" s="16" t="s">
         <v>98</v>
       </c>
       <c r="C117" s="8">
@@ -3805,7 +3805,7 @@
       <c r="A118" s="2">
         <v>115</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="16" t="s">
         <v>99</v>
       </c>
       <c r="C118" s="8">
@@ -3829,7 +3829,7 @@
       <c r="A119" s="2">
         <v>116</v>
       </c>
-      <c r="B119" s="18" t="s">
+      <c r="B119" s="16" t="s">
         <v>99</v>
       </c>
       <c r="C119" s="8">
@@ -3853,7 +3853,7 @@
       <c r="A120" s="2">
         <v>117</v>
       </c>
-      <c r="B120" s="18" t="s">
+      <c r="B120" s="16" t="s">
         <v>100</v>
       </c>
       <c r="C120" s="8">
@@ -3877,7 +3877,7 @@
       <c r="A121" s="2">
         <v>118</v>
       </c>
-      <c r="B121" s="18" t="s">
+      <c r="B121" s="16" t="s">
         <v>101</v>
       </c>
       <c r="C121" s="8">
@@ -3901,7 +3901,7 @@
       <c r="A122" s="2">
         <v>119</v>
       </c>
-      <c r="B122" s="18" t="s">
+      <c r="B122" s="16" t="s">
         <v>102</v>
       </c>
       <c r="C122" s="8">
@@ -3925,7 +3925,7 @@
       <c r="A123" s="2">
         <v>120</v>
       </c>
-      <c r="B123" s="18" t="s">
+      <c r="B123" s="16" t="s">
         <v>103</v>
       </c>
       <c r="C123" s="8">
@@ -3949,7 +3949,7 @@
       <c r="A124" s="2">
         <v>121</v>
       </c>
-      <c r="B124" s="18" t="s">
+      <c r="B124" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C124" s="8">
@@ -3973,7 +3973,7 @@
       <c r="A125" s="2">
         <v>122</v>
       </c>
-      <c r="B125" s="18" t="s">
+      <c r="B125" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C125" s="8">
@@ -3997,7 +3997,7 @@
       <c r="A126" s="2">
         <v>123</v>
       </c>
-      <c r="B126" s="18" t="s">
+      <c r="B126" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C126" s="8">

--- a/static/Upload/4th sem.xlsx
+++ b/static/Upload/4th sem.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="138">
   <si>
     <t>S.N</t>
   </si>
@@ -972,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3907,8 +3907,8 @@
       <c r="C122" s="8">
         <v>220041700130</v>
       </c>
-      <c r="D122" s="14" t="s">
-        <v>137</v>
+      <c r="D122" s="14">
+        <v>4</v>
       </c>
       <c r="E122" s="14"/>
       <c r="F122" s="14"/>

--- a/static/Upload/4th sem.xlsx
+++ b/static/Upload/4th sem.xlsx
@@ -15,7 +15,7 @@
     <sheet name="WT-III" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WT-III'!$A$2:$L$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WT-III'!$A$2:$L$133</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="134">
   <si>
     <t>S.N</t>
   </si>
@@ -65,9 +65,6 @@
     <t>ABHISHEK KUMAR</t>
   </si>
   <si>
-    <t>AKSHAY KUMAR</t>
-  </si>
-  <si>
     <t>AMAN</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>ASHISH KUMAR</t>
   </si>
   <si>
-    <t>ASHU</t>
-  </si>
-  <si>
     <t>BALWANT KUMAR</t>
   </si>
   <si>
@@ -122,9 +116,6 @@
     <t>DEEPAK KUMAR</t>
   </si>
   <si>
-    <t>DEEPANSHU</t>
-  </si>
-  <si>
     <t>DINESH</t>
   </si>
   <si>
@@ -164,9 +155,6 @@
     <t>KAPIL BHARDWAJ</t>
   </si>
   <si>
-    <t>KAPIL DEV</t>
-  </si>
-  <si>
     <t>KARTIK</t>
   </si>
   <si>
@@ -179,9 +167,6 @@
     <t>MAHESH</t>
   </si>
   <si>
-    <t>MAIK YADAV</t>
-  </si>
-  <si>
     <t>MAMTA</t>
   </si>
   <si>
@@ -441,6 +426,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Anurag</t>
   </si>
 </sst>
 </file>
@@ -550,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -606,6 +594,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -970,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L142"/>
+  <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,7 +984,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -1027,13 +1018,13 @@
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>6</v>
@@ -1045,47 +1036,40 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="8">
-        <v>220041700001</v>
-      </c>
-      <c r="D3" s="14">
-        <v>13</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14">
-        <v>4</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="11"/>
+        <v>133</v>
+      </c>
+      <c r="C3" s="20">
+        <v>210041700021</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="8">
-        <v>220041700003</v>
+        <v>220041700001</v>
       </c>
       <c r="D4" s="14">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
@@ -1095,16 +1079,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="8">
-        <v>220041700004</v>
+        <v>220041700003</v>
       </c>
       <c r="D5" s="14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -1119,21 +1103,21 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="8">
-        <v>220041700005</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>137</v>
+        <v>220041700004</v>
+      </c>
+      <c r="D6" s="14">
+        <v>7</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="13">
-        <v>0</v>
+      <c r="G6" s="14">
+        <v>4.5</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -1143,10 +1127,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="8">
         <v>220041700006</v>
@@ -1167,10 +1151,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="8">
         <v>220041700007</v>
@@ -1191,10 +1175,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="8">
         <v>220041700008</v>
@@ -1215,10 +1199,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="8">
         <v>220041700009</v>
@@ -1239,10 +1223,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="8">
         <v>220041700010</v>
@@ -1263,10 +1247,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="8">
         <v>220041700011</v>
@@ -1287,16 +1271,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="8">
         <v>220041700012</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -1311,10 +1295,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="8">
         <v>220041700013</v>
@@ -1335,10 +1319,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="8">
         <v>220041700014</v>
@@ -1359,10 +1343,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="8">
         <v>220041700016</v>
@@ -1383,10 +1367,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="8">
         <v>220041700017</v>
@@ -1407,10 +1391,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="8">
         <v>220041700020</v>
@@ -1431,21 +1415,21 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="8">
-        <v>220041700021</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>137</v>
+        <v>220041700022</v>
+      </c>
+      <c r="D19" s="14">
+        <v>21</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="13">
-        <v>0</v>
+      <c r="G19" s="14">
+        <v>4.5</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -1455,16 +1439,16 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="8">
-        <v>220041700022</v>
+        <v>220041700023</v>
       </c>
       <c r="D20" s="14">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -1479,16 +1463,16 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="8">
-        <v>220041700023</v>
+        <v>220041700024</v>
       </c>
       <c r="D21" s="14">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -1503,16 +1487,16 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="8">
-        <v>220041700024</v>
+        <v>220041700025</v>
       </c>
       <c r="D22" s="14">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -1527,21 +1511,21 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="8">
-        <v>220041700025</v>
+        <v>220041700026</v>
       </c>
       <c r="D23" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="14">
-        <v>4.5</v>
+      <c r="G23" s="13">
+        <v>0</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -1551,21 +1535,21 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="8">
-        <v>220041700026</v>
+        <v>220041700027</v>
       </c>
       <c r="D24" s="14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="13">
-        <v>0</v>
+      <c r="G24" s="14">
+        <v>4.5</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -1575,21 +1559,21 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="8">
-        <v>220041700027</v>
+        <v>220041700028</v>
       </c>
       <c r="D25" s="14">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -1599,16 +1583,16 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" s="8">
-        <v>220041700028</v>
+        <v>220041700029</v>
       </c>
       <c r="D26" s="14">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
@@ -1623,21 +1607,21 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="8">
-        <v>220041700029</v>
+        <v>220041700031</v>
       </c>
       <c r="D27" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -1647,21 +1631,21 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="8">
-        <v>220041700030</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>137</v>
+        <v>220041700033</v>
+      </c>
+      <c r="D28" s="14">
+        <v>12</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
-      <c r="G28" s="13">
-        <v>0</v>
+      <c r="G28" s="14">
+        <v>4</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
@@ -1671,21 +1655,21 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="8">
-        <v>220041700031</v>
+        <v>220041700034</v>
       </c>
       <c r="D29" s="14">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
@@ -1695,21 +1679,21 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="8">
-        <v>220041700032</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>137</v>
+        <v>220041700035</v>
+      </c>
+      <c r="D30" s="14">
+        <v>3</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
-      <c r="G30" s="13">
-        <v>0</v>
+      <c r="G30" s="14">
+        <v>4</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
@@ -1719,21 +1703,21 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="8">
-        <v>220041700033</v>
+        <v>220041700036</v>
       </c>
       <c r="D31" s="14">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
@@ -1743,21 +1727,21 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="8">
-        <v>220041700034</v>
-      </c>
-      <c r="D32" s="14">
-        <v>12</v>
+        <v>220041700037</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
-      <c r="G32" s="14">
-        <v>5</v>
+      <c r="G32" s="13">
+        <v>0</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -1767,21 +1751,21 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="8">
-        <v>220041700035</v>
+        <v>220041700038</v>
       </c>
       <c r="D33" s="14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
-      <c r="G33" s="14">
-        <v>4</v>
+      <c r="G33" s="13">
+        <v>0</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
@@ -1791,21 +1775,21 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="8">
-        <v>220041700036</v>
+        <v>220041700039</v>
       </c>
       <c r="D34" s="14">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
-      <c r="G34" s="14">
-        <v>5</v>
+      <c r="G34" s="13">
+        <v>0</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
@@ -1815,16 +1799,16 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="8">
-        <v>220041700037</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>137</v>
+        <v>220041700040</v>
+      </c>
+      <c r="D35" s="14">
+        <v>7</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
@@ -1839,13 +1823,13 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="8">
-        <v>220041700038</v>
+        <v>220041700042</v>
       </c>
       <c r="D36" s="14">
         <v>7</v>
@@ -1863,16 +1847,16 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="17" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="8">
-        <v>220041700039</v>
+        <v>220041700043</v>
       </c>
       <c r="D37" s="14">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
@@ -1887,21 +1871,21 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="8">
-        <v>220041700040</v>
+        <v>220041700044</v>
       </c>
       <c r="D38" s="14">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
-      <c r="G38" s="13">
-        <v>0</v>
+      <c r="G38" s="14">
+        <v>5</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -1911,21 +1895,21 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="8">
-        <v>220041700042</v>
+        <v>220041700045</v>
       </c>
       <c r="D39" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
-      <c r="G39" s="13">
-        <v>0</v>
+      <c r="G39" s="14">
+        <v>4.5</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
@@ -1935,21 +1919,21 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="C40" s="8">
-        <v>220041700043</v>
+        <v>220041700046</v>
       </c>
       <c r="D40" s="14">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
-      <c r="G40" s="13">
-        <v>0</v>
+      <c r="G40" s="14">
+        <v>4.5</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
@@ -1959,21 +1943,21 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="8">
-        <v>220041700044</v>
+        <v>220041700048</v>
       </c>
       <c r="D41" s="14">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
-      <c r="G41" s="14">
-        <v>5</v>
+      <c r="G41" s="13">
+        <v>0</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
@@ -1983,21 +1967,21 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C42" s="8">
-        <v>220041700045</v>
+        <v>220041700049</v>
       </c>
       <c r="D42" s="14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
-      <c r="G42" s="14">
-        <v>4.5</v>
+      <c r="G42" s="13">
+        <v>0</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
@@ -2007,21 +1991,21 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C43" s="8">
-        <v>220041700046</v>
+        <v>220041700051</v>
       </c>
       <c r="D43" s="14">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
@@ -2031,21 +2015,21 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="8">
-        <v>220041700047</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>137</v>
+        <v>220041700052</v>
+      </c>
+      <c r="D44" s="14">
+        <v>5</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
-      <c r="G44" s="13">
-        <v>0</v>
+      <c r="G44" s="14">
+        <v>3</v>
       </c>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
@@ -2055,21 +2039,21 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="8">
-        <v>220041700048</v>
+        <v>220041700054</v>
       </c>
       <c r="D45" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
-      <c r="G45" s="13">
-        <v>0</v>
+      <c r="G45" s="14">
+        <v>3.5</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
@@ -2079,21 +2063,21 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="8">
-        <v>220041700049</v>
+        <v>220041700055</v>
       </c>
       <c r="D46" s="14">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
-      <c r="G46" s="13">
-        <v>0</v>
+      <c r="G46" s="14">
+        <v>4.5</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
@@ -2103,16 +2087,16 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C47" s="8">
-        <v>220041700051</v>
+        <v>220041700056</v>
       </c>
       <c r="D47" s="14">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
@@ -2127,16 +2111,16 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C48" s="8">
-        <v>220041700052</v>
+        <v>220041700057</v>
       </c>
       <c r="D48" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
@@ -2151,16 +2135,16 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" s="8">
-        <v>220041700053</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>137</v>
+        <v>220041700058</v>
+      </c>
+      <c r="D49" s="14">
+        <v>2</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
@@ -2175,21 +2159,21 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50" s="8">
-        <v>220041700054</v>
+        <v>220041700059</v>
       </c>
       <c r="D50" s="14">
         <v>3</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
-      <c r="G50" s="14">
-        <v>3.5</v>
+      <c r="G50" s="13">
+        <v>0</v>
       </c>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
@@ -2199,16 +2183,16 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" s="8">
-        <v>220041700055</v>
+        <v>220041700060</v>
       </c>
       <c r="D51" s="14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
@@ -2223,21 +2207,21 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C52" s="8">
-        <v>220041700056</v>
+        <v>220041700061</v>
       </c>
       <c r="D52" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
-      <c r="G52" s="14">
-        <v>5</v>
+      <c r="G52" s="13">
+        <v>0</v>
       </c>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
@@ -2247,21 +2231,21 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C53" s="8">
-        <v>220041700057</v>
+        <v>220041700063</v>
       </c>
       <c r="D53" s="14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
       <c r="G53" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
@@ -2271,16 +2255,16 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C54" s="8">
-        <v>220041700058</v>
+        <v>220041700064</v>
       </c>
       <c r="D54" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
@@ -2295,21 +2279,21 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C55" s="8">
-        <v>220041700059</v>
+        <v>220041700065</v>
       </c>
       <c r="D55" s="14">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
-      <c r="G55" s="13">
-        <v>0</v>
+      <c r="G55" s="14">
+        <v>5</v>
       </c>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
@@ -2319,13 +2303,13 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C56" s="8">
-        <v>220041700060</v>
+        <v>220041700066</v>
       </c>
       <c r="D56" s="14">
         <v>9</v>
@@ -2343,21 +2327,21 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C57" s="8">
-        <v>220041700061</v>
+        <v>220041700067</v>
       </c>
       <c r="D57" s="14">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
-      <c r="G57" s="13">
-        <v>0</v>
+      <c r="G57" s="14">
+        <v>5</v>
       </c>
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
@@ -2367,21 +2351,21 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>57</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="8">
-        <v>220041700063</v>
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="12">
+        <v>220041723001</v>
       </c>
       <c r="D58" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
       <c r="G58" s="14">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
@@ -2391,21 +2375,21 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>58</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="8">
-        <v>220041700064</v>
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="12">
+        <v>220041723002</v>
       </c>
       <c r="D59" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
-      <c r="G59" s="13">
-        <v>0</v>
+      <c r="G59" s="14">
+        <v>4</v>
       </c>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
@@ -2415,16 +2399,16 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>59</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="8">
-        <v>220041700065</v>
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="12">
+        <v>220041723003</v>
       </c>
       <c r="D60" s="14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
@@ -2439,21 +2423,21 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>60</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="8">
-        <v>220041700066</v>
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="12">
+        <v>220041723004</v>
       </c>
       <c r="D61" s="14">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
       <c r="G61" s="14">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
@@ -2463,21 +2447,21 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>61</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="8">
-        <v>220041700067</v>
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="12">
+        <v>220041723005</v>
       </c>
       <c r="D62" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
       <c r="G62" s="14">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
@@ -2487,21 +2471,21 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C63" s="12">
-        <v>220041723001</v>
+        <v>220041723006</v>
       </c>
       <c r="D63" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
-      <c r="G63" s="14">
-        <v>4.5</v>
+      <c r="G63" s="13">
+        <v>0</v>
       </c>
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
@@ -2511,21 +2495,21 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C64" s="12">
-        <v>220041723002</v>
+        <v>220041723007</v>
       </c>
       <c r="D64" s="14">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
       <c r="G64" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
@@ -2535,21 +2519,21 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C65" s="12">
-        <v>220041723003</v>
+        <v>220041723008</v>
       </c>
       <c r="D65" s="14">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
       <c r="G65" s="14">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
@@ -2559,16 +2543,16 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C66" s="12">
-        <v>220041723004</v>
+        <v>220041723009</v>
       </c>
       <c r="D66" s="14">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
@@ -2583,21 +2567,21 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C67" s="12">
-        <v>220041723005</v>
+        <v>220041723011</v>
       </c>
       <c r="D67" s="14">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E67" s="14"/>
       <c r="F67" s="14"/>
       <c r="G67" s="14">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
@@ -2607,16 +2591,16 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C68" s="12">
-        <v>220041723006</v>
+        <v>220041723012</v>
       </c>
       <c r="D68" s="14">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
@@ -2631,21 +2615,21 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C69" s="12">
-        <v>220041723007</v>
+        <v>220041723013</v>
       </c>
       <c r="D69" s="14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
       <c r="G69" s="14">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
@@ -2655,13 +2639,13 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C70" s="12">
-        <v>220041723008</v>
+        <v>220041723014</v>
       </c>
       <c r="D70" s="14">
         <v>3</v>
@@ -2669,7 +2653,7 @@
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
       <c r="G70" s="14">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
@@ -2679,16 +2663,16 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C71" s="12">
-        <v>220041723009</v>
+        <v>220041723015</v>
       </c>
       <c r="D71" s="14">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
@@ -2703,16 +2687,16 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C72" s="12">
-        <v>220041723011</v>
+        <v>220041723016</v>
       </c>
       <c r="D72" s="14">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
@@ -2727,21 +2711,21 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C73" s="12">
-        <v>220041723012</v>
+        <v>210041700070</v>
       </c>
       <c r="D73" s="14">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
-      <c r="G73" s="13">
-        <v>0</v>
+      <c r="G73" s="14">
+        <v>5</v>
       </c>
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
@@ -2751,21 +2735,21 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C74" s="12">
-        <v>220041723013</v>
+        <v>210041700089</v>
       </c>
       <c r="D74" s="14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
       <c r="G74" s="14">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
@@ -2775,21 +2759,21 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>74</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C75" s="12">
-        <v>220041723014</v>
+        <v>73</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" s="8">
+        <v>220041700069</v>
       </c>
       <c r="D75" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
-      <c r="G75" s="14">
-        <v>5</v>
+      <c r="G75" s="13">
+        <v>0</v>
       </c>
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
@@ -2799,16 +2783,16 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>75</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C76" s="12">
-        <v>220041723015</v>
+        <v>74</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" s="8">
+        <v>220041700070</v>
       </c>
       <c r="D76" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
@@ -2823,16 +2807,16 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>76</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C77" s="12">
-        <v>220041723016</v>
+        <v>75</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" s="8">
+        <v>220041700071</v>
       </c>
       <c r="D77" s="14">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
@@ -2846,20 +2830,22 @@
       <c r="L77" s="11"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C78" s="12">
-        <v>210041700070</v>
+      <c r="A78" s="2">
+        <v>76</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78" s="8">
+        <v>220041700072</v>
       </c>
       <c r="D78" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
       <c r="G78" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
@@ -2868,20 +2854,22 @@
       <c r="L78" s="11"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C79" s="12">
-        <v>210041700089</v>
-      </c>
-      <c r="D79" s="14">
-        <v>7</v>
+      <c r="A79" s="2">
+        <v>77</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" s="8">
+        <v>220041700073</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
-      <c r="G79" s="14">
-        <v>5</v>
+      <c r="G79" s="13">
+        <v>0</v>
       </c>
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
@@ -2891,21 +2879,21 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B80" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C80" s="8">
-        <v>220041700069</v>
+        <v>220041700077</v>
       </c>
       <c r="D80" s="14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
-      <c r="G80" s="13">
-        <v>0</v>
+      <c r="G80" s="14">
+        <v>5</v>
       </c>
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
@@ -2915,16 +2903,16 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81" s="16" t="s">
         <v>64</v>
       </c>
       <c r="C81" s="8">
-        <v>220041700070</v>
+        <v>220041700078</v>
       </c>
       <c r="D81" s="14">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
@@ -2939,21 +2927,21 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B82" s="16" t="s">
         <v>65</v>
       </c>
       <c r="C82" s="8">
-        <v>220041700071</v>
+        <v>220041700080</v>
       </c>
       <c r="D82" s="14">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
       <c r="G82" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
@@ -2963,21 +2951,21 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B83" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C83" s="8">
-        <v>220041700072</v>
+        <v>220041700081</v>
       </c>
       <c r="D83" s="14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
       <c r="G83" s="14">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
@@ -2987,16 +2975,16 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C84" s="8">
-        <v>220041700073</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>137</v>
+        <v>220041700082</v>
+      </c>
+      <c r="D84" s="14">
+        <v>6</v>
       </c>
       <c r="E84" s="14"/>
       <c r="F84" s="14"/>
@@ -3011,16 +2999,16 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B85" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C85" s="8">
-        <v>220041700077</v>
+        <v>220041700084</v>
       </c>
       <c r="D85" s="14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
@@ -3035,16 +3023,16 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B86" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C86" s="8">
-        <v>220041700078</v>
+        <v>220041700085</v>
       </c>
       <c r="D86" s="14">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E86" s="14"/>
       <c r="F86" s="14"/>
@@ -3059,21 +3047,21 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B87" s="16" t="s">
         <v>70</v>
       </c>
       <c r="C87" s="8">
-        <v>220041700080</v>
+        <v>220041700086</v>
       </c>
       <c r="D87" s="14">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E87" s="14"/>
       <c r="F87" s="14"/>
       <c r="G87" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
@@ -3083,21 +3071,21 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B88" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C88" s="8">
-        <v>220041700081</v>
+        <v>220041700087</v>
       </c>
       <c r="D88" s="14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
       <c r="G88" s="14">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
@@ -3107,16 +3095,16 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C89" s="8">
-        <v>220041700082</v>
+        <v>220041700088</v>
       </c>
       <c r="D89" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E89" s="14"/>
       <c r="F89" s="14"/>
@@ -3131,21 +3119,21 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C90" s="8">
-        <v>220041700084</v>
+        <v>220041700092</v>
       </c>
       <c r="D90" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E90" s="14"/>
       <c r="F90" s="14"/>
       <c r="G90" s="14">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
@@ -3155,16 +3143,16 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C91" s="8">
-        <v>220041700085</v>
+        <v>220041700096</v>
       </c>
       <c r="D91" s="14">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E91" s="14"/>
       <c r="F91" s="14"/>
@@ -3179,21 +3167,21 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C92" s="8">
-        <v>220041700086</v>
+        <v>220041700097</v>
       </c>
       <c r="D92" s="14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E92" s="14"/>
       <c r="F92" s="14"/>
-      <c r="G92" s="14">
-        <v>5</v>
+      <c r="G92" s="13">
+        <v>0</v>
       </c>
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
@@ -3203,21 +3191,21 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C93" s="8">
-        <v>220041700087</v>
+        <v>220041700098</v>
       </c>
       <c r="D93" s="14">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
       <c r="G93" s="14">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
@@ -3227,21 +3215,21 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C94" s="8">
-        <v>220041700088</v>
+        <v>220041700099</v>
       </c>
       <c r="D94" s="14">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E94" s="14"/>
       <c r="F94" s="14"/>
-      <c r="G94" s="13">
-        <v>0</v>
+      <c r="G94" s="14">
+        <v>5</v>
       </c>
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
@@ -3251,21 +3239,21 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C95" s="8">
-        <v>220041700092</v>
+        <v>220041700100</v>
       </c>
       <c r="D95" s="14">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E95" s="14"/>
       <c r="F95" s="14"/>
       <c r="G95" s="14">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
@@ -3275,16 +3263,16 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C96" s="8">
-        <v>220041700096</v>
+        <v>220041700102</v>
       </c>
       <c r="D96" s="14">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E96" s="14"/>
       <c r="F96" s="14"/>
@@ -3299,21 +3287,21 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B97" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C97" s="8">
-        <v>220041700097</v>
+        <v>220041700103</v>
       </c>
       <c r="D97" s="14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E97" s="14"/>
       <c r="F97" s="14"/>
-      <c r="G97" s="13">
-        <v>0</v>
+      <c r="G97" s="14">
+        <v>4</v>
       </c>
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
@@ -3323,21 +3311,21 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" s="16" t="s">
         <v>79</v>
       </c>
       <c r="C98" s="8">
-        <v>220041700098</v>
+        <v>220041700104</v>
       </c>
       <c r="D98" s="14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E98" s="14"/>
       <c r="F98" s="14"/>
-      <c r="G98" s="14">
-        <v>4.5</v>
+      <c r="G98" s="13">
+        <v>0</v>
       </c>
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
@@ -3347,21 +3335,21 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B99" s="16" t="s">
         <v>80</v>
       </c>
       <c r="C99" s="8">
-        <v>220041700099</v>
+        <v>220041700105</v>
       </c>
       <c r="D99" s="14">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E99" s="14"/>
       <c r="F99" s="14"/>
       <c r="G99" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
@@ -3371,16 +3359,16 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B100" s="16" t="s">
         <v>81</v>
       </c>
       <c r="C100" s="8">
-        <v>220041700100</v>
+        <v>220041700106</v>
       </c>
       <c r="D100" s="14">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E100" s="14"/>
       <c r="F100" s="14"/>
@@ -3395,16 +3383,16 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B101" s="16" t="s">
         <v>82</v>
       </c>
       <c r="C101" s="8">
-        <v>220041700102</v>
+        <v>220041700107</v>
       </c>
       <c r="D101" s="14">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E101" s="14"/>
       <c r="F101" s="14"/>
@@ -3419,21 +3407,21 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B102" s="16" t="s">
         <v>83</v>
       </c>
       <c r="C102" s="8">
-        <v>220041700103</v>
+        <v>220041700108</v>
       </c>
       <c r="D102" s="14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E102" s="14"/>
       <c r="F102" s="14"/>
-      <c r="G102" s="14">
-        <v>4</v>
+      <c r="G102" s="13">
+        <v>0</v>
       </c>
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
@@ -3443,21 +3431,21 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B103" s="16" t="s">
         <v>84</v>
       </c>
       <c r="C103" s="8">
-        <v>220041700104</v>
+        <v>220041700109</v>
       </c>
       <c r="D103" s="14">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E103" s="14"/>
       <c r="F103" s="14"/>
-      <c r="G103" s="13">
-        <v>0</v>
+      <c r="G103" s="14">
+        <v>5</v>
       </c>
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
@@ -3467,21 +3455,21 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B104" s="16" t="s">
         <v>85</v>
       </c>
       <c r="C104" s="8">
-        <v>220041700105</v>
+        <v>220041700110</v>
       </c>
       <c r="D104" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E104" s="14"/>
       <c r="F104" s="14"/>
-      <c r="G104" s="14">
-        <v>4</v>
+      <c r="G104" s="13">
+        <v>0</v>
       </c>
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
@@ -3491,21 +3479,21 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B105" s="16" t="s">
         <v>86</v>
       </c>
       <c r="C105" s="8">
-        <v>220041700106</v>
+        <v>220041700112</v>
       </c>
       <c r="D105" s="14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E105" s="14"/>
       <c r="F105" s="14"/>
       <c r="G105" s="14">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
@@ -3515,21 +3503,21 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B106" s="16" t="s">
         <v>87</v>
       </c>
       <c r="C106" s="8">
-        <v>220041700107</v>
+        <v>220041700113</v>
       </c>
       <c r="D106" s="14">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E106" s="14"/>
       <c r="F106" s="14"/>
-      <c r="G106" s="14">
-        <v>5</v>
+      <c r="G106" s="13">
+        <v>0</v>
       </c>
       <c r="H106" s="14"/>
       <c r="I106" s="14"/>
@@ -3539,16 +3527,16 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B107" s="16" t="s">
         <v>88</v>
       </c>
       <c r="C107" s="8">
-        <v>220041700108</v>
+        <v>220041700115</v>
       </c>
       <c r="D107" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E107" s="14"/>
       <c r="F107" s="14"/>
@@ -3563,21 +3551,21 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B108" s="16" t="s">
         <v>89</v>
       </c>
       <c r="C108" s="8">
-        <v>220041700109</v>
+        <v>220041700116</v>
       </c>
       <c r="D108" s="14">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E108" s="14"/>
       <c r="F108" s="14"/>
-      <c r="G108" s="14">
-        <v>5</v>
+      <c r="G108" s="13">
+        <v>0</v>
       </c>
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
@@ -3587,21 +3575,21 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B109" s="16" t="s">
         <v>90</v>
       </c>
       <c r="C109" s="8">
-        <v>220041700110</v>
+        <v>220041700117</v>
       </c>
       <c r="D109" s="14">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E109" s="14"/>
       <c r="F109" s="14"/>
-      <c r="G109" s="13">
-        <v>0</v>
+      <c r="G109" s="14">
+        <v>4.5</v>
       </c>
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
@@ -3611,21 +3599,21 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B110" s="16" t="s">
         <v>91</v>
       </c>
       <c r="C110" s="8">
-        <v>220041700112</v>
+        <v>220041700118</v>
       </c>
       <c r="D110" s="14">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E110" s="14"/>
       <c r="F110" s="14"/>
       <c r="G110" s="14">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="H110" s="14"/>
       <c r="I110" s="14"/>
@@ -3635,16 +3623,16 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B111" s="16" t="s">
         <v>92</v>
       </c>
       <c r="C111" s="8">
-        <v>220041700113</v>
-      </c>
-      <c r="D111" s="14">
-        <v>6</v>
+        <v>220041700119</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="E111" s="14"/>
       <c r="F111" s="14"/>
@@ -3659,21 +3647,21 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B112" s="16" t="s">
         <v>93</v>
       </c>
       <c r="C112" s="8">
-        <v>220041700115</v>
+        <v>220041700121</v>
       </c>
       <c r="D112" s="14">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E112" s="14"/>
       <c r="F112" s="14"/>
-      <c r="G112" s="13">
-        <v>0</v>
+      <c r="G112" s="14">
+        <v>5</v>
       </c>
       <c r="H112" s="14"/>
       <c r="I112" s="14"/>
@@ -3683,21 +3671,21 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B113" s="16" t="s">
         <v>94</v>
       </c>
       <c r="C113" s="8">
-        <v>220041700116</v>
+        <v>220041700122</v>
       </c>
       <c r="D113" s="14">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E113" s="14"/>
       <c r="F113" s="14"/>
-      <c r="G113" s="13">
-        <v>0</v>
+      <c r="G113" s="14">
+        <v>5</v>
       </c>
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
@@ -3707,21 +3695,21 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C114" s="8">
-        <v>220041700117</v>
+        <v>220041700123</v>
       </c>
       <c r="D114" s="14">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E114" s="14"/>
       <c r="F114" s="14"/>
-      <c r="G114" s="14">
-        <v>4.5</v>
+      <c r="G114" s="13">
+        <v>0</v>
       </c>
       <c r="H114" s="14"/>
       <c r="I114" s="14"/>
@@ -3731,21 +3719,21 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C115" s="8">
-        <v>220041700118</v>
+        <v>220041700124</v>
       </c>
       <c r="D115" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E115" s="14"/>
       <c r="F115" s="14"/>
-      <c r="G115" s="14">
-        <v>3</v>
+      <c r="G115" s="13">
+        <v>0</v>
       </c>
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
@@ -3755,21 +3743,21 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C116" s="8">
-        <v>220041700119</v>
-      </c>
-      <c r="D116" s="14" t="s">
-        <v>137</v>
+        <v>220041700125</v>
+      </c>
+      <c r="D116" s="14">
+        <v>6</v>
       </c>
       <c r="E116" s="14"/>
       <c r="F116" s="14"/>
-      <c r="G116" s="13">
-        <v>0</v>
+      <c r="G116" s="14">
+        <v>2.5</v>
       </c>
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
@@ -3779,21 +3767,21 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C117" s="8">
-        <v>220041700121</v>
+        <v>220041700130</v>
       </c>
       <c r="D117" s="14">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E117" s="14"/>
       <c r="F117" s="14"/>
-      <c r="G117" s="14">
-        <v>5</v>
+      <c r="G117" s="13">
+        <v>0</v>
       </c>
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
@@ -3803,21 +3791,21 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C118" s="8">
-        <v>220041700122</v>
+        <v>220041700131</v>
       </c>
       <c r="D118" s="14">
         <v>4</v>
       </c>
       <c r="E118" s="14"/>
       <c r="F118" s="14"/>
-      <c r="G118" s="14">
-        <v>5</v>
+      <c r="G118" s="13">
+        <v>0</v>
       </c>
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
@@ -3827,21 +3815,21 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B119" s="16" t="s">
         <v>99</v>
       </c>
       <c r="C119" s="8">
-        <v>220041700123</v>
+        <v>220041700132</v>
       </c>
       <c r="D119" s="14">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E119" s="14"/>
       <c r="F119" s="14"/>
-      <c r="G119" s="13">
-        <v>0</v>
+      <c r="G119" s="14">
+        <v>5</v>
       </c>
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
@@ -3851,21 +3839,21 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C120" s="8">
-        <v>220041700124</v>
+        <v>220041700133</v>
       </c>
       <c r="D120" s="14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E120" s="14"/>
       <c r="F120" s="14"/>
-      <c r="G120" s="13">
-        <v>0</v>
+      <c r="G120" s="14">
+        <v>4.5</v>
       </c>
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
@@ -3875,21 +3863,21 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C121" s="8">
-        <v>220041700125</v>
+        <v>220041700134</v>
       </c>
       <c r="D121" s="14">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E121" s="14"/>
       <c r="F121" s="14"/>
-      <c r="G121" s="14">
-        <v>2.5</v>
+      <c r="G121" s="13">
+        <v>0</v>
       </c>
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
@@ -3899,16 +3887,16 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>119</v>
-      </c>
-      <c r="B122" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C122" s="8">
-        <v>220041700130</v>
+        <v>120</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C122" s="9">
+        <v>220041723018</v>
       </c>
       <c r="D122" s="14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E122" s="14"/>
       <c r="F122" s="14"/>
@@ -3923,16 +3911,16 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>120</v>
-      </c>
-      <c r="B123" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C123" s="8">
-        <v>220041700131</v>
+        <v>121</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C123" s="9">
+        <v>220041723019</v>
       </c>
       <c r="D123" s="14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E123" s="14"/>
       <c r="F123" s="14"/>
@@ -3947,13 +3935,13 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>121</v>
-      </c>
-      <c r="B124" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C124" s="8">
-        <v>220041700132</v>
+        <v>122</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C124" s="9">
+        <v>220041723020</v>
       </c>
       <c r="D124" s="14">
         <v>15</v>
@@ -3971,21 +3959,21 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>122</v>
-      </c>
-      <c r="B125" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C125" s="8">
-        <v>220041700133</v>
+        <v>123</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C125" s="9">
+        <v>220041723021</v>
       </c>
       <c r="D125" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E125" s="14"/>
       <c r="F125" s="14"/>
-      <c r="G125" s="14">
-        <v>4.5</v>
+      <c r="G125" s="13">
+        <v>0</v>
       </c>
       <c r="H125" s="14"/>
       <c r="I125" s="14"/>
@@ -3995,21 +3983,21 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>123</v>
-      </c>
-      <c r="B126" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C126" s="8">
-        <v>220041700134</v>
+        <v>124</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C126" s="9">
+        <v>220041723022</v>
       </c>
       <c r="D126" s="14">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E126" s="14"/>
       <c r="F126" s="14"/>
-      <c r="G126" s="13">
-        <v>0</v>
+      <c r="G126" s="14">
+        <v>4</v>
       </c>
       <c r="H126" s="14"/>
       <c r="I126" s="14"/>
@@ -4019,21 +4007,21 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C127" s="9">
-        <v>220041723018</v>
-      </c>
-      <c r="D127" s="14">
-        <v>7</v>
+        <v>220041723023</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="E127" s="14"/>
       <c r="F127" s="14"/>
-      <c r="G127" s="13">
-        <v>0</v>
+      <c r="G127" s="14">
+        <v>5</v>
       </c>
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
@@ -4043,16 +4031,16 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C128" s="9">
-        <v>220041723019</v>
+        <v>220041723025</v>
       </c>
       <c r="D128" s="14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E128" s="14"/>
       <c r="F128" s="14"/>
@@ -4067,16 +4055,16 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C129" s="9">
-        <v>220041723020</v>
+        <v>220041723027</v>
       </c>
       <c r="D129" s="14">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E129" s="14"/>
       <c r="F129" s="14"/>
@@ -4091,16 +4079,16 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C130" s="9">
-        <v>220041723021</v>
+        <v>220041723028</v>
       </c>
       <c r="D130" s="14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E130" s="14"/>
       <c r="F130" s="14"/>
@@ -4115,21 +4103,21 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C131" s="9">
-        <v>220041723022</v>
+        <v>220041723032</v>
       </c>
       <c r="D131" s="14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E131" s="14"/>
       <c r="F131" s="14"/>
       <c r="G131" s="14">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
@@ -4139,21 +4127,21 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C132" s="9">
-        <v>220041723023</v>
-      </c>
-      <c r="D132" s="14" t="s">
-        <v>137</v>
+        <v>220041723033</v>
+      </c>
+      <c r="D132" s="14">
+        <v>9</v>
       </c>
       <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
+      <c r="F132" s="1"/>
       <c r="G132" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
@@ -4163,21 +4151,21 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C133" s="9">
-        <v>220041723025</v>
+        <v>220041723034</v>
       </c>
       <c r="D133" s="14">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E133" s="14"/>
       <c r="F133" s="14"/>
-      <c r="G133" s="13">
-        <v>0</v>
+      <c r="G133" s="14">
+        <v>3</v>
       </c>
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
@@ -4186,140 +4174,22 @@
       <c r="L133" s="11"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
-        <v>131</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C134" s="9">
-        <v>220041723027</v>
-      </c>
-      <c r="D134" s="14">
-        <v>19</v>
-      </c>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c r="G134" s="14">
-        <v>5</v>
-      </c>
-      <c r="H134" s="14"/>
-      <c r="I134" s="14"/>
-      <c r="J134" s="14"/>
-      <c r="K134" s="14"/>
-      <c r="L134" s="11"/>
+      <c r="C134" s="1"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
-      <c r="B135" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C135" s="9">
-        <v>220041723028</v>
-      </c>
-      <c r="D135" s="14">
-        <v>6</v>
-      </c>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c r="G135" s="13">
-        <v>0</v>
-      </c>
-      <c r="H135" s="14"/>
-      <c r="I135" s="14"/>
-      <c r="J135" s="14"/>
-      <c r="K135" s="14"/>
-      <c r="L135" s="11"/>
+      <c r="C135" s="1"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
-        <v>132</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C136" s="9">
-        <v>220041723032</v>
-      </c>
-      <c r="D136" s="14">
-        <v>14</v>
-      </c>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c r="G136" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="H136" s="14"/>
-      <c r="I136" s="14"/>
-      <c r="J136" s="14"/>
-      <c r="K136" s="14"/>
-      <c r="L136" s="11"/>
+      <c r="C136" s="1"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
-        <v>133</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C137" s="9">
-        <v>220041723033</v>
-      </c>
-      <c r="D137" s="14">
-        <v>9</v>
-      </c>
-      <c r="E137" s="14"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="14">
-        <v>4</v>
-      </c>
-      <c r="H137" s="14"/>
-      <c r="I137" s="14"/>
-      <c r="J137" s="14"/>
-      <c r="K137" s="14"/>
-      <c r="L137" s="11"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
-        <v>134</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C138" s="9">
-        <v>220041723034</v>
-      </c>
-      <c r="D138" s="14">
-        <v>15</v>
-      </c>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c r="G138" s="14">
-        <v>3</v>
-      </c>
-      <c r="H138" s="14"/>
-      <c r="I138" s="14"/>
-      <c r="J138" s="14"/>
-      <c r="K138" s="14"/>
-      <c r="L138" s="11"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C139" s="1"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C140" s="1"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C141" s="1"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C142" s="1"/>
+      <c r="C137" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="L139:L1048576">
+  <conditionalFormatting sqref="L134:L1048576">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
       <formula>20</formula>
     </cfRule>

--- a/static/Upload/4th sem.xlsx
+++ b/static/Upload/4th sem.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="134">
   <si>
     <t>S.N</t>
   </si>
@@ -589,14 +589,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="12" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -961,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L137"/>
+  <dimension ref="A1:Q137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,26 +979,28 @@
     <col min="10" max="10" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-    </row>
-    <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+    </row>
+    <row r="2" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1035,15 +1037,18 @@
       <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="18">
         <v>210041700021</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1052,8 +1057,18 @@
       <c r="G3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>O3*5/40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1071,13 +1086,20 @@
       <c r="G4" s="14">
         <v>4</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O4" s="14"/>
+      <c r="Q4" s="2">
+        <f t="shared" ref="Q4:Q67" si="0">O4*5/40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1095,13 +1117,20 @@
       <c r="G5" s="14">
         <v>4.5</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O5" s="14"/>
+      <c r="Q5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1119,13 +1148,22 @@
       <c r="G6" s="14">
         <v>4.5</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O6" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1143,13 +1181,22 @@
       <c r="G7" s="14">
         <v>5</v>
       </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O7" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1167,13 +1214,22 @@
       <c r="G8" s="13">
         <v>0</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="2">
+        <v>4.375</v>
+      </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O8" s="14">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="0"/>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1191,13 +1247,22 @@
       <c r="G9" s="14">
         <v>4.5</v>
       </c>
-      <c r="H9" s="14"/>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O9" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1215,13 +1280,22 @@
       <c r="G10" s="14">
         <v>3</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O10" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1239,13 +1313,20 @@
       <c r="G11" s="13">
         <v>0</v>
       </c>
-      <c r="H11" s="14"/>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O11" s="14"/>
+      <c r="Q11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1263,13 +1344,22 @@
       <c r="G12" s="14">
         <v>4.5</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O12" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1287,13 +1377,20 @@
       <c r="G13" s="14">
         <v>4</v>
       </c>
-      <c r="H13" s="14"/>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O13" s="14"/>
+      <c r="Q13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1311,13 +1408,20 @@
       <c r="G14" s="14">
         <v>4.5</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O14" s="14"/>
+      <c r="Q14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1335,13 +1439,22 @@
       <c r="G15" s="14">
         <v>4.5</v>
       </c>
-      <c r="H15" s="14"/>
+      <c r="H15" s="2">
+        <v>5</v>
+      </c>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O15" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1359,13 +1472,20 @@
       <c r="G16" s="14">
         <v>4.5</v>
       </c>
-      <c r="H16" s="14"/>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="11"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O16" s="14"/>
+      <c r="Q16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1383,13 +1503,22 @@
       <c r="G17" s="14">
         <v>5</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="2">
+        <v>5</v>
+      </c>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O17" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1407,13 +1536,22 @@
       <c r="G18" s="14">
         <v>4.5</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="2">
+        <v>5</v>
+      </c>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
       <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O18" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q18" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1431,13 +1569,22 @@
       <c r="G19" s="14">
         <v>4.5</v>
       </c>
-      <c r="H19" s="14"/>
+      <c r="H19" s="2">
+        <v>5</v>
+      </c>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
       <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O19" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1455,13 +1602,22 @@
       <c r="G20" s="14">
         <v>4.5</v>
       </c>
-      <c r="H20" s="14"/>
+      <c r="H20" s="2">
+        <v>5</v>
+      </c>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
       <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O20" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q20" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1479,13 +1635,20 @@
       <c r="G21" s="14">
         <v>4.5</v>
       </c>
-      <c r="H21" s="14"/>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="11"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O21" s="14"/>
+      <c r="Q21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1503,13 +1666,22 @@
       <c r="G22" s="14">
         <v>4.5</v>
       </c>
-      <c r="H22" s="14"/>
+      <c r="H22" s="2">
+        <v>5</v>
+      </c>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O22" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q22" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1527,13 +1699,20 @@
       <c r="G23" s="13">
         <v>0</v>
       </c>
-      <c r="H23" s="14"/>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
       <c r="L23" s="11"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O23" s="14"/>
+      <c r="Q23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1551,13 +1730,22 @@
       <c r="G24" s="14">
         <v>4.5</v>
       </c>
-      <c r="H24" s="14"/>
+      <c r="H24" s="2">
+        <v>5</v>
+      </c>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
       <c r="L24" s="11"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O24" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q24" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1575,13 +1763,22 @@
       <c r="G25" s="14">
         <v>5</v>
       </c>
-      <c r="H25" s="14"/>
+      <c r="H25" s="2">
+        <v>5</v>
+      </c>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
       <c r="L25" s="11"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O25" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q25" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1599,13 +1796,22 @@
       <c r="G26" s="14">
         <v>5</v>
       </c>
-      <c r="H26" s="14"/>
+      <c r="H26" s="2">
+        <v>5</v>
+      </c>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
       <c r="L26" s="11"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O26" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q26" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1623,13 +1829,22 @@
       <c r="G27" s="14">
         <v>4</v>
       </c>
-      <c r="H27" s="14"/>
+      <c r="H27" s="2">
+        <v>4.375</v>
+      </c>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O27" s="14">
+        <v>35</v>
+      </c>
+      <c r="Q27" s="2">
+        <f t="shared" si="0"/>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1647,13 +1862,22 @@
       <c r="G28" s="14">
         <v>4</v>
       </c>
-      <c r="H28" s="14"/>
+      <c r="H28" s="2">
+        <v>5</v>
+      </c>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
       <c r="L28" s="11"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O28" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q28" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1671,13 +1895,22 @@
       <c r="G29" s="14">
         <v>5</v>
       </c>
-      <c r="H29" s="14"/>
+      <c r="H29" s="2">
+        <v>5</v>
+      </c>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
       <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O29" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q29" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1695,13 +1928,22 @@
       <c r="G30" s="14">
         <v>4</v>
       </c>
-      <c r="H30" s="14"/>
+      <c r="H30" s="2">
+        <v>5</v>
+      </c>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
       <c r="L30" s="11"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O30" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q30" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1719,13 +1961,22 @@
       <c r="G31" s="14">
         <v>5</v>
       </c>
-      <c r="H31" s="14"/>
+      <c r="H31" s="2">
+        <v>5</v>
+      </c>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
       <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O31" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -1743,13 +1994,20 @@
       <c r="G32" s="13">
         <v>0</v>
       </c>
-      <c r="H32" s="14"/>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
       <c r="L32" s="11"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O32" s="14"/>
+      <c r="Q32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -1767,13 +2025,20 @@
       <c r="G33" s="13">
         <v>0</v>
       </c>
-      <c r="H33" s="14"/>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
       <c r="L33" s="11"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O33" s="14"/>
+      <c r="Q33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -1791,13 +2056,22 @@
       <c r="G34" s="13">
         <v>0</v>
       </c>
-      <c r="H34" s="14"/>
+      <c r="H34" s="2">
+        <v>5</v>
+      </c>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
       <c r="L34" s="11"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O34" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q34" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -1815,13 +2089,22 @@
       <c r="G35" s="13">
         <v>0</v>
       </c>
-      <c r="H35" s="14"/>
+      <c r="H35" s="2">
+        <v>3.75</v>
+      </c>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
       <c r="L35" s="11"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O35" s="14">
+        <v>30</v>
+      </c>
+      <c r="Q35" s="2">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -1839,13 +2122,20 @@
       <c r="G36" s="13">
         <v>0</v>
       </c>
-      <c r="H36" s="14"/>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
       <c r="L36" s="11"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O36" s="14"/>
+      <c r="Q36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -1863,13 +2153,20 @@
       <c r="G37" s="13">
         <v>0</v>
       </c>
-      <c r="H37" s="14"/>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
       <c r="L37" s="11"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O37" s="14"/>
+      <c r="Q37" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -1887,13 +2184,22 @@
       <c r="G38" s="14">
         <v>5</v>
       </c>
-      <c r="H38" s="14"/>
+      <c r="H38" s="2">
+        <v>5</v>
+      </c>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
       <c r="L38" s="11"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O38" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q38" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -1911,13 +2217,22 @@
       <c r="G39" s="14">
         <v>4.5</v>
       </c>
-      <c r="H39" s="14"/>
+      <c r="H39" s="2">
+        <v>5</v>
+      </c>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
       <c r="L39" s="11"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O39" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q39" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -1935,13 +2250,22 @@
       <c r="G40" s="14">
         <v>4.5</v>
       </c>
-      <c r="H40" s="14"/>
+      <c r="H40" s="2">
+        <v>5</v>
+      </c>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
       <c r="L40" s="11"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O40" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q40" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -1959,13 +2283,20 @@
       <c r="G41" s="13">
         <v>0</v>
       </c>
-      <c r="H41" s="14"/>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
       <c r="L41" s="11"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O41" s="14"/>
+      <c r="Q41" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -1983,13 +2314,22 @@
       <c r="G42" s="13">
         <v>0</v>
       </c>
-      <c r="H42" s="14"/>
+      <c r="H42" s="2">
+        <v>5</v>
+      </c>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
       <c r="L42" s="11"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O42" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q42" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -2007,13 +2347,22 @@
       <c r="G43" s="14">
         <v>5</v>
       </c>
-      <c r="H43" s="14"/>
+      <c r="H43" s="2">
+        <v>5</v>
+      </c>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
       <c r="L43" s="11"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O43" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q43" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -2031,13 +2380,22 @@
       <c r="G44" s="14">
         <v>3</v>
       </c>
-      <c r="H44" s="14"/>
+      <c r="H44" s="2">
+        <v>5</v>
+      </c>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
       <c r="L44" s="11"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O44" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q44" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -2055,13 +2413,22 @@
       <c r="G45" s="14">
         <v>3.5</v>
       </c>
-      <c r="H45" s="14"/>
+      <c r="H45" s="2">
+        <v>5</v>
+      </c>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
       <c r="L45" s="11"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O45" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q45" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -2079,13 +2446,20 @@
       <c r="G46" s="14">
         <v>4.5</v>
       </c>
-      <c r="H46" s="14"/>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
       <c r="L46" s="11"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O46" s="14"/>
+      <c r="Q46" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -2103,13 +2477,20 @@
       <c r="G47" s="14">
         <v>5</v>
       </c>
-      <c r="H47" s="14"/>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
       <c r="L47" s="11"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O47" s="14"/>
+      <c r="Q47" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -2127,13 +2508,22 @@
       <c r="G48" s="14">
         <v>3</v>
       </c>
-      <c r="H48" s="14"/>
+      <c r="H48" s="2">
+        <v>5</v>
+      </c>
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
       <c r="K48" s="14"/>
       <c r="L48" s="11"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O48" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q48" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -2151,13 +2541,20 @@
       <c r="G49" s="13">
         <v>0</v>
       </c>
-      <c r="H49" s="14"/>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
       <c r="K49" s="14"/>
       <c r="L49" s="11"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O49" s="14"/>
+      <c r="Q49" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -2175,13 +2572,20 @@
       <c r="G50" s="13">
         <v>0</v>
       </c>
-      <c r="H50" s="14"/>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
       <c r="K50" s="14"/>
       <c r="L50" s="11"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O50" s="14"/>
+      <c r="Q50" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -2199,13 +2603,22 @@
       <c r="G51" s="14">
         <v>4.5</v>
       </c>
-      <c r="H51" s="14"/>
+      <c r="H51" s="2">
+        <v>5</v>
+      </c>
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
       <c r="K51" s="14"/>
       <c r="L51" s="11"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O51" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q51" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -2223,13 +2636,22 @@
       <c r="G52" s="13">
         <v>0</v>
       </c>
-      <c r="H52" s="14"/>
+      <c r="H52" s="2">
+        <v>3.75</v>
+      </c>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
       <c r="K52" s="14"/>
       <c r="L52" s="11"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O52" s="14">
+        <v>30</v>
+      </c>
+      <c r="Q52" s="2">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -2247,13 +2669,20 @@
       <c r="G53" s="14">
         <v>4</v>
       </c>
-      <c r="H53" s="14"/>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
       <c r="I53" s="14"/>
       <c r="J53" s="14"/>
       <c r="K53" s="14"/>
       <c r="L53" s="11"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O53" s="14"/>
+      <c r="Q53" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -2271,13 +2700,20 @@
       <c r="G54" s="13">
         <v>0</v>
       </c>
-      <c r="H54" s="14"/>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
       <c r="K54" s="14"/>
       <c r="L54" s="11"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O54" s="14"/>
+      <c r="Q54" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -2295,13 +2731,22 @@
       <c r="G55" s="14">
         <v>5</v>
       </c>
-      <c r="H55" s="14"/>
+      <c r="H55" s="2">
+        <v>5</v>
+      </c>
       <c r="I55" s="14"/>
       <c r="J55" s="14"/>
       <c r="K55" s="14"/>
       <c r="L55" s="11"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O55" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q55" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -2319,13 +2764,22 @@
       <c r="G56" s="14">
         <v>4.5</v>
       </c>
-      <c r="H56" s="14"/>
+      <c r="H56" s="2">
+        <v>5</v>
+      </c>
       <c r="I56" s="14"/>
       <c r="J56" s="14"/>
       <c r="K56" s="14"/>
       <c r="L56" s="11"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O56" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q56" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -2343,13 +2797,22 @@
       <c r="G57" s="14">
         <v>5</v>
       </c>
-      <c r="H57" s="14"/>
+      <c r="H57" s="2">
+        <v>5</v>
+      </c>
       <c r="I57" s="14"/>
       <c r="J57" s="14"/>
       <c r="K57" s="14"/>
       <c r="L57" s="11"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O57" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q57" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -2367,13 +2830,20 @@
       <c r="G58" s="14">
         <v>4.5</v>
       </c>
-      <c r="H58" s="14"/>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
       <c r="I58" s="14"/>
       <c r="J58" s="14"/>
       <c r="K58" s="14"/>
       <c r="L58" s="11"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O58" s="14"/>
+      <c r="Q58" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -2391,13 +2861,20 @@
       <c r="G59" s="14">
         <v>4</v>
       </c>
-      <c r="H59" s="14"/>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
       <c r="K59" s="14"/>
       <c r="L59" s="11"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O59" s="14"/>
+      <c r="Q59" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -2415,13 +2892,20 @@
       <c r="G60" s="14">
         <v>5</v>
       </c>
-      <c r="H60" s="14"/>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
       <c r="I60" s="14"/>
       <c r="J60" s="14"/>
       <c r="K60" s="14"/>
       <c r="L60" s="11"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O60" s="14"/>
+      <c r="Q60" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -2439,13 +2923,22 @@
       <c r="G61" s="14">
         <v>5</v>
       </c>
-      <c r="H61" s="14"/>
+      <c r="H61" s="2">
+        <v>5</v>
+      </c>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
       <c r="K61" s="14"/>
       <c r="L61" s="11"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O61" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q61" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -2463,13 +2956,22 @@
       <c r="G62" s="14">
         <v>4.5</v>
       </c>
-      <c r="H62" s="14"/>
+      <c r="H62" s="2">
+        <v>5</v>
+      </c>
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
       <c r="K62" s="14"/>
       <c r="L62" s="11"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O62" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q62" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -2487,13 +2989,20 @@
       <c r="G63" s="13">
         <v>0</v>
       </c>
-      <c r="H63" s="14"/>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
       <c r="K63" s="14"/>
       <c r="L63" s="11"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O63" s="14"/>
+      <c r="Q63" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -2511,13 +3020,22 @@
       <c r="G64" s="14">
         <v>5</v>
       </c>
-      <c r="H64" s="14"/>
+      <c r="H64" s="2">
+        <v>5</v>
+      </c>
       <c r="I64" s="14"/>
       <c r="J64" s="14"/>
       <c r="K64" s="14"/>
       <c r="L64" s="11"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O64" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q64" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -2535,13 +3053,22 @@
       <c r="G65" s="14">
         <v>4.5</v>
       </c>
-      <c r="H65" s="14"/>
+      <c r="H65" s="2">
+        <v>5</v>
+      </c>
       <c r="I65" s="14"/>
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
       <c r="L65" s="11"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O65" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q65" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -2559,13 +3086,22 @@
       <c r="G66" s="14">
         <v>5</v>
       </c>
-      <c r="H66" s="14"/>
+      <c r="H66" s="2">
+        <v>5</v>
+      </c>
       <c r="I66" s="14"/>
       <c r="J66" s="14"/>
       <c r="K66" s="14"/>
       <c r="L66" s="11"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O66" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q66" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -2583,13 +3119,22 @@
       <c r="G67" s="14">
         <v>5</v>
       </c>
-      <c r="H67" s="14"/>
+      <c r="H67" s="2">
+        <v>5</v>
+      </c>
       <c r="I67" s="14"/>
       <c r="J67" s="14"/>
       <c r="K67" s="14"/>
       <c r="L67" s="11"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O67" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q67" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -2607,13 +3152,20 @@
       <c r="G68" s="13">
         <v>0</v>
       </c>
-      <c r="H68" s="14"/>
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
       <c r="K68" s="14"/>
       <c r="L68" s="11"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O68" s="14"/>
+      <c r="Q68" s="2">
+        <f t="shared" ref="Q68:Q131" si="1">O68*5/40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -2631,13 +3183,22 @@
       <c r="G69" s="14">
         <v>4.5</v>
       </c>
-      <c r="H69" s="14"/>
+      <c r="H69" s="2">
+        <v>5</v>
+      </c>
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
       <c r="K69" s="14"/>
       <c r="L69" s="11"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O69" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q69" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -2655,13 +3216,22 @@
       <c r="G70" s="14">
         <v>5</v>
       </c>
-      <c r="H70" s="14"/>
+      <c r="H70" s="2">
+        <v>5</v>
+      </c>
       <c r="I70" s="14"/>
       <c r="J70" s="14"/>
       <c r="K70" s="14"/>
       <c r="L70" s="11"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O70" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q70" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -2679,13 +3249,20 @@
       <c r="G71" s="14">
         <v>5</v>
       </c>
-      <c r="H71" s="14"/>
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
       <c r="K71" s="14"/>
       <c r="L71" s="11"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O71" s="14"/>
+      <c r="Q71" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -2703,13 +3280,22 @@
       <c r="G72" s="14">
         <v>5</v>
       </c>
-      <c r="H72" s="14"/>
+      <c r="H72" s="2">
+        <v>5</v>
+      </c>
       <c r="I72" s="14"/>
       <c r="J72" s="14"/>
       <c r="K72" s="14"/>
       <c r="L72" s="11"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O72" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q72" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -2727,13 +3313,22 @@
       <c r="G73" s="14">
         <v>5</v>
       </c>
-      <c r="H73" s="14"/>
+      <c r="H73" s="2">
+        <v>5</v>
+      </c>
       <c r="I73" s="14"/>
       <c r="J73" s="14"/>
       <c r="K73" s="14"/>
       <c r="L73" s="11"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O73" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q73" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -2751,13 +3346,20 @@
       <c r="G74" s="14">
         <v>5</v>
       </c>
-      <c r="H74" s="14"/>
+      <c r="H74" s="2">
+        <v>0</v>
+      </c>
       <c r="I74" s="14"/>
       <c r="J74" s="14"/>
       <c r="K74" s="14"/>
       <c r="L74" s="11"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O74" s="14"/>
+      <c r="Q74" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -2775,13 +3377,20 @@
       <c r="G75" s="13">
         <v>0</v>
       </c>
-      <c r="H75" s="14"/>
+      <c r="H75" s="2">
+        <v>0</v>
+      </c>
       <c r="I75" s="14"/>
       <c r="J75" s="14"/>
       <c r="K75" s="14"/>
       <c r="L75" s="11"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O75" s="14"/>
+      <c r="Q75" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -2799,13 +3408,20 @@
       <c r="G76" s="14">
         <v>5</v>
       </c>
-      <c r="H76" s="14"/>
+      <c r="H76" s="2">
+        <v>0</v>
+      </c>
       <c r="I76" s="14"/>
       <c r="J76" s="14"/>
       <c r="K76" s="14"/>
       <c r="L76" s="11"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O76" s="14"/>
+      <c r="Q76" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -2823,13 +3439,22 @@
       <c r="G77" s="14">
         <v>5</v>
       </c>
-      <c r="H77" s="14"/>
+      <c r="H77" s="2">
+        <v>5</v>
+      </c>
       <c r="I77" s="14"/>
       <c r="J77" s="14"/>
       <c r="K77" s="14"/>
       <c r="L77" s="11"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O77" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q77" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -2847,13 +3472,22 @@
       <c r="G78" s="14">
         <v>3</v>
       </c>
-      <c r="H78" s="14"/>
+      <c r="H78" s="2">
+        <v>5</v>
+      </c>
       <c r="I78" s="14"/>
       <c r="J78" s="14"/>
       <c r="K78" s="14"/>
       <c r="L78" s="11"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O78" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q78" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -2871,13 +3505,20 @@
       <c r="G79" s="13">
         <v>0</v>
       </c>
-      <c r="H79" s="14"/>
+      <c r="H79" s="2">
+        <v>0</v>
+      </c>
       <c r="I79" s="14"/>
       <c r="J79" s="14"/>
       <c r="K79" s="14"/>
       <c r="L79" s="11"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O79" s="14"/>
+      <c r="Q79" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -2895,13 +3536,22 @@
       <c r="G80" s="14">
         <v>5</v>
       </c>
-      <c r="H80" s="14"/>
+      <c r="H80" s="2">
+        <v>5</v>
+      </c>
       <c r="I80" s="14"/>
       <c r="J80" s="14"/>
       <c r="K80" s="14"/>
       <c r="L80" s="11"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O80" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q80" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -2919,13 +3569,20 @@
       <c r="G81" s="14">
         <v>5</v>
       </c>
-      <c r="H81" s="14"/>
+      <c r="H81" s="2">
+        <v>0</v>
+      </c>
       <c r="I81" s="14"/>
       <c r="J81" s="14"/>
       <c r="K81" s="14"/>
       <c r="L81" s="11"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O81" s="14"/>
+      <c r="Q81" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -2943,13 +3600,22 @@
       <c r="G82" s="14">
         <v>3</v>
       </c>
-      <c r="H82" s="14"/>
+      <c r="H82" s="2">
+        <v>5</v>
+      </c>
       <c r="I82" s="14"/>
       <c r="J82" s="14"/>
       <c r="K82" s="14"/>
       <c r="L82" s="11"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O82" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q82" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -2967,13 +3633,20 @@
       <c r="G83" s="14">
         <v>4.5</v>
       </c>
-      <c r="H83" s="14"/>
+      <c r="H83" s="2">
+        <v>0</v>
+      </c>
       <c r="I83" s="14"/>
       <c r="J83" s="14"/>
       <c r="K83" s="14"/>
       <c r="L83" s="11"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O83" s="14"/>
+      <c r="Q83" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -2991,13 +3664,20 @@
       <c r="G84" s="13">
         <v>0</v>
       </c>
-      <c r="H84" s="14"/>
+      <c r="H84" s="2">
+        <v>0</v>
+      </c>
       <c r="I84" s="14"/>
       <c r="J84" s="14"/>
       <c r="K84" s="14"/>
       <c r="L84" s="11"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O84" s="14"/>
+      <c r="Q84" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -3015,13 +3695,22 @@
       <c r="G85" s="14">
         <v>5</v>
       </c>
-      <c r="H85" s="14"/>
+      <c r="H85" s="2">
+        <v>5</v>
+      </c>
       <c r="I85" s="14"/>
       <c r="J85" s="14"/>
       <c r="K85" s="14"/>
       <c r="L85" s="11"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O85" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q85" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -3039,13 +3728,22 @@
       <c r="G86" s="14">
         <v>5</v>
       </c>
-      <c r="H86" s="14"/>
+      <c r="H86" s="2">
+        <v>5</v>
+      </c>
       <c r="I86" s="14"/>
       <c r="J86" s="14"/>
       <c r="K86" s="14"/>
       <c r="L86" s="11"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O86" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q86" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -3063,13 +3761,22 @@
       <c r="G87" s="14">
         <v>5</v>
       </c>
-      <c r="H87" s="14"/>
+      <c r="H87" s="2">
+        <v>5</v>
+      </c>
       <c r="I87" s="14"/>
       <c r="J87" s="14"/>
       <c r="K87" s="14"/>
       <c r="L87" s="11"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O87" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q87" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -3087,13 +3794,20 @@
       <c r="G88" s="14">
         <v>5</v>
       </c>
-      <c r="H88" s="14"/>
+      <c r="H88" s="2">
+        <v>0</v>
+      </c>
       <c r="I88" s="14"/>
       <c r="J88" s="14"/>
       <c r="K88" s="14"/>
       <c r="L88" s="11"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O88" s="14"/>
+      <c r="Q88" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -3111,13 +3825,20 @@
       <c r="G89" s="13">
         <v>0</v>
       </c>
-      <c r="H89" s="14"/>
+      <c r="H89" s="2">
+        <v>0</v>
+      </c>
       <c r="I89" s="14"/>
       <c r="J89" s="14"/>
       <c r="K89" s="14"/>
       <c r="L89" s="11"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O89" s="14"/>
+      <c r="Q89" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -3135,13 +3856,22 @@
       <c r="G90" s="14">
         <v>2.5</v>
       </c>
-      <c r="H90" s="14"/>
+      <c r="H90" s="2">
+        <v>5</v>
+      </c>
       <c r="I90" s="14"/>
       <c r="J90" s="14"/>
       <c r="K90" s="14"/>
       <c r="L90" s="11"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O90" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q90" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -3159,13 +3889,22 @@
       <c r="G91" s="14">
         <v>5</v>
       </c>
-      <c r="H91" s="14"/>
+      <c r="H91" s="2">
+        <v>5</v>
+      </c>
       <c r="I91" s="14"/>
       <c r="J91" s="14"/>
       <c r="K91" s="14"/>
       <c r="L91" s="11"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O91" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q91" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -3183,13 +3922,20 @@
       <c r="G92" s="13">
         <v>0</v>
       </c>
-      <c r="H92" s="14"/>
+      <c r="H92" s="2">
+        <v>0</v>
+      </c>
       <c r="I92" s="14"/>
       <c r="J92" s="14"/>
       <c r="K92" s="14"/>
       <c r="L92" s="11"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O92" s="14"/>
+      <c r="Q92" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -3207,13 +3953,22 @@
       <c r="G93" s="14">
         <v>4.5</v>
       </c>
-      <c r="H93" s="14"/>
+      <c r="H93" s="2">
+        <v>4.375</v>
+      </c>
       <c r="I93" s="14"/>
       <c r="J93" s="14"/>
       <c r="K93" s="14"/>
       <c r="L93" s="11"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O93" s="14">
+        <v>35</v>
+      </c>
+      <c r="Q93" s="2">
+        <f t="shared" si="1"/>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -3231,13 +3986,22 @@
       <c r="G94" s="14">
         <v>5</v>
       </c>
-      <c r="H94" s="14"/>
+      <c r="H94" s="2">
+        <v>4.375</v>
+      </c>
       <c r="I94" s="14"/>
       <c r="J94" s="14"/>
       <c r="K94" s="14"/>
       <c r="L94" s="11"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O94" s="14">
+        <v>35</v>
+      </c>
+      <c r="Q94" s="2">
+        <f t="shared" si="1"/>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -3255,13 +4019,20 @@
       <c r="G95" s="14">
         <v>5</v>
       </c>
-      <c r="H95" s="14"/>
+      <c r="H95" s="2">
+        <v>0</v>
+      </c>
       <c r="I95" s="14"/>
       <c r="J95" s="14"/>
       <c r="K95" s="14"/>
       <c r="L95" s="11"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O95" s="14"/>
+      <c r="Q95" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -3279,13 +4050,20 @@
       <c r="G96" s="14">
         <v>5</v>
       </c>
-      <c r="H96" s="14"/>
+      <c r="H96" s="2">
+        <v>0</v>
+      </c>
       <c r="I96" s="14"/>
       <c r="J96" s="14"/>
       <c r="K96" s="14"/>
       <c r="L96" s="11"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O96" s="14"/>
+      <c r="Q96" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -3303,13 +4081,20 @@
       <c r="G97" s="14">
         <v>4</v>
       </c>
-      <c r="H97" s="14"/>
+      <c r="H97" s="2">
+        <v>0</v>
+      </c>
       <c r="I97" s="14"/>
       <c r="J97" s="14"/>
       <c r="K97" s="14"/>
       <c r="L97" s="11"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O97" s="14"/>
+      <c r="Q97" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -3327,13 +4112,20 @@
       <c r="G98" s="13">
         <v>0</v>
       </c>
-      <c r="H98" s="14"/>
+      <c r="H98" s="2">
+        <v>0</v>
+      </c>
       <c r="I98" s="14"/>
       <c r="J98" s="14"/>
       <c r="K98" s="14"/>
       <c r="L98" s="11"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O98" s="14"/>
+      <c r="Q98" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -3351,13 +4143,20 @@
       <c r="G99" s="14">
         <v>4</v>
       </c>
-      <c r="H99" s="14"/>
+      <c r="H99" s="2">
+        <v>0</v>
+      </c>
       <c r="I99" s="14"/>
       <c r="J99" s="14"/>
       <c r="K99" s="14"/>
       <c r="L99" s="11"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O99" s="14"/>
+      <c r="Q99" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -3375,13 +4174,22 @@
       <c r="G100" s="14">
         <v>5</v>
       </c>
-      <c r="H100" s="14"/>
+      <c r="H100" s="2">
+        <v>3.75</v>
+      </c>
       <c r="I100" s="14"/>
       <c r="J100" s="14"/>
       <c r="K100" s="14"/>
       <c r="L100" s="11"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O100" s="14">
+        <v>30</v>
+      </c>
+      <c r="Q100" s="2">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -3399,13 +4207,22 @@
       <c r="G101" s="14">
         <v>5</v>
       </c>
-      <c r="H101" s="14"/>
+      <c r="H101" s="2">
+        <v>4.375</v>
+      </c>
       <c r="I101" s="14"/>
       <c r="J101" s="14"/>
       <c r="K101" s="14"/>
       <c r="L101" s="11"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O101" s="14">
+        <v>35</v>
+      </c>
+      <c r="Q101" s="2">
+        <f t="shared" si="1"/>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -3423,13 +4240,20 @@
       <c r="G102" s="13">
         <v>0</v>
       </c>
-      <c r="H102" s="14"/>
+      <c r="H102" s="2">
+        <v>0</v>
+      </c>
       <c r="I102" s="14"/>
       <c r="J102" s="14"/>
       <c r="K102" s="14"/>
       <c r="L102" s="11"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O102" s="14"/>
+      <c r="Q102" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>101</v>
       </c>
@@ -3447,13 +4271,22 @@
       <c r="G103" s="14">
         <v>5</v>
       </c>
-      <c r="H103" s="14"/>
+      <c r="H103" s="2">
+        <v>4.375</v>
+      </c>
       <c r="I103" s="14"/>
       <c r="J103" s="14"/>
       <c r="K103" s="14"/>
       <c r="L103" s="11"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O103" s="14">
+        <v>35</v>
+      </c>
+      <c r="Q103" s="2">
+        <f t="shared" si="1"/>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -3471,13 +4304,20 @@
       <c r="G104" s="13">
         <v>0</v>
       </c>
-      <c r="H104" s="14"/>
+      <c r="H104" s="2">
+        <v>0</v>
+      </c>
       <c r="I104" s="14"/>
       <c r="J104" s="14"/>
       <c r="K104" s="14"/>
       <c r="L104" s="11"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O104" s="14"/>
+      <c r="Q104" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>103</v>
       </c>
@@ -3495,13 +4335,22 @@
       <c r="G105" s="14">
         <v>4.5</v>
       </c>
-      <c r="H105" s="14"/>
+      <c r="H105" s="2">
+        <v>5</v>
+      </c>
       <c r="I105" s="14"/>
       <c r="J105" s="14"/>
       <c r="K105" s="14"/>
       <c r="L105" s="11"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O105" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q105" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -3519,13 +4368,22 @@
       <c r="G106" s="13">
         <v>0</v>
       </c>
-      <c r="H106" s="14"/>
+      <c r="H106" s="2">
+        <v>3.125</v>
+      </c>
       <c r="I106" s="14"/>
       <c r="J106" s="14"/>
       <c r="K106" s="14"/>
       <c r="L106" s="11"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O106" s="14">
+        <v>25</v>
+      </c>
+      <c r="Q106" s="2">
+        <f t="shared" si="1"/>
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>105</v>
       </c>
@@ -3543,13 +4401,20 @@
       <c r="G107" s="13">
         <v>0</v>
       </c>
-      <c r="H107" s="14"/>
+      <c r="H107" s="2">
+        <v>0</v>
+      </c>
       <c r="I107" s="14"/>
       <c r="J107" s="14"/>
       <c r="K107" s="14"/>
       <c r="L107" s="11"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O107" s="14"/>
+      <c r="Q107" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>106</v>
       </c>
@@ -3567,13 +4432,20 @@
       <c r="G108" s="13">
         <v>0</v>
       </c>
-      <c r="H108" s="14"/>
+      <c r="H108" s="2">
+        <v>0</v>
+      </c>
       <c r="I108" s="14"/>
       <c r="J108" s="14"/>
       <c r="K108" s="14"/>
       <c r="L108" s="11"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O108" s="14"/>
+      <c r="Q108" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>107</v>
       </c>
@@ -3591,13 +4463,22 @@
       <c r="G109" s="14">
         <v>4.5</v>
       </c>
-      <c r="H109" s="14"/>
+      <c r="H109" s="2">
+        <v>5</v>
+      </c>
       <c r="I109" s="14"/>
       <c r="J109" s="14"/>
       <c r="K109" s="14"/>
       <c r="L109" s="11"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O109" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q109" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>108</v>
       </c>
@@ -3615,13 +4496,22 @@
       <c r="G110" s="14">
         <v>3</v>
       </c>
-      <c r="H110" s="14"/>
+      <c r="H110" s="2">
+        <v>5</v>
+      </c>
       <c r="I110" s="14"/>
       <c r="J110" s="14"/>
       <c r="K110" s="14"/>
       <c r="L110" s="11"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O110" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q110" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>109</v>
       </c>
@@ -3639,13 +4529,20 @@
       <c r="G111" s="13">
         <v>0</v>
       </c>
-      <c r="H111" s="14"/>
+      <c r="H111" s="2">
+        <v>0</v>
+      </c>
       <c r="I111" s="14"/>
       <c r="J111" s="14"/>
       <c r="K111" s="14"/>
       <c r="L111" s="11"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O111" s="14"/>
+      <c r="Q111" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>110</v>
       </c>
@@ -3663,13 +4560,22 @@
       <c r="G112" s="14">
         <v>5</v>
       </c>
-      <c r="H112" s="14"/>
+      <c r="H112" s="2">
+        <v>4.375</v>
+      </c>
       <c r="I112" s="14"/>
       <c r="J112" s="14"/>
       <c r="K112" s="14"/>
       <c r="L112" s="11"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O112" s="14">
+        <v>35</v>
+      </c>
+      <c r="Q112" s="2">
+        <f t="shared" si="1"/>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>111</v>
       </c>
@@ -3687,13 +4593,20 @@
       <c r="G113" s="14">
         <v>5</v>
       </c>
-      <c r="H113" s="14"/>
+      <c r="H113" s="2">
+        <v>0</v>
+      </c>
       <c r="I113" s="14"/>
       <c r="J113" s="14"/>
       <c r="K113" s="14"/>
       <c r="L113" s="11"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O113" s="14"/>
+      <c r="Q113" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>112</v>
       </c>
@@ -3711,13 +4624,22 @@
       <c r="G114" s="13">
         <v>0</v>
       </c>
-      <c r="H114" s="14"/>
+      <c r="H114" s="2">
+        <v>5</v>
+      </c>
       <c r="I114" s="14"/>
       <c r="J114" s="14"/>
       <c r="K114" s="14"/>
       <c r="L114" s="11"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O114" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q114" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>113</v>
       </c>
@@ -3735,13 +4657,22 @@
       <c r="G115" s="13">
         <v>0</v>
       </c>
-      <c r="H115" s="14"/>
+      <c r="H115" s="2">
+        <v>5</v>
+      </c>
       <c r="I115" s="14"/>
       <c r="J115" s="14"/>
       <c r="K115" s="14"/>
       <c r="L115" s="11"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O115" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q115" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>114</v>
       </c>
@@ -3759,13 +4690,20 @@
       <c r="G116" s="14">
         <v>2.5</v>
       </c>
-      <c r="H116" s="14"/>
+      <c r="H116" s="2">
+        <v>0</v>
+      </c>
       <c r="I116" s="14"/>
       <c r="J116" s="14"/>
       <c r="K116" s="14"/>
       <c r="L116" s="11"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O116" s="14"/>
+      <c r="Q116" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>115</v>
       </c>
@@ -3783,13 +4721,22 @@
       <c r="G117" s="13">
         <v>0</v>
       </c>
-      <c r="H117" s="14"/>
+      <c r="H117" s="2">
+        <v>5</v>
+      </c>
       <c r="I117" s="14"/>
       <c r="J117" s="14"/>
       <c r="K117" s="14"/>
       <c r="L117" s="11"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O117" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q117" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -3807,13 +4754,22 @@
       <c r="G118" s="13">
         <v>0</v>
       </c>
-      <c r="H118" s="14"/>
+      <c r="H118" s="2">
+        <v>5</v>
+      </c>
       <c r="I118" s="14"/>
       <c r="J118" s="14"/>
       <c r="K118" s="14"/>
       <c r="L118" s="11"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O118" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q118" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>117</v>
       </c>
@@ -3831,13 +4787,20 @@
       <c r="G119" s="14">
         <v>5</v>
       </c>
-      <c r="H119" s="14"/>
+      <c r="H119" s="2">
+        <v>0</v>
+      </c>
       <c r="I119" s="14"/>
       <c r="J119" s="14"/>
       <c r="K119" s="14"/>
       <c r="L119" s="11"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O119" s="14"/>
+      <c r="Q119" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>118</v>
       </c>
@@ -3855,13 +4818,22 @@
       <c r="G120" s="14">
         <v>4.5</v>
       </c>
-      <c r="H120" s="14"/>
+      <c r="H120" s="2">
+        <v>5</v>
+      </c>
       <c r="I120" s="14"/>
       <c r="J120" s="14"/>
       <c r="K120" s="14"/>
       <c r="L120" s="11"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O120" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q120" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>119</v>
       </c>
@@ -3879,13 +4851,20 @@
       <c r="G121" s="13">
         <v>0</v>
       </c>
-      <c r="H121" s="14"/>
+      <c r="H121" s="2">
+        <v>0</v>
+      </c>
       <c r="I121" s="14"/>
       <c r="J121" s="14"/>
       <c r="K121" s="14"/>
       <c r="L121" s="11"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O121" s="14"/>
+      <c r="Q121" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>120</v>
       </c>
@@ -3903,13 +4882,22 @@
       <c r="G122" s="13">
         <v>0</v>
       </c>
-      <c r="H122" s="14"/>
+      <c r="H122" s="2">
+        <v>5</v>
+      </c>
       <c r="I122" s="14"/>
       <c r="J122" s="14"/>
       <c r="K122" s="14"/>
       <c r="L122" s="11"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O122" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q122" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>121</v>
       </c>
@@ -3927,13 +4915,20 @@
       <c r="G123" s="13">
         <v>0</v>
       </c>
-      <c r="H123" s="14"/>
+      <c r="H123" s="2">
+        <v>0</v>
+      </c>
       <c r="I123" s="14"/>
       <c r="J123" s="14"/>
       <c r="K123" s="14"/>
       <c r="L123" s="11"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O123" s="14"/>
+      <c r="Q123" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>122</v>
       </c>
@@ -3951,13 +4946,22 @@
       <c r="G124" s="14">
         <v>5</v>
       </c>
-      <c r="H124" s="14"/>
+      <c r="H124" s="2">
+        <v>5</v>
+      </c>
       <c r="I124" s="14"/>
       <c r="J124" s="14"/>
       <c r="K124" s="14"/>
       <c r="L124" s="11"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O124" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q124" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>123</v>
       </c>
@@ -3975,13 +4979,22 @@
       <c r="G125" s="13">
         <v>0</v>
       </c>
-      <c r="H125" s="14"/>
+      <c r="H125" s="2">
+        <v>5</v>
+      </c>
       <c r="I125" s="14"/>
       <c r="J125" s="14"/>
       <c r="K125" s="14"/>
       <c r="L125" s="11"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O125" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q125" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>124</v>
       </c>
@@ -3999,13 +5012,20 @@
       <c r="G126" s="14">
         <v>4</v>
       </c>
-      <c r="H126" s="14"/>
+      <c r="H126" s="2">
+        <v>0</v>
+      </c>
       <c r="I126" s="14"/>
       <c r="J126" s="14"/>
       <c r="K126" s="14"/>
       <c r="L126" s="11"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O126" s="14"/>
+      <c r="Q126" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>125</v>
       </c>
@@ -4023,13 +5043,20 @@
       <c r="G127" s="14">
         <v>5</v>
       </c>
-      <c r="H127" s="14"/>
+      <c r="H127" s="2">
+        <v>0</v>
+      </c>
       <c r="I127" s="14"/>
       <c r="J127" s="14"/>
       <c r="K127" s="14"/>
       <c r="L127" s="11"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O127" s="14"/>
+      <c r="Q127" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>126</v>
       </c>
@@ -4047,13 +5074,22 @@
       <c r="G128" s="13">
         <v>0</v>
       </c>
-      <c r="H128" s="14"/>
+      <c r="H128" s="2">
+        <v>5</v>
+      </c>
       <c r="I128" s="14"/>
       <c r="J128" s="14"/>
       <c r="K128" s="14"/>
       <c r="L128" s="11"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O128" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q128" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>127</v>
       </c>
@@ -4071,13 +5107,22 @@
       <c r="G129" s="14">
         <v>5</v>
       </c>
-      <c r="H129" s="14"/>
+      <c r="H129" s="2">
+        <v>5</v>
+      </c>
       <c r="I129" s="14"/>
       <c r="J129" s="14"/>
       <c r="K129" s="14"/>
       <c r="L129" s="11"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O129" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q129" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>128</v>
       </c>
@@ -4095,13 +5140,20 @@
       <c r="G130" s="13">
         <v>0</v>
       </c>
-      <c r="H130" s="14"/>
+      <c r="H130" s="2">
+        <v>0</v>
+      </c>
       <c r="I130" s="14"/>
       <c r="J130" s="14"/>
       <c r="K130" s="14"/>
       <c r="L130" s="11"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O130" s="14"/>
+      <c r="Q130" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>129</v>
       </c>
@@ -4119,13 +5171,22 @@
       <c r="G131" s="14">
         <v>4.5</v>
       </c>
-      <c r="H131" s="14"/>
+      <c r="H131" s="2">
+        <v>5</v>
+      </c>
       <c r="I131" s="14"/>
       <c r="J131" s="14"/>
       <c r="K131" s="14"/>
       <c r="L131" s="11"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O131" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q131" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>130</v>
       </c>
@@ -4143,13 +5204,22 @@
       <c r="G132" s="14">
         <v>4</v>
       </c>
-      <c r="H132" s="14"/>
+      <c r="H132" s="2">
+        <v>5</v>
+      </c>
       <c r="I132" s="14"/>
       <c r="J132" s="14"/>
       <c r="K132" s="14"/>
       <c r="L132" s="11"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O132" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q132" s="2">
+        <f t="shared" ref="Q132:Q133" si="2">O132*5/40</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>131</v>
       </c>
@@ -4167,22 +5237,29 @@
       <c r="G133" s="14">
         <v>3</v>
       </c>
-      <c r="H133" s="14"/>
+      <c r="H133" s="2">
+        <v>0</v>
+      </c>
       <c r="I133" s="14"/>
       <c r="J133" s="14"/>
       <c r="K133" s="14"/>
       <c r="L133" s="11"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O133" s="14"/>
+      <c r="Q133" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C137" s="1"/>
     </row>
   </sheetData>

--- a/static/Upload/4th sem.xlsx
+++ b/static/Upload/4th sem.xlsx
@@ -964,7 +964,7 @@
   <dimension ref="A1:Q137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H133"/>
+      <selection activeCell="J6" activeCellId="1" sqref="H3:H133 J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,6 +1058,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="2">
+        <f>Q3</f>
         <v>0</v>
       </c>
       <c r="O3" s="2">
@@ -1087,6 +1088,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="2">
+        <f t="shared" ref="H4:H67" si="0">Q4</f>
         <v>0</v>
       </c>
       <c r="I4" s="14"/>
@@ -1095,7 +1097,7 @@
       <c r="L4" s="11"/>
       <c r="O4" s="14"/>
       <c r="Q4" s="2">
-        <f t="shared" ref="Q4:Q67" si="0">O4*5/40</f>
+        <f t="shared" ref="Q4:Q67" si="1">O4*5/40</f>
         <v>0</v>
       </c>
     </row>
@@ -1118,6 +1120,7 @@
         <v>4.5</v>
       </c>
       <c r="H5" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="14"/>
@@ -1126,7 +1129,7 @@
       <c r="L5" s="11"/>
       <c r="O5" s="14"/>
       <c r="Q5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1149,6 +1152,7 @@
         <v>4.5</v>
       </c>
       <c r="H6" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I6" s="14"/>
@@ -1159,7 +1163,7 @@
         <v>40</v>
       </c>
       <c r="Q6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -1182,6 +1186,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I7" s="14"/>
@@ -1192,7 +1197,7 @@
         <v>40</v>
       </c>
       <c r="Q7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -1215,6 +1220,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2">
+        <f t="shared" si="0"/>
         <v>4.375</v>
       </c>
       <c r="I8" s="14"/>
@@ -1225,7 +1231,7 @@
         <v>35</v>
       </c>
       <c r="Q8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.375</v>
       </c>
     </row>
@@ -1248,6 +1254,7 @@
         <v>4.5</v>
       </c>
       <c r="H9" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I9" s="14"/>
@@ -1258,7 +1265,7 @@
         <v>40</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -1281,6 +1288,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I10" s="14"/>
@@ -1291,7 +1299,7 @@
         <v>40</v>
       </c>
       <c r="Q10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -1314,6 +1322,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="14"/>
@@ -1322,7 +1331,7 @@
       <c r="L11" s="11"/>
       <c r="O11" s="14"/>
       <c r="Q11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1345,6 +1354,7 @@
         <v>4.5</v>
       </c>
       <c r="H12" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I12" s="14"/>
@@ -1355,7 +1365,7 @@
         <v>40</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -1378,6 +1388,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="14"/>
@@ -1386,7 +1397,7 @@
       <c r="L13" s="11"/>
       <c r="O13" s="14"/>
       <c r="Q13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1409,6 +1420,7 @@
         <v>4.5</v>
       </c>
       <c r="H14" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="14"/>
@@ -1417,7 +1429,7 @@
       <c r="L14" s="11"/>
       <c r="O14" s="14"/>
       <c r="Q14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1440,6 +1452,7 @@
         <v>4.5</v>
       </c>
       <c r="H15" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I15" s="14"/>
@@ -1450,7 +1463,7 @@
         <v>40</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -1473,16 +1486,19 @@
         <v>4.5</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="11"/>
-      <c r="O16" s="14"/>
+      <c r="O16" s="14">
+        <v>40</v>
+      </c>
       <c r="Q16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1504,6 +1520,7 @@
         <v>5</v>
       </c>
       <c r="H17" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I17" s="14"/>
@@ -1514,7 +1531,7 @@
         <v>40</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -1537,6 +1554,7 @@
         <v>4.5</v>
       </c>
       <c r="H18" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I18" s="14"/>
@@ -1547,7 +1565,7 @@
         <v>40</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -1570,6 +1588,7 @@
         <v>4.5</v>
       </c>
       <c r="H19" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I19" s="14"/>
@@ -1580,7 +1599,7 @@
         <v>40</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -1603,6 +1622,7 @@
         <v>4.5</v>
       </c>
       <c r="H20" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I20" s="14"/>
@@ -1613,7 +1633,7 @@
         <v>40</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -1636,16 +1656,19 @@
         <v>4.5</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="11"/>
-      <c r="O21" s="14"/>
+      <c r="O21" s="14">
+        <v>40</v>
+      </c>
       <c r="Q21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -1667,6 +1690,7 @@
         <v>4.5</v>
       </c>
       <c r="H22" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I22" s="14"/>
@@ -1677,7 +1701,7 @@
         <v>40</v>
       </c>
       <c r="Q22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -1700,6 +1724,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I23" s="14"/>
@@ -1708,7 +1733,7 @@
       <c r="L23" s="11"/>
       <c r="O23" s="14"/>
       <c r="Q23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1731,6 +1756,7 @@
         <v>4.5</v>
       </c>
       <c r="H24" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I24" s="14"/>
@@ -1741,7 +1767,7 @@
         <v>40</v>
       </c>
       <c r="Q24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -1764,6 +1790,7 @@
         <v>5</v>
       </c>
       <c r="H25" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I25" s="14"/>
@@ -1774,7 +1801,7 @@
         <v>40</v>
       </c>
       <c r="Q25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -1797,6 +1824,7 @@
         <v>5</v>
       </c>
       <c r="H26" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I26" s="14"/>
@@ -1807,7 +1835,7 @@
         <v>40</v>
       </c>
       <c r="Q26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -1830,6 +1858,7 @@
         <v>4</v>
       </c>
       <c r="H27" s="2">
+        <f t="shared" si="0"/>
         <v>4.375</v>
       </c>
       <c r="I27" s="14"/>
@@ -1840,7 +1869,7 @@
         <v>35</v>
       </c>
       <c r="Q27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.375</v>
       </c>
     </row>
@@ -1863,6 +1892,7 @@
         <v>4</v>
       </c>
       <c r="H28" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I28" s="14"/>
@@ -1873,7 +1903,7 @@
         <v>40</v>
       </c>
       <c r="Q28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -1896,6 +1926,7 @@
         <v>5</v>
       </c>
       <c r="H29" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I29" s="14"/>
@@ -1906,7 +1937,7 @@
         <v>40</v>
       </c>
       <c r="Q29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -1929,6 +1960,7 @@
         <v>4</v>
       </c>
       <c r="H30" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I30" s="14"/>
@@ -1939,7 +1971,7 @@
         <v>40</v>
       </c>
       <c r="Q30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -1962,6 +1994,7 @@
         <v>5</v>
       </c>
       <c r="H31" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I31" s="14"/>
@@ -1972,7 +2005,7 @@
         <v>40</v>
       </c>
       <c r="Q31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -1995,6 +2028,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I32" s="14"/>
@@ -2003,7 +2037,7 @@
       <c r="L32" s="11"/>
       <c r="O32" s="14"/>
       <c r="Q32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2026,6 +2060,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I33" s="14"/>
@@ -2034,7 +2069,7 @@
       <c r="L33" s="11"/>
       <c r="O33" s="14"/>
       <c r="Q33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2057,6 +2092,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I34" s="14"/>
@@ -2067,7 +2103,7 @@
         <v>40</v>
       </c>
       <c r="Q34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -2090,6 +2126,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="2">
+        <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
       <c r="I35" s="14"/>
@@ -2100,7 +2137,7 @@
         <v>30</v>
       </c>
       <c r="Q35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
     </row>
@@ -2123,6 +2160,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I36" s="14"/>
@@ -2131,7 +2169,7 @@
       <c r="L36" s="11"/>
       <c r="O36" s="14"/>
       <c r="Q36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2154,16 +2192,19 @@
         <v>0</v>
       </c>
       <c r="H37" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
       <c r="L37" s="11"/>
-      <c r="O37" s="14"/>
+      <c r="O37" s="14">
+        <v>40</v>
+      </c>
       <c r="Q37" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -2185,6 +2226,7 @@
         <v>5</v>
       </c>
       <c r="H38" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I38" s="14"/>
@@ -2195,7 +2237,7 @@
         <v>40</v>
       </c>
       <c r="Q38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -2218,6 +2260,7 @@
         <v>4.5</v>
       </c>
       <c r="H39" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I39" s="14"/>
@@ -2228,7 +2271,7 @@
         <v>40</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -2251,6 +2294,7 @@
         <v>4.5</v>
       </c>
       <c r="H40" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I40" s="14"/>
@@ -2261,7 +2305,7 @@
         <v>40</v>
       </c>
       <c r="Q40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -2284,6 +2328,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I41" s="14"/>
@@ -2292,7 +2337,7 @@
       <c r="L41" s="11"/>
       <c r="O41" s="14"/>
       <c r="Q41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2315,6 +2360,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I42" s="14"/>
@@ -2325,7 +2371,7 @@
         <v>40</v>
       </c>
       <c r="Q42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -2348,6 +2394,7 @@
         <v>5</v>
       </c>
       <c r="H43" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I43" s="14"/>
@@ -2358,7 +2405,7 @@
         <v>40</v>
       </c>
       <c r="Q43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -2381,6 +2428,7 @@
         <v>3</v>
       </c>
       <c r="H44" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I44" s="14"/>
@@ -2391,7 +2439,7 @@
         <v>40</v>
       </c>
       <c r="Q44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -2414,6 +2462,7 @@
         <v>3.5</v>
       </c>
       <c r="H45" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I45" s="14"/>
@@ -2424,7 +2473,7 @@
         <v>40</v>
       </c>
       <c r="Q45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -2447,6 +2496,7 @@
         <v>4.5</v>
       </c>
       <c r="H46" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I46" s="14"/>
@@ -2455,7 +2505,7 @@
       <c r="L46" s="11"/>
       <c r="O46" s="14"/>
       <c r="Q46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2478,16 +2528,19 @@
         <v>5</v>
       </c>
       <c r="H47" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
       <c r="L47" s="11"/>
-      <c r="O47" s="14"/>
+      <c r="O47" s="14">
+        <v>40</v>
+      </c>
       <c r="Q47" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
@@ -2509,6 +2562,7 @@
         <v>3</v>
       </c>
       <c r="H48" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I48" s="14"/>
@@ -2519,7 +2573,7 @@
         <v>40</v>
       </c>
       <c r="Q48" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -2542,6 +2596,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I49" s="14"/>
@@ -2550,7 +2605,7 @@
       <c r="L49" s="11"/>
       <c r="O49" s="14"/>
       <c r="Q49" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2573,6 +2628,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I50" s="14"/>
@@ -2581,7 +2637,7 @@
       <c r="L50" s="11"/>
       <c r="O50" s="14"/>
       <c r="Q50" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2604,6 +2660,7 @@
         <v>4.5</v>
       </c>
       <c r="H51" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I51" s="14"/>
@@ -2614,7 +2671,7 @@
         <v>40</v>
       </c>
       <c r="Q51" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -2637,6 +2694,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="2">
+        <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
       <c r="I52" s="14"/>
@@ -2647,7 +2705,7 @@
         <v>30</v>
       </c>
       <c r="Q52" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
     </row>
@@ -2670,6 +2728,7 @@
         <v>4</v>
       </c>
       <c r="H53" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I53" s="14"/>
@@ -2678,7 +2737,7 @@
       <c r="L53" s="11"/>
       <c r="O53" s="14"/>
       <c r="Q53" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2701,16 +2760,19 @@
         <v>0</v>
       </c>
       <c r="H54" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
       <c r="K54" s="14"/>
       <c r="L54" s="11"/>
-      <c r="O54" s="14"/>
+      <c r="O54" s="14">
+        <v>40</v>
+      </c>
       <c r="Q54" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -2732,6 +2794,7 @@
         <v>5</v>
       </c>
       <c r="H55" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I55" s="14"/>
@@ -2742,7 +2805,7 @@
         <v>40</v>
       </c>
       <c r="Q55" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -2765,6 +2828,7 @@
         <v>4.5</v>
       </c>
       <c r="H56" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I56" s="14"/>
@@ -2775,7 +2839,7 @@
         <v>40</v>
       </c>
       <c r="Q56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -2798,6 +2862,7 @@
         <v>5</v>
       </c>
       <c r="H57" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I57" s="14"/>
@@ -2808,7 +2873,7 @@
         <v>40</v>
       </c>
       <c r="Q57" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -2831,16 +2896,19 @@
         <v>4.5</v>
       </c>
       <c r="H58" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="I58" s="14"/>
       <c r="J58" s="14"/>
       <c r="K58" s="14"/>
       <c r="L58" s="11"/>
-      <c r="O58" s="14"/>
+      <c r="O58" s="14">
+        <v>40</v>
+      </c>
       <c r="Q58" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -2862,6 +2930,7 @@
         <v>4</v>
       </c>
       <c r="H59" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I59" s="14"/>
@@ -2870,7 +2939,7 @@
       <c r="L59" s="11"/>
       <c r="O59" s="14"/>
       <c r="Q59" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2893,6 +2962,7 @@
         <v>5</v>
       </c>
       <c r="H60" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I60" s="14"/>
@@ -2901,7 +2971,7 @@
       <c r="L60" s="11"/>
       <c r="O60" s="14"/>
       <c r="Q60" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2924,6 +2994,7 @@
         <v>5</v>
       </c>
       <c r="H61" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I61" s="14"/>
@@ -2934,7 +3005,7 @@
         <v>40</v>
       </c>
       <c r="Q61" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -2957,6 +3028,7 @@
         <v>4.5</v>
       </c>
       <c r="H62" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I62" s="14"/>
@@ -2967,7 +3039,7 @@
         <v>40</v>
       </c>
       <c r="Q62" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -2990,6 +3062,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I63" s="14"/>
@@ -2998,7 +3071,7 @@
       <c r="L63" s="11"/>
       <c r="O63" s="14"/>
       <c r="Q63" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3021,6 +3094,7 @@
         <v>5</v>
       </c>
       <c r="H64" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I64" s="14"/>
@@ -3031,7 +3105,7 @@
         <v>40</v>
       </c>
       <c r="Q64" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -3054,6 +3128,7 @@
         <v>4.5</v>
       </c>
       <c r="H65" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I65" s="14"/>
@@ -3064,7 +3139,7 @@
         <v>40</v>
       </c>
       <c r="Q65" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -3087,6 +3162,7 @@
         <v>5</v>
       </c>
       <c r="H66" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I66" s="14"/>
@@ -3097,7 +3173,7 @@
         <v>40</v>
       </c>
       <c r="Q66" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -3120,6 +3196,7 @@
         <v>5</v>
       </c>
       <c r="H67" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I67" s="14"/>
@@ -3130,7 +3207,7 @@
         <v>40</v>
       </c>
       <c r="Q67" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -3153,6 +3230,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="2">
+        <f t="shared" ref="H68:H131" si="2">Q68</f>
         <v>0</v>
       </c>
       <c r="I68" s="14"/>
@@ -3161,7 +3239,7 @@
       <c r="L68" s="11"/>
       <c r="O68" s="14"/>
       <c r="Q68" s="2">
-        <f t="shared" ref="Q68:Q131" si="1">O68*5/40</f>
+        <f t="shared" ref="Q68:Q131" si="3">O68*5/40</f>
         <v>0</v>
       </c>
     </row>
@@ -3184,6 +3262,7 @@
         <v>4.5</v>
       </c>
       <c r="H69" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I69" s="14"/>
@@ -3194,7 +3273,7 @@
         <v>40</v>
       </c>
       <c r="Q69" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -3217,6 +3296,7 @@
         <v>5</v>
       </c>
       <c r="H70" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I70" s="14"/>
@@ -3227,7 +3307,7 @@
         <v>40</v>
       </c>
       <c r="Q70" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -3250,16 +3330,19 @@
         <v>5</v>
       </c>
       <c r="H71" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
       <c r="K71" s="14"/>
       <c r="L71" s="11"/>
-      <c r="O71" s="14"/>
+      <c r="O71" s="14">
+        <v>40</v>
+      </c>
       <c r="Q71" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
@@ -3281,6 +3364,7 @@
         <v>5</v>
       </c>
       <c r="H72" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I72" s="14"/>
@@ -3291,7 +3375,7 @@
         <v>40</v>
       </c>
       <c r="Q72" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -3314,6 +3398,7 @@
         <v>5</v>
       </c>
       <c r="H73" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I73" s="14"/>
@@ -3324,7 +3409,7 @@
         <v>40</v>
       </c>
       <c r="Q73" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -3347,6 +3432,7 @@
         <v>5</v>
       </c>
       <c r="H74" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I74" s="14"/>
@@ -3355,7 +3441,7 @@
       <c r="L74" s="11"/>
       <c r="O74" s="14"/>
       <c r="Q74" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3378,6 +3464,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I75" s="14"/>
@@ -3386,7 +3473,7 @@
       <c r="L75" s="11"/>
       <c r="O75" s="14"/>
       <c r="Q75" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3409,6 +3496,7 @@
         <v>5</v>
       </c>
       <c r="H76" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I76" s="14"/>
@@ -3417,7 +3505,7 @@
       <c r="L76" s="11"/>
       <c r="O76" s="14"/>
       <c r="Q76" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3440,6 +3528,7 @@
         <v>5</v>
       </c>
       <c r="H77" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I77" s="14"/>
@@ -3450,7 +3539,7 @@
         <v>40</v>
       </c>
       <c r="Q77" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -3473,6 +3562,7 @@
         <v>3</v>
       </c>
       <c r="H78" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I78" s="14"/>
@@ -3483,7 +3573,7 @@
         <v>40</v>
       </c>
       <c r="Q78" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -3506,6 +3596,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I79" s="14"/>
@@ -3514,7 +3605,7 @@
       <c r="L79" s="11"/>
       <c r="O79" s="14"/>
       <c r="Q79" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3537,6 +3628,7 @@
         <v>5</v>
       </c>
       <c r="H80" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I80" s="14"/>
@@ -3547,7 +3639,7 @@
         <v>40</v>
       </c>
       <c r="Q80" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -3570,6 +3662,7 @@
         <v>5</v>
       </c>
       <c r="H81" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I81" s="14"/>
@@ -3578,7 +3671,7 @@
       <c r="L81" s="11"/>
       <c r="O81" s="14"/>
       <c r="Q81" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3601,6 +3694,7 @@
         <v>3</v>
       </c>
       <c r="H82" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I82" s="14"/>
@@ -3611,7 +3705,7 @@
         <v>40</v>
       </c>
       <c r="Q82" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -3634,16 +3728,19 @@
         <v>4.5</v>
       </c>
       <c r="H83" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I83" s="14"/>
       <c r="J83" s="14"/>
       <c r="K83" s="14"/>
       <c r="L83" s="11"/>
-      <c r="O83" s="14"/>
+      <c r="O83" s="14">
+        <v>40</v>
+      </c>
       <c r="Q83" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
@@ -3665,6 +3762,7 @@
         <v>0</v>
       </c>
       <c r="H84" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I84" s="14"/>
@@ -3673,7 +3771,7 @@
       <c r="L84" s="11"/>
       <c r="O84" s="14"/>
       <c r="Q84" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3696,6 +3794,7 @@
         <v>5</v>
       </c>
       <c r="H85" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I85" s="14"/>
@@ -3706,7 +3805,7 @@
         <v>40</v>
       </c>
       <c r="Q85" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -3729,6 +3828,7 @@
         <v>5</v>
       </c>
       <c r="H86" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I86" s="14"/>
@@ -3739,7 +3839,7 @@
         <v>40</v>
       </c>
       <c r="Q86" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -3762,6 +3862,7 @@
         <v>5</v>
       </c>
       <c r="H87" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I87" s="14"/>
@@ -3772,7 +3873,7 @@
         <v>40</v>
       </c>
       <c r="Q87" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -3795,16 +3896,19 @@
         <v>5</v>
       </c>
       <c r="H88" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I88" s="14"/>
       <c r="J88" s="14"/>
       <c r="K88" s="14"/>
       <c r="L88" s="11"/>
-      <c r="O88" s="14"/>
+      <c r="O88" s="14">
+        <v>40</v>
+      </c>
       <c r="Q88" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
@@ -3826,6 +3930,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I89" s="14"/>
@@ -3834,7 +3939,7 @@
       <c r="L89" s="11"/>
       <c r="O89" s="14"/>
       <c r="Q89" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3857,6 +3962,7 @@
         <v>2.5</v>
       </c>
       <c r="H90" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I90" s="14"/>
@@ -3867,7 +3973,7 @@
         <v>40</v>
       </c>
       <c r="Q90" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -3890,6 +3996,7 @@
         <v>5</v>
       </c>
       <c r="H91" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I91" s="14"/>
@@ -3900,7 +4007,7 @@
         <v>40</v>
       </c>
       <c r="Q91" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -3923,6 +4030,7 @@
         <v>0</v>
       </c>
       <c r="H92" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I92" s="14"/>
@@ -3931,7 +4039,7 @@
       <c r="L92" s="11"/>
       <c r="O92" s="14"/>
       <c r="Q92" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3954,6 +4062,7 @@
         <v>4.5</v>
       </c>
       <c r="H93" s="2">
+        <f t="shared" si="2"/>
         <v>4.375</v>
       </c>
       <c r="I93" s="14"/>
@@ -3964,7 +4073,7 @@
         <v>35</v>
       </c>
       <c r="Q93" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.375</v>
       </c>
     </row>
@@ -3987,6 +4096,7 @@
         <v>5</v>
       </c>
       <c r="H94" s="2">
+        <f t="shared" si="2"/>
         <v>4.375</v>
       </c>
       <c r="I94" s="14"/>
@@ -3997,7 +4107,7 @@
         <v>35</v>
       </c>
       <c r="Q94" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.375</v>
       </c>
     </row>
@@ -4020,6 +4130,7 @@
         <v>5</v>
       </c>
       <c r="H95" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I95" s="14"/>
@@ -4028,7 +4139,7 @@
       <c r="L95" s="11"/>
       <c r="O95" s="14"/>
       <c r="Q95" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4051,6 +4162,7 @@
         <v>5</v>
       </c>
       <c r="H96" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I96" s="14"/>
@@ -4059,7 +4171,7 @@
       <c r="L96" s="11"/>
       <c r="O96" s="14"/>
       <c r="Q96" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4082,6 +4194,7 @@
         <v>4</v>
       </c>
       <c r="H97" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I97" s="14"/>
@@ -4090,7 +4203,7 @@
       <c r="L97" s="11"/>
       <c r="O97" s="14"/>
       <c r="Q97" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4113,6 +4226,7 @@
         <v>0</v>
       </c>
       <c r="H98" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I98" s="14"/>
@@ -4121,7 +4235,7 @@
       <c r="L98" s="11"/>
       <c r="O98" s="14"/>
       <c r="Q98" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4144,16 +4258,19 @@
         <v>4</v>
       </c>
       <c r="H99" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I99" s="14"/>
       <c r="J99" s="14"/>
       <c r="K99" s="14"/>
       <c r="L99" s="11"/>
-      <c r="O99" s="14"/>
+      <c r="O99" s="14">
+        <v>40</v>
+      </c>
       <c r="Q99" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
@@ -4175,6 +4292,7 @@
         <v>5</v>
       </c>
       <c r="H100" s="2">
+        <f t="shared" si="2"/>
         <v>3.75</v>
       </c>
       <c r="I100" s="14"/>
@@ -4185,7 +4303,7 @@
         <v>30</v>
       </c>
       <c r="Q100" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.75</v>
       </c>
     </row>
@@ -4208,6 +4326,7 @@
         <v>5</v>
       </c>
       <c r="H101" s="2">
+        <f t="shared" si="2"/>
         <v>4.375</v>
       </c>
       <c r="I101" s="14"/>
@@ -4218,7 +4337,7 @@
         <v>35</v>
       </c>
       <c r="Q101" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.375</v>
       </c>
     </row>
@@ -4241,6 +4360,7 @@
         <v>0</v>
       </c>
       <c r="H102" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I102" s="14"/>
@@ -4249,7 +4369,7 @@
       <c r="L102" s="11"/>
       <c r="O102" s="14"/>
       <c r="Q102" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4272,6 +4392,7 @@
         <v>5</v>
       </c>
       <c r="H103" s="2">
+        <f t="shared" si="2"/>
         <v>4.375</v>
       </c>
       <c r="I103" s="14"/>
@@ -4282,7 +4403,7 @@
         <v>35</v>
       </c>
       <c r="Q103" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.375</v>
       </c>
     </row>
@@ -4305,6 +4426,7 @@
         <v>0</v>
       </c>
       <c r="H104" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I104" s="14"/>
@@ -4313,7 +4435,7 @@
       <c r="L104" s="11"/>
       <c r="O104" s="14"/>
       <c r="Q104" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4336,6 +4458,7 @@
         <v>4.5</v>
       </c>
       <c r="H105" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I105" s="14"/>
@@ -4346,7 +4469,7 @@
         <v>40</v>
       </c>
       <c r="Q105" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -4369,6 +4492,7 @@
         <v>0</v>
       </c>
       <c r="H106" s="2">
+        <f t="shared" si="2"/>
         <v>3.125</v>
       </c>
       <c r="I106" s="14"/>
@@ -4379,7 +4503,7 @@
         <v>25</v>
       </c>
       <c r="Q106" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.125</v>
       </c>
     </row>
@@ -4402,16 +4526,19 @@
         <v>0</v>
       </c>
       <c r="H107" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I107" s="14"/>
       <c r="J107" s="14"/>
       <c r="K107" s="14"/>
       <c r="L107" s="11"/>
-      <c r="O107" s="14"/>
+      <c r="O107" s="14">
+        <v>40</v>
+      </c>
       <c r="Q107" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
@@ -4433,6 +4560,7 @@
         <v>0</v>
       </c>
       <c r="H108" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I108" s="14"/>
@@ -4441,7 +4569,7 @@
       <c r="L108" s="11"/>
       <c r="O108" s="14"/>
       <c r="Q108" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4464,6 +4592,7 @@
         <v>4.5</v>
       </c>
       <c r="H109" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I109" s="14"/>
@@ -4474,7 +4603,7 @@
         <v>40</v>
       </c>
       <c r="Q109" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -4497,6 +4626,7 @@
         <v>3</v>
       </c>
       <c r="H110" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I110" s="14"/>
@@ -4507,7 +4637,7 @@
         <v>40</v>
       </c>
       <c r="Q110" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -4530,6 +4660,7 @@
         <v>0</v>
       </c>
       <c r="H111" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I111" s="14"/>
@@ -4538,7 +4669,7 @@
       <c r="L111" s="11"/>
       <c r="O111" s="14"/>
       <c r="Q111" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4561,6 +4692,7 @@
         <v>5</v>
       </c>
       <c r="H112" s="2">
+        <f t="shared" si="2"/>
         <v>4.375</v>
       </c>
       <c r="I112" s="14"/>
@@ -4571,7 +4703,7 @@
         <v>35</v>
       </c>
       <c r="Q112" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.375</v>
       </c>
     </row>
@@ -4594,16 +4726,19 @@
         <v>5</v>
       </c>
       <c r="H113" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I113" s="14"/>
       <c r="J113" s="14"/>
       <c r="K113" s="14"/>
       <c r="L113" s="11"/>
-      <c r="O113" s="14"/>
+      <c r="O113" s="14">
+        <v>40</v>
+      </c>
       <c r="Q113" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
@@ -4625,6 +4760,7 @@
         <v>0</v>
       </c>
       <c r="H114" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I114" s="14"/>
@@ -4635,7 +4771,7 @@
         <v>40</v>
       </c>
       <c r="Q114" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -4658,6 +4794,7 @@
         <v>0</v>
       </c>
       <c r="H115" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I115" s="14"/>
@@ -4668,7 +4805,7 @@
         <v>40</v>
       </c>
       <c r="Q115" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -4691,6 +4828,7 @@
         <v>2.5</v>
       </c>
       <c r="H116" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I116" s="14"/>
@@ -4699,7 +4837,7 @@
       <c r="L116" s="11"/>
       <c r="O116" s="14"/>
       <c r="Q116" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4722,6 +4860,7 @@
         <v>0</v>
       </c>
       <c r="H117" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I117" s="14"/>
@@ -4732,7 +4871,7 @@
         <v>40</v>
       </c>
       <c r="Q117" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -4755,6 +4894,7 @@
         <v>0</v>
       </c>
       <c r="H118" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I118" s="14"/>
@@ -4765,7 +4905,7 @@
         <v>40</v>
       </c>
       <c r="Q118" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -4788,16 +4928,19 @@
         <v>5</v>
       </c>
       <c r="H119" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I119" s="14"/>
       <c r="J119" s="14"/>
       <c r="K119" s="14"/>
       <c r="L119" s="11"/>
-      <c r="O119" s="14"/>
+      <c r="O119" s="14">
+        <v>40</v>
+      </c>
       <c r="Q119" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
@@ -4819,6 +4962,7 @@
         <v>4.5</v>
       </c>
       <c r="H120" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I120" s="14"/>
@@ -4829,7 +4973,7 @@
         <v>40</v>
       </c>
       <c r="Q120" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -4852,6 +4996,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I121" s="14"/>
@@ -4860,7 +5005,7 @@
       <c r="L121" s="11"/>
       <c r="O121" s="14"/>
       <c r="Q121" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4883,6 +5028,7 @@
         <v>0</v>
       </c>
       <c r="H122" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I122" s="14"/>
@@ -4893,7 +5039,7 @@
         <v>40</v>
       </c>
       <c r="Q122" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -4916,16 +5062,19 @@
         <v>0</v>
       </c>
       <c r="H123" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I123" s="14"/>
       <c r="J123" s="14"/>
       <c r="K123" s="14"/>
       <c r="L123" s="11"/>
-      <c r="O123" s="14"/>
+      <c r="O123" s="14">
+        <v>40</v>
+      </c>
       <c r="Q123" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
@@ -4947,6 +5096,7 @@
         <v>5</v>
       </c>
       <c r="H124" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I124" s="14"/>
@@ -4957,7 +5107,7 @@
         <v>40</v>
       </c>
       <c r="Q124" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -4980,6 +5130,7 @@
         <v>0</v>
       </c>
       <c r="H125" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I125" s="14"/>
@@ -4990,7 +5141,7 @@
         <v>40</v>
       </c>
       <c r="Q125" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -5013,16 +5164,19 @@
         <v>4</v>
       </c>
       <c r="H126" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I126" s="14"/>
       <c r="J126" s="14"/>
       <c r="K126" s="14"/>
       <c r="L126" s="11"/>
-      <c r="O126" s="14"/>
+      <c r="O126" s="14">
+        <v>40</v>
+      </c>
       <c r="Q126" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
@@ -5044,6 +5198,7 @@
         <v>5</v>
       </c>
       <c r="H127" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I127" s="14"/>
@@ -5052,7 +5207,7 @@
       <c r="L127" s="11"/>
       <c r="O127" s="14"/>
       <c r="Q127" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5075,6 +5230,7 @@
         <v>0</v>
       </c>
       <c r="H128" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I128" s="14"/>
@@ -5085,7 +5241,7 @@
         <v>40</v>
       </c>
       <c r="Q128" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -5108,6 +5264,7 @@
         <v>5</v>
       </c>
       <c r="H129" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I129" s="14"/>
@@ -5118,7 +5275,7 @@
         <v>40</v>
       </c>
       <c r="Q129" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -5141,16 +5298,19 @@
         <v>0</v>
       </c>
       <c r="H130" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I130" s="14"/>
       <c r="J130" s="14"/>
       <c r="K130" s="14"/>
       <c r="L130" s="11"/>
-      <c r="O130" s="14"/>
+      <c r="O130" s="14">
+        <v>40</v>
+      </c>
       <c r="Q130" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.25">
@@ -5172,6 +5332,7 @@
         <v>4.5</v>
       </c>
       <c r="H131" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I131" s="14"/>
@@ -5182,7 +5343,7 @@
         <v>40</v>
       </c>
       <c r="Q131" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -5205,6 +5366,7 @@
         <v>4</v>
       </c>
       <c r="H132" s="2">
+        <f t="shared" ref="H132:H133" si="4">Q132</f>
         <v>5</v>
       </c>
       <c r="I132" s="14"/>
@@ -5215,7 +5377,7 @@
         <v>40</v>
       </c>
       <c r="Q132" s="2">
-        <f t="shared" ref="Q132:Q133" si="2">O132*5/40</f>
+        <f t="shared" ref="Q132:Q133" si="5">O132*5/40</f>
         <v>5</v>
       </c>
     </row>
@@ -5238,6 +5400,7 @@
         <v>3</v>
       </c>
       <c r="H133" s="2">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I133" s="14"/>
@@ -5246,7 +5409,7 @@
       <c r="L133" s="11"/>
       <c r="O133" s="14"/>
       <c r="Q133" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>

--- a/static/Upload/4th sem.xlsx
+++ b/static/Upload/4th sem.xlsx
@@ -964,7 +964,7 @@
   <dimension ref="A1:Q137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" activeCellId="1" sqref="H3:H133 J6"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,16 +1089,18 @@
       </c>
       <c r="H4" s="2">
         <f t="shared" ref="H4:H67" si="0">Q4</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="11"/>
-      <c r="O4" s="14"/>
+      <c r="O4" s="14">
+        <v>40</v>
+      </c>
       <c r="Q4" s="2">
         <f t="shared" ref="Q4:Q67" si="1">O4*5/40</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1323,16 +1325,18 @@
       </c>
       <c r="H11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="11"/>
-      <c r="O11" s="14"/>
+      <c r="O11" s="14">
+        <v>40</v>
+      </c>
       <c r="Q11" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -5401,16 +5405,18 @@
       </c>
       <c r="H133" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I133" s="14"/>
       <c r="J133" s="14"/>
       <c r="K133" s="14"/>
       <c r="L133" s="11"/>
-      <c r="O133" s="14"/>
+      <c r="O133" s="14">
+        <v>40</v>
+      </c>
       <c r="Q133" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">

--- a/static/Upload/4th sem.xlsx
+++ b/static/Upload/4th sem.xlsx
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O96" sqref="O96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4135,16 +4135,18 @@
       </c>
       <c r="H95" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I95" s="14"/>
       <c r="J95" s="14"/>
       <c r="K95" s="14"/>
       <c r="L95" s="11"/>
-      <c r="O95" s="14"/>
+      <c r="O95" s="14">
+        <v>40</v>
+      </c>
       <c r="Q95" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">

--- a/static/Upload/4th sem.xlsx
+++ b/static/Upload/4th sem.xlsx
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O96" sqref="O96"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O99" sqref="O99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3667,16 +3667,18 @@
       </c>
       <c r="H81" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I81" s="14"/>
       <c r="J81" s="14"/>
       <c r="K81" s="14"/>
       <c r="L81" s="11"/>
-      <c r="O81" s="14"/>
+      <c r="O81" s="14">
+        <v>40</v>
+      </c>
       <c r="Q81" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
@@ -4201,16 +4203,18 @@
       </c>
       <c r="H97" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I97" s="14"/>
       <c r="J97" s="14"/>
       <c r="K97" s="14"/>
       <c r="L97" s="11"/>
-      <c r="O97" s="14"/>
+      <c r="O97" s="14">
+        <v>40</v>
+      </c>
       <c r="Q97" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
@@ -4233,16 +4237,18 @@
       </c>
       <c r="H98" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.375</v>
       </c>
       <c r="I98" s="14"/>
       <c r="J98" s="14"/>
       <c r="K98" s="14"/>
       <c r="L98" s="11"/>
-      <c r="O98" s="14"/>
+      <c r="O98" s="14">
+        <v>35</v>
+      </c>
       <c r="Q98" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.375</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">

--- a/static/Upload/4th sem.xlsx
+++ b/static/Upload/4th sem.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="134">
   <si>
     <t>S.N</t>
   </si>
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O99" sqref="O99"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,6 +1054,9 @@
       <c r="D3" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="E3" s="2">
+        <v>8</v>
+      </c>
       <c r="G3" s="2">
         <v>0</v>
       </c>
@@ -1082,7 +1085,9 @@
       <c r="D4" s="14">
         <v>13</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="14">
+        <v>15</v>
+      </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14">
         <v>4</v>
@@ -1116,7 +1121,9 @@
       <c r="D5" s="14">
         <v>9</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="14">
+        <v>7</v>
+      </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14">
         <v>4.5</v>
@@ -1148,7 +1155,9 @@
       <c r="D6" s="14">
         <v>7</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="14">
+        <v>16</v>
+      </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14">
         <v>4.5</v>
@@ -1182,7 +1191,9 @@
       <c r="D7" s="14">
         <v>5</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="14">
+        <v>8</v>
+      </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14">
         <v>5</v>
@@ -1216,7 +1227,9 @@
       <c r="D8" s="14">
         <v>9</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="14">
+        <v>7</v>
+      </c>
       <c r="F8" s="14"/>
       <c r="G8" s="13">
         <v>0</v>
@@ -1250,7 +1263,9 @@
       <c r="D9" s="14">
         <v>8</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="14">
+        <v>19</v>
+      </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14">
         <v>4.5</v>
@@ -1284,7 +1299,9 @@
       <c r="D10" s="14">
         <v>7</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="14">
+        <v>13</v>
+      </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14">
         <v>3</v>
@@ -1318,7 +1335,9 @@
       <c r="D11" s="14">
         <v>4</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="14">
+        <v>12</v>
+      </c>
       <c r="F11" s="14"/>
       <c r="G11" s="13">
         <v>0</v>
@@ -1352,7 +1371,9 @@
       <c r="D12" s="14">
         <v>5</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="14">
+        <v>15</v>
+      </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14">
         <v>4.5</v>
@@ -1386,7 +1407,9 @@
       <c r="D13" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="14"/>
+      <c r="E13" s="14">
+        <v>13</v>
+      </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14">
         <v>4</v>
@@ -1418,7 +1441,9 @@
       <c r="D14" s="14">
         <v>3</v>
       </c>
-      <c r="E14" s="14"/>
+      <c r="E14" s="14">
+        <v>12</v>
+      </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14">
         <v>4.5</v>
@@ -1450,7 +1475,9 @@
       <c r="D15" s="14">
         <v>10</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="14">
+        <v>15</v>
+      </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14">
         <v>4.5</v>
@@ -1484,7 +1511,9 @@
       <c r="D16" s="14">
         <v>16</v>
       </c>
-      <c r="E16" s="14"/>
+      <c r="E16" s="14">
+        <v>15</v>
+      </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14">
         <v>4.5</v>
@@ -1518,7 +1547,9 @@
       <c r="D17" s="14">
         <v>16</v>
       </c>
-      <c r="E17" s="14"/>
+      <c r="E17" s="14">
+        <v>22</v>
+      </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14">
         <v>5</v>
@@ -1552,7 +1583,9 @@
       <c r="D18" s="14">
         <v>14</v>
       </c>
-      <c r="E18" s="14"/>
+      <c r="E18" s="14">
+        <v>18</v>
+      </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14">
         <v>4.5</v>
@@ -1586,7 +1619,9 @@
       <c r="D19" s="14">
         <v>21</v>
       </c>
-      <c r="E19" s="14"/>
+      <c r="E19" s="14">
+        <v>28</v>
+      </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14">
         <v>4.5</v>
@@ -1620,7 +1655,9 @@
       <c r="D20" s="14">
         <v>20</v>
       </c>
-      <c r="E20" s="14"/>
+      <c r="E20" s="14">
+        <v>21</v>
+      </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14">
         <v>4.5</v>
@@ -1654,7 +1691,9 @@
       <c r="D21" s="14">
         <v>14</v>
       </c>
-      <c r="E21" s="14"/>
+      <c r="E21" s="14">
+        <v>14</v>
+      </c>
       <c r="F21" s="14"/>
       <c r="G21" s="14">
         <v>4.5</v>
@@ -1688,7 +1727,9 @@
       <c r="D22" s="14">
         <v>4</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="14">
+        <v>16</v>
+      </c>
       <c r="F22" s="14"/>
       <c r="G22" s="14">
         <v>4.5</v>
@@ -1722,7 +1763,9 @@
       <c r="D23" s="14">
         <v>2</v>
       </c>
-      <c r="E23" s="14"/>
+      <c r="E23" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="F23" s="14"/>
       <c r="G23" s="13">
         <v>0</v>
@@ -1754,7 +1797,9 @@
       <c r="D24" s="14">
         <v>6</v>
       </c>
-      <c r="E24" s="14"/>
+      <c r="E24" s="14">
+        <v>12</v>
+      </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14">
         <v>4.5</v>
@@ -1788,7 +1833,9 @@
       <c r="D25" s="14">
         <v>14</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="14">
+        <v>24</v>
+      </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14">
         <v>5</v>
@@ -1822,7 +1869,9 @@
       <c r="D26" s="14">
         <v>4</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14">
         <v>5</v>
@@ -1856,7 +1905,9 @@
       <c r="D27" s="14">
         <v>5</v>
       </c>
-      <c r="E27" s="14"/>
+      <c r="E27" s="14">
+        <v>14</v>
+      </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14">
         <v>4</v>
@@ -1890,7 +1941,9 @@
       <c r="D28" s="14">
         <v>12</v>
       </c>
-      <c r="E28" s="14"/>
+      <c r="E28" s="14">
+        <v>13</v>
+      </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14">
         <v>4</v>
@@ -1924,7 +1977,9 @@
       <c r="D29" s="14">
         <v>12</v>
       </c>
-      <c r="E29" s="14"/>
+      <c r="E29" s="14">
+        <v>15</v>
+      </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14">
         <v>5</v>
@@ -1958,7 +2013,9 @@
       <c r="D30" s="14">
         <v>3</v>
       </c>
-      <c r="E30" s="14"/>
+      <c r="E30" s="14">
+        <v>12</v>
+      </c>
       <c r="F30" s="14"/>
       <c r="G30" s="14">
         <v>4</v>
@@ -1992,7 +2049,9 @@
       <c r="D31" s="14">
         <v>17</v>
       </c>
-      <c r="E31" s="14"/>
+      <c r="E31" s="14">
+        <v>20</v>
+      </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14">
         <v>5</v>
@@ -2026,7 +2085,9 @@
       <c r="D32" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E32" s="14"/>
+      <c r="E32" s="14">
+        <v>5</v>
+      </c>
       <c r="F32" s="14"/>
       <c r="G32" s="13">
         <v>0</v>
@@ -2058,7 +2119,9 @@
       <c r="D33" s="14">
         <v>7</v>
       </c>
-      <c r="E33" s="14"/>
+      <c r="E33" s="14">
+        <v>2</v>
+      </c>
       <c r="F33" s="14"/>
       <c r="G33" s="13">
         <v>0</v>
@@ -2090,7 +2153,9 @@
       <c r="D34" s="14">
         <v>13</v>
       </c>
-      <c r="E34" s="14"/>
+      <c r="E34" s="14">
+        <v>20</v>
+      </c>
       <c r="F34" s="14"/>
       <c r="G34" s="13">
         <v>0</v>
@@ -2124,7 +2189,9 @@
       <c r="D35" s="14">
         <v>7</v>
       </c>
-      <c r="E35" s="14"/>
+      <c r="E35" s="14">
+        <v>6</v>
+      </c>
       <c r="F35" s="14"/>
       <c r="G35" s="13">
         <v>0</v>
@@ -2158,7 +2225,9 @@
       <c r="D36" s="14">
         <v>7</v>
       </c>
-      <c r="E36" s="14"/>
+      <c r="E36" s="14">
+        <v>6</v>
+      </c>
       <c r="F36" s="14"/>
       <c r="G36" s="13">
         <v>0</v>
@@ -2190,7 +2259,9 @@
       <c r="D37" s="14">
         <v>16</v>
       </c>
-      <c r="E37" s="14"/>
+      <c r="E37" s="14">
+        <v>15</v>
+      </c>
       <c r="F37" s="14"/>
       <c r="G37" s="13">
         <v>0</v>
@@ -2224,7 +2295,9 @@
       <c r="D38" s="14">
         <v>12</v>
       </c>
-      <c r="E38" s="14"/>
+      <c r="E38" s="14">
+        <v>10</v>
+      </c>
       <c r="F38" s="14"/>
       <c r="G38" s="14">
         <v>5</v>
@@ -2258,7 +2331,9 @@
       <c r="D39" s="14">
         <v>8</v>
       </c>
-      <c r="E39" s="14"/>
+      <c r="E39" s="14">
+        <v>18</v>
+      </c>
       <c r="F39" s="14"/>
       <c r="G39" s="14">
         <v>4.5</v>
@@ -2292,7 +2367,9 @@
       <c r="D40" s="14">
         <v>8</v>
       </c>
-      <c r="E40" s="14"/>
+      <c r="E40" s="14">
+        <v>18</v>
+      </c>
       <c r="F40" s="14"/>
       <c r="G40" s="14">
         <v>4.5</v>
@@ -2326,7 +2403,9 @@
       <c r="D41" s="14">
         <v>4</v>
       </c>
-      <c r="E41" s="14"/>
+      <c r="E41" s="14">
+        <v>3</v>
+      </c>
       <c r="F41" s="14"/>
       <c r="G41" s="13">
         <v>0</v>
@@ -2358,7 +2437,9 @@
       <c r="D42" s="14">
         <v>13</v>
       </c>
-      <c r="E42" s="14"/>
+      <c r="E42" s="14">
+        <v>12</v>
+      </c>
       <c r="F42" s="14"/>
       <c r="G42" s="13">
         <v>0</v>
@@ -2392,7 +2473,9 @@
       <c r="D43" s="14">
         <v>12</v>
       </c>
-      <c r="E43" s="14"/>
+      <c r="E43" s="14">
+        <v>20</v>
+      </c>
       <c r="F43" s="14"/>
       <c r="G43" s="14">
         <v>5</v>
@@ -2426,7 +2509,9 @@
       <c r="D44" s="14">
         <v>5</v>
       </c>
-      <c r="E44" s="14"/>
+      <c r="E44" s="14">
+        <v>14</v>
+      </c>
       <c r="F44" s="14"/>
       <c r="G44" s="14">
         <v>3</v>
@@ -2460,7 +2545,9 @@
       <c r="D45" s="14">
         <v>3</v>
       </c>
-      <c r="E45" s="14"/>
+      <c r="E45" s="14">
+        <v>4</v>
+      </c>
       <c r="F45" s="14"/>
       <c r="G45" s="14">
         <v>3.5</v>
@@ -2494,7 +2581,9 @@
       <c r="D46" s="14">
         <v>0</v>
       </c>
-      <c r="E46" s="14"/>
+      <c r="E46" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="F46" s="14"/>
       <c r="G46" s="14">
         <v>4.5</v>
@@ -2526,7 +2615,9 @@
       <c r="D47" s="14">
         <v>5</v>
       </c>
-      <c r="E47" s="14"/>
+      <c r="E47" s="14">
+        <v>16</v>
+      </c>
       <c r="F47" s="14"/>
       <c r="G47" s="14">
         <v>5</v>
@@ -2560,7 +2651,9 @@
       <c r="D48" s="14">
         <v>6</v>
       </c>
-      <c r="E48" s="14"/>
+      <c r="E48" s="14">
+        <v>16</v>
+      </c>
       <c r="F48" s="14"/>
       <c r="G48" s="14">
         <v>3</v>
@@ -2594,7 +2687,9 @@
       <c r="D49" s="14">
         <v>2</v>
       </c>
-      <c r="E49" s="14"/>
+      <c r="E49" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="F49" s="14"/>
       <c r="G49" s="13">
         <v>0</v>
@@ -2626,7 +2721,9 @@
       <c r="D50" s="14">
         <v>3</v>
       </c>
-      <c r="E50" s="14"/>
+      <c r="E50" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="F50" s="14"/>
       <c r="G50" s="13">
         <v>0</v>
@@ -2658,7 +2755,9 @@
       <c r="D51" s="14">
         <v>9</v>
       </c>
-      <c r="E51" s="14"/>
+      <c r="E51" s="14">
+        <v>14</v>
+      </c>
       <c r="F51" s="14"/>
       <c r="G51" s="14">
         <v>4.5</v>
@@ -2692,7 +2791,9 @@
       <c r="D52" s="14">
         <v>3</v>
       </c>
-      <c r="E52" s="14"/>
+      <c r="E52" s="14">
+        <v>8</v>
+      </c>
       <c r="F52" s="14"/>
       <c r="G52" s="13">
         <v>0</v>
@@ -2726,7 +2827,9 @@
       <c r="D53" s="14">
         <v>0</v>
       </c>
-      <c r="E53" s="14"/>
+      <c r="E53" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="F53" s="14"/>
       <c r="G53" s="14">
         <v>4</v>
@@ -2758,7 +2861,9 @@
       <c r="D54" s="14">
         <v>5</v>
       </c>
-      <c r="E54" s="14"/>
+      <c r="E54" s="14">
+        <v>9</v>
+      </c>
       <c r="F54" s="14"/>
       <c r="G54" s="13">
         <v>0</v>
@@ -2792,7 +2897,9 @@
       <c r="D55" s="14">
         <v>13</v>
       </c>
-      <c r="E55" s="14"/>
+      <c r="E55" s="14">
+        <v>18</v>
+      </c>
       <c r="F55" s="14"/>
       <c r="G55" s="14">
         <v>5</v>
@@ -2826,7 +2933,9 @@
       <c r="D56" s="14">
         <v>9</v>
       </c>
-      <c r="E56" s="14"/>
+      <c r="E56" s="14">
+        <v>23</v>
+      </c>
       <c r="F56" s="14"/>
       <c r="G56" s="14">
         <v>4.5</v>
@@ -2860,7 +2969,9 @@
       <c r="D57" s="14">
         <v>20</v>
       </c>
-      <c r="E57" s="14"/>
+      <c r="E57" s="14">
+        <v>21</v>
+      </c>
       <c r="F57" s="14"/>
       <c r="G57" s="14">
         <v>5</v>
@@ -2894,7 +3005,9 @@
       <c r="D58" s="14">
         <v>3</v>
       </c>
-      <c r="E58" s="14"/>
+      <c r="E58" s="14">
+        <v>9</v>
+      </c>
       <c r="F58" s="14"/>
       <c r="G58" s="14">
         <v>4.5</v>
@@ -2928,7 +3041,9 @@
       <c r="D59" s="14">
         <v>4</v>
       </c>
-      <c r="E59" s="14"/>
+      <c r="E59" s="14">
+        <v>12</v>
+      </c>
       <c r="F59" s="14"/>
       <c r="G59" s="14">
         <v>4</v>
@@ -2960,7 +3075,9 @@
       <c r="D60" s="14">
         <v>17</v>
       </c>
-      <c r="E60" s="14"/>
+      <c r="E60" s="14">
+        <v>18</v>
+      </c>
       <c r="F60" s="14"/>
       <c r="G60" s="14">
         <v>5</v>
@@ -2992,7 +3109,9 @@
       <c r="D61" s="14">
         <v>17</v>
       </c>
-      <c r="E61" s="14"/>
+      <c r="E61" s="14">
+        <v>24</v>
+      </c>
       <c r="F61" s="14"/>
       <c r="G61" s="14">
         <v>5</v>
@@ -3026,7 +3145,9 @@
       <c r="D62" s="14">
         <v>21</v>
       </c>
-      <c r="E62" s="14"/>
+      <c r="E62" s="14">
+        <v>29</v>
+      </c>
       <c r="F62" s="14"/>
       <c r="G62" s="14">
         <v>4.5</v>
@@ -3060,7 +3181,9 @@
       <c r="D63" s="14">
         <v>2</v>
       </c>
-      <c r="E63" s="14"/>
+      <c r="E63" s="14">
+        <v>13</v>
+      </c>
       <c r="F63" s="14"/>
       <c r="G63" s="13">
         <v>0</v>
@@ -3092,7 +3215,9 @@
       <c r="D64" s="14">
         <v>12</v>
       </c>
-      <c r="E64" s="14"/>
+      <c r="E64" s="14">
+        <v>15</v>
+      </c>
       <c r="F64" s="14"/>
       <c r="G64" s="14">
         <v>5</v>
@@ -3126,7 +3251,9 @@
       <c r="D65" s="14">
         <v>3</v>
       </c>
-      <c r="E65" s="14"/>
+      <c r="E65" s="14">
+        <v>8</v>
+      </c>
       <c r="F65" s="14"/>
       <c r="G65" s="14">
         <v>4.5</v>
@@ -3160,7 +3287,9 @@
       <c r="D66" s="14">
         <v>19</v>
       </c>
-      <c r="E66" s="14"/>
+      <c r="E66" s="14">
+        <v>17</v>
+      </c>
       <c r="F66" s="14"/>
       <c r="G66" s="14">
         <v>5</v>
@@ -3194,7 +3323,9 @@
       <c r="D67" s="14">
         <v>13</v>
       </c>
-      <c r="E67" s="14"/>
+      <c r="E67" s="14">
+        <v>8</v>
+      </c>
       <c r="F67" s="14"/>
       <c r="G67" s="14">
         <v>5</v>
@@ -3228,7 +3359,9 @@
       <c r="D68" s="14">
         <v>14</v>
       </c>
-      <c r="E68" s="14"/>
+      <c r="E68" s="14">
+        <v>22</v>
+      </c>
       <c r="F68" s="14"/>
       <c r="G68" s="13">
         <v>0</v>
@@ -3260,7 +3393,9 @@
       <c r="D69" s="14">
         <v>9</v>
       </c>
-      <c r="E69" s="14"/>
+      <c r="E69" s="14">
+        <v>14</v>
+      </c>
       <c r="F69" s="14"/>
       <c r="G69" s="14">
         <v>4.5</v>
@@ -3294,7 +3429,9 @@
       <c r="D70" s="14">
         <v>3</v>
       </c>
-      <c r="E70" s="14"/>
+      <c r="E70" s="14">
+        <v>12</v>
+      </c>
       <c r="F70" s="14"/>
       <c r="G70" s="14">
         <v>5</v>
@@ -3328,7 +3465,9 @@
       <c r="D71" s="14">
         <v>4</v>
       </c>
-      <c r="E71" s="14"/>
+      <c r="E71" s="14">
+        <v>12</v>
+      </c>
       <c r="F71" s="14"/>
       <c r="G71" s="14">
         <v>5</v>
@@ -3362,7 +3501,9 @@
       <c r="D72" s="14">
         <v>21</v>
       </c>
-      <c r="E72" s="14"/>
+      <c r="E72" s="14">
+        <v>26</v>
+      </c>
       <c r="F72" s="14"/>
       <c r="G72" s="14">
         <v>5</v>
@@ -3396,7 +3537,9 @@
       <c r="D73" s="14">
         <v>5</v>
       </c>
-      <c r="E73" s="14"/>
+      <c r="E73" s="14">
+        <v>17</v>
+      </c>
       <c r="F73" s="14"/>
       <c r="G73" s="14">
         <v>5</v>
@@ -3430,7 +3573,9 @@
       <c r="D74" s="14">
         <v>7</v>
       </c>
-      <c r="E74" s="14"/>
+      <c r="E74" s="14">
+        <v>16</v>
+      </c>
       <c r="F74" s="14"/>
       <c r="G74" s="14">
         <v>5</v>
@@ -3462,7 +3607,9 @@
       <c r="D75" s="14">
         <v>2</v>
       </c>
-      <c r="E75" s="14"/>
+      <c r="E75" s="14">
+        <v>5</v>
+      </c>
       <c r="F75" s="14"/>
       <c r="G75" s="13">
         <v>0</v>
@@ -3494,7 +3641,9 @@
       <c r="D76" s="14">
         <v>2</v>
       </c>
-      <c r="E76" s="14"/>
+      <c r="E76" s="14">
+        <v>15</v>
+      </c>
       <c r="F76" s="14"/>
       <c r="G76" s="14">
         <v>5</v>
@@ -3526,7 +3675,9 @@
       <c r="D77" s="14">
         <v>16</v>
       </c>
-      <c r="E77" s="14"/>
+      <c r="E77" s="14">
+        <v>28</v>
+      </c>
       <c r="F77" s="14"/>
       <c r="G77" s="14">
         <v>5</v>
@@ -3560,7 +3711,9 @@
       <c r="D78" s="14">
         <v>0</v>
       </c>
-      <c r="E78" s="14"/>
+      <c r="E78" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="F78" s="14"/>
       <c r="G78" s="14">
         <v>3</v>
@@ -3594,7 +3747,9 @@
       <c r="D79" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E79" s="14"/>
+      <c r="E79" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="F79" s="14"/>
       <c r="G79" s="13">
         <v>0</v>
@@ -3626,7 +3781,9 @@
       <c r="D80" s="14">
         <v>6</v>
       </c>
-      <c r="E80" s="14"/>
+      <c r="E80" s="14">
+        <v>18</v>
+      </c>
       <c r="F80" s="14"/>
       <c r="G80" s="14">
         <v>5</v>
@@ -3660,7 +3817,9 @@
       <c r="D81" s="14">
         <v>14</v>
       </c>
-      <c r="E81" s="14"/>
+      <c r="E81" s="14">
+        <v>18</v>
+      </c>
       <c r="F81" s="14"/>
       <c r="G81" s="14">
         <v>5</v>
@@ -3694,7 +3853,9 @@
       <c r="D82" s="14">
         <v>2</v>
       </c>
-      <c r="E82" s="14"/>
+      <c r="E82" s="14">
+        <v>15</v>
+      </c>
       <c r="F82" s="14"/>
       <c r="G82" s="14">
         <v>3</v>
@@ -3728,7 +3889,9 @@
       <c r="D83" s="14">
         <v>8</v>
       </c>
-      <c r="E83" s="14"/>
+      <c r="E83" s="14">
+        <v>14</v>
+      </c>
       <c r="F83" s="14"/>
       <c r="G83" s="14">
         <v>4.5</v>
@@ -3762,7 +3925,9 @@
       <c r="D84" s="14">
         <v>6</v>
       </c>
-      <c r="E84" s="14"/>
+      <c r="E84" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="F84" s="14"/>
       <c r="G84" s="13">
         <v>0</v>
@@ -3794,7 +3959,9 @@
       <c r="D85" s="14">
         <v>3</v>
       </c>
-      <c r="E85" s="14"/>
+      <c r="E85" s="14">
+        <v>13</v>
+      </c>
       <c r="F85" s="14"/>
       <c r="G85" s="14">
         <v>5</v>
@@ -3828,7 +3995,9 @@
       <c r="D86" s="14">
         <v>4</v>
       </c>
-      <c r="E86" s="14"/>
+      <c r="E86" s="14">
+        <v>13</v>
+      </c>
       <c r="F86" s="14"/>
       <c r="G86" s="14">
         <v>5</v>
@@ -3862,7 +4031,9 @@
       <c r="D87" s="14">
         <v>12</v>
       </c>
-      <c r="E87" s="14"/>
+      <c r="E87" s="14">
+        <v>16</v>
+      </c>
       <c r="F87" s="14"/>
       <c r="G87" s="14">
         <v>5</v>
@@ -3896,7 +4067,9 @@
       <c r="D88" s="14">
         <v>5</v>
       </c>
-      <c r="E88" s="14"/>
+      <c r="E88" s="14">
+        <v>15</v>
+      </c>
       <c r="F88" s="14"/>
       <c r="G88" s="14">
         <v>5</v>
@@ -3930,7 +4103,9 @@
       <c r="D89" s="14">
         <v>8</v>
       </c>
-      <c r="E89" s="14"/>
+      <c r="E89" s="14">
+        <v>13</v>
+      </c>
       <c r="F89" s="14"/>
       <c r="G89" s="13">
         <v>0</v>
@@ -3962,7 +4137,9 @@
       <c r="D90" s="14">
         <v>4</v>
       </c>
-      <c r="E90" s="14"/>
+      <c r="E90" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="F90" s="14"/>
       <c r="G90" s="14">
         <v>2.5</v>
@@ -3996,7 +4173,9 @@
       <c r="D91" s="14">
         <v>10</v>
       </c>
-      <c r="E91" s="14"/>
+      <c r="E91" s="14">
+        <v>8</v>
+      </c>
       <c r="F91" s="14"/>
       <c r="G91" s="14">
         <v>5</v>
@@ -4030,7 +4209,9 @@
       <c r="D92" s="14">
         <v>9</v>
       </c>
-      <c r="E92" s="14"/>
+      <c r="E92" s="14">
+        <v>15</v>
+      </c>
       <c r="F92" s="14"/>
       <c r="G92" s="13">
         <v>0</v>
@@ -4062,7 +4243,9 @@
       <c r="D93" s="14">
         <v>12</v>
       </c>
-      <c r="E93" s="14"/>
+      <c r="E93" s="14">
+        <v>12</v>
+      </c>
       <c r="F93" s="14"/>
       <c r="G93" s="14">
         <v>4.5</v>
@@ -4096,7 +4279,9 @@
       <c r="D94" s="14">
         <v>18</v>
       </c>
-      <c r="E94" s="14"/>
+      <c r="E94" s="14">
+        <v>24</v>
+      </c>
       <c r="F94" s="14"/>
       <c r="G94" s="14">
         <v>5</v>
@@ -4130,7 +4315,9 @@
       <c r="D95" s="14">
         <v>17</v>
       </c>
-      <c r="E95" s="14"/>
+      <c r="E95" s="14">
+        <v>22</v>
+      </c>
       <c r="F95" s="14"/>
       <c r="G95" s="14">
         <v>5</v>
@@ -4164,7 +4351,9 @@
       <c r="D96" s="14">
         <v>4</v>
       </c>
-      <c r="E96" s="14"/>
+      <c r="E96" s="14">
+        <v>12</v>
+      </c>
       <c r="F96" s="14"/>
       <c r="G96" s="14">
         <v>5</v>
@@ -4196,7 +4385,9 @@
       <c r="D97" s="14">
         <v>6</v>
       </c>
-      <c r="E97" s="14"/>
+      <c r="E97" s="14">
+        <v>15</v>
+      </c>
       <c r="F97" s="14"/>
       <c r="G97" s="14">
         <v>4</v>
@@ -4230,7 +4421,9 @@
       <c r="D98" s="14">
         <v>9</v>
       </c>
-      <c r="E98" s="14"/>
+      <c r="E98" s="14">
+        <v>12</v>
+      </c>
       <c r="F98" s="14"/>
       <c r="G98" s="13">
         <v>0</v>
@@ -4264,7 +4457,9 @@
       <c r="D99" s="14">
         <v>0</v>
       </c>
-      <c r="E99" s="14"/>
+      <c r="E99" s="14">
+        <v>5</v>
+      </c>
       <c r="F99" s="14"/>
       <c r="G99" s="14">
         <v>4</v>
@@ -4298,7 +4493,9 @@
       <c r="D100" s="14">
         <v>12</v>
       </c>
-      <c r="E100" s="14"/>
+      <c r="E100" s="14">
+        <v>16</v>
+      </c>
       <c r="F100" s="14"/>
       <c r="G100" s="14">
         <v>5</v>
@@ -4332,7 +4529,9 @@
       <c r="D101" s="14">
         <v>15</v>
       </c>
-      <c r="E101" s="14"/>
+      <c r="E101" s="14">
+        <v>18</v>
+      </c>
       <c r="F101" s="14"/>
       <c r="G101" s="14">
         <v>5</v>
@@ -4366,7 +4565,9 @@
       <c r="D102" s="14">
         <v>2</v>
       </c>
-      <c r="E102" s="14"/>
+      <c r="E102" s="14">
+        <v>9</v>
+      </c>
       <c r="F102" s="14"/>
       <c r="G102" s="13">
         <v>0</v>
@@ -4398,7 +4599,9 @@
       <c r="D103" s="14">
         <v>18</v>
       </c>
-      <c r="E103" s="14"/>
+      <c r="E103" s="14">
+        <v>24</v>
+      </c>
       <c r="F103" s="14"/>
       <c r="G103" s="14">
         <v>5</v>
@@ -4432,7 +4635,9 @@
       <c r="D104" s="14">
         <v>4</v>
       </c>
-      <c r="E104" s="14"/>
+      <c r="E104" s="14">
+        <v>4</v>
+      </c>
       <c r="F104" s="14"/>
       <c r="G104" s="13">
         <v>0</v>
@@ -4464,7 +4669,9 @@
       <c r="D105" s="14">
         <v>14</v>
       </c>
-      <c r="E105" s="14"/>
+      <c r="E105" s="14">
+        <v>12</v>
+      </c>
       <c r="F105" s="14"/>
       <c r="G105" s="14">
         <v>4.5</v>
@@ -4498,7 +4705,9 @@
       <c r="D106" s="14">
         <v>6</v>
       </c>
-      <c r="E106" s="14"/>
+      <c r="E106" s="14">
+        <v>12</v>
+      </c>
       <c r="F106" s="14"/>
       <c r="G106" s="13">
         <v>0</v>
@@ -4532,7 +4741,9 @@
       <c r="D107" s="14">
         <v>5</v>
       </c>
-      <c r="E107" s="14"/>
+      <c r="E107" s="14">
+        <v>14</v>
+      </c>
       <c r="F107" s="14"/>
       <c r="G107" s="13">
         <v>0</v>
@@ -4566,7 +4777,9 @@
       <c r="D108" s="14">
         <v>9</v>
       </c>
-      <c r="E108" s="14"/>
+      <c r="E108" s="14">
+        <v>10</v>
+      </c>
       <c r="F108" s="14"/>
       <c r="G108" s="13">
         <v>0</v>
@@ -4598,7 +4811,9 @@
       <c r="D109" s="14">
         <v>19</v>
       </c>
-      <c r="E109" s="14"/>
+      <c r="E109" s="14">
+        <v>20</v>
+      </c>
       <c r="F109" s="14"/>
       <c r="G109" s="14">
         <v>4.5</v>
@@ -4632,7 +4847,9 @@
       <c r="D110" s="14">
         <v>5</v>
       </c>
-      <c r="E110" s="14"/>
+      <c r="E110" s="14">
+        <v>9</v>
+      </c>
       <c r="F110" s="14"/>
       <c r="G110" s="14">
         <v>3</v>
@@ -4666,7 +4883,9 @@
       <c r="D111" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E111" s="14"/>
+      <c r="E111" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="F111" s="14"/>
       <c r="G111" s="13">
         <v>0</v>
@@ -4698,7 +4917,9 @@
       <c r="D112" s="14">
         <v>12</v>
       </c>
-      <c r="E112" s="14"/>
+      <c r="E112" s="14">
+        <v>18</v>
+      </c>
       <c r="F112" s="14"/>
       <c r="G112" s="14">
         <v>5</v>
@@ -4732,7 +4953,9 @@
       <c r="D113" s="14">
         <v>4</v>
       </c>
-      <c r="E113" s="14"/>
+      <c r="E113" s="14">
+        <v>13</v>
+      </c>
       <c r="F113" s="14"/>
       <c r="G113" s="14">
         <v>5</v>
@@ -4766,7 +4989,9 @@
       <c r="D114" s="14">
         <v>1</v>
       </c>
-      <c r="E114" s="14"/>
+      <c r="E114" s="14">
+        <v>19</v>
+      </c>
       <c r="F114" s="14"/>
       <c r="G114" s="13">
         <v>0</v>
@@ -4800,7 +5025,9 @@
       <c r="D115" s="14">
         <v>1</v>
       </c>
-      <c r="E115" s="14"/>
+      <c r="E115" s="14">
+        <v>12</v>
+      </c>
       <c r="F115" s="14"/>
       <c r="G115" s="13">
         <v>0</v>
@@ -4834,7 +5061,9 @@
       <c r="D116" s="14">
         <v>6</v>
       </c>
-      <c r="E116" s="14"/>
+      <c r="E116" s="14">
+        <v>8</v>
+      </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14">
         <v>2.5</v>
@@ -4866,7 +5095,9 @@
       <c r="D117" s="14">
         <v>4</v>
       </c>
-      <c r="E117" s="14"/>
+      <c r="E117" s="14">
+        <v>14</v>
+      </c>
       <c r="F117" s="14"/>
       <c r="G117" s="13">
         <v>0</v>
@@ -4900,7 +5131,9 @@
       <c r="D118" s="14">
         <v>4</v>
       </c>
-      <c r="E118" s="14"/>
+      <c r="E118" s="14">
+        <v>17</v>
+      </c>
       <c r="F118" s="14"/>
       <c r="G118" s="13">
         <v>0</v>
@@ -4934,7 +5167,9 @@
       <c r="D119" s="14">
         <v>15</v>
       </c>
-      <c r="E119" s="14"/>
+      <c r="E119" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="F119" s="14"/>
       <c r="G119" s="14">
         <v>5</v>
@@ -4968,7 +5203,9 @@
       <c r="D120" s="14">
         <v>8</v>
       </c>
-      <c r="E120" s="14"/>
+      <c r="E120" s="14">
+        <v>17</v>
+      </c>
       <c r="F120" s="14"/>
       <c r="G120" s="14">
         <v>4.5</v>
@@ -5002,7 +5239,9 @@
       <c r="D121" s="14">
         <v>17</v>
       </c>
-      <c r="E121" s="14"/>
+      <c r="E121" s="14">
+        <v>18</v>
+      </c>
       <c r="F121" s="14"/>
       <c r="G121" s="13">
         <v>0</v>
@@ -5034,7 +5273,9 @@
       <c r="D122" s="14">
         <v>7</v>
       </c>
-      <c r="E122" s="14"/>
+      <c r="E122" s="14">
+        <v>14</v>
+      </c>
       <c r="F122" s="14"/>
       <c r="G122" s="13">
         <v>0</v>
@@ -5068,7 +5309,9 @@
       <c r="D123" s="14">
         <v>7</v>
       </c>
-      <c r="E123" s="14"/>
+      <c r="E123" s="14">
+        <v>6</v>
+      </c>
       <c r="F123" s="14"/>
       <c r="G123" s="13">
         <v>0</v>
@@ -5102,7 +5345,9 @@
       <c r="D124" s="14">
         <v>15</v>
       </c>
-      <c r="E124" s="14"/>
+      <c r="E124" s="14">
+        <v>18</v>
+      </c>
       <c r="F124" s="14"/>
       <c r="G124" s="14">
         <v>5</v>
@@ -5136,7 +5381,9 @@
       <c r="D125" s="14">
         <v>9</v>
       </c>
-      <c r="E125" s="14"/>
+      <c r="E125" s="14">
+        <v>12</v>
+      </c>
       <c r="F125" s="14"/>
       <c r="G125" s="13">
         <v>0</v>
@@ -5170,7 +5417,9 @@
       <c r="D126" s="14">
         <v>12</v>
       </c>
-      <c r="E126" s="14"/>
+      <c r="E126" s="14">
+        <v>15</v>
+      </c>
       <c r="F126" s="14"/>
       <c r="G126" s="14">
         <v>4</v>
@@ -5204,7 +5453,9 @@
       <c r="D127" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E127" s="14"/>
+      <c r="E127" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="F127" s="14"/>
       <c r="G127" s="14">
         <v>5</v>
@@ -5236,7 +5487,9 @@
       <c r="D128" s="14">
         <v>4</v>
       </c>
-      <c r="E128" s="14"/>
+      <c r="E128" s="14">
+        <v>5</v>
+      </c>
       <c r="F128" s="14"/>
       <c r="G128" s="13">
         <v>0</v>
@@ -5270,7 +5523,9 @@
       <c r="D129" s="14">
         <v>19</v>
       </c>
-      <c r="E129" s="14"/>
+      <c r="E129" s="14">
+        <v>25</v>
+      </c>
       <c r="F129" s="14"/>
       <c r="G129" s="14">
         <v>5</v>
@@ -5304,7 +5559,9 @@
       <c r="D130" s="14">
         <v>6</v>
       </c>
-      <c r="E130" s="14"/>
+      <c r="E130" s="14">
+        <v>12</v>
+      </c>
       <c r="F130" s="14"/>
       <c r="G130" s="13">
         <v>0</v>
@@ -5338,7 +5595,9 @@
       <c r="D131" s="14">
         <v>14</v>
       </c>
-      <c r="E131" s="14"/>
+      <c r="E131" s="14">
+        <v>24</v>
+      </c>
       <c r="F131" s="14"/>
       <c r="G131" s="14">
         <v>4.5</v>
@@ -5372,7 +5631,9 @@
       <c r="D132" s="14">
         <v>9</v>
       </c>
-      <c r="E132" s="14"/>
+      <c r="E132" s="14">
+        <v>21</v>
+      </c>
       <c r="F132" s="1"/>
       <c r="G132" s="14">
         <v>4</v>
@@ -5406,7 +5667,9 @@
       <c r="D133" s="14">
         <v>15</v>
       </c>
-      <c r="E133" s="14"/>
+      <c r="E133" s="14">
+        <v>19</v>
+      </c>
       <c r="F133" s="14"/>
       <c r="G133" s="14">
         <v>3</v>

--- a/static/Upload/4th sem.xlsx
+++ b/static/Upload/4th sem.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="134">
   <si>
     <t>S.N</t>
   </si>
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1869,8 +1869,8 @@
       <c r="D26" s="14">
         <v>4</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>132</v>
+      <c r="E26" s="14">
+        <v>9</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14">

--- a/static/Upload/4th sem.xlsx
+++ b/static/Upload/4th sem.xlsx
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3084,16 +3084,18 @@
       </c>
       <c r="H60" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.375</v>
       </c>
       <c r="I60" s="14"/>
       <c r="J60" s="14"/>
       <c r="K60" s="14"/>
       <c r="L60" s="11"/>
-      <c r="O60" s="14"/>
+      <c r="O60" s="14">
+        <v>35</v>
+      </c>
       <c r="Q60" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.375</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">

--- a/static/Upload/4th sem.xlsx
+++ b/static/Upload/4th sem.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="140">
   <si>
     <t>S.N</t>
   </si>
@@ -429,6 +429,24 @@
   </si>
   <si>
     <t>Anurag</t>
+  </si>
+  <si>
+    <t>S1(40)</t>
+  </si>
+  <si>
+    <t>S2(40)</t>
+  </si>
+  <si>
+    <t>S3(40)</t>
+  </si>
+  <si>
+    <t>P1(5)</t>
+  </si>
+  <si>
+    <t>P2(5)</t>
+  </si>
+  <si>
+    <t>P3(5)</t>
   </si>
 </sst>
 </file>
@@ -538,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -596,6 +614,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -961,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q137"/>
+  <dimension ref="A1:X137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E72"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,10 +1002,14 @@
     <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9.140625" style="1"/>
     <col min="15" max="15" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>103</v>
       </c>
@@ -1000,7 +1025,7 @@
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
     </row>
-    <row r="2" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1040,8 +1065,26 @@
       <c r="O2" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1071,8 +1114,33 @@
         <f>O3*5/40</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="21">
+        <f>SUM(D3)+G3+S3</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <f>SUM(D3)+G3+S3</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <f>SUM(E3)+H3+T3</f>
+        <v>9</v>
+      </c>
+      <c r="X3" s="2">
+        <f>SUM(F3)+I3+U3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1107,8 +1175,29 @@
         <f t="shared" ref="Q4:Q67" si="1">O4*5/40</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S4" s="1">
+        <v>4</v>
+      </c>
+      <c r="T4" s="1">
+        <v>4</v>
+      </c>
+      <c r="U4" s="1">
+        <v>4</v>
+      </c>
+      <c r="V4" s="2">
+        <f t="shared" ref="V4:V67" si="2">SUM(D4)+G4+S4</f>
+        <v>21</v>
+      </c>
+      <c r="W4" s="2">
+        <f t="shared" ref="W4:W67" si="3">SUM(E4)+H4+T4</f>
+        <v>24</v>
+      </c>
+      <c r="X4" s="2">
+        <f t="shared" ref="X4:X67" si="4">SUM(F4)+I4+U4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1141,8 +1230,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S5" s="1">
+        <v>4</v>
+      </c>
+      <c r="T5" s="1">
+        <v>4</v>
+      </c>
+      <c r="U5" s="1">
+        <v>2</v>
+      </c>
+      <c r="V5" s="2">
+        <f t="shared" si="2"/>
+        <v>17.5</v>
+      </c>
+      <c r="W5" s="2">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="X5" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1177,8 +1287,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S6" s="1">
+        <v>4</v>
+      </c>
+      <c r="T6" s="1">
+        <v>5</v>
+      </c>
+      <c r="U6" s="1">
+        <v>5</v>
+      </c>
+      <c r="V6" s="2">
+        <f t="shared" si="2"/>
+        <v>15.5</v>
+      </c>
+      <c r="W6" s="2">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="X6" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1213,8 +1344,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S7" s="1">
+        <v>4</v>
+      </c>
+      <c r="T7" s="1">
+        <v>4</v>
+      </c>
+      <c r="U7" s="1">
+        <v>4</v>
+      </c>
+      <c r="V7" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="W7" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="X7" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1249,8 +1401,29 @@
         <f t="shared" si="1"/>
         <v>4.375</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S8" s="1">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>3</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1</v>
+      </c>
+      <c r="V8" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="W8" s="2">
+        <f t="shared" si="3"/>
+        <v>14.375</v>
+      </c>
+      <c r="X8" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1285,8 +1458,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S9" s="1">
+        <v>4</v>
+      </c>
+      <c r="T9" s="1">
+        <v>5</v>
+      </c>
+      <c r="U9" s="1">
+        <v>5</v>
+      </c>
+      <c r="V9" s="2">
+        <f t="shared" si="2"/>
+        <v>16.5</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="X9" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1321,8 +1515,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S10" s="1">
+        <v>4</v>
+      </c>
+      <c r="T10" s="1">
+        <v>5</v>
+      </c>
+      <c r="U10" s="1">
+        <v>4</v>
+      </c>
+      <c r="V10" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="W10" s="2">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="X10" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1357,8 +1572,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S11" s="1">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>3</v>
+      </c>
+      <c r="U11" s="1">
+        <v>4</v>
+      </c>
+      <c r="V11" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="W11" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="X11" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1393,8 +1629,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S12" s="1">
+        <v>2</v>
+      </c>
+      <c r="T12" s="1">
+        <v>2</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <f t="shared" si="2"/>
+        <v>11.5</v>
+      </c>
+      <c r="W12" s="2">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="X12" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1427,8 +1684,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="W13" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="X13" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1461,8 +1739,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S14" s="1">
+        <v>1</v>
+      </c>
+      <c r="T14" s="1">
+        <v>2</v>
+      </c>
+      <c r="U14" s="1">
+        <v>1</v>
+      </c>
+      <c r="V14" s="2">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="W14" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="X14" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1497,8 +1796,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S15" s="1">
+        <v>4</v>
+      </c>
+      <c r="T15" s="1">
+        <v>4</v>
+      </c>
+      <c r="U15" s="1">
+        <v>5</v>
+      </c>
+      <c r="V15" s="2">
+        <f t="shared" si="2"/>
+        <v>18.5</v>
+      </c>
+      <c r="W15" s="2">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="X15" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1533,8 +1853,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S16" s="1">
+        <v>3</v>
+      </c>
+      <c r="T16" s="1">
+        <v>3</v>
+      </c>
+      <c r="U16" s="1">
+        <v>1</v>
+      </c>
+      <c r="V16" s="2">
+        <f t="shared" si="2"/>
+        <v>23.5</v>
+      </c>
+      <c r="W16" s="2">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="X16" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1569,8 +1910,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S17" s="1">
+        <v>4</v>
+      </c>
+      <c r="T17" s="1">
+        <v>4</v>
+      </c>
+      <c r="U17" s="1">
+        <v>2</v>
+      </c>
+      <c r="V17" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="W17" s="2">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="X17" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1605,8 +1967,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S18" s="1">
+        <v>4</v>
+      </c>
+      <c r="T18" s="1">
+        <v>4</v>
+      </c>
+      <c r="U18" s="1">
+        <v>4</v>
+      </c>
+      <c r="V18" s="2">
+        <f t="shared" si="2"/>
+        <v>22.5</v>
+      </c>
+      <c r="W18" s="2">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="X18" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1641,8 +2024,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S19" s="1">
+        <v>4</v>
+      </c>
+      <c r="T19" s="1">
+        <v>4</v>
+      </c>
+      <c r="U19" s="1">
+        <v>5</v>
+      </c>
+      <c r="V19" s="2">
+        <f t="shared" si="2"/>
+        <v>29.5</v>
+      </c>
+      <c r="W19" s="2">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="X19" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1677,8 +2081,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S20" s="1">
+        <v>4</v>
+      </c>
+      <c r="T20" s="1">
+        <v>4</v>
+      </c>
+      <c r="U20" s="1">
+        <v>5</v>
+      </c>
+      <c r="V20" s="2">
+        <f t="shared" si="2"/>
+        <v>28.5</v>
+      </c>
+      <c r="W20" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="X20" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1713,8 +2138,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S21" s="1">
+        <v>4</v>
+      </c>
+      <c r="T21" s="1">
+        <v>3</v>
+      </c>
+      <c r="U21" s="1">
+        <v>2</v>
+      </c>
+      <c r="V21" s="2">
+        <f t="shared" si="2"/>
+        <v>22.5</v>
+      </c>
+      <c r="W21" s="2">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="X21" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1749,8 +2195,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S22" s="1">
+        <v>1</v>
+      </c>
+      <c r="T22" s="1">
+        <v>2</v>
+      </c>
+      <c r="U22" s="1">
+        <v>2</v>
+      </c>
+      <c r="V22" s="2">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="W22" s="2">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="X22" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1783,8 +2250,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>1</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W23" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X23" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1819,8 +2307,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S24" s="1">
+        <v>4</v>
+      </c>
+      <c r="T24" s="1">
+        <v>5</v>
+      </c>
+      <c r="U24" s="1">
+        <v>5</v>
+      </c>
+      <c r="V24" s="2">
+        <f t="shared" si="2"/>
+        <v>14.5</v>
+      </c>
+      <c r="W24" s="2">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="X24" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1855,8 +2364,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S25" s="1">
+        <v>4</v>
+      </c>
+      <c r="T25" s="1">
+        <v>5</v>
+      </c>
+      <c r="U25" s="1">
+        <v>4</v>
+      </c>
+      <c r="V25" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="W25" s="2">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="X25" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1891,8 +2421,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S26" s="1">
+        <v>1</v>
+      </c>
+      <c r="T26" s="1">
+        <v>3</v>
+      </c>
+      <c r="U26" s="1">
+        <v>3</v>
+      </c>
+      <c r="V26" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="W26" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="X26" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1927,8 +2478,29 @@
         <f t="shared" si="1"/>
         <v>4.375</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S27" s="1">
+        <v>2</v>
+      </c>
+      <c r="T27" s="1">
+        <v>4</v>
+      </c>
+      <c r="U27" s="1">
+        <v>4</v>
+      </c>
+      <c r="V27" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="W27" s="2">
+        <f t="shared" si="3"/>
+        <v>22.375</v>
+      </c>
+      <c r="X27" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1963,8 +2535,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S28" s="1">
+        <v>2</v>
+      </c>
+      <c r="T28" s="1">
+        <v>3</v>
+      </c>
+      <c r="U28" s="1">
+        <v>3</v>
+      </c>
+      <c r="V28" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="W28" s="2">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="X28" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1999,8 +2592,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S29" s="1">
+        <v>4</v>
+      </c>
+      <c r="T29" s="1">
+        <v>3</v>
+      </c>
+      <c r="U29" s="1">
+        <v>3</v>
+      </c>
+      <c r="V29" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="W29" s="2">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="X29" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -2035,8 +2649,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S30" s="1">
+        <v>4</v>
+      </c>
+      <c r="T30" s="1">
+        <v>5</v>
+      </c>
+      <c r="U30" s="1">
+        <v>5</v>
+      </c>
+      <c r="V30" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="W30" s="2">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="X30" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -2071,8 +2706,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S31" s="1">
+        <v>4</v>
+      </c>
+      <c r="T31" s="1">
+        <v>4</v>
+      </c>
+      <c r="U31" s="1">
+        <v>4</v>
+      </c>
+      <c r="V31" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="W31" s="2">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="X31" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -2105,8 +2761,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <v>1</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0</v>
+      </c>
+      <c r="V32" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="X32" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -2139,8 +2816,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S33" s="1">
+        <v>1</v>
+      </c>
+      <c r="T33" s="1">
+        <v>2</v>
+      </c>
+      <c r="U33" s="1">
+        <v>1</v>
+      </c>
+      <c r="V33" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="W33" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="X33" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -2175,8 +2873,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S34" s="1">
+        <v>3</v>
+      </c>
+      <c r="T34" s="1">
+        <v>2</v>
+      </c>
+      <c r="U34" s="1">
+        <v>1</v>
+      </c>
+      <c r="V34" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="W34" s="2">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="X34" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -2211,8 +2930,29 @@
         <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S35" s="1">
+        <v>3</v>
+      </c>
+      <c r="T35" s="1">
+        <v>3</v>
+      </c>
+      <c r="U35" s="1">
+        <v>2</v>
+      </c>
+      <c r="V35" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="W35" s="2">
+        <f t="shared" si="3"/>
+        <v>12.75</v>
+      </c>
+      <c r="X35" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -2245,8 +2985,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S36" s="1">
+        <v>2</v>
+      </c>
+      <c r="T36" s="1">
+        <v>3</v>
+      </c>
+      <c r="U36" s="1">
+        <v>1</v>
+      </c>
+      <c r="V36" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="W36" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="X36" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -2281,8 +3042,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S37" s="1">
+        <v>2</v>
+      </c>
+      <c r="T37" s="1">
+        <v>3</v>
+      </c>
+      <c r="U37" s="1">
+        <v>2</v>
+      </c>
+      <c r="V37" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="W37" s="2">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="X37" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -2317,8 +3099,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S38" s="1">
+        <v>4</v>
+      </c>
+      <c r="T38" s="1">
+        <v>4</v>
+      </c>
+      <c r="U38" s="1">
+        <v>5</v>
+      </c>
+      <c r="V38" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="W38" s="2">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="X38" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -2353,8 +3156,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S39" s="1">
+        <v>2</v>
+      </c>
+      <c r="T39" s="1">
+        <v>4</v>
+      </c>
+      <c r="U39" s="1">
+        <v>4</v>
+      </c>
+      <c r="V39" s="2">
+        <f t="shared" si="2"/>
+        <v>14.5</v>
+      </c>
+      <c r="W39" s="2">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="X39" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -2389,8 +3213,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S40" s="1">
+        <v>3</v>
+      </c>
+      <c r="T40" s="1">
+        <v>3</v>
+      </c>
+      <c r="U40" s="1">
+        <v>4</v>
+      </c>
+      <c r="V40" s="2">
+        <f t="shared" si="2"/>
+        <v>15.5</v>
+      </c>
+      <c r="W40" s="2">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="X40" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -2423,8 +3268,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S41" s="1">
+        <v>3</v>
+      </c>
+      <c r="T41" s="1">
+        <v>2</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0</v>
+      </c>
+      <c r="V41" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="W41" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="X41" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -2459,8 +3325,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S42" s="1">
+        <v>2</v>
+      </c>
+      <c r="T42" s="1">
+        <v>3</v>
+      </c>
+      <c r="U42" s="1">
+        <v>2</v>
+      </c>
+      <c r="V42" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="W42" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="X42" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -2495,8 +3382,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S43" s="1">
+        <v>4</v>
+      </c>
+      <c r="T43" s="1">
+        <v>2</v>
+      </c>
+      <c r="U43" s="1">
+        <v>3</v>
+      </c>
+      <c r="V43" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="W43" s="2">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="X43" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -2531,8 +3439,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S44" s="1">
+        <v>4</v>
+      </c>
+      <c r="T44" s="1">
+        <v>4</v>
+      </c>
+      <c r="U44" s="1">
+        <v>3</v>
+      </c>
+      <c r="V44" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="W44" s="2">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="X44" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -2567,8 +3496,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S45" s="1">
+        <v>4</v>
+      </c>
+      <c r="T45" s="1">
+        <v>5</v>
+      </c>
+      <c r="U45" s="1">
+        <v>4</v>
+      </c>
+      <c r="V45" s="2">
+        <f t="shared" si="2"/>
+        <v>10.5</v>
+      </c>
+      <c r="W45" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="X45" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -2601,8 +3551,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S46" s="1">
+        <v>3</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
+        <v>0</v>
+      </c>
+      <c r="V46" s="2">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="W46" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X46" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -2637,8 +3608,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S47" s="1">
+        <v>1</v>
+      </c>
+      <c r="T47" s="1">
+        <v>4</v>
+      </c>
+      <c r="U47" s="1">
+        <v>3</v>
+      </c>
+      <c r="V47" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="W47" s="2">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="X47" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -2673,8 +3665,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S48" s="1">
+        <v>1</v>
+      </c>
+      <c r="T48" s="1">
+        <v>3</v>
+      </c>
+      <c r="U48" s="1">
+        <v>3</v>
+      </c>
+      <c r="V48" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="W48" s="2">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="X48" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -2707,8 +3720,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S49" s="1">
+        <v>0</v>
+      </c>
+      <c r="T49" s="1">
+        <v>0</v>
+      </c>
+      <c r="U49" s="1">
+        <v>0</v>
+      </c>
+      <c r="V49" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W49" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X49" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -2741,8 +3775,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S50" s="1">
+        <v>0</v>
+      </c>
+      <c r="T50" s="1">
+        <v>0</v>
+      </c>
+      <c r="U50" s="1">
+        <v>0</v>
+      </c>
+      <c r="V50" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="W50" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X50" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -2777,8 +3832,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S51" s="1">
+        <v>3</v>
+      </c>
+      <c r="T51" s="1">
+        <v>2</v>
+      </c>
+      <c r="U51" s="1">
+        <v>2</v>
+      </c>
+      <c r="V51" s="2">
+        <f t="shared" si="2"/>
+        <v>16.5</v>
+      </c>
+      <c r="W51" s="2">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="X51" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -2813,8 +3889,29 @@
         <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S52" s="1">
+        <v>2</v>
+      </c>
+      <c r="T52" s="1">
+        <v>5</v>
+      </c>
+      <c r="U52" s="1">
+        <v>0</v>
+      </c>
+      <c r="V52" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="W52" s="2">
+        <f t="shared" si="3"/>
+        <v>16.75</v>
+      </c>
+      <c r="X52" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -2847,8 +3944,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S53" s="1">
+        <v>2</v>
+      </c>
+      <c r="T53" s="1">
+        <v>0</v>
+      </c>
+      <c r="U53" s="1">
+        <v>0</v>
+      </c>
+      <c r="V53" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="W53" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X53" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -2883,8 +4001,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S54" s="1">
+        <v>2</v>
+      </c>
+      <c r="T54" s="1">
+        <v>4</v>
+      </c>
+      <c r="U54" s="1">
+        <v>0</v>
+      </c>
+      <c r="V54" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="W54" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="X54" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -2919,8 +4058,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S55" s="1">
+        <v>4</v>
+      </c>
+      <c r="T55" s="1">
+        <v>4</v>
+      </c>
+      <c r="U55" s="1">
+        <v>5</v>
+      </c>
+      <c r="V55" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="W55" s="2">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="X55" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -2955,8 +4115,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S56" s="1">
+        <v>3</v>
+      </c>
+      <c r="T56" s="1">
+        <v>5</v>
+      </c>
+      <c r="U56" s="1">
+        <v>4</v>
+      </c>
+      <c r="V56" s="2">
+        <f t="shared" si="2"/>
+        <v>16.5</v>
+      </c>
+      <c r="W56" s="2">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="X56" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -2991,8 +4172,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S57" s="1">
+        <v>4</v>
+      </c>
+      <c r="T57" s="1">
+        <v>4</v>
+      </c>
+      <c r="U57" s="1">
+        <v>4</v>
+      </c>
+      <c r="V57" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="W57" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="X57" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -3027,8 +4229,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S58" s="1">
+        <v>2</v>
+      </c>
+      <c r="T58" s="1">
+        <v>2</v>
+      </c>
+      <c r="U58" s="1">
+        <v>3</v>
+      </c>
+      <c r="V58" s="2">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="W58" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="X58" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -3061,8 +4284,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S59" s="1">
+        <v>0</v>
+      </c>
+      <c r="T59" s="1">
+        <v>3</v>
+      </c>
+      <c r="U59" s="1">
+        <v>3</v>
+      </c>
+      <c r="V59" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="W59" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="X59" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -3097,8 +4341,29 @@
         <f t="shared" si="1"/>
         <v>4.375</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S60" s="1">
+        <v>4</v>
+      </c>
+      <c r="T60" s="1">
+        <v>4</v>
+      </c>
+      <c r="U60" s="1">
+        <v>4</v>
+      </c>
+      <c r="V60" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="W60" s="2">
+        <f t="shared" si="3"/>
+        <v>26.375</v>
+      </c>
+      <c r="X60" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -3133,8 +4398,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S61" s="1">
+        <v>4</v>
+      </c>
+      <c r="T61" s="1">
+        <v>4</v>
+      </c>
+      <c r="U61" s="1">
+        <v>5</v>
+      </c>
+      <c r="V61" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="W61" s="2">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="X61" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -3169,8 +4455,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S62" s="1">
+        <v>4</v>
+      </c>
+      <c r="T62" s="1">
+        <v>5</v>
+      </c>
+      <c r="U62" s="1">
+        <v>5</v>
+      </c>
+      <c r="V62" s="2">
+        <f t="shared" si="2"/>
+        <v>29.5</v>
+      </c>
+      <c r="W62" s="2">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="X62" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -3203,8 +4510,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S63" s="1">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1">
+        <v>2</v>
+      </c>
+      <c r="U63" s="1">
+        <v>0</v>
+      </c>
+      <c r="V63" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W63" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="X63" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -3239,8 +4567,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S64" s="1">
+        <v>1</v>
+      </c>
+      <c r="T64" s="1">
+        <v>3</v>
+      </c>
+      <c r="U64" s="1">
+        <v>0</v>
+      </c>
+      <c r="V64" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="W64" s="2">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="X64" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -3275,8 +4624,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S65" s="1">
+        <v>2</v>
+      </c>
+      <c r="T65" s="1">
+        <v>3</v>
+      </c>
+      <c r="U65" s="1">
+        <v>2</v>
+      </c>
+      <c r="V65" s="2">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="W65" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="X65" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -3311,8 +4681,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S66" s="1">
+        <v>2</v>
+      </c>
+      <c r="T66" s="1">
+        <v>4</v>
+      </c>
+      <c r="U66" s="1">
+        <v>4</v>
+      </c>
+      <c r="V66" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="W66" s="2">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="X66" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -3347,8 +4738,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S67" s="1">
+        <v>1</v>
+      </c>
+      <c r="T67" s="1">
+        <v>5</v>
+      </c>
+      <c r="U67" s="1">
+        <v>5</v>
+      </c>
+      <c r="V67" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="W67" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="X67" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -3369,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="2">
-        <f t="shared" ref="H68:H131" si="2">Q68</f>
+        <f t="shared" ref="H68:H131" si="5">Q68</f>
         <v>0</v>
       </c>
       <c r="I68" s="14"/>
@@ -3378,11 +4790,32 @@
       <c r="L68" s="11"/>
       <c r="O68" s="14"/>
       <c r="Q68" s="2">
-        <f t="shared" ref="Q68:Q131" si="3">O68*5/40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Q68:Q131" si="6">O68*5/40</f>
+        <v>0</v>
+      </c>
+      <c r="S68" s="1">
+        <v>3</v>
+      </c>
+      <c r="T68" s="1">
+        <v>4</v>
+      </c>
+      <c r="U68" s="1">
+        <v>4</v>
+      </c>
+      <c r="V68" s="2">
+        <f t="shared" ref="V68:V131" si="7">SUM(D68)+G68+S68</f>
+        <v>17</v>
+      </c>
+      <c r="W68" s="2">
+        <f t="shared" ref="W68:W131" si="8">SUM(E68)+H68+T68</f>
+        <v>26</v>
+      </c>
+      <c r="X68" s="2">
+        <f t="shared" ref="X68:X131" si="9">SUM(F68)+I68+U68</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -3403,7 +4836,7 @@
         <v>4.5</v>
       </c>
       <c r="H69" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I69" s="14"/>
@@ -3414,11 +4847,32 @@
         <v>40</v>
       </c>
       <c r="Q69" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S69" s="1">
+        <v>4</v>
+      </c>
+      <c r="T69" s="1">
+        <v>4</v>
+      </c>
+      <c r="U69" s="1">
+        <v>4</v>
+      </c>
+      <c r="V69" s="2">
+        <f t="shared" si="7"/>
+        <v>17.5</v>
+      </c>
+      <c r="W69" s="2">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="X69" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -3439,7 +4893,7 @@
         <v>5</v>
       </c>
       <c r="H70" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I70" s="14"/>
@@ -3450,11 +4904,32 @@
         <v>40</v>
       </c>
       <c r="Q70" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S70" s="1">
+        <v>4</v>
+      </c>
+      <c r="T70" s="1">
+        <v>4</v>
+      </c>
+      <c r="U70" s="1">
+        <v>5</v>
+      </c>
+      <c r="V70" s="2">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="W70" s="2">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="X70" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -3475,7 +4950,7 @@
         <v>5</v>
       </c>
       <c r="H71" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I71" s="14"/>
@@ -3486,11 +4961,32 @@
         <v>40</v>
       </c>
       <c r="Q71" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S71" s="1">
+        <v>2</v>
+      </c>
+      <c r="T71" s="1">
+        <v>2</v>
+      </c>
+      <c r="U71" s="1">
+        <v>1</v>
+      </c>
+      <c r="V71" s="2">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="W71" s="2">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="X71" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -3511,7 +5007,7 @@
         <v>5</v>
       </c>
       <c r="H72" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I72" s="14"/>
@@ -3522,11 +5018,32 @@
         <v>40</v>
       </c>
       <c r="Q72" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S72" s="1">
+        <v>4</v>
+      </c>
+      <c r="T72" s="1">
+        <v>5</v>
+      </c>
+      <c r="U72" s="1">
+        <v>5</v>
+      </c>
+      <c r="V72" s="2">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="W72" s="2">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="X72" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -3547,7 +5064,7 @@
         <v>5</v>
       </c>
       <c r="H73" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I73" s="14"/>
@@ -3558,11 +5075,32 @@
         <v>40</v>
       </c>
       <c r="Q73" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S73" s="1">
+        <v>3</v>
+      </c>
+      <c r="T73" s="1">
+        <v>3</v>
+      </c>
+      <c r="U73" s="1">
+        <v>1</v>
+      </c>
+      <c r="V73" s="2">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="W73" s="2">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="X73" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -3583,7 +5121,7 @@
         <v>5</v>
       </c>
       <c r="H74" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I74" s="14"/>
@@ -3592,11 +5130,32 @@
       <c r="L74" s="11"/>
       <c r="O74" s="14"/>
       <c r="Q74" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S74" s="1">
+        <v>2</v>
+      </c>
+      <c r="T74" s="1">
+        <v>3</v>
+      </c>
+      <c r="U74" s="1">
+        <v>2</v>
+      </c>
+      <c r="V74" s="2">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="W74" s="2">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="X74" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -3617,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I75" s="14"/>
@@ -3626,11 +5185,32 @@
       <c r="L75" s="11"/>
       <c r="O75" s="14"/>
       <c r="Q75" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S75" s="1">
+        <v>0</v>
+      </c>
+      <c r="T75" s="1">
+        <v>3</v>
+      </c>
+      <c r="U75" s="1">
+        <v>2</v>
+      </c>
+      <c r="V75" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="W75" s="2">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="X75" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -3651,7 +5231,7 @@
         <v>5</v>
       </c>
       <c r="H76" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I76" s="14"/>
@@ -3660,11 +5240,32 @@
       <c r="L76" s="11"/>
       <c r="O76" s="14"/>
       <c r="Q76" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S76" s="1">
+        <v>4</v>
+      </c>
+      <c r="T76" s="1">
+        <v>2</v>
+      </c>
+      <c r="U76" s="1">
+        <v>1</v>
+      </c>
+      <c r="V76" s="2">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="W76" s="2">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="X76" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -3685,7 +5286,7 @@
         <v>5</v>
       </c>
       <c r="H77" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I77" s="14"/>
@@ -3696,11 +5297,32 @@
         <v>40</v>
       </c>
       <c r="Q77" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S77" s="1">
+        <v>5</v>
+      </c>
+      <c r="T77" s="1">
+        <v>5</v>
+      </c>
+      <c r="U77" s="1">
+        <v>5</v>
+      </c>
+      <c r="V77" s="2">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="W77" s="2">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="X77" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -3721,7 +5343,7 @@
         <v>3</v>
       </c>
       <c r="H78" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I78" s="14"/>
@@ -3732,11 +5354,32 @@
         <v>40</v>
       </c>
       <c r="Q78" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S78" s="1">
+        <v>3</v>
+      </c>
+      <c r="T78" s="1">
+        <v>1</v>
+      </c>
+      <c r="U78" s="1">
+        <v>2</v>
+      </c>
+      <c r="V78" s="2">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="W78" s="2">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="X78" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -3757,7 +5400,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I79" s="14"/>
@@ -3766,11 +5409,32 @@
       <c r="L79" s="11"/>
       <c r="O79" s="14"/>
       <c r="Q79" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S79" s="1">
+        <v>0</v>
+      </c>
+      <c r="T79" s="1">
+        <v>0</v>
+      </c>
+      <c r="U79" s="1">
+        <v>0</v>
+      </c>
+      <c r="V79" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W79" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X79" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -3791,7 +5455,7 @@
         <v>5</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I80" s="14"/>
@@ -3802,11 +5466,32 @@
         <v>40</v>
       </c>
       <c r="Q80" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S80" s="1">
+        <v>3</v>
+      </c>
+      <c r="T80" s="1">
+        <v>5</v>
+      </c>
+      <c r="U80" s="1">
+        <v>5</v>
+      </c>
+      <c r="V80" s="2">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="W80" s="2">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="X80" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -3827,7 +5512,7 @@
         <v>5</v>
       </c>
       <c r="H81" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I81" s="14"/>
@@ -3838,11 +5523,32 @@
         <v>40</v>
       </c>
       <c r="Q81" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S81" s="1">
+        <v>4</v>
+      </c>
+      <c r="T81" s="1">
+        <v>4</v>
+      </c>
+      <c r="U81" s="1">
+        <v>5</v>
+      </c>
+      <c r="V81" s="2">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="W81" s="2">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="X81" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -3863,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="H82" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I82" s="14"/>
@@ -3874,11 +5580,32 @@
         <v>40</v>
       </c>
       <c r="Q82" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S82" s="1">
+        <v>5</v>
+      </c>
+      <c r="T82" s="1">
+        <v>4</v>
+      </c>
+      <c r="U82" s="1">
+        <v>4</v>
+      </c>
+      <c r="V82" s="2">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="W82" s="2">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="X82" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -3899,7 +5626,7 @@
         <v>4.5</v>
       </c>
       <c r="H83" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I83" s="14"/>
@@ -3910,11 +5637,32 @@
         <v>40</v>
       </c>
       <c r="Q83" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S83" s="1">
+        <v>3</v>
+      </c>
+      <c r="T83" s="1">
+        <v>4</v>
+      </c>
+      <c r="U83" s="1">
+        <v>5</v>
+      </c>
+      <c r="V83" s="2">
+        <f t="shared" si="7"/>
+        <v>15.5</v>
+      </c>
+      <c r="W83" s="2">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="X83" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -3935,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="H84" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I84" s="14"/>
@@ -3944,11 +5692,32 @@
       <c r="L84" s="11"/>
       <c r="O84" s="14"/>
       <c r="Q84" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S84" s="1">
+        <v>0</v>
+      </c>
+      <c r="T84" s="1">
+        <v>0</v>
+      </c>
+      <c r="U84" s="1">
+        <v>0</v>
+      </c>
+      <c r="V84" s="2">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="W84" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X84" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -3969,7 +5738,7 @@
         <v>5</v>
       </c>
       <c r="H85" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I85" s="14"/>
@@ -3980,11 +5749,32 @@
         <v>40</v>
       </c>
       <c r="Q85" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S85" s="1">
+        <v>4</v>
+      </c>
+      <c r="T85" s="1">
+        <v>3</v>
+      </c>
+      <c r="U85" s="1">
+        <v>5</v>
+      </c>
+      <c r="V85" s="2">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="W85" s="2">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="X85" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -4005,7 +5795,7 @@
         <v>5</v>
       </c>
       <c r="H86" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I86" s="14"/>
@@ -4016,11 +5806,32 @@
         <v>40</v>
       </c>
       <c r="Q86" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S86" s="1">
+        <v>1</v>
+      </c>
+      <c r="T86" s="1">
+        <v>2</v>
+      </c>
+      <c r="U86" s="1">
+        <v>2</v>
+      </c>
+      <c r="V86" s="2">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="W86" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="X86" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -4041,7 +5852,7 @@
         <v>5</v>
       </c>
       <c r="H87" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I87" s="14"/>
@@ -4052,11 +5863,32 @@
         <v>40</v>
       </c>
       <c r="Q87" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S87" s="1">
+        <v>1</v>
+      </c>
+      <c r="T87" s="1">
+        <v>3</v>
+      </c>
+      <c r="U87" s="1">
+        <v>1</v>
+      </c>
+      <c r="V87" s="2">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="W87" s="2">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="X87" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -4077,7 +5909,7 @@
         <v>5</v>
       </c>
       <c r="H88" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I88" s="14"/>
@@ -4088,11 +5920,32 @@
         <v>40</v>
       </c>
       <c r="Q88" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S88" s="1">
+        <v>2</v>
+      </c>
+      <c r="T88" s="1">
+        <v>3</v>
+      </c>
+      <c r="U88" s="1">
+        <v>2</v>
+      </c>
+      <c r="V88" s="2">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="W88" s="2">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="X88" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -4113,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I89" s="14"/>
@@ -4122,11 +5975,32 @@
       <c r="L89" s="11"/>
       <c r="O89" s="14"/>
       <c r="Q89" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S89" s="1">
+        <v>0</v>
+      </c>
+      <c r="T89" s="1">
+        <v>2</v>
+      </c>
+      <c r="U89" s="1">
+        <v>0</v>
+      </c>
+      <c r="V89" s="2">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="W89" s="2">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="X89" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -4147,7 +6021,7 @@
         <v>2.5</v>
       </c>
       <c r="H90" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I90" s="14"/>
@@ -4158,11 +6032,32 @@
         <v>40</v>
       </c>
       <c r="Q90" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S90" s="1">
+        <v>3</v>
+      </c>
+      <c r="T90" s="1">
+        <v>1</v>
+      </c>
+      <c r="U90" s="1">
+        <v>4</v>
+      </c>
+      <c r="V90" s="2">
+        <f t="shared" si="7"/>
+        <v>9.5</v>
+      </c>
+      <c r="W90" s="2">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="X90" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -4183,7 +6078,7 @@
         <v>5</v>
       </c>
       <c r="H91" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I91" s="14"/>
@@ -4194,11 +6089,32 @@
         <v>40</v>
       </c>
       <c r="Q91" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S91" s="1">
+        <v>3</v>
+      </c>
+      <c r="T91" s="1">
+        <v>3</v>
+      </c>
+      <c r="U91" s="1">
+        <v>1</v>
+      </c>
+      <c r="V91" s="2">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="W91" s="2">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="X91" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -4219,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="H92" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I92" s="14"/>
@@ -4228,11 +6144,32 @@
       <c r="L92" s="11"/>
       <c r="O92" s="14"/>
       <c r="Q92" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S92" s="1">
+        <v>2</v>
+      </c>
+      <c r="T92" s="1">
+        <v>3</v>
+      </c>
+      <c r="U92" s="1">
+        <v>4</v>
+      </c>
+      <c r="V92" s="2">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="W92" s="2">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="X92" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -4253,7 +6190,7 @@
         <v>4.5</v>
       </c>
       <c r="H93" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.375</v>
       </c>
       <c r="I93" s="14"/>
@@ -4264,11 +6201,32 @@
         <v>35</v>
       </c>
       <c r="Q93" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.375</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S93" s="1">
+        <v>3</v>
+      </c>
+      <c r="T93" s="1">
+        <v>5</v>
+      </c>
+      <c r="U93" s="1">
+        <v>1</v>
+      </c>
+      <c r="V93" s="2">
+        <f t="shared" si="7"/>
+        <v>19.5</v>
+      </c>
+      <c r="W93" s="2">
+        <f t="shared" si="8"/>
+        <v>21.375</v>
+      </c>
+      <c r="X93" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -4289,7 +6247,7 @@
         <v>5</v>
       </c>
       <c r="H94" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.375</v>
       </c>
       <c r="I94" s="14"/>
@@ -4300,11 +6258,32 @@
         <v>35</v>
       </c>
       <c r="Q94" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.375</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S94" s="1">
+        <v>4</v>
+      </c>
+      <c r="T94" s="1">
+        <v>5</v>
+      </c>
+      <c r="U94" s="1">
+        <v>5</v>
+      </c>
+      <c r="V94" s="2">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="W94" s="2">
+        <f t="shared" si="8"/>
+        <v>33.375</v>
+      </c>
+      <c r="X94" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -4325,7 +6304,7 @@
         <v>5</v>
       </c>
       <c r="H95" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I95" s="14"/>
@@ -4336,11 +6315,32 @@
         <v>40</v>
       </c>
       <c r="Q95" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S95" s="1">
+        <v>4</v>
+      </c>
+      <c r="T95" s="1">
+        <v>3</v>
+      </c>
+      <c r="U95" s="1">
+        <v>5</v>
+      </c>
+      <c r="V95" s="2">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="W95" s="2">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="X95" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -4361,7 +6361,7 @@
         <v>5</v>
       </c>
       <c r="H96" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I96" s="14"/>
@@ -4370,11 +6370,32 @@
       <c r="L96" s="11"/>
       <c r="O96" s="14"/>
       <c r="Q96" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S96" s="1">
+        <v>3</v>
+      </c>
+      <c r="T96" s="1">
+        <v>4</v>
+      </c>
+      <c r="U96" s="1">
+        <v>4</v>
+      </c>
+      <c r="V96" s="2">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="W96" s="2">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="X96" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -4395,7 +6416,7 @@
         <v>4</v>
       </c>
       <c r="H97" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I97" s="14"/>
@@ -4406,11 +6427,32 @@
         <v>40</v>
       </c>
       <c r="Q97" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S97" s="1">
+        <v>3</v>
+      </c>
+      <c r="T97" s="1">
+        <v>4</v>
+      </c>
+      <c r="U97" s="1">
+        <v>4</v>
+      </c>
+      <c r="V97" s="2">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="W97" s="2">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="X97" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -4431,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="H98" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.375</v>
       </c>
       <c r="I98" s="14"/>
@@ -4442,11 +6484,32 @@
         <v>35</v>
       </c>
       <c r="Q98" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.375</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S98" s="1">
+        <v>1</v>
+      </c>
+      <c r="T98" s="1">
+        <v>2</v>
+      </c>
+      <c r="U98" s="1">
+        <v>2</v>
+      </c>
+      <c r="V98" s="2">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="W98" s="2">
+        <f t="shared" si="8"/>
+        <v>18.375</v>
+      </c>
+      <c r="X98" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -4467,7 +6530,7 @@
         <v>4</v>
       </c>
       <c r="H99" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I99" s="14"/>
@@ -4478,11 +6541,32 @@
         <v>40</v>
       </c>
       <c r="Q99" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S99" s="1">
+        <v>0</v>
+      </c>
+      <c r="T99" s="1">
+        <v>5</v>
+      </c>
+      <c r="U99" s="1">
+        <v>4</v>
+      </c>
+      <c r="V99" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="W99" s="2">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="X99" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -4503,7 +6587,7 @@
         <v>5</v>
       </c>
       <c r="H100" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.75</v>
       </c>
       <c r="I100" s="14"/>
@@ -4514,11 +6598,32 @@
         <v>30</v>
       </c>
       <c r="Q100" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.75</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S100" s="1">
+        <v>3</v>
+      </c>
+      <c r="T100" s="1">
+        <v>4</v>
+      </c>
+      <c r="U100" s="1">
+        <v>2</v>
+      </c>
+      <c r="V100" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="W100" s="2">
+        <f t="shared" si="8"/>
+        <v>23.75</v>
+      </c>
+      <c r="X100" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -4539,7 +6644,7 @@
         <v>5</v>
       </c>
       <c r="H101" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.375</v>
       </c>
       <c r="I101" s="14"/>
@@ -4550,11 +6655,32 @@
         <v>35</v>
       </c>
       <c r="Q101" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.375</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S101" s="1">
+        <v>2</v>
+      </c>
+      <c r="T101" s="1">
+        <v>5</v>
+      </c>
+      <c r="U101" s="1">
+        <v>2</v>
+      </c>
+      <c r="V101" s="2">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="W101" s="2">
+        <f t="shared" si="8"/>
+        <v>27.375</v>
+      </c>
+      <c r="X101" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -4575,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="H102" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I102" s="14"/>
@@ -4584,11 +6710,32 @@
       <c r="L102" s="11"/>
       <c r="O102" s="14"/>
       <c r="Q102" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S102" s="1">
+        <v>0</v>
+      </c>
+      <c r="T102" s="1">
+        <v>2</v>
+      </c>
+      <c r="U102" s="1">
+        <v>1</v>
+      </c>
+      <c r="V102" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="W102" s="2">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="X102" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>101</v>
       </c>
@@ -4609,7 +6756,7 @@
         <v>5</v>
       </c>
       <c r="H103" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.375</v>
       </c>
       <c r="I103" s="14"/>
@@ -4620,11 +6767,32 @@
         <v>35</v>
       </c>
       <c r="Q103" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.375</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S103" s="1">
+        <v>4</v>
+      </c>
+      <c r="T103" s="1">
+        <v>4</v>
+      </c>
+      <c r="U103" s="1">
+        <v>4</v>
+      </c>
+      <c r="V103" s="2">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="W103" s="2">
+        <f t="shared" si="8"/>
+        <v>32.375</v>
+      </c>
+      <c r="X103" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -4645,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="H104" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I104" s="14"/>
@@ -4654,11 +6822,32 @@
       <c r="L104" s="11"/>
       <c r="O104" s="14"/>
       <c r="Q104" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S104" s="1">
+        <v>0</v>
+      </c>
+      <c r="T104" s="1">
+        <v>2</v>
+      </c>
+      <c r="U104" s="1">
+        <v>0</v>
+      </c>
+      <c r="V104" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="W104" s="2">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="X104" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>103</v>
       </c>
@@ -4679,7 +6868,7 @@
         <v>4.5</v>
       </c>
       <c r="H105" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I105" s="14"/>
@@ -4690,11 +6879,32 @@
         <v>40</v>
       </c>
       <c r="Q105" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S105" s="1">
+        <v>3</v>
+      </c>
+      <c r="T105" s="1">
+        <v>4</v>
+      </c>
+      <c r="U105" s="1">
+        <v>4</v>
+      </c>
+      <c r="V105" s="2">
+        <f t="shared" si="7"/>
+        <v>21.5</v>
+      </c>
+      <c r="W105" s="2">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="X105" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -4715,7 +6925,7 @@
         <v>0</v>
       </c>
       <c r="H106" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.125</v>
       </c>
       <c r="I106" s="14"/>
@@ -4726,11 +6936,32 @@
         <v>25</v>
       </c>
       <c r="Q106" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.125</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S106" s="1">
+        <v>2</v>
+      </c>
+      <c r="T106" s="1">
+        <v>2</v>
+      </c>
+      <c r="U106" s="1">
+        <v>4</v>
+      </c>
+      <c r="V106" s="2">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="W106" s="2">
+        <f t="shared" si="8"/>
+        <v>17.125</v>
+      </c>
+      <c r="X106" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>105</v>
       </c>
@@ -4751,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="H107" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I107" s="14"/>
@@ -4762,11 +6993,32 @@
         <v>40</v>
       </c>
       <c r="Q107" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S107" s="1">
+        <v>1</v>
+      </c>
+      <c r="T107" s="1">
+        <v>2</v>
+      </c>
+      <c r="U107" s="1">
+        <v>2</v>
+      </c>
+      <c r="V107" s="2">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="W107" s="2">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="X107" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>106</v>
       </c>
@@ -4787,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="H108" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I108" s="14"/>
@@ -4796,11 +7048,32 @@
       <c r="L108" s="11"/>
       <c r="O108" s="14"/>
       <c r="Q108" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S108" s="1">
+        <v>2</v>
+      </c>
+      <c r="T108" s="1">
+        <v>3</v>
+      </c>
+      <c r="U108" s="1">
+        <v>4</v>
+      </c>
+      <c r="V108" s="2">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="W108" s="2">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="X108" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>107</v>
       </c>
@@ -4821,7 +7094,7 @@
         <v>4.5</v>
       </c>
       <c r="H109" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I109" s="14"/>
@@ -4832,11 +7105,32 @@
         <v>40</v>
       </c>
       <c r="Q109" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S109" s="1">
+        <v>2</v>
+      </c>
+      <c r="T109" s="1">
+        <v>4</v>
+      </c>
+      <c r="U109" s="1">
+        <v>2</v>
+      </c>
+      <c r="V109" s="2">
+        <f t="shared" si="7"/>
+        <v>25.5</v>
+      </c>
+      <c r="W109" s="2">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="X109" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>108</v>
       </c>
@@ -4857,7 +7151,7 @@
         <v>3</v>
       </c>
       <c r="H110" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I110" s="14"/>
@@ -4868,11 +7162,32 @@
         <v>40</v>
       </c>
       <c r="Q110" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S110" s="1">
+        <v>3</v>
+      </c>
+      <c r="T110" s="1">
+        <v>3</v>
+      </c>
+      <c r="U110" s="1">
+        <v>5</v>
+      </c>
+      <c r="V110" s="2">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="W110" s="2">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="X110" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>109</v>
       </c>
@@ -4893,7 +7208,7 @@
         <v>0</v>
       </c>
       <c r="H111" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I111" s="14"/>
@@ -4902,11 +7217,32 @@
       <c r="L111" s="11"/>
       <c r="O111" s="14"/>
       <c r="Q111" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S111" s="1">
+        <v>0</v>
+      </c>
+      <c r="T111" s="1">
+        <v>0</v>
+      </c>
+      <c r="U111" s="1">
+        <v>0</v>
+      </c>
+      <c r="V111" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W111" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X111" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>110</v>
       </c>
@@ -4927,7 +7263,7 @@
         <v>5</v>
       </c>
       <c r="H112" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.375</v>
       </c>
       <c r="I112" s="14"/>
@@ -4938,11 +7274,32 @@
         <v>35</v>
       </c>
       <c r="Q112" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.375</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S112" s="1">
+        <v>3</v>
+      </c>
+      <c r="T112" s="1">
+        <v>4</v>
+      </c>
+      <c r="U112" s="1">
+        <v>4</v>
+      </c>
+      <c r="V112" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="W112" s="2">
+        <f t="shared" si="8"/>
+        <v>26.375</v>
+      </c>
+      <c r="X112" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>111</v>
       </c>
@@ -4963,7 +7320,7 @@
         <v>5</v>
       </c>
       <c r="H113" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I113" s="14"/>
@@ -4974,11 +7331,32 @@
         <v>40</v>
       </c>
       <c r="Q113" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S113" s="1">
+        <v>4</v>
+      </c>
+      <c r="T113" s="1">
+        <v>2</v>
+      </c>
+      <c r="U113" s="1">
+        <v>2</v>
+      </c>
+      <c r="V113" s="2">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="W113" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="X113" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>112</v>
       </c>
@@ -4999,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="H114" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I114" s="14"/>
@@ -5010,11 +7388,32 @@
         <v>40</v>
       </c>
       <c r="Q114" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S114" s="1">
+        <v>2</v>
+      </c>
+      <c r="T114" s="1">
+        <v>2</v>
+      </c>
+      <c r="U114" s="1">
+        <v>4</v>
+      </c>
+      <c r="V114" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="W114" s="2">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="X114" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>113</v>
       </c>
@@ -5035,7 +7434,7 @@
         <v>0</v>
       </c>
       <c r="H115" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I115" s="14"/>
@@ -5046,11 +7445,32 @@
         <v>40</v>
       </c>
       <c r="Q115" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S115" s="1">
+        <v>0</v>
+      </c>
+      <c r="T115" s="1">
+        <v>2</v>
+      </c>
+      <c r="U115" s="1">
+        <v>1</v>
+      </c>
+      <c r="V115" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="W115" s="2">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="X115" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>114</v>
       </c>
@@ -5071,7 +7491,7 @@
         <v>2.5</v>
       </c>
       <c r="H116" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I116" s="14"/>
@@ -5080,11 +7500,32 @@
       <c r="L116" s="11"/>
       <c r="O116" s="14"/>
       <c r="Q116" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S116" s="1">
+        <v>5</v>
+      </c>
+      <c r="T116" s="1">
+        <v>3</v>
+      </c>
+      <c r="U116" s="1">
+        <v>2</v>
+      </c>
+      <c r="V116" s="2">
+        <f t="shared" si="7"/>
+        <v>13.5</v>
+      </c>
+      <c r="W116" s="2">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="X116" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>115</v>
       </c>
@@ -5105,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="H117" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I117" s="14"/>
@@ -5116,11 +7557,32 @@
         <v>40</v>
       </c>
       <c r="Q117" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S117" s="1">
+        <v>1</v>
+      </c>
+      <c r="T117" s="1">
+        <v>4</v>
+      </c>
+      <c r="U117" s="1">
+        <v>4</v>
+      </c>
+      <c r="V117" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="W117" s="2">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="X117" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -5141,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="H118" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I118" s="14"/>
@@ -5152,11 +7614,32 @@
         <v>40</v>
       </c>
       <c r="Q118" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S118" s="1">
+        <v>0</v>
+      </c>
+      <c r="T118" s="1">
+        <v>4</v>
+      </c>
+      <c r="U118" s="1">
+        <v>4</v>
+      </c>
+      <c r="V118" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="W118" s="2">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="X118" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>117</v>
       </c>
@@ -5177,7 +7660,7 @@
         <v>5</v>
       </c>
       <c r="H119" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I119" s="14"/>
@@ -5188,11 +7671,32 @@
         <v>40</v>
       </c>
       <c r="Q119" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S119" s="1">
+        <v>1</v>
+      </c>
+      <c r="T119" s="1">
+        <v>1</v>
+      </c>
+      <c r="U119" s="1">
+        <v>5</v>
+      </c>
+      <c r="V119" s="2">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="W119" s="2">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="X119" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>118</v>
       </c>
@@ -5213,7 +7717,7 @@
         <v>4.5</v>
       </c>
       <c r="H120" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I120" s="14"/>
@@ -5224,11 +7728,32 @@
         <v>40</v>
       </c>
       <c r="Q120" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S120" s="1">
+        <v>4</v>
+      </c>
+      <c r="T120" s="1">
+        <v>4</v>
+      </c>
+      <c r="U120" s="1">
+        <v>5</v>
+      </c>
+      <c r="V120" s="2">
+        <f t="shared" si="7"/>
+        <v>16.5</v>
+      </c>
+      <c r="W120" s="2">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="X120" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>119</v>
       </c>
@@ -5249,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I121" s="14"/>
@@ -5258,11 +7783,32 @@
       <c r="L121" s="11"/>
       <c r="O121" s="14"/>
       <c r="Q121" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S121" s="1">
+        <v>3</v>
+      </c>
+      <c r="T121" s="1">
+        <v>2</v>
+      </c>
+      <c r="U121" s="1">
+        <v>4</v>
+      </c>
+      <c r="V121" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="W121" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="X121" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>120</v>
       </c>
@@ -5283,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="H122" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I122" s="14"/>
@@ -5294,11 +7840,32 @@
         <v>40</v>
       </c>
       <c r="Q122" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S122" s="1">
+        <v>0</v>
+      </c>
+      <c r="T122" s="1">
+        <v>3</v>
+      </c>
+      <c r="U122" s="1">
+        <v>1</v>
+      </c>
+      <c r="V122" s="2">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="W122" s="2">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="X122" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>121</v>
       </c>
@@ -5319,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="H123" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I123" s="14"/>
@@ -5330,11 +7897,32 @@
         <v>40</v>
       </c>
       <c r="Q123" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S123" s="1">
+        <v>3</v>
+      </c>
+      <c r="T123" s="1">
+        <v>3</v>
+      </c>
+      <c r="U123" s="1">
+        <v>5</v>
+      </c>
+      <c r="V123" s="2">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="W123" s="2">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="X123" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>122</v>
       </c>
@@ -5355,7 +7943,7 @@
         <v>5</v>
       </c>
       <c r="H124" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I124" s="14"/>
@@ -5366,11 +7954,32 @@
         <v>40</v>
       </c>
       <c r="Q124" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S124" s="1">
+        <v>5</v>
+      </c>
+      <c r="T124" s="1">
+        <v>5</v>
+      </c>
+      <c r="U124" s="1">
+        <v>5</v>
+      </c>
+      <c r="V124" s="2">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="W124" s="2">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="X124" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>123</v>
       </c>
@@ -5391,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="H125" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I125" s="14"/>
@@ -5402,11 +8011,32 @@
         <v>40</v>
       </c>
       <c r="Q125" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S125" s="1">
+        <v>2</v>
+      </c>
+      <c r="T125" s="1">
+        <v>3</v>
+      </c>
+      <c r="U125" s="1">
+        <v>2</v>
+      </c>
+      <c r="V125" s="2">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="W125" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="X125" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>124</v>
       </c>
@@ -5427,7 +8057,7 @@
         <v>4</v>
       </c>
       <c r="H126" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I126" s="14"/>
@@ -5438,11 +8068,32 @@
         <v>40</v>
       </c>
       <c r="Q126" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S126" s="1">
+        <v>4</v>
+      </c>
+      <c r="T126" s="1">
+        <v>4</v>
+      </c>
+      <c r="U126" s="1">
+        <v>1</v>
+      </c>
+      <c r="V126" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="W126" s="2">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="X126" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>125</v>
       </c>
@@ -5463,7 +8114,7 @@
         <v>5</v>
       </c>
       <c r="H127" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I127" s="14"/>
@@ -5472,11 +8123,32 @@
       <c r="L127" s="11"/>
       <c r="O127" s="14"/>
       <c r="Q127" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S127" s="1">
+        <v>2</v>
+      </c>
+      <c r="T127" s="1">
+        <v>0</v>
+      </c>
+      <c r="U127" s="1">
+        <v>0</v>
+      </c>
+      <c r="V127" s="2">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="W127" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X127" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>126</v>
       </c>
@@ -5497,7 +8169,7 @@
         <v>0</v>
       </c>
       <c r="H128" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I128" s="14"/>
@@ -5508,11 +8180,32 @@
         <v>40</v>
       </c>
       <c r="Q128" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S128" s="1">
+        <v>3</v>
+      </c>
+      <c r="T128" s="1">
+        <v>3</v>
+      </c>
+      <c r="U128" s="1">
+        <v>2</v>
+      </c>
+      <c r="V128" s="2">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="W128" s="2">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="X128" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>127</v>
       </c>
@@ -5533,7 +8226,7 @@
         <v>5</v>
       </c>
       <c r="H129" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I129" s="14"/>
@@ -5544,11 +8237,32 @@
         <v>40</v>
       </c>
       <c r="Q129" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S129" s="1">
+        <v>5</v>
+      </c>
+      <c r="T129" s="1">
+        <v>4</v>
+      </c>
+      <c r="U129" s="1">
+        <v>5</v>
+      </c>
+      <c r="V129" s="2">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="W129" s="2">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="X129" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>128</v>
       </c>
@@ -5569,7 +8283,7 @@
         <v>0</v>
       </c>
       <c r="H130" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I130" s="14"/>
@@ -5580,11 +8294,32 @@
         <v>40</v>
       </c>
       <c r="Q130" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S130" s="1">
+        <v>1</v>
+      </c>
+      <c r="T130" s="1">
+        <v>4</v>
+      </c>
+      <c r="U130" s="1">
+        <v>1</v>
+      </c>
+      <c r="V130" s="2">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="W130" s="2">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="X130" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>129</v>
       </c>
@@ -5605,7 +8340,7 @@
         <v>4.5</v>
       </c>
       <c r="H131" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I131" s="14"/>
@@ -5616,11 +8351,32 @@
         <v>40</v>
       </c>
       <c r="Q131" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S131" s="1">
+        <v>4</v>
+      </c>
+      <c r="T131" s="1">
+        <v>5</v>
+      </c>
+      <c r="U131" s="1">
+        <v>5</v>
+      </c>
+      <c r="V131" s="2">
+        <f t="shared" si="7"/>
+        <v>22.5</v>
+      </c>
+      <c r="W131" s="2">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="X131" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>130</v>
       </c>
@@ -5641,7 +8397,7 @@
         <v>4</v>
       </c>
       <c r="H132" s="2">
-        <f t="shared" ref="H132:H133" si="4">Q132</f>
+        <f t="shared" ref="H132:H133" si="10">Q132</f>
         <v>5</v>
       </c>
       <c r="I132" s="14"/>
@@ -5652,11 +8408,32 @@
         <v>40</v>
       </c>
       <c r="Q132" s="2">
-        <f t="shared" ref="Q132:Q133" si="5">O132*5/40</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Q132:Q133" si="11">O132*5/40</f>
+        <v>5</v>
+      </c>
+      <c r="S132" s="1">
+        <v>5</v>
+      </c>
+      <c r="T132" s="1">
+        <v>5</v>
+      </c>
+      <c r="U132" s="1">
+        <v>5</v>
+      </c>
+      <c r="V132" s="2">
+        <f t="shared" ref="V132:V133" si="12">SUM(D132)+G132+S132</f>
+        <v>18</v>
+      </c>
+      <c r="W132" s="2">
+        <f t="shared" ref="W132:W133" si="13">SUM(E132)+H132+T132</f>
+        <v>31</v>
+      </c>
+      <c r="X132" s="2">
+        <f t="shared" ref="X132:X133" si="14">SUM(F132)+I132+U132</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>131</v>
       </c>
@@ -5677,7 +8454,7 @@
         <v>3</v>
       </c>
       <c r="H133" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="I133" s="14"/>
@@ -5688,20 +8465,41 @@
         <v>40</v>
       </c>
       <c r="Q133" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="S133" s="1">
+        <v>2</v>
+      </c>
+      <c r="T133" s="1">
+        <v>4</v>
+      </c>
+      <c r="U133" s="1">
+        <v>4</v>
+      </c>
+      <c r="V133" s="2">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="W133" s="2">
+        <f t="shared" si="13"/>
+        <v>28</v>
+      </c>
+      <c r="X133" s="2">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C137" s="1"/>
     </row>
   </sheetData>

--- a/static/Upload/4th sem.xlsx
+++ b/static/Upload/4th sem.xlsx
@@ -610,13 +610,13 @@
     <xf numFmtId="12" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="12" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,20 +1010,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
     </row>
     <row r="2" spans="1:24" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1107,6 +1107,9 @@
         <f>Q3</f>
         <v>0</v>
       </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
@@ -1114,7 +1117,7 @@
         <f>O3*5/40</f>
         <v>0</v>
       </c>
-      <c r="R3" s="21">
+      <c r="R3" s="19">
         <f>SUM(D3)+G3+S3</f>
         <v>0</v>
       </c>
@@ -1164,7 +1167,9 @@
         <f t="shared" ref="H4:H67" si="0">Q4</f>
         <v>5</v>
       </c>
-      <c r="I4" s="14"/>
+      <c r="I4" s="2">
+        <v>5</v>
+      </c>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="11"/>
@@ -1194,7 +1199,7 @@
       </c>
       <c r="X4" s="2">
         <f t="shared" ref="X4:X67" si="4">SUM(F4)+I4+U4</f>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -1221,7 +1226,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="14"/>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="11"/>
@@ -1276,7 +1283,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I6" s="14"/>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="11"/>
@@ -1306,7 +1315,7 @@
       </c>
       <c r="X6" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1333,7 +1342,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I7" s="14"/>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="11"/>
@@ -1363,7 +1374,7 @@
       </c>
       <c r="X7" s="2">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -1390,7 +1401,9 @@
         <f t="shared" si="0"/>
         <v>4.375</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="2">
+        <v>5</v>
+      </c>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="11"/>
@@ -1420,7 +1433,7 @@
       </c>
       <c r="X8" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -1447,7 +1460,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="11"/>
@@ -1477,7 +1492,7 @@
       </c>
       <c r="X9" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -1504,7 +1519,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="11"/>
@@ -1534,7 +1551,7 @@
       </c>
       <c r="X10" s="2">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1561,7 +1578,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I11" s="14"/>
+      <c r="I11" s="2">
+        <v>5</v>
+      </c>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="11"/>
@@ -1591,7 +1610,7 @@
       </c>
       <c r="X11" s="2">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -1618,7 +1637,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I12" s="14"/>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="11"/>
@@ -1675,7 +1696,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="14"/>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="11"/>
@@ -1730,7 +1753,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="14"/>
+      <c r="I14" s="2">
+        <v>5</v>
+      </c>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="11"/>
@@ -1758,7 +1783,7 @@
       </c>
       <c r="X14" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -1785,7 +1810,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I15" s="14"/>
+      <c r="I15" s="2">
+        <v>5</v>
+      </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="11"/>
@@ -1815,7 +1842,7 @@
       </c>
       <c r="X15" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -1842,7 +1869,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I16" s="14"/>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="11"/>
@@ -1899,7 +1928,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I17" s="14"/>
+      <c r="I17" s="2">
+        <v>5</v>
+      </c>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="11"/>
@@ -1929,7 +1960,7 @@
       </c>
       <c r="X17" s="2">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -1956,7 +1987,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I18" s="14"/>
+      <c r="I18" s="2">
+        <v>5</v>
+      </c>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
       <c r="L18" s="11"/>
@@ -1986,7 +2019,7 @@
       </c>
       <c r="X18" s="2">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -2013,7 +2046,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I19" s="14"/>
+      <c r="I19" s="2">
+        <v>5</v>
+      </c>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
       <c r="L19" s="11"/>
@@ -2043,7 +2078,7 @@
       </c>
       <c r="X19" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -2070,7 +2105,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I20" s="14"/>
+      <c r="I20" s="2">
+        <v>5</v>
+      </c>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
       <c r="L20" s="11"/>
@@ -2100,7 +2137,7 @@
       </c>
       <c r="X20" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -2127,7 +2164,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I21" s="14"/>
+      <c r="I21" s="2">
+        <v>5</v>
+      </c>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="11"/>
@@ -2157,7 +2196,7 @@
       </c>
       <c r="X21" s="2">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
@@ -2184,7 +2223,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I22" s="14"/>
+      <c r="I22" s="2">
+        <v>5</v>
+      </c>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="11"/>
@@ -2214,7 +2255,7 @@
       </c>
       <c r="X22" s="2">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -2241,7 +2282,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I23" s="14"/>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
       <c r="L23" s="11"/>
@@ -2296,7 +2339,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I24" s="14"/>
+      <c r="I24" s="2">
+        <v>5</v>
+      </c>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
       <c r="L24" s="11"/>
@@ -2326,7 +2371,7 @@
       </c>
       <c r="X24" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
@@ -2353,7 +2398,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I25" s="14"/>
+      <c r="I25" s="2">
+        <v>5</v>
+      </c>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
       <c r="L25" s="11"/>
@@ -2383,7 +2430,7 @@
       </c>
       <c r="X25" s="2">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
@@ -2410,7 +2457,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I26" s="14"/>
+      <c r="I26" s="2">
+        <v>5</v>
+      </c>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
       <c r="L26" s="11"/>
@@ -2440,7 +2489,7 @@
       </c>
       <c r="X26" s="2">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -2467,7 +2516,9 @@
         <f t="shared" si="0"/>
         <v>4.375</v>
       </c>
-      <c r="I27" s="14"/>
+      <c r="I27" s="2">
+        <v>5</v>
+      </c>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="11"/>
@@ -2497,7 +2548,7 @@
       </c>
       <c r="X27" s="2">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -2524,7 +2575,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I28" s="14"/>
+      <c r="I28" s="2">
+        <v>5</v>
+      </c>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
       <c r="L28" s="11"/>
@@ -2554,7 +2607,7 @@
       </c>
       <c r="X28" s="2">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
@@ -2581,7 +2634,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I29" s="14"/>
+      <c r="I29" s="2">
+        <v>5</v>
+      </c>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
       <c r="L29" s="11"/>
@@ -2611,7 +2666,7 @@
       </c>
       <c r="X29" s="2">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
@@ -2638,7 +2693,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I30" s="14"/>
+      <c r="I30" s="2">
+        <v>5</v>
+      </c>
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
       <c r="L30" s="11"/>
@@ -2668,7 +2725,7 @@
       </c>
       <c r="X30" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -2695,7 +2752,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I31" s="14"/>
+      <c r="I31" s="2">
+        <v>5</v>
+      </c>
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
       <c r="L31" s="11"/>
@@ -2725,7 +2784,7 @@
       </c>
       <c r="X31" s="2">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
@@ -2752,7 +2811,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I32" s="14"/>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
       <c r="L32" s="11"/>
@@ -2807,7 +2868,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I33" s="14"/>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
       <c r="L33" s="11"/>
@@ -2862,7 +2925,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I34" s="14"/>
+      <c r="I34" s="2">
+        <v>5</v>
+      </c>
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
       <c r="L34" s="11"/>
@@ -2892,7 +2957,7 @@
       </c>
       <c r="X34" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
@@ -2919,7 +2984,9 @@
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="I35" s="14"/>
+      <c r="I35" s="2">
+        <v>5</v>
+      </c>
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
       <c r="L35" s="11"/>
@@ -2949,7 +3016,7 @@
       </c>
       <c r="X35" s="2">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
@@ -2976,7 +3043,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="14"/>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
       <c r="L36" s="11"/>
@@ -3031,7 +3100,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I37" s="14"/>
+      <c r="I37" s="2">
+        <v>5</v>
+      </c>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
       <c r="L37" s="11"/>
@@ -3061,7 +3132,7 @@
       </c>
       <c r="X37" s="2">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
@@ -3088,7 +3159,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I38" s="14"/>
+      <c r="I38" s="2">
+        <v>5</v>
+      </c>
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
       <c r="L38" s="11"/>
@@ -3118,7 +3191,7 @@
       </c>
       <c r="X38" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
@@ -3145,7 +3218,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I39" s="14"/>
+      <c r="I39" s="2">
+        <v>5</v>
+      </c>
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
       <c r="L39" s="11"/>
@@ -3175,7 +3250,7 @@
       </c>
       <c r="X39" s="2">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
@@ -3202,7 +3277,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I40" s="14"/>
+      <c r="I40" s="2">
+        <v>5</v>
+      </c>
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
       <c r="L40" s="11"/>
@@ -3232,7 +3309,7 @@
       </c>
       <c r="X40" s="2">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
@@ -3259,7 +3336,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="14"/>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
       <c r="L41" s="11"/>
@@ -3314,7 +3393,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I42" s="14"/>
+      <c r="I42" s="2">
+        <v>5</v>
+      </c>
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
       <c r="L42" s="11"/>
@@ -3344,7 +3425,7 @@
       </c>
       <c r="X42" s="2">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
@@ -3371,7 +3452,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I43" s="14"/>
+      <c r="I43" s="2">
+        <v>5</v>
+      </c>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
       <c r="L43" s="11"/>
@@ -3401,7 +3484,7 @@
       </c>
       <c r="X43" s="2">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
@@ -3428,7 +3511,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I44" s="14"/>
+      <c r="I44" s="2">
+        <v>5</v>
+      </c>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
       <c r="L44" s="11"/>
@@ -3458,7 +3543,7 @@
       </c>
       <c r="X44" s="2">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
@@ -3485,7 +3570,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I45" s="14"/>
+      <c r="I45" s="2">
+        <v>5</v>
+      </c>
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
       <c r="L45" s="11"/>
@@ -3515,7 +3602,7 @@
       </c>
       <c r="X45" s="2">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
@@ -3542,7 +3629,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I46" s="14"/>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
       <c r="L46" s="11"/>
@@ -3597,7 +3686,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I47" s="14"/>
+      <c r="I47" s="2">
+        <v>5</v>
+      </c>
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
       <c r="L47" s="11"/>
@@ -3627,7 +3718,7 @@
       </c>
       <c r="X47" s="2">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
@@ -3654,7 +3745,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I48" s="14"/>
+      <c r="I48" s="2">
+        <v>5</v>
+      </c>
       <c r="J48" s="14"/>
       <c r="K48" s="14"/>
       <c r="L48" s="11"/>
@@ -3684,7 +3777,7 @@
       </c>
       <c r="X48" s="2">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
@@ -3711,7 +3804,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I49" s="14"/>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
       <c r="J49" s="14"/>
       <c r="K49" s="14"/>
       <c r="L49" s="11"/>
@@ -3766,7 +3861,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I50" s="14"/>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
       <c r="J50" s="14"/>
       <c r="K50" s="14"/>
       <c r="L50" s="11"/>
@@ -3821,7 +3918,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I51" s="14"/>
+      <c r="I51" s="2">
+        <v>5</v>
+      </c>
       <c r="J51" s="14"/>
       <c r="K51" s="14"/>
       <c r="L51" s="11"/>
@@ -3851,7 +3950,7 @@
       </c>
       <c r="X51" s="2">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
@@ -3878,7 +3977,9 @@
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="I52" s="14"/>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
       <c r="J52" s="14"/>
       <c r="K52" s="14"/>
       <c r="L52" s="11"/>
@@ -3935,7 +4036,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I53" s="14"/>
+      <c r="I53" s="2">
+        <v>5</v>
+      </c>
       <c r="J53" s="14"/>
       <c r="K53" s="14"/>
       <c r="L53" s="11"/>
@@ -3963,7 +4066,7 @@
       </c>
       <c r="X53" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
@@ -3990,7 +4093,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I54" s="14"/>
+      <c r="I54" s="2">
+        <v>5</v>
+      </c>
       <c r="J54" s="14"/>
       <c r="K54" s="14"/>
       <c r="L54" s="11"/>
@@ -4020,7 +4125,7 @@
       </c>
       <c r="X54" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
@@ -4047,7 +4152,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I55" s="14"/>
+      <c r="I55" s="2">
+        <v>5</v>
+      </c>
       <c r="J55" s="14"/>
       <c r="K55" s="14"/>
       <c r="L55" s="11"/>
@@ -4077,7 +4184,7 @@
       </c>
       <c r="X55" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
@@ -4104,7 +4211,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I56" s="14"/>
+      <c r="I56" s="2">
+        <v>5</v>
+      </c>
       <c r="J56" s="14"/>
       <c r="K56" s="14"/>
       <c r="L56" s="11"/>
@@ -4134,7 +4243,7 @@
       </c>
       <c r="X56" s="2">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
@@ -4161,7 +4270,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I57" s="14"/>
+      <c r="I57" s="2">
+        <v>5</v>
+      </c>
       <c r="J57" s="14"/>
       <c r="K57" s="14"/>
       <c r="L57" s="11"/>
@@ -4191,7 +4302,7 @@
       </c>
       <c r="X57" s="2">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
@@ -4218,7 +4329,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I58" s="14"/>
+      <c r="I58" s="2">
+        <v>5</v>
+      </c>
       <c r="J58" s="14"/>
       <c r="K58" s="14"/>
       <c r="L58" s="11"/>
@@ -4248,7 +4361,7 @@
       </c>
       <c r="X58" s="2">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
@@ -4275,7 +4388,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I59" s="14"/>
+      <c r="I59" s="2">
+        <v>5</v>
+      </c>
       <c r="J59" s="14"/>
       <c r="K59" s="14"/>
       <c r="L59" s="11"/>
@@ -4303,7 +4418,7 @@
       </c>
       <c r="X59" s="2">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
@@ -4330,7 +4445,9 @@
         <f t="shared" si="0"/>
         <v>4.375</v>
       </c>
-      <c r="I60" s="14"/>
+      <c r="I60" s="2">
+        <v>5</v>
+      </c>
       <c r="J60" s="14"/>
       <c r="K60" s="14"/>
       <c r="L60" s="11"/>
@@ -4360,7 +4477,7 @@
       </c>
       <c r="X60" s="2">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
@@ -4387,7 +4504,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I61" s="14"/>
+      <c r="I61" s="2">
+        <v>5</v>
+      </c>
       <c r="J61" s="14"/>
       <c r="K61" s="14"/>
       <c r="L61" s="11"/>
@@ -4417,7 +4536,7 @@
       </c>
       <c r="X61" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
@@ -4444,7 +4563,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I62" s="14"/>
+      <c r="I62" s="2">
+        <v>5</v>
+      </c>
       <c r="J62" s="14"/>
       <c r="K62" s="14"/>
       <c r="L62" s="11"/>
@@ -4474,7 +4595,7 @@
       </c>
       <c r="X62" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
@@ -4501,7 +4622,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I63" s="14"/>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
       <c r="J63" s="14"/>
       <c r="K63" s="14"/>
       <c r="L63" s="11"/>
@@ -4556,7 +4679,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I64" s="14"/>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
       <c r="J64" s="14"/>
       <c r="K64" s="14"/>
       <c r="L64" s="11"/>
@@ -4613,7 +4738,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I65" s="14"/>
+      <c r="I65" s="2">
+        <v>5</v>
+      </c>
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
       <c r="L65" s="11"/>
@@ -4643,7 +4770,7 @@
       </c>
       <c r="X65" s="2">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
@@ -4670,7 +4797,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I66" s="14"/>
+      <c r="I66" s="2">
+        <v>5</v>
+      </c>
       <c r="J66" s="14"/>
       <c r="K66" s="14"/>
       <c r="L66" s="11"/>
@@ -4700,7 +4829,7 @@
       </c>
       <c r="X66" s="2">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
@@ -4727,7 +4856,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I67" s="14"/>
+      <c r="I67" s="2">
+        <v>5</v>
+      </c>
       <c r="J67" s="14"/>
       <c r="K67" s="14"/>
       <c r="L67" s="11"/>
@@ -4757,7 +4888,7 @@
       </c>
       <c r="X67" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
@@ -4784,7 +4915,9 @@
         <f t="shared" ref="H68:H131" si="5">Q68</f>
         <v>0</v>
       </c>
-      <c r="I68" s="14"/>
+      <c r="I68" s="2">
+        <v>5</v>
+      </c>
       <c r="J68" s="14"/>
       <c r="K68" s="14"/>
       <c r="L68" s="11"/>
@@ -4812,7 +4945,7 @@
       </c>
       <c r="X68" s="2">
         <f t="shared" ref="X68:X131" si="9">SUM(F68)+I68+U68</f>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
@@ -4839,7 +4972,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I69" s="14"/>
+      <c r="I69" s="2">
+        <v>5</v>
+      </c>
       <c r="J69" s="14"/>
       <c r="K69" s="14"/>
       <c r="L69" s="11"/>
@@ -4869,7 +5004,7 @@
       </c>
       <c r="X69" s="2">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
@@ -4896,7 +5031,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I70" s="14"/>
+      <c r="I70" s="2">
+        <v>5</v>
+      </c>
       <c r="J70" s="14"/>
       <c r="K70" s="14"/>
       <c r="L70" s="11"/>
@@ -4926,7 +5063,7 @@
       </c>
       <c r="X70" s="2">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
@@ -4953,7 +5090,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I71" s="14"/>
+      <c r="I71" s="2">
+        <v>5</v>
+      </c>
       <c r="J71" s="14"/>
       <c r="K71" s="14"/>
       <c r="L71" s="11"/>
@@ -4983,7 +5122,7 @@
       </c>
       <c r="X71" s="2">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
@@ -5010,7 +5149,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I72" s="14"/>
+      <c r="I72" s="2">
+        <v>5</v>
+      </c>
       <c r="J72" s="14"/>
       <c r="K72" s="14"/>
       <c r="L72" s="11"/>
@@ -5040,7 +5181,7 @@
       </c>
       <c r="X72" s="2">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
@@ -5067,7 +5208,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I73" s="14"/>
+      <c r="I73" s="2">
+        <v>5</v>
+      </c>
       <c r="J73" s="14"/>
       <c r="K73" s="14"/>
       <c r="L73" s="11"/>
@@ -5097,7 +5240,7 @@
       </c>
       <c r="X73" s="2">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
@@ -5124,7 +5267,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I74" s="14"/>
+      <c r="I74" s="2">
+        <v>5</v>
+      </c>
       <c r="J74" s="14"/>
       <c r="K74" s="14"/>
       <c r="L74" s="11"/>
@@ -5152,7 +5297,7 @@
       </c>
       <c r="X74" s="2">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
@@ -5179,7 +5324,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I75" s="14"/>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
       <c r="J75" s="14"/>
       <c r="K75" s="14"/>
       <c r="L75" s="11"/>
@@ -5234,7 +5381,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I76" s="14"/>
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
       <c r="J76" s="14"/>
       <c r="K76" s="14"/>
       <c r="L76" s="11"/>
@@ -5289,7 +5438,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I77" s="14"/>
+      <c r="I77" s="2">
+        <v>5</v>
+      </c>
       <c r="J77" s="14"/>
       <c r="K77" s="14"/>
       <c r="L77" s="11"/>
@@ -5319,7 +5470,7 @@
       </c>
       <c r="X77" s="2">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
@@ -5346,7 +5497,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I78" s="14"/>
+      <c r="I78" s="2">
+        <v>5</v>
+      </c>
       <c r="J78" s="14"/>
       <c r="K78" s="14"/>
       <c r="L78" s="11"/>
@@ -5376,7 +5529,7 @@
       </c>
       <c r="X78" s="2">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
@@ -5403,7 +5556,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I79" s="14"/>
+      <c r="I79" s="2">
+        <v>0</v>
+      </c>
       <c r="J79" s="14"/>
       <c r="K79" s="14"/>
       <c r="L79" s="11"/>
@@ -5458,7 +5613,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I80" s="14"/>
+      <c r="I80" s="2">
+        <v>5</v>
+      </c>
       <c r="J80" s="14"/>
       <c r="K80" s="14"/>
       <c r="L80" s="11"/>
@@ -5488,7 +5645,7 @@
       </c>
       <c r="X80" s="2">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.25">
@@ -5515,7 +5672,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I81" s="14"/>
+      <c r="I81" s="2">
+        <v>5</v>
+      </c>
       <c r="J81" s="14"/>
       <c r="K81" s="14"/>
       <c r="L81" s="11"/>
@@ -5545,7 +5704,7 @@
       </c>
       <c r="X81" s="2">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.25">
@@ -5572,7 +5731,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I82" s="14"/>
+      <c r="I82" s="2">
+        <v>0</v>
+      </c>
       <c r="J82" s="14"/>
       <c r="K82" s="14"/>
       <c r="L82" s="11"/>
@@ -5629,7 +5790,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I83" s="14"/>
+      <c r="I83" s="2">
+        <v>0</v>
+      </c>
       <c r="J83" s="14"/>
       <c r="K83" s="14"/>
       <c r="L83" s="11"/>
@@ -5686,7 +5849,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I84" s="14"/>
+      <c r="I84" s="2">
+        <v>0</v>
+      </c>
       <c r="J84" s="14"/>
       <c r="K84" s="14"/>
       <c r="L84" s="11"/>
@@ -5741,7 +5906,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I85" s="14"/>
+      <c r="I85" s="2">
+        <v>5</v>
+      </c>
       <c r="J85" s="14"/>
       <c r="K85" s="14"/>
       <c r="L85" s="11"/>
@@ -5771,7 +5938,7 @@
       </c>
       <c r="X85" s="2">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.25">
@@ -5798,7 +5965,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I86" s="14"/>
+      <c r="I86" s="2">
+        <v>5</v>
+      </c>
       <c r="J86" s="14"/>
       <c r="K86" s="14"/>
       <c r="L86" s="11"/>
@@ -5828,7 +5997,7 @@
       </c>
       <c r="X86" s="2">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.25">
@@ -5855,7 +6024,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I87" s="14"/>
+      <c r="I87" s="2">
+        <v>0</v>
+      </c>
       <c r="J87" s="14"/>
       <c r="K87" s="14"/>
       <c r="L87" s="11"/>
@@ -5912,7 +6083,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I88" s="14"/>
+      <c r="I88" s="2">
+        <v>0</v>
+      </c>
       <c r="J88" s="14"/>
       <c r="K88" s="14"/>
       <c r="L88" s="11"/>
@@ -5969,7 +6142,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I89" s="14"/>
+      <c r="I89" s="2">
+        <v>0</v>
+      </c>
       <c r="J89" s="14"/>
       <c r="K89" s="14"/>
       <c r="L89" s="11"/>
@@ -6024,7 +6199,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I90" s="14"/>
+      <c r="I90" s="2">
+        <v>5</v>
+      </c>
       <c r="J90" s="14"/>
       <c r="K90" s="14"/>
       <c r="L90" s="11"/>
@@ -6054,7 +6231,7 @@
       </c>
       <c r="X90" s="2">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
@@ -6081,7 +6258,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I91" s="14"/>
+      <c r="I91" s="2">
+        <v>5</v>
+      </c>
       <c r="J91" s="14"/>
       <c r="K91" s="14"/>
       <c r="L91" s="11"/>
@@ -6111,7 +6290,7 @@
       </c>
       <c r="X91" s="2">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
@@ -6138,7 +6317,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I92" s="14"/>
+      <c r="I92" s="2">
+        <v>0</v>
+      </c>
       <c r="J92" s="14"/>
       <c r="K92" s="14"/>
       <c r="L92" s="11"/>
@@ -6193,7 +6374,9 @@
         <f t="shared" si="5"/>
         <v>4.375</v>
       </c>
-      <c r="I93" s="14"/>
+      <c r="I93" s="2">
+        <v>5</v>
+      </c>
       <c r="J93" s="14"/>
       <c r="K93" s="14"/>
       <c r="L93" s="11"/>
@@ -6223,7 +6406,7 @@
       </c>
       <c r="X93" s="2">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.25">
@@ -6250,7 +6433,9 @@
         <f t="shared" si="5"/>
         <v>4.375</v>
       </c>
-      <c r="I94" s="14"/>
+      <c r="I94" s="2">
+        <v>5</v>
+      </c>
       <c r="J94" s="14"/>
       <c r="K94" s="14"/>
       <c r="L94" s="11"/>
@@ -6280,7 +6465,7 @@
       </c>
       <c r="X94" s="2">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.25">
@@ -6307,7 +6492,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I95" s="14"/>
+      <c r="I95" s="2">
+        <v>5</v>
+      </c>
       <c r="J95" s="14"/>
       <c r="K95" s="14"/>
       <c r="L95" s="11"/>
@@ -6337,7 +6524,7 @@
       </c>
       <c r="X95" s="2">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.25">
@@ -6364,7 +6551,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I96" s="14"/>
+      <c r="I96" s="2">
+        <v>5</v>
+      </c>
       <c r="J96" s="14"/>
       <c r="K96" s="14"/>
       <c r="L96" s="11"/>
@@ -6392,7 +6581,7 @@
       </c>
       <c r="X96" s="2">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.25">
@@ -6419,7 +6608,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I97" s="14"/>
+      <c r="I97" s="2">
+        <v>5</v>
+      </c>
       <c r="J97" s="14"/>
       <c r="K97" s="14"/>
       <c r="L97" s="11"/>
@@ -6449,7 +6640,7 @@
       </c>
       <c r="X97" s="2">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.25">
@@ -6476,7 +6667,9 @@
         <f t="shared" si="5"/>
         <v>4.375</v>
       </c>
-      <c r="I98" s="14"/>
+      <c r="I98" s="2">
+        <v>0</v>
+      </c>
       <c r="J98" s="14"/>
       <c r="K98" s="14"/>
       <c r="L98" s="11"/>
@@ -6533,7 +6726,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I99" s="14"/>
+      <c r="I99" s="2">
+        <v>5</v>
+      </c>
       <c r="J99" s="14"/>
       <c r="K99" s="14"/>
       <c r="L99" s="11"/>
@@ -6563,7 +6758,7 @@
       </c>
       <c r="X99" s="2">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.25">
@@ -6590,7 +6785,9 @@
         <f t="shared" si="5"/>
         <v>3.75</v>
       </c>
-      <c r="I100" s="14"/>
+      <c r="I100" s="2">
+        <v>5</v>
+      </c>
       <c r="J100" s="14"/>
       <c r="K100" s="14"/>
       <c r="L100" s="11"/>
@@ -6620,7 +6817,7 @@
       </c>
       <c r="X100" s="2">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
@@ -6647,7 +6844,9 @@
         <f t="shared" si="5"/>
         <v>4.375</v>
       </c>
-      <c r="I101" s="14"/>
+      <c r="I101" s="2">
+        <v>5</v>
+      </c>
       <c r="J101" s="14"/>
       <c r="K101" s="14"/>
       <c r="L101" s="11"/>
@@ -6677,7 +6876,7 @@
       </c>
       <c r="X101" s="2">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.25">
@@ -6704,7 +6903,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I102" s="14"/>
+      <c r="I102" s="2">
+        <v>0</v>
+      </c>
       <c r="J102" s="14"/>
       <c r="K102" s="14"/>
       <c r="L102" s="11"/>
@@ -6759,7 +6960,9 @@
         <f t="shared" si="5"/>
         <v>4.375</v>
       </c>
-      <c r="I103" s="14"/>
+      <c r="I103" s="2">
+        <v>5</v>
+      </c>
       <c r="J103" s="14"/>
       <c r="K103" s="14"/>
       <c r="L103" s="11"/>
@@ -6789,7 +6992,7 @@
       </c>
       <c r="X103" s="2">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.25">
@@ -6816,7 +7019,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I104" s="14"/>
+      <c r="I104" s="2">
+        <v>0</v>
+      </c>
       <c r="J104" s="14"/>
       <c r="K104" s="14"/>
       <c r="L104" s="11"/>
@@ -6871,7 +7076,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I105" s="14"/>
+      <c r="I105" s="2">
+        <v>5</v>
+      </c>
       <c r="J105" s="14"/>
       <c r="K105" s="14"/>
       <c r="L105" s="11"/>
@@ -6901,7 +7108,7 @@
       </c>
       <c r="X105" s="2">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.25">
@@ -6928,7 +7135,9 @@
         <f t="shared" si="5"/>
         <v>3.125</v>
       </c>
-      <c r="I106" s="14"/>
+      <c r="I106" s="2">
+        <v>0</v>
+      </c>
       <c r="J106" s="14"/>
       <c r="K106" s="14"/>
       <c r="L106" s="11"/>
@@ -6985,7 +7194,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I107" s="14"/>
+      <c r="I107" s="2">
+        <v>0</v>
+      </c>
       <c r="J107" s="14"/>
       <c r="K107" s="14"/>
       <c r="L107" s="11"/>
@@ -7042,7 +7253,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I108" s="14"/>
+      <c r="I108" s="2">
+        <v>0</v>
+      </c>
       <c r="J108" s="14"/>
       <c r="K108" s="14"/>
       <c r="L108" s="11"/>
@@ -7097,7 +7310,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I109" s="14"/>
+      <c r="I109" s="2">
+        <v>5</v>
+      </c>
       <c r="J109" s="14"/>
       <c r="K109" s="14"/>
       <c r="L109" s="11"/>
@@ -7127,7 +7342,7 @@
       </c>
       <c r="X109" s="2">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
@@ -7154,7 +7369,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I110" s="14"/>
+      <c r="I110" s="2">
+        <v>5</v>
+      </c>
       <c r="J110" s="14"/>
       <c r="K110" s="14"/>
       <c r="L110" s="11"/>
@@ -7184,7 +7401,7 @@
       </c>
       <c r="X110" s="2">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.25">
@@ -7211,7 +7428,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I111" s="14"/>
+      <c r="I111" s="2">
+        <v>0</v>
+      </c>
       <c r="J111" s="14"/>
       <c r="K111" s="14"/>
       <c r="L111" s="11"/>
@@ -7266,7 +7485,9 @@
         <f t="shared" si="5"/>
         <v>4.375</v>
       </c>
-      <c r="I112" s="14"/>
+      <c r="I112" s="2">
+        <v>5</v>
+      </c>
       <c r="J112" s="14"/>
       <c r="K112" s="14"/>
       <c r="L112" s="11"/>
@@ -7296,7 +7517,7 @@
       </c>
       <c r="X112" s="2">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.25">
@@ -7323,7 +7544,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I113" s="14"/>
+      <c r="I113" s="2">
+        <v>5</v>
+      </c>
       <c r="J113" s="14"/>
       <c r="K113" s="14"/>
       <c r="L113" s="11"/>
@@ -7353,7 +7576,7 @@
       </c>
       <c r="X113" s="2">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.25">
@@ -7380,7 +7603,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I114" s="14"/>
+      <c r="I114" s="2">
+        <v>5</v>
+      </c>
       <c r="J114" s="14"/>
       <c r="K114" s="14"/>
       <c r="L114" s="11"/>
@@ -7410,7 +7635,7 @@
       </c>
       <c r="X114" s="2">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.25">
@@ -7437,7 +7662,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I115" s="14"/>
+      <c r="I115" s="2">
+        <v>0</v>
+      </c>
       <c r="J115" s="14"/>
       <c r="K115" s="14"/>
       <c r="L115" s="11"/>
@@ -7494,7 +7721,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I116" s="14"/>
+      <c r="I116" s="2">
+        <v>5</v>
+      </c>
       <c r="J116" s="14"/>
       <c r="K116" s="14"/>
       <c r="L116" s="11"/>
@@ -7522,7 +7751,7 @@
       </c>
       <c r="X116" s="2">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.25">
@@ -7549,7 +7778,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I117" s="14"/>
+      <c r="I117" s="2">
+        <v>5</v>
+      </c>
       <c r="J117" s="14"/>
       <c r="K117" s="14"/>
       <c r="L117" s="11"/>
@@ -7579,7 +7810,7 @@
       </c>
       <c r="X117" s="2">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.25">
@@ -7606,7 +7837,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I118" s="14"/>
+      <c r="I118" s="2">
+        <v>5</v>
+      </c>
       <c r="J118" s="14"/>
       <c r="K118" s="14"/>
       <c r="L118" s="11"/>
@@ -7636,7 +7869,7 @@
       </c>
       <c r="X118" s="2">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.25">
@@ -7663,7 +7896,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I119" s="14"/>
+      <c r="I119" s="2">
+        <v>5</v>
+      </c>
       <c r="J119" s="14"/>
       <c r="K119" s="14"/>
       <c r="L119" s="11"/>
@@ -7693,7 +7928,7 @@
       </c>
       <c r="X119" s="2">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.25">
@@ -7720,7 +7955,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I120" s="14"/>
+      <c r="I120" s="2">
+        <v>5</v>
+      </c>
       <c r="J120" s="14"/>
       <c r="K120" s="14"/>
       <c r="L120" s="11"/>
@@ -7750,7 +7987,7 @@
       </c>
       <c r="X120" s="2">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.25">
@@ -7777,7 +8014,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I121" s="14"/>
+      <c r="I121" s="2">
+        <v>0</v>
+      </c>
       <c r="J121" s="14"/>
       <c r="K121" s="14"/>
       <c r="L121" s="11"/>
@@ -7832,7 +8071,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I122" s="14"/>
+      <c r="I122" s="2">
+        <v>5</v>
+      </c>
       <c r="J122" s="14"/>
       <c r="K122" s="14"/>
       <c r="L122" s="11"/>
@@ -7862,7 +8103,7 @@
       </c>
       <c r="X122" s="2">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.25">
@@ -7889,7 +8130,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I123" s="14"/>
+      <c r="I123" s="2">
+        <v>5</v>
+      </c>
       <c r="J123" s="14"/>
       <c r="K123" s="14"/>
       <c r="L123" s="11"/>
@@ -7919,7 +8162,7 @@
       </c>
       <c r="X123" s="2">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.25">
@@ -7946,7 +8189,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I124" s="14"/>
+      <c r="I124" s="2">
+        <v>5</v>
+      </c>
       <c r="J124" s="14"/>
       <c r="K124" s="14"/>
       <c r="L124" s="11"/>
@@ -7976,7 +8221,7 @@
       </c>
       <c r="X124" s="2">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.25">
@@ -8003,7 +8248,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I125" s="14"/>
+      <c r="I125" s="2">
+        <v>5</v>
+      </c>
       <c r="J125" s="14"/>
       <c r="K125" s="14"/>
       <c r="L125" s="11"/>
@@ -8033,7 +8280,7 @@
       </c>
       <c r="X125" s="2">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.25">
@@ -8060,7 +8307,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I126" s="14"/>
+      <c r="I126" s="2">
+        <v>0</v>
+      </c>
       <c r="J126" s="14"/>
       <c r="K126" s="14"/>
       <c r="L126" s="11"/>
@@ -8117,7 +8366,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I127" s="14"/>
+      <c r="I127" s="2">
+        <v>0</v>
+      </c>
       <c r="J127" s="14"/>
       <c r="K127" s="14"/>
       <c r="L127" s="11"/>
@@ -8172,7 +8423,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I128" s="14"/>
+      <c r="I128" s="2">
+        <v>5</v>
+      </c>
       <c r="J128" s="14"/>
       <c r="K128" s="14"/>
       <c r="L128" s="11"/>
@@ -8202,7 +8455,7 @@
       </c>
       <c r="X128" s="2">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:24" x14ac:dyDescent="0.25">
@@ -8229,7 +8482,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I129" s="14"/>
+      <c r="I129" s="2">
+        <v>5</v>
+      </c>
       <c r="J129" s="14"/>
       <c r="K129" s="14"/>
       <c r="L129" s="11"/>
@@ -8259,7 +8514,7 @@
       </c>
       <c r="X129" s="2">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:24" x14ac:dyDescent="0.25">
@@ -8286,7 +8541,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I130" s="14"/>
+      <c r="I130" s="2">
+        <v>5</v>
+      </c>
       <c r="J130" s="14"/>
       <c r="K130" s="14"/>
       <c r="L130" s="11"/>
@@ -8316,7 +8573,7 @@
       </c>
       <c r="X130" s="2">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:24" x14ac:dyDescent="0.25">
@@ -8343,7 +8600,9 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I131" s="14"/>
+      <c r="I131" s="2">
+        <v>5</v>
+      </c>
       <c r="J131" s="14"/>
       <c r="K131" s="14"/>
       <c r="L131" s="11"/>
@@ -8373,7 +8632,7 @@
       </c>
       <c r="X131" s="2">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.25">
@@ -8400,7 +8659,9 @@
         <f t="shared" ref="H132:H133" si="10">Q132</f>
         <v>5</v>
       </c>
-      <c r="I132" s="14"/>
+      <c r="I132" s="2">
+        <v>5</v>
+      </c>
       <c r="J132" s="14"/>
       <c r="K132" s="14"/>
       <c r="L132" s="11"/>
@@ -8430,7 +8691,7 @@
       </c>
       <c r="X132" s="2">
         <f t="shared" ref="X132:X133" si="14">SUM(F132)+I132+U132</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.25">
@@ -8457,7 +8718,9 @@
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="I133" s="14"/>
+      <c r="I133" s="2">
+        <v>5</v>
+      </c>
       <c r="J133" s="14"/>
       <c r="K133" s="14"/>
       <c r="L133" s="11"/>
@@ -8487,7 +8750,7 @@
       </c>
       <c r="X133" s="2">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:24" x14ac:dyDescent="0.25">

--- a/static/Upload/4th sem.xlsx
+++ b/static/Upload/4th sem.xlsx
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1870,7 +1870,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="X16" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -7136,7 +7136,7 @@
         <v>3.125</v>
       </c>
       <c r="I106" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J106" s="14"/>
       <c r="K106" s="14"/>
@@ -7167,7 +7167,7 @@
       </c>
       <c r="X106" s="2">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.25">
@@ -7195,7 +7195,7 @@
         <v>5</v>
       </c>
       <c r="I107" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J107" s="14"/>
       <c r="K107" s="14"/>
@@ -7226,7 +7226,7 @@
       </c>
       <c r="X107" s="2">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.25">

--- a/static/Upload/4th sem.xlsx
+++ b/static/Upload/4th sem.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="140">
   <si>
     <t>S.N</t>
   </si>
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I108" sqref="I108"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,6 +1100,9 @@
       <c r="E3" s="2">
         <v>8</v>
       </c>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
       <c r="G3" s="2">
         <v>0</v>
       </c>
@@ -1109,6 +1112,9 @@
       </c>
       <c r="I3" s="2">
         <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>7</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -1140,7 +1146,7 @@
       </c>
       <c r="X3" s="2">
         <f>SUM(F3)+I3+U3</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -1159,7 +1165,9 @@
       <c r="E4" s="14">
         <v>15</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="14">
+        <v>12</v>
+      </c>
       <c r="G4" s="14">
         <v>4</v>
       </c>
@@ -1171,7 +1179,9 @@
         <v>5</v>
       </c>
       <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="K4" s="14">
+        <v>23</v>
+      </c>
       <c r="L4" s="11"/>
       <c r="O4" s="14">
         <v>40</v>
@@ -1199,7 +1209,7 @@
       </c>
       <c r="X4" s="2">
         <f t="shared" ref="X4:X67" si="4">SUM(F4)+I4+U4</f>
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -1218,7 +1228,9 @@
       <c r="E5" s="14">
         <v>7</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="14">
+        <v>15</v>
+      </c>
       <c r="G5" s="14">
         <v>4.5</v>
       </c>
@@ -1230,7 +1242,9 @@
         <v>0</v>
       </c>
       <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
+      <c r="K5" s="14">
+        <v>18</v>
+      </c>
       <c r="L5" s="11"/>
       <c r="O5" s="14"/>
       <c r="Q5" s="2">
@@ -1256,7 +1270,7 @@
       </c>
       <c r="X5" s="2">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -1275,7 +1289,9 @@
       <c r="E6" s="14">
         <v>16</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="14">
+        <v>12</v>
+      </c>
       <c r="G6" s="14">
         <v>4.5</v>
       </c>
@@ -1287,7 +1303,9 @@
         <v>5</v>
       </c>
       <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="K6" s="14">
+        <v>24</v>
+      </c>
       <c r="L6" s="11"/>
       <c r="O6" s="14">
         <v>40</v>
@@ -1315,7 +1333,7 @@
       </c>
       <c r="X6" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1334,7 +1352,9 @@
       <c r="E7" s="14">
         <v>8</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="14">
+        <v>16</v>
+      </c>
       <c r="G7" s="14">
         <v>5</v>
       </c>
@@ -1346,7 +1366,9 @@
         <v>5</v>
       </c>
       <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="K7" s="14">
+        <v>21</v>
+      </c>
       <c r="L7" s="11"/>
       <c r="O7" s="14">
         <v>40</v>
@@ -1374,7 +1396,7 @@
       </c>
       <c r="X7" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -1393,7 +1415,9 @@
       <c r="E8" s="14">
         <v>7</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="14">
+        <v>11</v>
+      </c>
       <c r="G8" s="13">
         <v>0</v>
       </c>
@@ -1405,7 +1429,9 @@
         <v>5</v>
       </c>
       <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="K8" s="14">
+        <v>17</v>
+      </c>
       <c r="L8" s="11"/>
       <c r="O8" s="14">
         <v>35</v>
@@ -1433,7 +1459,7 @@
       </c>
       <c r="X8" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -1452,7 +1478,9 @@
       <c r="E9" s="14">
         <v>19</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="14">
+        <v>16</v>
+      </c>
       <c r="G9" s="14">
         <v>4.5</v>
       </c>
@@ -1464,7 +1492,9 @@
         <v>5</v>
       </c>
       <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="K9" s="14">
+        <v>28</v>
+      </c>
       <c r="L9" s="11"/>
       <c r="O9" s="14">
         <v>40</v>
@@ -1492,7 +1522,7 @@
       </c>
       <c r="X9" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -1511,7 +1541,9 @@
       <c r="E10" s="14">
         <v>13</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="14">
+        <v>17</v>
+      </c>
       <c r="G10" s="14">
         <v>3</v>
       </c>
@@ -1523,7 +1555,9 @@
         <v>5</v>
       </c>
       <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+      <c r="K10" s="14">
+        <v>25</v>
+      </c>
       <c r="L10" s="11"/>
       <c r="O10" s="14">
         <v>40</v>
@@ -1551,7 +1585,7 @@
       </c>
       <c r="X10" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1570,7 +1604,9 @@
       <c r="E11" s="14">
         <v>12</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="14">
+        <v>13</v>
+      </c>
       <c r="G11" s="13">
         <v>0</v>
       </c>
@@ -1582,7 +1618,9 @@
         <v>5</v>
       </c>
       <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="K11" s="14">
+        <v>21</v>
+      </c>
       <c r="L11" s="11"/>
       <c r="O11" s="14">
         <v>40</v>
@@ -1610,7 +1648,7 @@
       </c>
       <c r="X11" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -1629,7 +1667,9 @@
       <c r="E12" s="14">
         <v>15</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="14">
+        <v>11</v>
+      </c>
       <c r="G12" s="14">
         <v>4.5</v>
       </c>
@@ -1641,7 +1681,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+      <c r="K12" s="14">
+        <v>17</v>
+      </c>
       <c r="L12" s="11"/>
       <c r="O12" s="14">
         <v>40</v>
@@ -1669,7 +1711,7 @@
       </c>
       <c r="X12" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -1688,7 +1730,9 @@
       <c r="E13" s="14">
         <v>13</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="G13" s="14">
         <v>4</v>
       </c>
@@ -1700,7 +1744,9 @@
         <v>0</v>
       </c>
       <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
+      <c r="K13" s="14">
+        <v>9</v>
+      </c>
       <c r="L13" s="11"/>
       <c r="O13" s="14"/>
       <c r="Q13" s="2">
@@ -1745,7 +1791,9 @@
       <c r="E14" s="14">
         <v>12</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="14">
+        <v>10</v>
+      </c>
       <c r="G14" s="14">
         <v>4.5</v>
       </c>
@@ -1757,7 +1805,9 @@
         <v>5</v>
       </c>
       <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+      <c r="K14" s="14">
+        <v>18</v>
+      </c>
       <c r="L14" s="11"/>
       <c r="O14" s="14"/>
       <c r="Q14" s="2">
@@ -1783,7 +1833,7 @@
       </c>
       <c r="X14" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -1802,7 +1852,9 @@
       <c r="E15" s="14">
         <v>15</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="14">
+        <v>12</v>
+      </c>
       <c r="G15" s="14">
         <v>4.5</v>
       </c>
@@ -1814,7 +1866,9 @@
         <v>5</v>
       </c>
       <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
+      <c r="K15" s="14">
+        <v>23</v>
+      </c>
       <c r="L15" s="11"/>
       <c r="O15" s="14">
         <v>40</v>
@@ -1842,7 +1896,7 @@
       </c>
       <c r="X15" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -1861,7 +1915,9 @@
       <c r="E16" s="14">
         <v>15</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="14">
+        <v>12</v>
+      </c>
       <c r="G16" s="14">
         <v>4.5</v>
       </c>
@@ -1873,7 +1929,9 @@
         <v>5</v>
       </c>
       <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
+      <c r="K16" s="14">
+        <v>24</v>
+      </c>
       <c r="L16" s="11"/>
       <c r="O16" s="14">
         <v>40</v>
@@ -1901,7 +1959,7 @@
       </c>
       <c r="X16" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -1920,7 +1978,9 @@
       <c r="E17" s="14">
         <v>22</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="14">
+        <v>12</v>
+      </c>
       <c r="G17" s="14">
         <v>5</v>
       </c>
@@ -1932,7 +1992,9 @@
         <v>5</v>
       </c>
       <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
+      <c r="K17" s="14">
+        <v>28</v>
+      </c>
       <c r="L17" s="11"/>
       <c r="O17" s="14">
         <v>40</v>
@@ -1960,7 +2022,7 @@
       </c>
       <c r="X17" s="2">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -1979,7 +2041,9 @@
       <c r="E18" s="14">
         <v>18</v>
       </c>
-      <c r="F18" s="14"/>
+      <c r="F18" s="14">
+        <v>6</v>
+      </c>
       <c r="G18" s="14">
         <v>4.5</v>
       </c>
@@ -1991,7 +2055,9 @@
         <v>5</v>
       </c>
       <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
+      <c r="K18" s="14">
+        <v>25</v>
+      </c>
       <c r="L18" s="11"/>
       <c r="O18" s="14">
         <v>40</v>
@@ -2019,7 +2085,7 @@
       </c>
       <c r="X18" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -2038,7 +2104,9 @@
       <c r="E19" s="14">
         <v>28</v>
       </c>
-      <c r="F19" s="14"/>
+      <c r="F19" s="14">
+        <v>27</v>
+      </c>
       <c r="G19" s="14">
         <v>4.5</v>
       </c>
@@ -2050,7 +2118,9 @@
         <v>5</v>
       </c>
       <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
+      <c r="K19" s="14">
+        <v>37</v>
+      </c>
       <c r="L19" s="11"/>
       <c r="O19" s="14">
         <v>40</v>
@@ -2078,7 +2148,7 @@
       </c>
       <c r="X19" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -2097,7 +2167,9 @@
       <c r="E20" s="14">
         <v>21</v>
       </c>
-      <c r="F20" s="14"/>
+      <c r="F20" s="14">
+        <v>20</v>
+      </c>
       <c r="G20" s="14">
         <v>4.5</v>
       </c>
@@ -2109,7 +2181,9 @@
         <v>5</v>
       </c>
       <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
+      <c r="K20" s="14">
+        <v>30</v>
+      </c>
       <c r="L20" s="11"/>
       <c r="O20" s="14">
         <v>40</v>
@@ -2137,7 +2211,7 @@
       </c>
       <c r="X20" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -2156,7 +2230,9 @@
       <c r="E21" s="14">
         <v>14</v>
       </c>
-      <c r="F21" s="14"/>
+      <c r="F21" s="14">
+        <v>0</v>
+      </c>
       <c r="G21" s="14">
         <v>4.5</v>
       </c>
@@ -2168,7 +2244,9 @@
         <v>5</v>
       </c>
       <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
+      <c r="K21" s="14">
+        <v>23</v>
+      </c>
       <c r="L21" s="11"/>
       <c r="O21" s="14">
         <v>40</v>
@@ -2215,7 +2293,9 @@
       <c r="E22" s="14">
         <v>16</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="F22" s="14">
+        <v>12</v>
+      </c>
       <c r="G22" s="14">
         <v>4.5</v>
       </c>
@@ -2227,7 +2307,9 @@
         <v>5</v>
       </c>
       <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
+      <c r="K22" s="14">
+        <v>21</v>
+      </c>
       <c r="L22" s="11"/>
       <c r="O22" s="14">
         <v>40</v>
@@ -2255,7 +2337,7 @@
       </c>
       <c r="X22" s="2">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -2274,7 +2356,9 @@
       <c r="E23" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="14"/>
+      <c r="F23" s="14">
+        <v>8</v>
+      </c>
       <c r="G23" s="13">
         <v>0</v>
       </c>
@@ -2286,7 +2370,9 @@
         <v>0</v>
       </c>
       <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
+      <c r="K23" s="14">
+        <v>5</v>
+      </c>
       <c r="L23" s="11"/>
       <c r="O23" s="14"/>
       <c r="Q23" s="2">
@@ -2312,7 +2398,7 @@
       </c>
       <c r="X23" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
@@ -2331,7 +2417,9 @@
       <c r="E24" s="14">
         <v>12</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="14">
+        <v>13</v>
+      </c>
       <c r="G24" s="14">
         <v>4.5</v>
       </c>
@@ -2343,7 +2431,9 @@
         <v>5</v>
       </c>
       <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
+      <c r="K24" s="14">
+        <v>23</v>
+      </c>
       <c r="L24" s="11"/>
       <c r="O24" s="14">
         <v>40</v>
@@ -2371,7 +2461,7 @@
       </c>
       <c r="X24" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
@@ -2390,7 +2480,9 @@
       <c r="E25" s="14">
         <v>24</v>
       </c>
-      <c r="F25" s="14"/>
+      <c r="F25" s="14">
+        <v>22</v>
+      </c>
       <c r="G25" s="14">
         <v>5</v>
       </c>
@@ -2402,7 +2494,9 @@
         <v>5</v>
       </c>
       <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
+      <c r="K25" s="14">
+        <v>33</v>
+      </c>
       <c r="L25" s="11"/>
       <c r="O25" s="14">
         <v>40</v>
@@ -2430,7 +2524,7 @@
       </c>
       <c r="X25" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
@@ -2449,7 +2543,9 @@
       <c r="E26" s="14">
         <v>9</v>
       </c>
-      <c r="F26" s="14"/>
+      <c r="F26" s="14">
+        <v>6</v>
+      </c>
       <c r="G26" s="14">
         <v>5</v>
       </c>
@@ -2461,7 +2557,9 @@
         <v>5</v>
       </c>
       <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
+      <c r="K26" s="14">
+        <v>16</v>
+      </c>
       <c r="L26" s="11"/>
       <c r="O26" s="14">
         <v>40</v>
@@ -2489,7 +2587,7 @@
       </c>
       <c r="X26" s="2">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -2508,7 +2606,9 @@
       <c r="E27" s="14">
         <v>14</v>
       </c>
-      <c r="F27" s="14"/>
+      <c r="F27" s="14">
+        <v>12</v>
+      </c>
       <c r="G27" s="14">
         <v>4</v>
       </c>
@@ -2520,7 +2620,9 @@
         <v>5</v>
       </c>
       <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
+      <c r="K27" s="14">
+        <v>22</v>
+      </c>
       <c r="L27" s="11"/>
       <c r="O27" s="14">
         <v>35</v>
@@ -2548,7 +2650,7 @@
       </c>
       <c r="X27" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -2567,7 +2669,9 @@
       <c r="E28" s="14">
         <v>13</v>
       </c>
-      <c r="F28" s="14"/>
+      <c r="F28" s="14">
+        <v>12</v>
+      </c>
       <c r="G28" s="14">
         <v>4</v>
       </c>
@@ -2579,7 +2683,9 @@
         <v>5</v>
       </c>
       <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
+      <c r="K28" s="14">
+        <v>21</v>
+      </c>
       <c r="L28" s="11"/>
       <c r="O28" s="14">
         <v>40</v>
@@ -2607,7 +2713,7 @@
       </c>
       <c r="X28" s="2">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
@@ -2626,7 +2732,9 @@
       <c r="E29" s="14">
         <v>15</v>
       </c>
-      <c r="F29" s="14"/>
+      <c r="F29" s="14">
+        <v>14</v>
+      </c>
       <c r="G29" s="14">
         <v>5</v>
       </c>
@@ -2638,7 +2746,9 @@
         <v>5</v>
       </c>
       <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
+      <c r="K29" s="14">
+        <v>23</v>
+      </c>
       <c r="L29" s="11"/>
       <c r="O29" s="14">
         <v>40</v>
@@ -2666,7 +2776,7 @@
       </c>
       <c r="X29" s="2">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
@@ -2685,7 +2795,9 @@
       <c r="E30" s="14">
         <v>12</v>
       </c>
-      <c r="F30" s="14"/>
+      <c r="F30" s="14">
+        <v>14</v>
+      </c>
       <c r="G30" s="14">
         <v>4</v>
       </c>
@@ -2697,7 +2809,9 @@
         <v>5</v>
       </c>
       <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
+      <c r="K30" s="14">
+        <v>23</v>
+      </c>
       <c r="L30" s="11"/>
       <c r="O30" s="14">
         <v>40</v>
@@ -2725,7 +2839,7 @@
       </c>
       <c r="X30" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -2744,7 +2858,9 @@
       <c r="E31" s="14">
         <v>20</v>
       </c>
-      <c r="F31" s="14"/>
+      <c r="F31" s="14">
+        <v>25</v>
+      </c>
       <c r="G31" s="14">
         <v>5</v>
       </c>
@@ -2756,7 +2872,9 @@
         <v>5</v>
       </c>
       <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
+      <c r="K31" s="14">
+        <v>32</v>
+      </c>
       <c r="L31" s="11"/>
       <c r="O31" s="14">
         <v>40</v>
@@ -2784,7 +2902,7 @@
       </c>
       <c r="X31" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
@@ -2803,7 +2921,9 @@
       <c r="E32" s="14">
         <v>5</v>
       </c>
-      <c r="F32" s="14"/>
+      <c r="F32" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="G32" s="13">
         <v>0</v>
       </c>
@@ -2815,7 +2935,9 @@
         <v>0</v>
       </c>
       <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
+      <c r="K32" s="14">
+        <v>3</v>
+      </c>
       <c r="L32" s="11"/>
       <c r="O32" s="14"/>
       <c r="Q32" s="2">
@@ -2860,7 +2982,9 @@
       <c r="E33" s="14">
         <v>2</v>
       </c>
-      <c r="F33" s="14"/>
+      <c r="F33" s="14">
+        <v>12</v>
+      </c>
       <c r="G33" s="13">
         <v>0</v>
       </c>
@@ -2872,7 +2996,9 @@
         <v>0</v>
       </c>
       <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
+      <c r="K33" s="14">
+        <v>11</v>
+      </c>
       <c r="L33" s="11"/>
       <c r="O33" s="14"/>
       <c r="Q33" s="2">
@@ -2898,7 +3024,7 @@
       </c>
       <c r="X33" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
@@ -2917,7 +3043,9 @@
       <c r="E34" s="14">
         <v>20</v>
       </c>
-      <c r="F34" s="14"/>
+      <c r="F34" s="14">
+        <v>19</v>
+      </c>
       <c r="G34" s="13">
         <v>0</v>
       </c>
@@ -2929,7 +3057,9 @@
         <v>5</v>
       </c>
       <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
+      <c r="K34" s="14">
+        <v>26</v>
+      </c>
       <c r="L34" s="11"/>
       <c r="O34" s="14">
         <v>40</v>
@@ -2957,7 +3087,7 @@
       </c>
       <c r="X34" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
@@ -2976,7 +3106,9 @@
       <c r="E35" s="14">
         <v>6</v>
       </c>
-      <c r="F35" s="14"/>
+      <c r="F35" s="14">
+        <v>16</v>
+      </c>
       <c r="G35" s="13">
         <v>0</v>
       </c>
@@ -2988,7 +3120,9 @@
         <v>5</v>
       </c>
       <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
+      <c r="K35" s="14">
+        <v>20</v>
+      </c>
       <c r="L35" s="11"/>
       <c r="O35" s="14">
         <v>30</v>
@@ -3016,7 +3150,7 @@
       </c>
       <c r="X35" s="2">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
@@ -3035,7 +3169,9 @@
       <c r="E36" s="14">
         <v>6</v>
       </c>
-      <c r="F36" s="14"/>
+      <c r="F36" s="14">
+        <v>12</v>
+      </c>
       <c r="G36" s="13">
         <v>0</v>
       </c>
@@ -3047,7 +3183,9 @@
         <v>0</v>
       </c>
       <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
+      <c r="K36" s="14">
+        <v>11</v>
+      </c>
       <c r="L36" s="11"/>
       <c r="O36" s="14"/>
       <c r="Q36" s="2">
@@ -3073,7 +3211,7 @@
       </c>
       <c r="X36" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
@@ -3092,7 +3230,9 @@
       <c r="E37" s="14">
         <v>15</v>
       </c>
-      <c r="F37" s="14"/>
+      <c r="F37" s="14">
+        <v>7</v>
+      </c>
       <c r="G37" s="13">
         <v>0</v>
       </c>
@@ -3104,7 +3244,9 @@
         <v>5</v>
       </c>
       <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
+      <c r="K37" s="14">
+        <v>21</v>
+      </c>
       <c r="L37" s="11"/>
       <c r="O37" s="14">
         <v>40</v>
@@ -3132,7 +3274,7 @@
       </c>
       <c r="X37" s="2">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
@@ -3151,7 +3293,9 @@
       <c r="E38" s="14">
         <v>10</v>
       </c>
-      <c r="F38" s="14"/>
+      <c r="F38" s="14">
+        <v>15</v>
+      </c>
       <c r="G38" s="14">
         <v>5</v>
       </c>
@@ -3163,7 +3307,9 @@
         <v>5</v>
       </c>
       <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
+      <c r="K38" s="14">
+        <v>23</v>
+      </c>
       <c r="L38" s="11"/>
       <c r="O38" s="14">
         <v>40</v>
@@ -3191,7 +3337,7 @@
       </c>
       <c r="X38" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
@@ -3210,7 +3356,9 @@
       <c r="E39" s="14">
         <v>18</v>
       </c>
-      <c r="F39" s="14"/>
+      <c r="F39" s="14">
+        <v>7</v>
+      </c>
       <c r="G39" s="14">
         <v>4.5</v>
       </c>
@@ -3222,7 +3370,9 @@
         <v>5</v>
       </c>
       <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
+      <c r="K39" s="14">
+        <v>22</v>
+      </c>
       <c r="L39" s="11"/>
       <c r="O39" s="14">
         <v>40</v>
@@ -3250,7 +3400,7 @@
       </c>
       <c r="X39" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
@@ -3269,7 +3419,9 @@
       <c r="E40" s="14">
         <v>18</v>
       </c>
-      <c r="F40" s="14"/>
+      <c r="F40" s="14">
+        <v>10</v>
+      </c>
       <c r="G40" s="14">
         <v>4.5</v>
       </c>
@@ -3281,7 +3433,9 @@
         <v>5</v>
       </c>
       <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
+      <c r="K40" s="14">
+        <v>23</v>
+      </c>
       <c r="L40" s="11"/>
       <c r="O40" s="14">
         <v>40</v>
@@ -3309,7 +3463,7 @@
       </c>
       <c r="X40" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
@@ -3328,7 +3482,9 @@
       <c r="E41" s="14">
         <v>3</v>
       </c>
-      <c r="F41" s="14"/>
+      <c r="F41" s="14">
+        <v>8</v>
+      </c>
       <c r="G41" s="13">
         <v>0</v>
       </c>
@@ -3340,7 +3496,9 @@
         <v>0</v>
       </c>
       <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
+      <c r="K41" s="14">
+        <v>8</v>
+      </c>
       <c r="L41" s="11"/>
       <c r="O41" s="14"/>
       <c r="Q41" s="2">
@@ -3366,7 +3524,7 @@
       </c>
       <c r="X41" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
@@ -3385,7 +3543,9 @@
       <c r="E42" s="14">
         <v>12</v>
       </c>
-      <c r="F42" s="14"/>
+      <c r="F42" s="14">
+        <v>24</v>
+      </c>
       <c r="G42" s="13">
         <v>0</v>
       </c>
@@ -3397,7 +3557,9 @@
         <v>5</v>
       </c>
       <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
+      <c r="K42" s="14">
+        <v>26</v>
+      </c>
       <c r="L42" s="11"/>
       <c r="O42" s="14">
         <v>40</v>
@@ -3425,7 +3587,7 @@
       </c>
       <c r="X42" s="2">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
@@ -3444,7 +3606,9 @@
       <c r="E43" s="14">
         <v>20</v>
       </c>
-      <c r="F43" s="14"/>
+      <c r="F43" s="14">
+        <v>19</v>
+      </c>
       <c r="G43" s="14">
         <v>5</v>
       </c>
@@ -3456,7 +3620,9 @@
         <v>5</v>
       </c>
       <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
+      <c r="K43" s="14">
+        <v>27</v>
+      </c>
       <c r="L43" s="11"/>
       <c r="O43" s="14">
         <v>40</v>
@@ -3484,7 +3650,7 @@
       </c>
       <c r="X43" s="2">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
@@ -3503,7 +3669,9 @@
       <c r="E44" s="14">
         <v>14</v>
       </c>
-      <c r="F44" s="14"/>
+      <c r="F44" s="14">
+        <v>10</v>
+      </c>
       <c r="G44" s="14">
         <v>3</v>
       </c>
@@ -3515,7 +3683,9 @@
         <v>5</v>
       </c>
       <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
+      <c r="K44" s="14">
+        <v>21</v>
+      </c>
       <c r="L44" s="11"/>
       <c r="O44" s="14">
         <v>40</v>
@@ -3543,7 +3713,7 @@
       </c>
       <c r="X44" s="2">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
@@ -3562,7 +3732,9 @@
       <c r="E45" s="14">
         <v>4</v>
       </c>
-      <c r="F45" s="14"/>
+      <c r="F45" s="14">
+        <v>14</v>
+      </c>
       <c r="G45" s="14">
         <v>3.5</v>
       </c>
@@ -3574,7 +3746,9 @@
         <v>5</v>
       </c>
       <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
+      <c r="K45" s="14">
+        <v>19</v>
+      </c>
       <c r="L45" s="11"/>
       <c r="O45" s="14">
         <v>40</v>
@@ -3602,7 +3776,7 @@
       </c>
       <c r="X45" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
@@ -3621,7 +3795,9 @@
       <c r="E46" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F46" s="14"/>
+      <c r="F46" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="G46" s="14">
         <v>4.5</v>
       </c>
@@ -3633,7 +3809,9 @@
         <v>0</v>
       </c>
       <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
+      <c r="K46" s="14">
+        <v>4</v>
+      </c>
       <c r="L46" s="11"/>
       <c r="O46" s="14"/>
       <c r="Q46" s="2">
@@ -3678,7 +3856,9 @@
       <c r="E47" s="14">
         <v>16</v>
       </c>
-      <c r="F47" s="14"/>
+      <c r="F47" s="14">
+        <v>6</v>
+      </c>
       <c r="G47" s="14">
         <v>5</v>
       </c>
@@ -3690,7 +3870,9 @@
         <v>5</v>
       </c>
       <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
+      <c r="K47" s="14">
+        <v>20</v>
+      </c>
       <c r="L47" s="11"/>
       <c r="O47" s="14">
         <v>40</v>
@@ -3718,7 +3900,7 @@
       </c>
       <c r="X47" s="2">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
@@ -3737,7 +3919,9 @@
       <c r="E48" s="14">
         <v>16</v>
       </c>
-      <c r="F48" s="14"/>
+      <c r="F48" s="14">
+        <v>9</v>
+      </c>
       <c r="G48" s="14">
         <v>3</v>
       </c>
@@ -3749,7 +3933,9 @@
         <v>5</v>
       </c>
       <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
+      <c r="K48" s="14">
+        <v>21</v>
+      </c>
       <c r="L48" s="11"/>
       <c r="O48" s="14">
         <v>40</v>
@@ -3777,7 +3963,7 @@
       </c>
       <c r="X48" s="2">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
@@ -3796,7 +3982,9 @@
       <c r="E49" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F49" s="14"/>
+      <c r="F49" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="G49" s="13">
         <v>0</v>
       </c>
@@ -3808,7 +3996,9 @@
         <v>0</v>
       </c>
       <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
+      <c r="K49" s="14">
+        <v>1</v>
+      </c>
       <c r="L49" s="11"/>
       <c r="O49" s="14"/>
       <c r="Q49" s="2">
@@ -3853,7 +4043,9 @@
       <c r="E50" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F50" s="14"/>
+      <c r="F50" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="G50" s="13">
         <v>0</v>
       </c>
@@ -3865,7 +4057,9 @@
         <v>0</v>
       </c>
       <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
+      <c r="K50" s="14">
+        <v>2</v>
+      </c>
       <c r="L50" s="11"/>
       <c r="O50" s="14"/>
       <c r="Q50" s="2">
@@ -3910,7 +4104,9 @@
       <c r="E51" s="14">
         <v>14</v>
       </c>
-      <c r="F51" s="14"/>
+      <c r="F51" s="14">
+        <v>13</v>
+      </c>
       <c r="G51" s="14">
         <v>4.5</v>
       </c>
@@ -3922,7 +4118,9 @@
         <v>5</v>
       </c>
       <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
+      <c r="K51" s="14">
+        <v>21</v>
+      </c>
       <c r="L51" s="11"/>
       <c r="O51" s="14">
         <v>40</v>
@@ -3950,7 +4148,7 @@
       </c>
       <c r="X51" s="2">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
@@ -3969,7 +4167,9 @@
       <c r="E52" s="14">
         <v>8</v>
       </c>
-      <c r="F52" s="14"/>
+      <c r="F52" s="14">
+        <v>3</v>
+      </c>
       <c r="G52" s="13">
         <v>0</v>
       </c>
@@ -3981,7 +4181,9 @@
         <v>0</v>
       </c>
       <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
+      <c r="K52" s="14">
+        <v>11</v>
+      </c>
       <c r="L52" s="11"/>
       <c r="O52" s="14">
         <v>30</v>
@@ -4009,7 +4211,7 @@
       </c>
       <c r="X52" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
@@ -4028,7 +4230,9 @@
       <c r="E53" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F53" s="14"/>
+      <c r="F53" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="G53" s="14">
         <v>4</v>
       </c>
@@ -4040,7 +4244,9 @@
         <v>5</v>
       </c>
       <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
+      <c r="K53" s="14">
+        <v>6</v>
+      </c>
       <c r="L53" s="11"/>
       <c r="O53" s="14"/>
       <c r="Q53" s="2">
@@ -4085,7 +4291,9 @@
       <c r="E54" s="14">
         <v>9</v>
       </c>
-      <c r="F54" s="14"/>
+      <c r="F54" s="14">
+        <v>12</v>
+      </c>
       <c r="G54" s="13">
         <v>0</v>
       </c>
@@ -4097,7 +4305,9 @@
         <v>5</v>
       </c>
       <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
+      <c r="K54" s="14">
+        <v>18</v>
+      </c>
       <c r="L54" s="11"/>
       <c r="O54" s="14">
         <v>40</v>
@@ -4125,7 +4335,7 @@
       </c>
       <c r="X54" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
@@ -4144,7 +4354,9 @@
       <c r="E55" s="14">
         <v>18</v>
       </c>
-      <c r="F55" s="14"/>
+      <c r="F55" s="14">
+        <v>17</v>
+      </c>
       <c r="G55" s="14">
         <v>5</v>
       </c>
@@ -4156,7 +4368,9 @@
         <v>5</v>
       </c>
       <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
+      <c r="K55" s="14">
+        <v>27</v>
+      </c>
       <c r="L55" s="11"/>
       <c r="O55" s="14">
         <v>40</v>
@@ -4184,7 +4398,7 @@
       </c>
       <c r="X55" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
@@ -4203,7 +4417,9 @@
       <c r="E56" s="14">
         <v>23</v>
       </c>
-      <c r="F56" s="14"/>
+      <c r="F56" s="14">
+        <v>20</v>
+      </c>
       <c r="G56" s="14">
         <v>4.5</v>
       </c>
@@ -4215,7 +4431,9 @@
         <v>5</v>
       </c>
       <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
+      <c r="K56" s="14">
+        <v>31</v>
+      </c>
       <c r="L56" s="11"/>
       <c r="O56" s="14">
         <v>40</v>
@@ -4243,7 +4461,7 @@
       </c>
       <c r="X56" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
@@ -4262,7 +4480,9 @@
       <c r="E57" s="14">
         <v>21</v>
       </c>
-      <c r="F57" s="14"/>
+      <c r="F57" s="14">
+        <v>20</v>
+      </c>
       <c r="G57" s="14">
         <v>5</v>
       </c>
@@ -4274,7 +4494,9 @@
         <v>5</v>
       </c>
       <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
+      <c r="K57" s="14">
+        <v>30</v>
+      </c>
       <c r="L57" s="11"/>
       <c r="O57" s="14">
         <v>40</v>
@@ -4302,7 +4524,7 @@
       </c>
       <c r="X57" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
@@ -4321,7 +4543,9 @@
       <c r="E58" s="14">
         <v>9</v>
       </c>
-      <c r="F58" s="14"/>
+      <c r="F58" s="14">
+        <v>22</v>
+      </c>
       <c r="G58" s="14">
         <v>4.5</v>
       </c>
@@ -4333,7 +4557,9 @@
         <v>5</v>
       </c>
       <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
+      <c r="K58" s="14">
+        <v>25</v>
+      </c>
       <c r="L58" s="11"/>
       <c r="O58" s="14">
         <v>40</v>
@@ -4361,7 +4587,7 @@
       </c>
       <c r="X58" s="2">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
@@ -4380,7 +4606,9 @@
       <c r="E59" s="14">
         <v>12</v>
       </c>
-      <c r="F59" s="14"/>
+      <c r="F59" s="14">
+        <v>6</v>
+      </c>
       <c r="G59" s="14">
         <v>4</v>
       </c>
@@ -4392,7 +4620,9 @@
         <v>5</v>
       </c>
       <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
+      <c r="K59" s="14">
+        <v>18</v>
+      </c>
       <c r="L59" s="11"/>
       <c r="O59" s="14"/>
       <c r="Q59" s="2">
@@ -4418,7 +4648,7 @@
       </c>
       <c r="X59" s="2">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
@@ -4437,7 +4667,9 @@
       <c r="E60" s="14">
         <v>18</v>
       </c>
-      <c r="F60" s="14"/>
+      <c r="F60" s="14">
+        <v>15</v>
+      </c>
       <c r="G60" s="14">
         <v>5</v>
       </c>
@@ -4449,7 +4681,9 @@
         <v>5</v>
       </c>
       <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
+      <c r="K60" s="14">
+        <v>26</v>
+      </c>
       <c r="L60" s="11"/>
       <c r="O60" s="14">
         <v>35</v>
@@ -4477,7 +4711,7 @@
       </c>
       <c r="X60" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
@@ -4496,7 +4730,9 @@
       <c r="E61" s="14">
         <v>24</v>
       </c>
-      <c r="F61" s="14"/>
+      <c r="F61" s="14">
+        <v>19</v>
+      </c>
       <c r="G61" s="14">
         <v>5</v>
       </c>
@@ -4508,7 +4744,9 @@
         <v>5</v>
       </c>
       <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
+      <c r="K61" s="14">
+        <v>31</v>
+      </c>
       <c r="L61" s="11"/>
       <c r="O61" s="14">
         <v>40</v>
@@ -4536,7 +4774,7 @@
       </c>
       <c r="X61" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
@@ -4555,7 +4793,9 @@
       <c r="E62" s="14">
         <v>29</v>
       </c>
-      <c r="F62" s="14"/>
+      <c r="F62" s="14">
+        <v>24</v>
+      </c>
       <c r="G62" s="14">
         <v>4.5</v>
       </c>
@@ -4567,7 +4807,9 @@
         <v>5</v>
       </c>
       <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
+      <c r="K62" s="14">
+        <v>37</v>
+      </c>
       <c r="L62" s="11"/>
       <c r="O62" s="14">
         <v>40</v>
@@ -4595,7 +4837,7 @@
       </c>
       <c r="X62" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
@@ -4614,7 +4856,9 @@
       <c r="E63" s="14">
         <v>13</v>
       </c>
-      <c r="F63" s="14"/>
+      <c r="F63" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="G63" s="13">
         <v>0</v>
       </c>
@@ -4626,7 +4870,9 @@
         <v>0</v>
       </c>
       <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
+      <c r="K63" s="14">
+        <v>17</v>
+      </c>
       <c r="L63" s="11"/>
       <c r="O63" s="14"/>
       <c r="Q63" s="2">
@@ -4671,7 +4917,9 @@
       <c r="E64" s="14">
         <v>15</v>
       </c>
-      <c r="F64" s="14"/>
+      <c r="F64" s="14">
+        <v>17</v>
+      </c>
       <c r="G64" s="14">
         <v>5</v>
       </c>
@@ -4683,7 +4931,9 @@
         <v>0</v>
       </c>
       <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
+      <c r="K64" s="14">
+        <v>21</v>
+      </c>
       <c r="L64" s="11"/>
       <c r="O64" s="14">
         <v>40</v>
@@ -4711,7 +4961,7 @@
       </c>
       <c r="X64" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
@@ -4730,7 +4980,9 @@
       <c r="E65" s="14">
         <v>8</v>
       </c>
-      <c r="F65" s="14"/>
+      <c r="F65" s="14">
+        <v>5</v>
+      </c>
       <c r="G65" s="14">
         <v>4.5</v>
       </c>
@@ -4742,7 +4994,9 @@
         <v>5</v>
       </c>
       <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
+      <c r="K65" s="14">
+        <v>16</v>
+      </c>
       <c r="L65" s="11"/>
       <c r="O65" s="14">
         <v>40</v>
@@ -4770,7 +5024,7 @@
       </c>
       <c r="X65" s="2">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
@@ -4789,7 +5043,9 @@
       <c r="E66" s="14">
         <v>17</v>
       </c>
-      <c r="F66" s="14"/>
+      <c r="F66" s="14">
+        <v>17</v>
+      </c>
       <c r="G66" s="14">
         <v>5</v>
       </c>
@@ -4801,7 +5057,9 @@
         <v>5</v>
       </c>
       <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
+      <c r="K66" s="14">
+        <v>26</v>
+      </c>
       <c r="L66" s="11"/>
       <c r="O66" s="14">
         <v>40</v>
@@ -4829,7 +5087,7 @@
       </c>
       <c r="X66" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
@@ -4848,7 +5106,9 @@
       <c r="E67" s="14">
         <v>8</v>
       </c>
-      <c r="F67" s="14"/>
+      <c r="F67" s="14">
+        <v>20</v>
+      </c>
       <c r="G67" s="14">
         <v>5</v>
       </c>
@@ -4860,7 +5120,9 @@
         <v>5</v>
       </c>
       <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
+      <c r="K67" s="14">
+        <v>25</v>
+      </c>
       <c r="L67" s="11"/>
       <c r="O67" s="14">
         <v>40</v>
@@ -4888,7 +5150,7 @@
       </c>
       <c r="X67" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
@@ -4907,7 +5169,9 @@
       <c r="E68" s="14">
         <v>22</v>
       </c>
-      <c r="F68" s="14"/>
+      <c r="F68" s="14">
+        <v>21</v>
+      </c>
       <c r="G68" s="13">
         <v>0</v>
       </c>
@@ -4919,7 +5183,9 @@
         <v>5</v>
       </c>
       <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
+      <c r="K68" s="14">
+        <v>28</v>
+      </c>
       <c r="L68" s="11"/>
       <c r="O68" s="14"/>
       <c r="Q68" s="2">
@@ -4945,7 +5211,7 @@
       </c>
       <c r="X68" s="2">
         <f t="shared" ref="X68:X131" si="9">SUM(F68)+I68+U68</f>
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
@@ -4964,7 +5230,9 @@
       <c r="E69" s="14">
         <v>14</v>
       </c>
-      <c r="F69" s="14"/>
+      <c r="F69" s="14">
+        <v>12</v>
+      </c>
       <c r="G69" s="14">
         <v>4.5</v>
       </c>
@@ -4976,7 +5244,9 @@
         <v>5</v>
       </c>
       <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
+      <c r="K69" s="14">
+        <v>22</v>
+      </c>
       <c r="L69" s="11"/>
       <c r="O69" s="14">
         <v>40</v>
@@ -5004,7 +5274,7 @@
       </c>
       <c r="X69" s="2">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
@@ -5023,7 +5293,9 @@
       <c r="E70" s="14">
         <v>12</v>
       </c>
-      <c r="F70" s="14"/>
+      <c r="F70" s="14">
+        <v>16</v>
+      </c>
       <c r="G70" s="14">
         <v>5</v>
       </c>
@@ -5035,7 +5307,9 @@
         <v>5</v>
       </c>
       <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
+      <c r="K70" s="14">
+        <v>24</v>
+      </c>
       <c r="L70" s="11"/>
       <c r="O70" s="14">
         <v>40</v>
@@ -5063,7 +5337,7 @@
       </c>
       <c r="X70" s="2">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
@@ -5082,7 +5356,9 @@
       <c r="E71" s="14">
         <v>12</v>
       </c>
-      <c r="F71" s="14"/>
+      <c r="F71" s="14">
+        <v>16</v>
+      </c>
       <c r="G71" s="14">
         <v>5</v>
       </c>
@@ -5094,7 +5370,9 @@
         <v>5</v>
       </c>
       <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
+      <c r="K71" s="14">
+        <v>21</v>
+      </c>
       <c r="L71" s="11"/>
       <c r="O71" s="14">
         <v>40</v>
@@ -5122,7 +5400,7 @@
       </c>
       <c r="X71" s="2">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
@@ -5141,7 +5419,9 @@
       <c r="E72" s="14">
         <v>26</v>
       </c>
-      <c r="F72" s="14"/>
+      <c r="F72" s="14">
+        <v>13</v>
+      </c>
       <c r="G72" s="14">
         <v>5</v>
       </c>
@@ -5153,7 +5433,9 @@
         <v>5</v>
       </c>
       <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
+      <c r="K72" s="14">
+        <v>33</v>
+      </c>
       <c r="L72" s="11"/>
       <c r="O72" s="14">
         <v>40</v>
@@ -5181,7 +5463,7 @@
       </c>
       <c r="X72" s="2">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
@@ -5200,7 +5482,9 @@
       <c r="E73" s="14">
         <v>17</v>
       </c>
-      <c r="F73" s="14"/>
+      <c r="F73" s="14">
+        <v>14</v>
+      </c>
       <c r="G73" s="14">
         <v>5</v>
       </c>
@@ -5212,7 +5496,9 @@
         <v>5</v>
       </c>
       <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
+      <c r="K73" s="14">
+        <v>23</v>
+      </c>
       <c r="L73" s="11"/>
       <c r="O73" s="14">
         <v>40</v>
@@ -5240,7 +5526,7 @@
       </c>
       <c r="X73" s="2">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
@@ -5259,7 +5545,9 @@
       <c r="E74" s="14">
         <v>16</v>
       </c>
-      <c r="F74" s="14"/>
+      <c r="F74" s="14">
+        <v>16</v>
+      </c>
       <c r="G74" s="14">
         <v>5</v>
       </c>
@@ -5271,7 +5559,9 @@
         <v>5</v>
       </c>
       <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
+      <c r="K74" s="14">
+        <v>21</v>
+      </c>
       <c r="L74" s="11"/>
       <c r="O74" s="14"/>
       <c r="Q74" s="2">
@@ -5297,7 +5587,7 @@
       </c>
       <c r="X74" s="2">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
@@ -5316,7 +5606,9 @@
       <c r="E75" s="14">
         <v>5</v>
       </c>
-      <c r="F75" s="14"/>
+      <c r="F75" s="14">
+        <v>3</v>
+      </c>
       <c r="G75" s="13">
         <v>0</v>
       </c>
@@ -5328,7 +5620,9 @@
         <v>0</v>
       </c>
       <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
+      <c r="K75" s="14">
+        <v>7</v>
+      </c>
       <c r="L75" s="11"/>
       <c r="O75" s="14"/>
       <c r="Q75" s="2">
@@ -5354,7 +5648,7 @@
       </c>
       <c r="X75" s="2">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
@@ -5373,7 +5667,9 @@
       <c r="E76" s="14">
         <v>15</v>
       </c>
-      <c r="F76" s="14"/>
+      <c r="F76" s="14">
+        <v>7</v>
+      </c>
       <c r="G76" s="14">
         <v>5</v>
       </c>
@@ -5385,7 +5681,9 @@
         <v>0</v>
       </c>
       <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
+      <c r="K76" s="14">
+        <v>16</v>
+      </c>
       <c r="L76" s="11"/>
       <c r="O76" s="14"/>
       <c r="Q76" s="2">
@@ -5411,7 +5709,7 @@
       </c>
       <c r="X76" s="2">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
@@ -5430,7 +5728,9 @@
       <c r="E77" s="14">
         <v>28</v>
       </c>
-      <c r="F77" s="14"/>
+      <c r="F77" s="14">
+        <v>22</v>
+      </c>
       <c r="G77" s="14">
         <v>5</v>
       </c>
@@ -5442,7 +5742,9 @@
         <v>5</v>
       </c>
       <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
+      <c r="K77" s="14">
+        <v>35</v>
+      </c>
       <c r="L77" s="11"/>
       <c r="O77" s="14">
         <v>40</v>
@@ -5470,7 +5772,7 @@
       </c>
       <c r="X77" s="2">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
@@ -5489,7 +5791,9 @@
       <c r="E78" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F78" s="14"/>
+      <c r="F78" s="14">
+        <v>12</v>
+      </c>
       <c r="G78" s="14">
         <v>3</v>
       </c>
@@ -5501,7 +5805,9 @@
         <v>5</v>
       </c>
       <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
+      <c r="K78" s="14">
+        <v>13</v>
+      </c>
       <c r="L78" s="11"/>
       <c r="O78" s="14">
         <v>40</v>
@@ -5529,7 +5835,7 @@
       </c>
       <c r="X78" s="2">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
@@ -5548,7 +5854,9 @@
       <c r="E79" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F79" s="14"/>
+      <c r="F79" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="G79" s="13">
         <v>0</v>
       </c>
@@ -5560,7 +5868,9 @@
         <v>0</v>
       </c>
       <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
+      <c r="K79" s="14">
+        <v>0</v>
+      </c>
       <c r="L79" s="11"/>
       <c r="O79" s="14"/>
       <c r="Q79" s="2">
@@ -5605,7 +5915,9 @@
       <c r="E80" s="14">
         <v>18</v>
       </c>
-      <c r="F80" s="14"/>
+      <c r="F80" s="14">
+        <v>15</v>
+      </c>
       <c r="G80" s="14">
         <v>5</v>
       </c>
@@ -5617,7 +5929,9 @@
         <v>5</v>
       </c>
       <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
+      <c r="K80" s="14">
+        <v>27</v>
+      </c>
       <c r="L80" s="11"/>
       <c r="O80" s="14">
         <v>40</v>
@@ -5645,7 +5959,7 @@
       </c>
       <c r="X80" s="2">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.25">
@@ -5664,7 +5978,9 @@
       <c r="E81" s="14">
         <v>18</v>
       </c>
-      <c r="F81" s="14"/>
+      <c r="F81" s="14">
+        <v>18</v>
+      </c>
       <c r="G81" s="14">
         <v>5</v>
       </c>
@@ -5676,7 +5992,9 @@
         <v>5</v>
       </c>
       <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
+      <c r="K81" s="14">
+        <v>28</v>
+      </c>
       <c r="L81" s="11"/>
       <c r="O81" s="14">
         <v>40</v>
@@ -5704,7 +6022,7 @@
       </c>
       <c r="X81" s="2">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.25">
@@ -5723,7 +6041,9 @@
       <c r="E82" s="14">
         <v>15</v>
       </c>
-      <c r="F82" s="14"/>
+      <c r="F82" s="14">
+        <v>3</v>
+      </c>
       <c r="G82" s="14">
         <v>3</v>
       </c>
@@ -5735,7 +6055,9 @@
         <v>0</v>
       </c>
       <c r="J82" s="14"/>
-      <c r="K82" s="14"/>
+      <c r="K82" s="14">
+        <v>17</v>
+      </c>
       <c r="L82" s="11"/>
       <c r="O82" s="14">
         <v>40</v>
@@ -5763,7 +6085,7 @@
       </c>
       <c r="X82" s="2">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.25">
@@ -5782,7 +6104,9 @@
       <c r="E83" s="14">
         <v>14</v>
       </c>
-      <c r="F83" s="14"/>
+      <c r="F83" s="14">
+        <v>3</v>
+      </c>
       <c r="G83" s="14">
         <v>4.5</v>
       </c>
@@ -5794,7 +6118,9 @@
         <v>0</v>
       </c>
       <c r="J83" s="14"/>
-      <c r="K83" s="14"/>
+      <c r="K83" s="14">
+        <v>20</v>
+      </c>
       <c r="L83" s="11"/>
       <c r="O83" s="14">
         <v>40</v>
@@ -5822,7 +6148,7 @@
       </c>
       <c r="X83" s="2">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
@@ -5841,7 +6167,9 @@
       <c r="E84" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F84" s="14"/>
+      <c r="F84" s="14">
+        <v>5</v>
+      </c>
       <c r="G84" s="13">
         <v>0</v>
       </c>
@@ -5853,7 +6181,9 @@
         <v>0</v>
       </c>
       <c r="J84" s="14"/>
-      <c r="K84" s="14"/>
+      <c r="K84" s="14">
+        <v>6</v>
+      </c>
       <c r="L84" s="11"/>
       <c r="O84" s="14"/>
       <c r="Q84" s="2">
@@ -5879,7 +6209,7 @@
       </c>
       <c r="X84" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
@@ -5898,7 +6228,9 @@
       <c r="E85" s="14">
         <v>13</v>
       </c>
-      <c r="F85" s="14"/>
+      <c r="F85" s="14">
+        <v>4</v>
+      </c>
       <c r="G85" s="14">
         <v>5</v>
       </c>
@@ -5910,7 +6242,9 @@
         <v>5</v>
       </c>
       <c r="J85" s="14"/>
-      <c r="K85" s="14"/>
+      <c r="K85" s="14">
+        <v>18</v>
+      </c>
       <c r="L85" s="11"/>
       <c r="O85" s="14">
         <v>40</v>
@@ -5938,7 +6272,7 @@
       </c>
       <c r="X85" s="2">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.25">
@@ -5957,7 +6291,9 @@
       <c r="E86" s="14">
         <v>13</v>
       </c>
-      <c r="F86" s="14"/>
+      <c r="F86" s="14">
+        <v>10</v>
+      </c>
       <c r="G86" s="14">
         <v>5</v>
       </c>
@@ -5969,7 +6305,9 @@
         <v>5</v>
       </c>
       <c r="J86" s="14"/>
-      <c r="K86" s="14"/>
+      <c r="K86" s="14">
+        <v>19</v>
+      </c>
       <c r="L86" s="11"/>
       <c r="O86" s="14">
         <v>40</v>
@@ -5997,7 +6335,7 @@
       </c>
       <c r="X86" s="2">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.25">
@@ -6016,7 +6354,9 @@
       <c r="E87" s="14">
         <v>16</v>
       </c>
-      <c r="F87" s="14"/>
+      <c r="F87" s="14">
+        <v>9</v>
+      </c>
       <c r="G87" s="14">
         <v>5</v>
       </c>
@@ -6028,7 +6368,9 @@
         <v>0</v>
       </c>
       <c r="J87" s="14"/>
-      <c r="K87" s="14"/>
+      <c r="K87" s="14">
+        <v>21</v>
+      </c>
       <c r="L87" s="11"/>
       <c r="O87" s="14">
         <v>40</v>
@@ -6056,7 +6398,7 @@
       </c>
       <c r="X87" s="2">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.25">
@@ -6075,7 +6417,9 @@
       <c r="E88" s="14">
         <v>15</v>
       </c>
-      <c r="F88" s="14"/>
+      <c r="F88" s="14">
+        <v>12</v>
+      </c>
       <c r="G88" s="14">
         <v>5</v>
       </c>
@@ -6087,7 +6431,9 @@
         <v>0</v>
       </c>
       <c r="J88" s="14"/>
-      <c r="K88" s="14"/>
+      <c r="K88" s="14">
+        <v>19</v>
+      </c>
       <c r="L88" s="11"/>
       <c r="O88" s="14">
         <v>40</v>
@@ -6115,7 +6461,7 @@
       </c>
       <c r="X88" s="2">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
@@ -6134,7 +6480,9 @@
       <c r="E89" s="14">
         <v>13</v>
       </c>
-      <c r="F89" s="14"/>
+      <c r="F89" s="14">
+        <v>9</v>
+      </c>
       <c r="G89" s="13">
         <v>0</v>
       </c>
@@ -6146,7 +6494,9 @@
         <v>0</v>
       </c>
       <c r="J89" s="14"/>
-      <c r="K89" s="14"/>
+      <c r="K89" s="14">
+        <v>12</v>
+      </c>
       <c r="L89" s="11"/>
       <c r="O89" s="14"/>
       <c r="Q89" s="2">
@@ -6172,7 +6522,7 @@
       </c>
       <c r="X89" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.25">
@@ -6191,7 +6541,9 @@
       <c r="E90" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F90" s="14"/>
+      <c r="F90" s="14">
+        <v>8</v>
+      </c>
       <c r="G90" s="14">
         <v>2.5</v>
       </c>
@@ -6203,7 +6555,9 @@
         <v>5</v>
       </c>
       <c r="J90" s="14"/>
-      <c r="K90" s="14"/>
+      <c r="K90" s="14">
+        <v>14</v>
+      </c>
       <c r="L90" s="11"/>
       <c r="O90" s="14">
         <v>40</v>
@@ -6231,7 +6585,7 @@
       </c>
       <c r="X90" s="2">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
@@ -6250,7 +6604,9 @@
       <c r="E91" s="14">
         <v>8</v>
       </c>
-      <c r="F91" s="14"/>
+      <c r="F91" s="14">
+        <v>2</v>
+      </c>
       <c r="G91" s="14">
         <v>5</v>
       </c>
@@ -6262,7 +6618,9 @@
         <v>5</v>
       </c>
       <c r="J91" s="14"/>
-      <c r="K91" s="14"/>
+      <c r="K91" s="14">
+        <v>17</v>
+      </c>
       <c r="L91" s="11"/>
       <c r="O91" s="14">
         <v>40</v>
@@ -6290,7 +6648,7 @@
       </c>
       <c r="X91" s="2">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
@@ -6309,7 +6667,9 @@
       <c r="E92" s="14">
         <v>15</v>
       </c>
-      <c r="F92" s="14"/>
+      <c r="F92" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="G92" s="13">
         <v>0</v>
       </c>
@@ -6321,7 +6681,9 @@
         <v>0</v>
       </c>
       <c r="J92" s="14"/>
-      <c r="K92" s="14"/>
+      <c r="K92" s="14">
+        <v>17</v>
+      </c>
       <c r="L92" s="11"/>
       <c r="O92" s="14"/>
       <c r="Q92" s="2">
@@ -6366,7 +6728,9 @@
       <c r="E93" s="14">
         <v>12</v>
       </c>
-      <c r="F93" s="14"/>
+      <c r="F93" s="14">
+        <v>3</v>
+      </c>
       <c r="G93" s="14">
         <v>4.5</v>
       </c>
@@ -6378,7 +6742,9 @@
         <v>5</v>
       </c>
       <c r="J93" s="14"/>
-      <c r="K93" s="14"/>
+      <c r="K93" s="14">
+        <v>21</v>
+      </c>
       <c r="L93" s="11"/>
       <c r="O93" s="14">
         <v>35</v>
@@ -6406,7 +6772,7 @@
       </c>
       <c r="X93" s="2">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.25">
@@ -6425,7 +6791,9 @@
       <c r="E94" s="14">
         <v>24</v>
       </c>
-      <c r="F94" s="14"/>
+      <c r="F94" s="14">
+        <v>19</v>
+      </c>
       <c r="G94" s="14">
         <v>5</v>
       </c>
@@ -6437,7 +6805,9 @@
         <v>5</v>
       </c>
       <c r="J94" s="14"/>
-      <c r="K94" s="14"/>
+      <c r="K94" s="14">
+        <v>31</v>
+      </c>
       <c r="L94" s="11"/>
       <c r="O94" s="14">
         <v>35</v>
@@ -6465,7 +6835,7 @@
       </c>
       <c r="X94" s="2">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.25">
@@ -6484,7 +6854,9 @@
       <c r="E95" s="14">
         <v>22</v>
       </c>
-      <c r="F95" s="14"/>
+      <c r="F95" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="G95" s="14">
         <v>5</v>
       </c>
@@ -6496,7 +6868,9 @@
         <v>5</v>
       </c>
       <c r="J95" s="14"/>
-      <c r="K95" s="14"/>
+      <c r="K95" s="14">
+        <v>28</v>
+      </c>
       <c r="L95" s="11"/>
       <c r="O95" s="14">
         <v>40</v>
@@ -6543,7 +6917,9 @@
       <c r="E96" s="14">
         <v>12</v>
       </c>
-      <c r="F96" s="14"/>
+      <c r="F96" s="14">
+        <v>12</v>
+      </c>
       <c r="G96" s="14">
         <v>5</v>
       </c>
@@ -6555,7 +6931,9 @@
         <v>5</v>
       </c>
       <c r="J96" s="14"/>
-      <c r="K96" s="14"/>
+      <c r="K96" s="14">
+        <v>21</v>
+      </c>
       <c r="L96" s="11"/>
       <c r="O96" s="14"/>
       <c r="Q96" s="2">
@@ -6581,7 +6959,7 @@
       </c>
       <c r="X96" s="2">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.25">
@@ -6600,7 +6978,9 @@
       <c r="E97" s="14">
         <v>15</v>
       </c>
-      <c r="F97" s="14"/>
+      <c r="F97" s="14">
+        <v>13</v>
+      </c>
       <c r="G97" s="14">
         <v>4</v>
       </c>
@@ -6612,7 +6992,9 @@
         <v>5</v>
       </c>
       <c r="J97" s="14"/>
-      <c r="K97" s="14"/>
+      <c r="K97" s="14">
+        <v>23</v>
+      </c>
       <c r="L97" s="11"/>
       <c r="O97" s="14">
         <v>40</v>
@@ -6640,7 +7022,7 @@
       </c>
       <c r="X97" s="2">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.25">
@@ -6659,7 +7041,9 @@
       <c r="E98" s="14">
         <v>12</v>
       </c>
-      <c r="F98" s="14"/>
+      <c r="F98" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="G98" s="13">
         <v>0</v>
       </c>
@@ -6671,7 +7055,9 @@
         <v>0</v>
       </c>
       <c r="J98" s="14"/>
-      <c r="K98" s="14"/>
+      <c r="K98" s="14">
+        <v>16</v>
+      </c>
       <c r="L98" s="11"/>
       <c r="O98" s="14">
         <v>35</v>
@@ -6718,7 +7104,9 @@
       <c r="E99" s="14">
         <v>5</v>
       </c>
-      <c r="F99" s="14"/>
+      <c r="F99" s="14">
+        <v>6</v>
+      </c>
       <c r="G99" s="14">
         <v>4</v>
       </c>
@@ -6730,7 +7118,9 @@
         <v>5</v>
       </c>
       <c r="J99" s="14"/>
-      <c r="K99" s="14"/>
+      <c r="K99" s="14">
+        <v>15</v>
+      </c>
       <c r="L99" s="11"/>
       <c r="O99" s="14">
         <v>40</v>
@@ -6758,7 +7148,7 @@
       </c>
       <c r="X99" s="2">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.25">
@@ -6777,7 +7167,9 @@
       <c r="E100" s="14">
         <v>16</v>
       </c>
-      <c r="F100" s="14"/>
+      <c r="F100" s="14">
+        <v>12</v>
+      </c>
       <c r="G100" s="14">
         <v>5</v>
       </c>
@@ -6789,7 +7181,9 @@
         <v>5</v>
       </c>
       <c r="J100" s="14"/>
-      <c r="K100" s="14"/>
+      <c r="K100" s="14">
+        <v>22</v>
+      </c>
       <c r="L100" s="11"/>
       <c r="O100" s="14">
         <v>30</v>
@@ -6817,7 +7211,7 @@
       </c>
       <c r="X100" s="2">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
@@ -6836,7 +7230,9 @@
       <c r="E101" s="14">
         <v>18</v>
       </c>
-      <c r="F101" s="14"/>
+      <c r="F101" s="14">
+        <v>20</v>
+      </c>
       <c r="G101" s="14">
         <v>5</v>
       </c>
@@ -6848,7 +7244,9 @@
         <v>5</v>
       </c>
       <c r="J101" s="14"/>
-      <c r="K101" s="14"/>
+      <c r="K101" s="14">
+        <v>27</v>
+      </c>
       <c r="L101" s="11"/>
       <c r="O101" s="14">
         <v>35</v>
@@ -6876,7 +7274,7 @@
       </c>
       <c r="X101" s="2">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.25">
@@ -6895,7 +7293,9 @@
       <c r="E102" s="14">
         <v>9</v>
       </c>
-      <c r="F102" s="14"/>
+      <c r="F102" s="14">
+        <v>6</v>
+      </c>
       <c r="G102" s="13">
         <v>0</v>
       </c>
@@ -6907,7 +7307,9 @@
         <v>0</v>
       </c>
       <c r="J102" s="14"/>
-      <c r="K102" s="14"/>
+      <c r="K102" s="14">
+        <v>9</v>
+      </c>
       <c r="L102" s="11"/>
       <c r="O102" s="14"/>
       <c r="Q102" s="2">
@@ -6933,7 +7335,7 @@
       </c>
       <c r="X102" s="2">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.25">
@@ -6952,7 +7354,9 @@
       <c r="E103" s="14">
         <v>24</v>
       </c>
-      <c r="F103" s="14"/>
+      <c r="F103" s="14">
+        <v>25</v>
+      </c>
       <c r="G103" s="14">
         <v>5</v>
       </c>
@@ -6964,7 +7368,9 @@
         <v>5</v>
       </c>
       <c r="J103" s="14"/>
-      <c r="K103" s="14"/>
+      <c r="K103" s="14">
+        <v>33</v>
+      </c>
       <c r="L103" s="11"/>
       <c r="O103" s="14">
         <v>35</v>
@@ -6992,7 +7398,7 @@
       </c>
       <c r="X103" s="2">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.25">
@@ -7011,7 +7417,9 @@
       <c r="E104" s="14">
         <v>4</v>
       </c>
-      <c r="F104" s="14"/>
+      <c r="F104" s="14">
+        <v>2</v>
+      </c>
       <c r="G104" s="13">
         <v>0</v>
       </c>
@@ -7023,7 +7431,9 @@
         <v>0</v>
       </c>
       <c r="J104" s="14"/>
-      <c r="K104" s="14"/>
+      <c r="K104" s="14">
+        <v>5</v>
+      </c>
       <c r="L104" s="11"/>
       <c r="O104" s="14"/>
       <c r="Q104" s="2">
@@ -7049,7 +7459,7 @@
       </c>
       <c r="X104" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.25">
@@ -7068,7 +7478,9 @@
       <c r="E105" s="14">
         <v>12</v>
       </c>
-      <c r="F105" s="14"/>
+      <c r="F105" s="14">
+        <v>15</v>
+      </c>
       <c r="G105" s="14">
         <v>4.5</v>
       </c>
@@ -7080,7 +7492,9 @@
         <v>5</v>
       </c>
       <c r="J105" s="14"/>
-      <c r="K105" s="14"/>
+      <c r="K105" s="14">
+        <v>23</v>
+      </c>
       <c r="L105" s="11"/>
       <c r="O105" s="14">
         <v>40</v>
@@ -7108,7 +7522,7 @@
       </c>
       <c r="X105" s="2">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.25">
@@ -7127,7 +7541,9 @@
       <c r="E106" s="14">
         <v>12</v>
       </c>
-      <c r="F106" s="14"/>
+      <c r="F106" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="G106" s="13">
         <v>0</v>
       </c>
@@ -7139,7 +7555,9 @@
         <v>5</v>
       </c>
       <c r="J106" s="14"/>
-      <c r="K106" s="14"/>
+      <c r="K106" s="14">
+        <v>16</v>
+      </c>
       <c r="L106" s="11"/>
       <c r="O106" s="14">
         <v>25</v>
@@ -7186,7 +7604,9 @@
       <c r="E107" s="14">
         <v>14</v>
       </c>
-      <c r="F107" s="14"/>
+      <c r="F107" s="14">
+        <v>12</v>
+      </c>
       <c r="G107" s="13">
         <v>0</v>
       </c>
@@ -7198,7 +7618,9 @@
         <v>5</v>
       </c>
       <c r="J107" s="14"/>
-      <c r="K107" s="14"/>
+      <c r="K107" s="14">
+        <v>20</v>
+      </c>
       <c r="L107" s="11"/>
       <c r="O107" s="14">
         <v>40</v>
@@ -7226,7 +7648,7 @@
       </c>
       <c r="X107" s="2">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.25">
@@ -7245,7 +7667,9 @@
       <c r="E108" s="14">
         <v>10</v>
       </c>
-      <c r="F108" s="14"/>
+      <c r="F108" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="G108" s="13">
         <v>0</v>
       </c>
@@ -7257,7 +7681,9 @@
         <v>0</v>
       </c>
       <c r="J108" s="14"/>
-      <c r="K108" s="14"/>
+      <c r="K108" s="14">
+        <v>17</v>
+      </c>
       <c r="L108" s="11"/>
       <c r="O108" s="14"/>
       <c r="Q108" s="2">
@@ -7302,7 +7728,9 @@
       <c r="E109" s="14">
         <v>20</v>
       </c>
-      <c r="F109" s="14"/>
+      <c r="F109" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="G109" s="14">
         <v>4.5</v>
       </c>
@@ -7314,7 +7742,9 @@
         <v>5</v>
       </c>
       <c r="J109" s="14"/>
-      <c r="K109" s="14"/>
+      <c r="K109" s="14">
+        <v>28</v>
+      </c>
       <c r="L109" s="11"/>
       <c r="O109" s="14">
         <v>40</v>
@@ -7361,7 +7791,9 @@
       <c r="E110" s="14">
         <v>9</v>
       </c>
-      <c r="F110" s="14"/>
+      <c r="F110" s="14">
+        <v>12</v>
+      </c>
       <c r="G110" s="14">
         <v>3</v>
       </c>
@@ -7373,7 +7805,9 @@
         <v>5</v>
       </c>
       <c r="J110" s="14"/>
-      <c r="K110" s="14"/>
+      <c r="K110" s="14">
+        <v>20</v>
+      </c>
       <c r="L110" s="11"/>
       <c r="O110" s="14">
         <v>40</v>
@@ -7401,7 +7835,7 @@
       </c>
       <c r="X110" s="2">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.25">
@@ -7420,7 +7854,9 @@
       <c r="E111" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F111" s="14"/>
+      <c r="F111" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="G111" s="13">
         <v>0</v>
       </c>
@@ -7432,7 +7868,9 @@
         <v>0</v>
       </c>
       <c r="J111" s="14"/>
-      <c r="K111" s="14"/>
+      <c r="K111" s="14">
+        <v>0</v>
+      </c>
       <c r="L111" s="11"/>
       <c r="O111" s="14"/>
       <c r="Q111" s="2">
@@ -7477,7 +7915,9 @@
       <c r="E112" s="14">
         <v>18</v>
       </c>
-      <c r="F112" s="14"/>
+      <c r="F112" s="14">
+        <v>14</v>
+      </c>
       <c r="G112" s="14">
         <v>5</v>
       </c>
@@ -7489,7 +7929,9 @@
         <v>5</v>
       </c>
       <c r="J112" s="14"/>
-      <c r="K112" s="14"/>
+      <c r="K112" s="14">
+        <v>25</v>
+      </c>
       <c r="L112" s="11"/>
       <c r="O112" s="14">
         <v>35</v>
@@ -7517,7 +7959,7 @@
       </c>
       <c r="X112" s="2">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.25">
@@ -7536,7 +7978,9 @@
       <c r="E113" s="14">
         <v>13</v>
       </c>
-      <c r="F113" s="14"/>
+      <c r="F113" s="14">
+        <v>5</v>
+      </c>
       <c r="G113" s="14">
         <v>5</v>
       </c>
@@ -7548,7 +7992,9 @@
         <v>5</v>
       </c>
       <c r="J113" s="14"/>
-      <c r="K113" s="14"/>
+      <c r="K113" s="14">
+        <v>17</v>
+      </c>
       <c r="L113" s="11"/>
       <c r="O113" s="14">
         <v>40</v>
@@ -7576,7 +8022,7 @@
       </c>
       <c r="X113" s="2">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.25">
@@ -7595,7 +8041,9 @@
       <c r="E114" s="14">
         <v>19</v>
       </c>
-      <c r="F114" s="14"/>
+      <c r="F114" s="14">
+        <v>4</v>
+      </c>
       <c r="G114" s="13">
         <v>0</v>
       </c>
@@ -7607,7 +8055,9 @@
         <v>5</v>
       </c>
       <c r="J114" s="14"/>
-      <c r="K114" s="14"/>
+      <c r="K114" s="14">
+        <v>20</v>
+      </c>
       <c r="L114" s="11"/>
       <c r="O114" s="14">
         <v>40</v>
@@ -7635,7 +8085,7 @@
       </c>
       <c r="X114" s="2">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.25">
@@ -7654,7 +8104,9 @@
       <c r="E115" s="14">
         <v>12</v>
       </c>
-      <c r="F115" s="14"/>
+      <c r="F115" s="14">
+        <v>4</v>
+      </c>
       <c r="G115" s="13">
         <v>0</v>
       </c>
@@ -7666,7 +8118,9 @@
         <v>0</v>
       </c>
       <c r="J115" s="14"/>
-      <c r="K115" s="14"/>
+      <c r="K115" s="14">
+        <v>12</v>
+      </c>
       <c r="L115" s="11"/>
       <c r="O115" s="14">
         <v>40</v>
@@ -7694,7 +8148,7 @@
       </c>
       <c r="X115" s="2">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.25">
@@ -7713,7 +8167,9 @@
       <c r="E116" s="14">
         <v>8</v>
       </c>
-      <c r="F116" s="14"/>
+      <c r="F116" s="14">
+        <v>9</v>
+      </c>
       <c r="G116" s="14">
         <v>2.5</v>
       </c>
@@ -7725,7 +8181,9 @@
         <v>5</v>
       </c>
       <c r="J116" s="14"/>
-      <c r="K116" s="14"/>
+      <c r="K116" s="14">
+        <v>16</v>
+      </c>
       <c r="L116" s="11"/>
       <c r="O116" s="14"/>
       <c r="Q116" s="2">
@@ -7751,7 +8209,7 @@
       </c>
       <c r="X116" s="2">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.25">
@@ -7770,7 +8228,9 @@
       <c r="E117" s="14">
         <v>14</v>
       </c>
-      <c r="F117" s="14"/>
+      <c r="F117" s="14">
+        <v>5</v>
+      </c>
       <c r="G117" s="13">
         <v>0</v>
       </c>
@@ -7782,7 +8242,9 @@
         <v>5</v>
       </c>
       <c r="J117" s="14"/>
-      <c r="K117" s="14"/>
+      <c r="K117" s="14">
+        <v>19</v>
+      </c>
       <c r="L117" s="11"/>
       <c r="O117" s="14">
         <v>40</v>
@@ -7810,7 +8272,7 @@
       </c>
       <c r="X117" s="2">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.25">
@@ -7829,7 +8291,9 @@
       <c r="E118" s="14">
         <v>17</v>
       </c>
-      <c r="F118" s="14"/>
+      <c r="F118" s="14">
+        <v>19</v>
+      </c>
       <c r="G118" s="13">
         <v>0</v>
       </c>
@@ -7841,7 +8305,9 @@
         <v>5</v>
       </c>
       <c r="J118" s="14"/>
-      <c r="K118" s="14"/>
+      <c r="K118" s="14">
+        <v>27</v>
+      </c>
       <c r="L118" s="11"/>
       <c r="O118" s="14">
         <v>40</v>
@@ -7869,7 +8335,7 @@
       </c>
       <c r="X118" s="2">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.25">
@@ -7888,7 +8354,9 @@
       <c r="E119" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F119" s="14"/>
+      <c r="F119" s="14">
+        <v>16</v>
+      </c>
       <c r="G119" s="14">
         <v>5</v>
       </c>
@@ -7900,7 +8368,9 @@
         <v>5</v>
       </c>
       <c r="J119" s="14"/>
-      <c r="K119" s="14"/>
+      <c r="K119" s="14">
+        <v>25</v>
+      </c>
       <c r="L119" s="11"/>
       <c r="O119" s="14">
         <v>40</v>
@@ -7928,7 +8398,7 @@
       </c>
       <c r="X119" s="2">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.25">
@@ -7947,7 +8417,9 @@
       <c r="E120" s="14">
         <v>17</v>
       </c>
-      <c r="F120" s="14"/>
+      <c r="F120" s="14">
+        <v>16</v>
+      </c>
       <c r="G120" s="14">
         <v>4.5</v>
       </c>
@@ -7959,7 +8431,9 @@
         <v>5</v>
       </c>
       <c r="J120" s="14"/>
-      <c r="K120" s="14"/>
+      <c r="K120" s="14">
+        <v>26</v>
+      </c>
       <c r="L120" s="11"/>
       <c r="O120" s="14">
         <v>40</v>
@@ -7987,7 +8461,7 @@
       </c>
       <c r="X120" s="2">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.25">
@@ -8006,7 +8480,9 @@
       <c r="E121" s="14">
         <v>18</v>
       </c>
-      <c r="F121" s="14"/>
+      <c r="F121" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="G121" s="13">
         <v>0</v>
       </c>
@@ -8018,7 +8494,9 @@
         <v>0</v>
       </c>
       <c r="J121" s="14"/>
-      <c r="K121" s="14"/>
+      <c r="K121" s="14">
+        <v>20</v>
+      </c>
       <c r="L121" s="11"/>
       <c r="O121" s="14"/>
       <c r="Q121" s="2">
@@ -8063,7 +8541,9 @@
       <c r="E122" s="14">
         <v>14</v>
       </c>
-      <c r="F122" s="14"/>
+      <c r="F122" s="14">
+        <v>7</v>
+      </c>
       <c r="G122" s="13">
         <v>0</v>
       </c>
@@ -8075,7 +8555,9 @@
         <v>5</v>
       </c>
       <c r="J122" s="14"/>
-      <c r="K122" s="14"/>
+      <c r="K122" s="14">
+        <v>18</v>
+      </c>
       <c r="L122" s="11"/>
       <c r="O122" s="14">
         <v>40</v>
@@ -8103,7 +8585,7 @@
       </c>
       <c r="X122" s="2">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.25">
@@ -8122,7 +8604,9 @@
       <c r="E123" s="14">
         <v>6</v>
       </c>
-      <c r="F123" s="14"/>
+      <c r="F123" s="14">
+        <v>7</v>
+      </c>
       <c r="G123" s="13">
         <v>0</v>
       </c>
@@ -8134,7 +8618,9 @@
         <v>5</v>
       </c>
       <c r="J123" s="14"/>
-      <c r="K123" s="14"/>
+      <c r="K123" s="14">
+        <v>16</v>
+      </c>
       <c r="L123" s="11"/>
       <c r="O123" s="14">
         <v>40</v>
@@ -8162,7 +8648,7 @@
       </c>
       <c r="X123" s="2">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.25">
@@ -8181,7 +8667,9 @@
       <c r="E124" s="14">
         <v>18</v>
       </c>
-      <c r="F124" s="14"/>
+      <c r="F124" s="14">
+        <v>15</v>
+      </c>
       <c r="G124" s="14">
         <v>5</v>
       </c>
@@ -8193,7 +8681,9 @@
         <v>5</v>
       </c>
       <c r="J124" s="14"/>
-      <c r="K124" s="14"/>
+      <c r="K124" s="14">
+        <v>27</v>
+      </c>
       <c r="L124" s="11"/>
       <c r="O124" s="14">
         <v>40</v>
@@ -8221,7 +8711,7 @@
       </c>
       <c r="X124" s="2">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.25">
@@ -8240,7 +8730,9 @@
       <c r="E125" s="14">
         <v>12</v>
       </c>
-      <c r="F125" s="14"/>
+      <c r="F125" s="14">
+        <v>13</v>
+      </c>
       <c r="G125" s="13">
         <v>0</v>
       </c>
@@ -8252,7 +8744,9 @@
         <v>5</v>
       </c>
       <c r="J125" s="14"/>
-      <c r="K125" s="14"/>
+      <c r="K125" s="14">
+        <v>20</v>
+      </c>
       <c r="L125" s="11"/>
       <c r="O125" s="14">
         <v>40</v>
@@ -8280,7 +8774,7 @@
       </c>
       <c r="X125" s="2">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.25">
@@ -8299,7 +8793,9 @@
       <c r="E126" s="14">
         <v>15</v>
       </c>
-      <c r="F126" s="14"/>
+      <c r="F126" s="14">
+        <v>2</v>
+      </c>
       <c r="G126" s="14">
         <v>4</v>
       </c>
@@ -8311,7 +8807,9 @@
         <v>0</v>
       </c>
       <c r="J126" s="14"/>
-      <c r="K126" s="14"/>
+      <c r="K126" s="14">
+        <v>22</v>
+      </c>
       <c r="L126" s="11"/>
       <c r="O126" s="14">
         <v>40</v>
@@ -8339,7 +8837,7 @@
       </c>
       <c r="X126" s="2">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.25">
@@ -8358,7 +8856,9 @@
       <c r="E127" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F127" s="14"/>
+      <c r="F127" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="G127" s="14">
         <v>5</v>
       </c>
@@ -8370,7 +8870,9 @@
         <v>0</v>
       </c>
       <c r="J127" s="14"/>
-      <c r="K127" s="14"/>
+      <c r="K127" s="14">
+        <v>4</v>
+      </c>
       <c r="L127" s="11"/>
       <c r="O127" s="14"/>
       <c r="Q127" s="2">
@@ -8415,7 +8917,9 @@
       <c r="E128" s="14">
         <v>5</v>
       </c>
-      <c r="F128" s="14"/>
+      <c r="F128" s="14">
+        <v>6</v>
+      </c>
       <c r="G128" s="13">
         <v>0</v>
       </c>
@@ -8427,7 +8931,9 @@
         <v>5</v>
       </c>
       <c r="J128" s="14"/>
-      <c r="K128" s="14"/>
+      <c r="K128" s="14">
+        <v>13</v>
+      </c>
       <c r="L128" s="11"/>
       <c r="O128" s="14">
         <v>40</v>
@@ -8455,7 +8961,7 @@
       </c>
       <c r="X128" s="2">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:24" x14ac:dyDescent="0.25">
@@ -8474,7 +8980,9 @@
       <c r="E129" s="14">
         <v>25</v>
       </c>
-      <c r="F129" s="14"/>
+      <c r="F129" s="14">
+        <v>20</v>
+      </c>
       <c r="G129" s="14">
         <v>5</v>
       </c>
@@ -8486,7 +8994,9 @@
         <v>5</v>
       </c>
       <c r="J129" s="14"/>
-      <c r="K129" s="14"/>
+      <c r="K129" s="14">
+        <v>32</v>
+      </c>
       <c r="L129" s="11"/>
       <c r="O129" s="14">
         <v>40</v>
@@ -8514,7 +9024,7 @@
       </c>
       <c r="X129" s="2">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130" spans="1:24" x14ac:dyDescent="0.25">
@@ -8533,7 +9043,9 @@
       <c r="E130" s="14">
         <v>12</v>
       </c>
-      <c r="F130" s="14"/>
+      <c r="F130" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="G130" s="13">
         <v>0</v>
       </c>
@@ -8545,7 +9057,9 @@
         <v>5</v>
       </c>
       <c r="J130" s="14"/>
-      <c r="K130" s="14"/>
+      <c r="K130" s="14">
+        <v>16</v>
+      </c>
       <c r="L130" s="11"/>
       <c r="O130" s="14">
         <v>40</v>
@@ -8592,7 +9106,9 @@
       <c r="E131" s="14">
         <v>24</v>
       </c>
-      <c r="F131" s="14"/>
+      <c r="F131" s="14">
+        <v>13</v>
+      </c>
       <c r="G131" s="14">
         <v>4.5</v>
       </c>
@@ -8604,7 +9120,9 @@
         <v>5</v>
       </c>
       <c r="J131" s="14"/>
-      <c r="K131" s="14"/>
+      <c r="K131" s="14">
+        <v>29</v>
+      </c>
       <c r="L131" s="11"/>
       <c r="O131" s="14">
         <v>40</v>
@@ -8632,7 +9150,7 @@
       </c>
       <c r="X131" s="2">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.25">
@@ -8651,7 +9169,9 @@
       <c r="E132" s="14">
         <v>21</v>
       </c>
-      <c r="F132" s="1"/>
+      <c r="F132" s="1">
+        <v>13</v>
+      </c>
       <c r="G132" s="14">
         <v>4</v>
       </c>
@@ -8663,7 +9183,9 @@
         <v>5</v>
       </c>
       <c r="J132" s="14"/>
-      <c r="K132" s="14"/>
+      <c r="K132" s="14">
+        <v>27</v>
+      </c>
       <c r="L132" s="11"/>
       <c r="O132" s="14">
         <v>40</v>
@@ -8691,7 +9213,7 @@
       </c>
       <c r="X132" s="2">
         <f t="shared" ref="X132:X133" si="14">SUM(F132)+I132+U132</f>
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.25">
@@ -8710,7 +9232,9 @@
       <c r="E133" s="14">
         <v>19</v>
       </c>
-      <c r="F133" s="14"/>
+      <c r="F133" s="14">
+        <v>17</v>
+      </c>
       <c r="G133" s="14">
         <v>3</v>
       </c>
@@ -8722,7 +9246,9 @@
         <v>5</v>
       </c>
       <c r="J133" s="14"/>
-      <c r="K133" s="14"/>
+      <c r="K133" s="14">
+        <v>27</v>
+      </c>
       <c r="L133" s="11"/>
       <c r="O133" s="14">
         <v>40</v>
@@ -8750,7 +9276,7 @@
       </c>
       <c r="X133" s="2">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="134" spans="1:24" x14ac:dyDescent="0.25">

--- a/static/Upload/4th sem.xlsx
+++ b/static/Upload/4th sem.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mech Staff data\Amit Jangra\Website\MechanicalCodingThunder.github.io\static\Upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Amit Jangra\Website\MechanicalCodingThunder.github.io\static\Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AB60D1-D4AA-47B4-B0D0-8BF0FCB480CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="12900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WT-III" sheetId="2" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WT-III'!$A$2:$L$133</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -452,7 +453,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -556,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -570,13 +571,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="12" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="12" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -589,9 +587,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -623,7 +618,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -981,21 +986,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K133"/>
+      <selection activeCell="J107" sqref="J107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1010,35 +1015,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:24" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1088,10 +1093,10 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="16">
         <v>210041700021</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1114,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -1123,7 +1128,7 @@
         <f>O3*5/40</f>
         <v>0</v>
       </c>
-      <c r="R3" s="19">
+      <c r="R3" s="17">
         <f>SUM(D3)+G3+S3</f>
         <v>0</v>
       </c>
@@ -1153,22 +1158,22 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>220041700001</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <v>13</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="12">
         <v>15</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>12</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="12">
         <v>4</v>
       </c>
       <c r="H4" s="2">
@@ -1178,12 +1183,12 @@
       <c r="I4" s="2">
         <v>5</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14">
+      <c r="J4" s="12"/>
+      <c r="K4" s="12">
         <v>23</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="O4" s="14">
+      <c r="L4" s="10"/>
+      <c r="O4" s="12">
         <v>40</v>
       </c>
       <c r="Q4" s="2">
@@ -1216,22 +1221,22 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>220041700003</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>9</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="12">
         <v>7</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <v>15</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="12">
         <v>4.5</v>
       </c>
       <c r="H5" s="2">
@@ -1241,12 +1246,12 @@
       <c r="I5" s="2">
         <v>0</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14">
-        <v>18</v>
-      </c>
-      <c r="L5" s="11"/>
-      <c r="O5" s="14"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12">
+        <v>20</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="O5" s="12"/>
       <c r="Q5" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1277,22 +1282,22 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>220041700004</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <v>7</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="12">
         <v>16</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="12">
         <v>12</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="12">
         <v>4.5</v>
       </c>
       <c r="H6" s="2">
@@ -1302,12 +1307,12 @@
       <c r="I6" s="2">
         <v>5</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14">
+      <c r="J6" s="12"/>
+      <c r="K6" s="12">
         <v>24</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="O6" s="14">
+      <c r="L6" s="10"/>
+      <c r="O6" s="12">
         <v>40</v>
       </c>
       <c r="Q6" s="2">
@@ -1340,22 +1345,22 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>220041700006</v>
       </c>
-      <c r="D7" s="14">
-        <v>5</v>
-      </c>
-      <c r="E7" s="14">
+      <c r="D7" s="12">
+        <v>5</v>
+      </c>
+      <c r="E7" s="12">
         <v>8</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>16</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="12">
         <v>5</v>
       </c>
       <c r="H7" s="2">
@@ -1365,12 +1370,12 @@
       <c r="I7" s="2">
         <v>5</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14">
-        <v>21</v>
-      </c>
-      <c r="L7" s="11"/>
-      <c r="O7" s="14">
+      <c r="J7" s="12"/>
+      <c r="K7" s="12">
+        <v>22</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="O7" s="12">
         <v>40</v>
       </c>
       <c r="Q7" s="2">
@@ -1403,22 +1408,22 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>220041700007</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>9</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="12">
         <v>7</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="12">
         <v>11</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="11">
         <v>0</v>
       </c>
       <c r="H8" s="2">
@@ -1428,12 +1433,12 @@
       <c r="I8" s="2">
         <v>5</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14">
-        <v>17</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="O8" s="14">
+      <c r="J8" s="12"/>
+      <c r="K8" s="12">
+        <v>20</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="O8" s="12">
         <v>35</v>
       </c>
       <c r="Q8" s="2">
@@ -1466,22 +1471,22 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>220041700008</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>8</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <v>19</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="12">
         <v>16</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="12">
         <v>4.5</v>
       </c>
       <c r="H9" s="2">
@@ -1491,12 +1496,12 @@
       <c r="I9" s="2">
         <v>5</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14">
+      <c r="J9" s="12"/>
+      <c r="K9" s="12">
         <v>28</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="O9" s="14">
+      <c r="L9" s="10"/>
+      <c r="O9" s="12">
         <v>40</v>
       </c>
       <c r="Q9" s="2">
@@ -1529,22 +1534,22 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>220041700009</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>7</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="12">
         <v>13</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="12">
         <v>17</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="12">
         <v>3</v>
       </c>
       <c r="H10" s="2">
@@ -1554,12 +1559,12 @@
       <c r="I10" s="2">
         <v>5</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14">
+      <c r="J10" s="12"/>
+      <c r="K10" s="12">
         <v>25</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="O10" s="14">
+      <c r="L10" s="10"/>
+      <c r="O10" s="12">
         <v>40</v>
       </c>
       <c r="Q10" s="2">
@@ -1592,22 +1597,22 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>220041700010</v>
       </c>
-      <c r="D11" s="14">
-        <v>4</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="D11" s="12">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12">
         <v>12</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="12">
         <v>13</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="11">
         <v>0</v>
       </c>
       <c r="H11" s="2">
@@ -1617,12 +1622,12 @@
       <c r="I11" s="2">
         <v>5</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14">
+      <c r="J11" s="12"/>
+      <c r="K11" s="12">
         <v>21</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="O11" s="14">
+      <c r="L11" s="10"/>
+      <c r="O11" s="12">
         <v>40</v>
       </c>
       <c r="Q11" s="2">
@@ -1655,22 +1660,22 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>220041700011</v>
       </c>
-      <c r="D12" s="14">
-        <v>5</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="D12" s="12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="12">
         <v>15</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="12">
         <v>11</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="12">
         <v>4.5</v>
       </c>
       <c r="H12" s="2">
@@ -1680,12 +1685,12 @@
       <c r="I12" s="2">
         <v>0</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14">
-        <v>17</v>
-      </c>
-      <c r="L12" s="11"/>
-      <c r="O12" s="14">
+      <c r="J12" s="12"/>
+      <c r="K12" s="12">
+        <v>20</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="O12" s="12">
         <v>40</v>
       </c>
       <c r="Q12" s="2">
@@ -1718,22 +1723,22 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>220041700012</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <v>13</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="12">
         <v>4</v>
       </c>
       <c r="H13" s="2">
@@ -1743,12 +1748,12 @@
       <c r="I13" s="2">
         <v>0</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14">
+      <c r="J13" s="12"/>
+      <c r="K13" s="12">
         <v>9</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="O13" s="14"/>
+      <c r="L13" s="10"/>
+      <c r="O13" s="12"/>
       <c r="Q13" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1779,22 +1784,22 @@
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>220041700013</v>
       </c>
-      <c r="D14" s="14">
-        <v>3</v>
-      </c>
-      <c r="E14" s="14">
+      <c r="D14" s="12">
+        <v>3</v>
+      </c>
+      <c r="E14" s="12">
         <v>12</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="12">
         <v>10</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="12">
         <v>4.5</v>
       </c>
       <c r="H14" s="2">
@@ -1804,12 +1809,12 @@
       <c r="I14" s="2">
         <v>5</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14">
-        <v>18</v>
-      </c>
-      <c r="L14" s="11"/>
-      <c r="O14" s="14"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12">
+        <v>20</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="O14" s="12"/>
       <c r="Q14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1840,22 +1845,22 @@
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>220041700014</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <v>10</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="12">
         <v>15</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="12">
         <v>12</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="12">
         <v>4.5</v>
       </c>
       <c r="H15" s="2">
@@ -1865,12 +1870,12 @@
       <c r="I15" s="2">
         <v>5</v>
       </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14">
+      <c r="J15" s="12"/>
+      <c r="K15" s="12">
         <v>23</v>
       </c>
-      <c r="L15" s="11"/>
-      <c r="O15" s="14">
+      <c r="L15" s="10"/>
+      <c r="O15" s="12">
         <v>40</v>
       </c>
       <c r="Q15" s="2">
@@ -1903,22 +1908,22 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>220041700016</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <v>16</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="12">
         <v>15</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="12">
         <v>12</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="12">
         <v>4.5</v>
       </c>
       <c r="H16" s="2">
@@ -1928,12 +1933,12 @@
       <c r="I16" s="2">
         <v>5</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14">
+      <c r="J16" s="12"/>
+      <c r="K16" s="12">
         <v>24</v>
       </c>
-      <c r="L16" s="11"/>
-      <c r="O16" s="14">
+      <c r="L16" s="10"/>
+      <c r="O16" s="12">
         <v>40</v>
       </c>
       <c r="Q16" s="2">
@@ -1966,22 +1971,22 @@
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>220041700017</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>16</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="12">
         <v>22</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="12">
         <v>12</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="12">
         <v>5</v>
       </c>
       <c r="H17" s="2">
@@ -1991,12 +1996,12 @@
       <c r="I17" s="2">
         <v>5</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14">
+      <c r="J17" s="12"/>
+      <c r="K17" s="12">
         <v>28</v>
       </c>
-      <c r="L17" s="11"/>
-      <c r="O17" s="14">
+      <c r="L17" s="10"/>
+      <c r="O17" s="12">
         <v>40</v>
       </c>
       <c r="Q17" s="2">
@@ -2029,22 +2034,22 @@
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>220041700020</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="12">
         <v>14</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="12">
         <v>18</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="12">
         <v>6</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="12">
         <v>4.5</v>
       </c>
       <c r="H18" s="2">
@@ -2054,12 +2059,12 @@
       <c r="I18" s="2">
         <v>5</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14">
+      <c r="J18" s="12"/>
+      <c r="K18" s="12">
         <v>25</v>
       </c>
-      <c r="L18" s="11"/>
-      <c r="O18" s="14">
+      <c r="L18" s="10"/>
+      <c r="O18" s="12">
         <v>40</v>
       </c>
       <c r="Q18" s="2">
@@ -2092,22 +2097,22 @@
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>220041700022</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <v>21</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="12">
         <v>28</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="12">
         <v>27</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="12">
         <v>4.5</v>
       </c>
       <c r="H19" s="2">
@@ -2117,12 +2122,12 @@
       <c r="I19" s="2">
         <v>5</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14">
+      <c r="J19" s="12"/>
+      <c r="K19" s="12">
         <v>37</v>
       </c>
-      <c r="L19" s="11"/>
-      <c r="O19" s="14">
+      <c r="L19" s="10"/>
+      <c r="O19" s="12">
         <v>40</v>
       </c>
       <c r="Q19" s="2">
@@ -2155,22 +2160,22 @@
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>220041700023</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="12">
         <v>20</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="12">
         <v>21</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="12">
         <v>20</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="12">
         <v>4.5</v>
       </c>
       <c r="H20" s="2">
@@ -2180,12 +2185,12 @@
       <c r="I20" s="2">
         <v>5</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14">
+      <c r="J20" s="12"/>
+      <c r="K20" s="12">
         <v>30</v>
       </c>
-      <c r="L20" s="11"/>
-      <c r="O20" s="14">
+      <c r="L20" s="10"/>
+      <c r="O20" s="12">
         <v>40</v>
       </c>
       <c r="Q20" s="2">
@@ -2218,22 +2223,22 @@
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>220041700024</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="12">
         <v>14</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="12">
         <v>14</v>
       </c>
-      <c r="F21" s="14">
-        <v>0</v>
-      </c>
-      <c r="G21" s="14">
+      <c r="F21" s="12">
+        <v>0</v>
+      </c>
+      <c r="G21" s="12">
         <v>4.5</v>
       </c>
       <c r="H21" s="2">
@@ -2243,12 +2248,12 @@
       <c r="I21" s="2">
         <v>5</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14">
+      <c r="J21" s="12"/>
+      <c r="K21" s="12">
         <v>23</v>
       </c>
-      <c r="L21" s="11"/>
-      <c r="O21" s="14">
+      <c r="L21" s="10"/>
+      <c r="O21" s="12">
         <v>40</v>
       </c>
       <c r="Q21" s="2">
@@ -2281,22 +2286,22 @@
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>220041700025</v>
       </c>
-      <c r="D22" s="14">
-        <v>4</v>
-      </c>
-      <c r="E22" s="14">
+      <c r="D22" s="12">
+        <v>4</v>
+      </c>
+      <c r="E22" s="12">
         <v>16</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="12">
         <v>12</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="12">
         <v>4.5</v>
       </c>
       <c r="H22" s="2">
@@ -2306,12 +2311,12 @@
       <c r="I22" s="2">
         <v>5</v>
       </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14">
+      <c r="J22" s="12"/>
+      <c r="K22" s="12">
         <v>21</v>
       </c>
-      <c r="L22" s="11"/>
-      <c r="O22" s="14">
+      <c r="L22" s="10"/>
+      <c r="O22" s="12">
         <v>40</v>
       </c>
       <c r="Q22" s="2">
@@ -2344,22 +2349,22 @@
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>220041700026</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="12">
         <v>2</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="12">
         <v>8</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="11">
         <v>0</v>
       </c>
       <c r="H23" s="2">
@@ -2369,12 +2374,12 @@
       <c r="I23" s="2">
         <v>0</v>
       </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14">
-        <v>5</v>
-      </c>
-      <c r="L23" s="11"/>
-      <c r="O23" s="14"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12">
+        <v>6</v>
+      </c>
+      <c r="L23" s="10"/>
+      <c r="O23" s="12"/>
       <c r="Q23" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2405,22 +2410,22 @@
       <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>220041700027</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="12">
         <v>6</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="12">
         <v>12</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="12">
         <v>13</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="12">
         <v>4.5</v>
       </c>
       <c r="H24" s="2">
@@ -2430,12 +2435,12 @@
       <c r="I24" s="2">
         <v>5</v>
       </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14">
+      <c r="J24" s="12"/>
+      <c r="K24" s="12">
         <v>23</v>
       </c>
-      <c r="L24" s="11"/>
-      <c r="O24" s="14">
+      <c r="L24" s="10"/>
+      <c r="O24" s="12">
         <v>40</v>
       </c>
       <c r="Q24" s="2">
@@ -2468,22 +2473,22 @@
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>220041700028</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="12">
         <v>14</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="12">
         <v>24</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="12">
         <v>22</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="12">
         <v>5</v>
       </c>
       <c r="H25" s="2">
@@ -2493,12 +2498,12 @@
       <c r="I25" s="2">
         <v>5</v>
       </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14">
+      <c r="J25" s="12"/>
+      <c r="K25" s="12">
         <v>33</v>
       </c>
-      <c r="L25" s="11"/>
-      <c r="O25" s="14">
+      <c r="L25" s="10"/>
+      <c r="O25" s="12">
         <v>40</v>
       </c>
       <c r="Q25" s="2">
@@ -2531,22 +2536,22 @@
       <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>220041700029</v>
       </c>
-      <c r="D26" s="14">
-        <v>4</v>
-      </c>
-      <c r="E26" s="14">
+      <c r="D26" s="12">
+        <v>4</v>
+      </c>
+      <c r="E26" s="12">
         <v>9</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="12">
         <v>6</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="12">
         <v>5</v>
       </c>
       <c r="H26" s="2">
@@ -2556,12 +2561,12 @@
       <c r="I26" s="2">
         <v>5</v>
       </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14">
+      <c r="J26" s="12"/>
+      <c r="K26" s="12">
         <v>16</v>
       </c>
-      <c r="L26" s="11"/>
-      <c r="O26" s="14">
+      <c r="L26" s="10"/>
+      <c r="O26" s="12">
         <v>40</v>
       </c>
       <c r="Q26" s="2">
@@ -2594,22 +2599,22 @@
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>220041700031</v>
       </c>
-      <c r="D27" s="14">
-        <v>5</v>
-      </c>
-      <c r="E27" s="14">
+      <c r="D27" s="12">
+        <v>5</v>
+      </c>
+      <c r="E27" s="12">
         <v>14</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="12">
         <v>12</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="12">
         <v>4</v>
       </c>
       <c r="H27" s="2">
@@ -2619,12 +2624,12 @@
       <c r="I27" s="2">
         <v>5</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14">
+      <c r="J27" s="12"/>
+      <c r="K27" s="12">
         <v>22</v>
       </c>
-      <c r="L27" s="11"/>
-      <c r="O27" s="14">
+      <c r="L27" s="10"/>
+      <c r="O27" s="12">
         <v>35</v>
       </c>
       <c r="Q27" s="2">
@@ -2657,22 +2662,22 @@
       <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>220041700033</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="12">
         <v>12</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="12">
         <v>13</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="12">
         <v>12</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="12">
         <v>4</v>
       </c>
       <c r="H28" s="2">
@@ -2682,12 +2687,12 @@
       <c r="I28" s="2">
         <v>5</v>
       </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14">
+      <c r="J28" s="12"/>
+      <c r="K28" s="12">
         <v>21</v>
       </c>
-      <c r="L28" s="11"/>
-      <c r="O28" s="14">
+      <c r="L28" s="10"/>
+      <c r="O28" s="12">
         <v>40</v>
       </c>
       <c r="Q28" s="2">
@@ -2720,22 +2725,22 @@
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>220041700034</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="12">
         <v>12</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="12">
         <v>15</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="12">
         <v>14</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="12">
         <v>5</v>
       </c>
       <c r="H29" s="2">
@@ -2745,12 +2750,12 @@
       <c r="I29" s="2">
         <v>5</v>
       </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14">
+      <c r="J29" s="12"/>
+      <c r="K29" s="12">
         <v>23</v>
       </c>
-      <c r="L29" s="11"/>
-      <c r="O29" s="14">
+      <c r="L29" s="10"/>
+      <c r="O29" s="12">
         <v>40</v>
       </c>
       <c r="Q29" s="2">
@@ -2783,22 +2788,22 @@
       <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>220041700035</v>
       </c>
-      <c r="D30" s="14">
-        <v>3</v>
-      </c>
-      <c r="E30" s="14">
+      <c r="D30" s="12">
+        <v>3</v>
+      </c>
+      <c r="E30" s="12">
         <v>12</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="12">
         <v>14</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="12">
         <v>4</v>
       </c>
       <c r="H30" s="2">
@@ -2808,12 +2813,12 @@
       <c r="I30" s="2">
         <v>5</v>
       </c>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14">
+      <c r="J30" s="12"/>
+      <c r="K30" s="12">
         <v>23</v>
       </c>
-      <c r="L30" s="11"/>
-      <c r="O30" s="14">
+      <c r="L30" s="10"/>
+      <c r="O30" s="12">
         <v>40</v>
       </c>
       <c r="Q30" s="2">
@@ -2846,22 +2851,22 @@
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>220041700036</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="12">
         <v>17</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="12">
         <v>20</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="12">
         <v>25</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="12">
         <v>5</v>
       </c>
       <c r="H31" s="2">
@@ -2871,12 +2876,12 @@
       <c r="I31" s="2">
         <v>5</v>
       </c>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14">
+      <c r="J31" s="12"/>
+      <c r="K31" s="12">
         <v>32</v>
       </c>
-      <c r="L31" s="11"/>
-      <c r="O31" s="14">
+      <c r="L31" s="10"/>
+      <c r="O31" s="12">
         <v>40</v>
       </c>
       <c r="Q31" s="2">
@@ -2909,22 +2914,22 @@
       <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>220041700037</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E32" s="14">
-        <v>5</v>
-      </c>
-      <c r="F32" s="14" t="s">
+      <c r="E32" s="12">
+        <v>5</v>
+      </c>
+      <c r="F32" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="11">
         <v>0</v>
       </c>
       <c r="H32" s="2">
@@ -2934,12 +2939,12 @@
       <c r="I32" s="2">
         <v>0</v>
       </c>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14">
-        <v>3</v>
-      </c>
-      <c r="L32" s="11"/>
-      <c r="O32" s="14"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12">
+        <v>3</v>
+      </c>
+      <c r="L32" s="10"/>
+      <c r="O32" s="12"/>
       <c r="Q32" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2970,22 +2975,22 @@
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>220041700038</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="12">
         <v>7</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="12">
         <v>2</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="12">
         <v>12</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="11">
         <v>0</v>
       </c>
       <c r="H33" s="2">
@@ -2995,12 +3000,12 @@
       <c r="I33" s="2">
         <v>0</v>
       </c>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14">
+      <c r="J33" s="12"/>
+      <c r="K33" s="12">
         <v>11</v>
       </c>
-      <c r="L33" s="11"/>
-      <c r="O33" s="14"/>
+      <c r="L33" s="10"/>
+      <c r="O33" s="12"/>
       <c r="Q33" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3031,22 +3036,22 @@
       <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>220041700039</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="12">
         <v>13</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="12">
         <v>20</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="12">
         <v>19</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="11">
         <v>0</v>
       </c>
       <c r="H34" s="2">
@@ -3056,12 +3061,12 @@
       <c r="I34" s="2">
         <v>5</v>
       </c>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14">
-        <v>26</v>
-      </c>
-      <c r="L34" s="11"/>
-      <c r="O34" s="14">
+      <c r="J34" s="12"/>
+      <c r="K34" s="12">
+        <v>27</v>
+      </c>
+      <c r="L34" s="10"/>
+      <c r="O34" s="12">
         <v>40</v>
       </c>
       <c r="Q34" s="2">
@@ -3094,22 +3099,22 @@
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>220041700040</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="12">
         <v>7</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="12">
         <v>6</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="12">
         <v>16</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="11">
         <v>0</v>
       </c>
       <c r="H35" s="2">
@@ -3119,12 +3124,12 @@
       <c r="I35" s="2">
         <v>5</v>
       </c>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14">
-        <v>20</v>
-      </c>
-      <c r="L35" s="11"/>
-      <c r="O35" s="14">
+      <c r="J35" s="12"/>
+      <c r="K35" s="12">
+        <v>21</v>
+      </c>
+      <c r="L35" s="10"/>
+      <c r="O35" s="12">
         <v>30</v>
       </c>
       <c r="Q35" s="2">
@@ -3157,22 +3162,22 @@
       <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>220041700042</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="12">
         <v>7</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="12">
         <v>6</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="12">
         <v>12</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="11">
         <v>0</v>
       </c>
       <c r="H36" s="2">
@@ -3182,12 +3187,12 @@
       <c r="I36" s="2">
         <v>0</v>
       </c>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14">
-        <v>11</v>
-      </c>
-      <c r="L36" s="11"/>
-      <c r="O36" s="14"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12">
+        <v>16</v>
+      </c>
+      <c r="L36" s="10"/>
+      <c r="O36" s="12"/>
       <c r="Q36" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3218,22 +3223,22 @@
       <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>220041700043</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="12">
         <v>16</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="12">
         <v>15</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="12">
         <v>7</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="11">
         <v>0</v>
       </c>
       <c r="H37" s="2">
@@ -3243,12 +3248,12 @@
       <c r="I37" s="2">
         <v>5</v>
       </c>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14">
+      <c r="J37" s="12"/>
+      <c r="K37" s="12">
         <v>21</v>
       </c>
-      <c r="L37" s="11"/>
-      <c r="O37" s="14">
+      <c r="L37" s="10"/>
+      <c r="O37" s="12">
         <v>40</v>
       </c>
       <c r="Q37" s="2">
@@ -3281,22 +3286,22 @@
       <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="7">
         <v>220041700044</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="12">
         <v>12</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="12">
         <v>10</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="12">
         <v>15</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="12">
         <v>5</v>
       </c>
       <c r="H38" s="2">
@@ -3306,12 +3311,12 @@
       <c r="I38" s="2">
         <v>5</v>
       </c>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14">
+      <c r="J38" s="12"/>
+      <c r="K38" s="12">
         <v>23</v>
       </c>
-      <c r="L38" s="11"/>
-      <c r="O38" s="14">
+      <c r="L38" s="10"/>
+      <c r="O38" s="12">
         <v>40</v>
       </c>
       <c r="Q38" s="2">
@@ -3344,22 +3349,22 @@
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>220041700045</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="12">
         <v>8</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="12">
         <v>18</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="12">
         <v>7</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="12">
         <v>4.5</v>
       </c>
       <c r="H39" s="2">
@@ -3369,12 +3374,12 @@
       <c r="I39" s="2">
         <v>5</v>
       </c>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14">
+      <c r="J39" s="12"/>
+      <c r="K39" s="12">
         <v>22</v>
       </c>
-      <c r="L39" s="11"/>
-      <c r="O39" s="14">
+      <c r="L39" s="10"/>
+      <c r="O39" s="12">
         <v>40</v>
       </c>
       <c r="Q39" s="2">
@@ -3407,22 +3412,22 @@
       <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="7">
         <v>220041700046</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="12">
         <v>8</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="12">
         <v>18</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40" s="12">
         <v>10</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G40" s="12">
         <v>4.5</v>
       </c>
       <c r="H40" s="2">
@@ -3432,12 +3437,12 @@
       <c r="I40" s="2">
         <v>5</v>
       </c>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14">
+      <c r="J40" s="12"/>
+      <c r="K40" s="12">
         <v>23</v>
       </c>
-      <c r="L40" s="11"/>
-      <c r="O40" s="14">
+      <c r="L40" s="10"/>
+      <c r="O40" s="12">
         <v>40</v>
       </c>
       <c r="Q40" s="2">
@@ -3470,22 +3475,22 @@
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <v>220041700048</v>
       </c>
-      <c r="D41" s="14">
-        <v>4</v>
-      </c>
-      <c r="E41" s="14">
-        <v>3</v>
-      </c>
-      <c r="F41" s="14">
+      <c r="D41" s="12">
+        <v>4</v>
+      </c>
+      <c r="E41" s="12">
+        <v>3</v>
+      </c>
+      <c r="F41" s="12">
         <v>8</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="11">
         <v>0</v>
       </c>
       <c r="H41" s="2">
@@ -3495,12 +3500,12 @@
       <c r="I41" s="2">
         <v>0</v>
       </c>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14">
+      <c r="J41" s="12"/>
+      <c r="K41" s="12">
         <v>8</v>
       </c>
-      <c r="L41" s="11"/>
-      <c r="O41" s="14"/>
+      <c r="L41" s="10"/>
+      <c r="O41" s="12"/>
       <c r="Q41" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3531,22 +3536,22 @@
       <c r="A42" s="2">
         <v>40</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="7">
         <v>220041700049</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="12">
         <v>13</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="12">
         <v>12</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="12">
         <v>24</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="11">
         <v>0</v>
       </c>
       <c r="H42" s="2">
@@ -3556,12 +3561,12 @@
       <c r="I42" s="2">
         <v>5</v>
       </c>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14">
+      <c r="J42" s="12"/>
+      <c r="K42" s="12">
         <v>26</v>
       </c>
-      <c r="L42" s="11"/>
-      <c r="O42" s="14">
+      <c r="L42" s="10"/>
+      <c r="O42" s="12">
         <v>40</v>
       </c>
       <c r="Q42" s="2">
@@ -3594,22 +3599,22 @@
       <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="7">
         <v>220041700051</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="12">
         <v>12</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="12">
         <v>20</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F43" s="12">
         <v>19</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G43" s="12">
         <v>5</v>
       </c>
       <c r="H43" s="2">
@@ -3619,12 +3624,12 @@
       <c r="I43" s="2">
         <v>5</v>
       </c>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14">
-        <v>27</v>
-      </c>
-      <c r="L43" s="11"/>
-      <c r="O43" s="14">
+      <c r="J43" s="12"/>
+      <c r="K43" s="12">
+        <v>28</v>
+      </c>
+      <c r="L43" s="10"/>
+      <c r="O43" s="12">
         <v>40</v>
       </c>
       <c r="Q43" s="2">
@@ -3657,22 +3662,22 @@
       <c r="A44" s="2">
         <v>42</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="7">
         <v>220041700052</v>
       </c>
-      <c r="D44" s="14">
-        <v>5</v>
-      </c>
-      <c r="E44" s="14">
+      <c r="D44" s="12">
+        <v>5</v>
+      </c>
+      <c r="E44" s="12">
         <v>14</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F44" s="12">
         <v>10</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G44" s="12">
         <v>3</v>
       </c>
       <c r="H44" s="2">
@@ -3682,12 +3687,12 @@
       <c r="I44" s="2">
         <v>5</v>
       </c>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14">
+      <c r="J44" s="12"/>
+      <c r="K44" s="12">
         <v>21</v>
       </c>
-      <c r="L44" s="11"/>
-      <c r="O44" s="14">
+      <c r="L44" s="10"/>
+      <c r="O44" s="12">
         <v>40</v>
       </c>
       <c r="Q44" s="2">
@@ -3720,22 +3725,22 @@
       <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>220041700054</v>
       </c>
-      <c r="D45" s="14">
-        <v>3</v>
-      </c>
-      <c r="E45" s="14">
-        <v>4</v>
-      </c>
-      <c r="F45" s="14">
+      <c r="D45" s="12">
+        <v>3</v>
+      </c>
+      <c r="E45" s="12">
+        <v>4</v>
+      </c>
+      <c r="F45" s="12">
         <v>14</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G45" s="12">
         <v>3.5</v>
       </c>
       <c r="H45" s="2">
@@ -3745,12 +3750,12 @@
       <c r="I45" s="2">
         <v>5</v>
       </c>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14">
-        <v>19</v>
-      </c>
-      <c r="L45" s="11"/>
-      <c r="O45" s="14">
+      <c r="J45" s="12"/>
+      <c r="K45" s="12">
+        <v>20</v>
+      </c>
+      <c r="L45" s="10"/>
+      <c r="O45" s="12">
         <v>40</v>
       </c>
       <c r="Q45" s="2">
@@ -3783,22 +3788,22 @@
       <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="7">
         <v>220041700055</v>
       </c>
-      <c r="D46" s="14">
-        <v>0</v>
-      </c>
-      <c r="E46" s="14" t="s">
+      <c r="D46" s="12">
+        <v>0</v>
+      </c>
+      <c r="E46" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G46" s="12">
         <v>4.5</v>
       </c>
       <c r="H46" s="2">
@@ -3808,12 +3813,12 @@
       <c r="I46" s="2">
         <v>0</v>
       </c>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14">
-        <v>4</v>
-      </c>
-      <c r="L46" s="11"/>
-      <c r="O46" s="14"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12">
+        <v>4</v>
+      </c>
+      <c r="L46" s="10"/>
+      <c r="O46" s="12"/>
       <c r="Q46" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3844,22 +3849,22 @@
       <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="7">
         <v>220041700056</v>
       </c>
-      <c r="D47" s="14">
-        <v>5</v>
-      </c>
-      <c r="E47" s="14">
+      <c r="D47" s="12">
+        <v>5</v>
+      </c>
+      <c r="E47" s="12">
         <v>16</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="12">
         <v>6</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G47" s="12">
         <v>5</v>
       </c>
       <c r="H47" s="2">
@@ -3869,12 +3874,12 @@
       <c r="I47" s="2">
         <v>5</v>
       </c>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14">
+      <c r="J47" s="12"/>
+      <c r="K47" s="12">
         <v>20</v>
       </c>
-      <c r="L47" s="11"/>
-      <c r="O47" s="14">
+      <c r="L47" s="10"/>
+      <c r="O47" s="12">
         <v>40</v>
       </c>
       <c r="Q47" s="2">
@@ -3907,22 +3912,22 @@
       <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="7">
         <v>220041700057</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D48" s="12">
         <v>6</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="12">
         <v>16</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F48" s="12">
         <v>9</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G48" s="12">
         <v>3</v>
       </c>
       <c r="H48" s="2">
@@ -3932,12 +3937,12 @@
       <c r="I48" s="2">
         <v>5</v>
       </c>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14">
+      <c r="J48" s="12"/>
+      <c r="K48" s="12">
         <v>21</v>
       </c>
-      <c r="L48" s="11"/>
-      <c r="O48" s="14">
+      <c r="L48" s="10"/>
+      <c r="O48" s="12">
         <v>40</v>
       </c>
       <c r="Q48" s="2">
@@ -3970,22 +3975,22 @@
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="7">
         <v>220041700058</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="12">
         <v>2</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G49" s="11">
         <v>0</v>
       </c>
       <c r="H49" s="2">
@@ -3995,12 +4000,12 @@
       <c r="I49" s="2">
         <v>0</v>
       </c>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14">
+      <c r="J49" s="12"/>
+      <c r="K49" s="12">
         <v>1</v>
       </c>
-      <c r="L49" s="11"/>
-      <c r="O49" s="14"/>
+      <c r="L49" s="10"/>
+      <c r="O49" s="12"/>
       <c r="Q49" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4031,22 +4036,22 @@
       <c r="A50" s="2">
         <v>48</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="7">
         <v>220041700059</v>
       </c>
-      <c r="D50" s="14">
-        <v>3</v>
-      </c>
-      <c r="E50" s="14" t="s">
+      <c r="D50" s="12">
+        <v>3</v>
+      </c>
+      <c r="E50" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="F50" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G50" s="11">
         <v>0</v>
       </c>
       <c r="H50" s="2">
@@ -4056,12 +4061,12 @@
       <c r="I50" s="2">
         <v>0</v>
       </c>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14">
+      <c r="J50" s="12"/>
+      <c r="K50" s="12">
         <v>2</v>
       </c>
-      <c r="L50" s="11"/>
-      <c r="O50" s="14"/>
+      <c r="L50" s="10"/>
+      <c r="O50" s="12"/>
       <c r="Q50" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4092,22 +4097,22 @@
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="7">
         <v>220041700060</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="12">
         <v>9</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="12">
         <v>14</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F51" s="12">
         <v>13</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="12">
         <v>4.5</v>
       </c>
       <c r="H51" s="2">
@@ -4117,12 +4122,12 @@
       <c r="I51" s="2">
         <v>5</v>
       </c>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14">
+      <c r="J51" s="12"/>
+      <c r="K51" s="12">
         <v>21</v>
       </c>
-      <c r="L51" s="11"/>
-      <c r="O51" s="14">
+      <c r="L51" s="10"/>
+      <c r="O51" s="12">
         <v>40</v>
       </c>
       <c r="Q51" s="2">
@@ -4155,22 +4160,22 @@
       <c r="A52" s="2">
         <v>50</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="7">
         <v>220041700061</v>
       </c>
-      <c r="D52" s="14">
-        <v>3</v>
-      </c>
-      <c r="E52" s="14">
+      <c r="D52" s="12">
+        <v>3</v>
+      </c>
+      <c r="E52" s="12">
         <v>8</v>
       </c>
-      <c r="F52" s="14">
-        <v>3</v>
-      </c>
-      <c r="G52" s="13">
+      <c r="F52" s="12">
+        <v>3</v>
+      </c>
+      <c r="G52" s="11">
         <v>0</v>
       </c>
       <c r="H52" s="2">
@@ -4180,12 +4185,12 @@
       <c r="I52" s="2">
         <v>0</v>
       </c>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14">
-        <v>11</v>
-      </c>
-      <c r="L52" s="11"/>
-      <c r="O52" s="14">
+      <c r="J52" s="12"/>
+      <c r="K52" s="12">
+        <v>16</v>
+      </c>
+      <c r="L52" s="10"/>
+      <c r="O52" s="12">
         <v>30</v>
       </c>
       <c r="Q52" s="2">
@@ -4218,22 +4223,22 @@
       <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="7">
         <v>220041700063</v>
       </c>
-      <c r="D53" s="14">
-        <v>0</v>
-      </c>
-      <c r="E53" s="14" t="s">
+      <c r="D53" s="12">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F53" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G53" s="12">
         <v>4</v>
       </c>
       <c r="H53" s="2">
@@ -4243,12 +4248,12 @@
       <c r="I53" s="2">
         <v>5</v>
       </c>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14">
+      <c r="J53" s="12"/>
+      <c r="K53" s="12">
         <v>6</v>
       </c>
-      <c r="L53" s="11"/>
-      <c r="O53" s="14"/>
+      <c r="L53" s="10"/>
+      <c r="O53" s="12"/>
       <c r="Q53" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4279,22 +4284,22 @@
       <c r="A54" s="2">
         <v>52</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="7">
         <v>220041700064</v>
       </c>
-      <c r="D54" s="14">
-        <v>5</v>
-      </c>
-      <c r="E54" s="14">
+      <c r="D54" s="12">
+        <v>5</v>
+      </c>
+      <c r="E54" s="12">
         <v>9</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F54" s="12">
         <v>12</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G54" s="11">
         <v>0</v>
       </c>
       <c r="H54" s="2">
@@ -4304,12 +4309,12 @@
       <c r="I54" s="2">
         <v>5</v>
       </c>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14">
-        <v>18</v>
-      </c>
-      <c r="L54" s="11"/>
-      <c r="O54" s="14">
+      <c r="J54" s="12"/>
+      <c r="K54" s="12">
+        <v>20</v>
+      </c>
+      <c r="L54" s="10"/>
+      <c r="O54" s="12">
         <v>40</v>
       </c>
       <c r="Q54" s="2">
@@ -4342,22 +4347,22 @@
       <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="7">
         <v>220041700065</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="12">
         <v>13</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="12">
         <v>18</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F55" s="12">
         <v>17</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G55" s="12">
         <v>5</v>
       </c>
       <c r="H55" s="2">
@@ -4367,12 +4372,12 @@
       <c r="I55" s="2">
         <v>5</v>
       </c>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14">
+      <c r="J55" s="12"/>
+      <c r="K55" s="12">
         <v>27</v>
       </c>
-      <c r="L55" s="11"/>
-      <c r="O55" s="14">
+      <c r="L55" s="10"/>
+      <c r="O55" s="12">
         <v>40</v>
       </c>
       <c r="Q55" s="2">
@@ -4405,22 +4410,22 @@
       <c r="A56" s="2">
         <v>54</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="7">
         <v>220041700066</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D56" s="12">
         <v>9</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56" s="12">
         <v>23</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F56" s="12">
         <v>20</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G56" s="12">
         <v>4.5</v>
       </c>
       <c r="H56" s="2">
@@ -4430,12 +4435,12 @@
       <c r="I56" s="2">
         <v>5</v>
       </c>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14">
+      <c r="J56" s="12"/>
+      <c r="K56" s="12">
         <v>31</v>
       </c>
-      <c r="L56" s="11"/>
-      <c r="O56" s="14">
+      <c r="L56" s="10"/>
+      <c r="O56" s="12">
         <v>40</v>
       </c>
       <c r="Q56" s="2">
@@ -4468,22 +4473,22 @@
       <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="7">
         <v>220041700067</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="12">
         <v>20</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="12">
         <v>21</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F57" s="12">
         <v>20</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G57" s="12">
         <v>5</v>
       </c>
       <c r="H57" s="2">
@@ -4493,12 +4498,12 @@
       <c r="I57" s="2">
         <v>5</v>
       </c>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14">
+      <c r="J57" s="12"/>
+      <c r="K57" s="12">
         <v>30</v>
       </c>
-      <c r="L57" s="11"/>
-      <c r="O57" s="14">
+      <c r="L57" s="10"/>
+      <c r="O57" s="12">
         <v>40</v>
       </c>
       <c r="Q57" s="2">
@@ -4534,19 +4539,19 @@
       <c r="B58" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="8">
         <v>220041723001</v>
       </c>
-      <c r="D58" s="14">
-        <v>3</v>
-      </c>
-      <c r="E58" s="14">
+      <c r="D58" s="12">
+        <v>3</v>
+      </c>
+      <c r="E58" s="12">
         <v>9</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F58" s="12">
         <v>22</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G58" s="12">
         <v>4.5</v>
       </c>
       <c r="H58" s="2">
@@ -4556,12 +4561,12 @@
       <c r="I58" s="2">
         <v>5</v>
       </c>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14">
+      <c r="J58" s="12"/>
+      <c r="K58" s="12">
         <v>25</v>
       </c>
-      <c r="L58" s="11"/>
-      <c r="O58" s="14">
+      <c r="L58" s="10"/>
+      <c r="O58" s="12">
         <v>40</v>
       </c>
       <c r="Q58" s="2">
@@ -4597,19 +4602,19 @@
       <c r="B59" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="8">
         <v>220041723002</v>
       </c>
-      <c r="D59" s="14">
-        <v>4</v>
-      </c>
-      <c r="E59" s="14">
+      <c r="D59" s="12">
+        <v>4</v>
+      </c>
+      <c r="E59" s="12">
         <v>12</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F59" s="12">
         <v>6</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G59" s="12">
         <v>4</v>
       </c>
       <c r="H59" s="2">
@@ -4619,12 +4624,12 @@
       <c r="I59" s="2">
         <v>5</v>
       </c>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14">
-        <v>18</v>
-      </c>
-      <c r="L59" s="11"/>
-      <c r="O59" s="14"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12">
+        <v>20</v>
+      </c>
+      <c r="L59" s="10"/>
+      <c r="O59" s="12"/>
       <c r="Q59" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4658,19 +4663,19 @@
       <c r="B60" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="8">
         <v>220041723003</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D60" s="12">
         <v>17</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60" s="12">
         <v>18</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F60" s="12">
         <v>15</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="12">
         <v>5</v>
       </c>
       <c r="H60" s="2">
@@ -4680,12 +4685,12 @@
       <c r="I60" s="2">
         <v>5</v>
       </c>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14">
+      <c r="J60" s="12"/>
+      <c r="K60" s="12">
         <v>26</v>
       </c>
-      <c r="L60" s="11"/>
-      <c r="O60" s="14">
+      <c r="L60" s="10"/>
+      <c r="O60" s="12">
         <v>35</v>
       </c>
       <c r="Q60" s="2">
@@ -4721,19 +4726,19 @@
       <c r="B61" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="8">
         <v>220041723004</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D61" s="12">
         <v>17</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61" s="12">
         <v>24</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F61" s="12">
         <v>19</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G61" s="12">
         <v>5</v>
       </c>
       <c r="H61" s="2">
@@ -4743,12 +4748,12 @@
       <c r="I61" s="2">
         <v>5</v>
       </c>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14">
+      <c r="J61" s="12"/>
+      <c r="K61" s="12">
         <v>31</v>
       </c>
-      <c r="L61" s="11"/>
-      <c r="O61" s="14">
+      <c r="L61" s="10"/>
+      <c r="O61" s="12">
         <v>40</v>
       </c>
       <c r="Q61" s="2">
@@ -4784,19 +4789,19 @@
       <c r="B62" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C62" s="12">
+      <c r="C62" s="8">
         <v>220041723005</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D62" s="12">
         <v>21</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E62" s="12">
         <v>29</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F62" s="12">
         <v>24</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G62" s="12">
         <v>4.5</v>
       </c>
       <c r="H62" s="2">
@@ -4806,12 +4811,12 @@
       <c r="I62" s="2">
         <v>5</v>
       </c>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14">
+      <c r="J62" s="12"/>
+      <c r="K62" s="12">
         <v>37</v>
       </c>
-      <c r="L62" s="11"/>
-      <c r="O62" s="14">
+      <c r="L62" s="10"/>
+      <c r="O62" s="12">
         <v>40</v>
       </c>
       <c r="Q62" s="2">
@@ -4847,19 +4852,19 @@
       <c r="B63" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C63" s="8">
         <v>220041723006</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D63" s="12">
         <v>2</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E63" s="12">
         <v>13</v>
       </c>
-      <c r="F63" s="14" t="s">
+      <c r="F63" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G63" s="11">
         <v>0</v>
       </c>
       <c r="H63" s="2">
@@ -4869,12 +4874,12 @@
       <c r="I63" s="2">
         <v>0</v>
       </c>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14">
-        <v>17</v>
-      </c>
-      <c r="L63" s="11"/>
-      <c r="O63" s="14"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12">
+        <v>9</v>
+      </c>
+      <c r="L63" s="10"/>
+      <c r="O63" s="12"/>
       <c r="Q63" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4908,19 +4913,19 @@
       <c r="B64" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="8">
         <v>220041723007</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D64" s="12">
         <v>12</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E64" s="12">
         <v>15</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F64" s="12">
         <v>17</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G64" s="12">
         <v>5</v>
       </c>
       <c r="H64" s="2">
@@ -4930,12 +4935,12 @@
       <c r="I64" s="2">
         <v>0</v>
       </c>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14">
+      <c r="J64" s="12"/>
+      <c r="K64" s="12">
         <v>21</v>
       </c>
-      <c r="L64" s="11"/>
-      <c r="O64" s="14">
+      <c r="L64" s="10"/>
+      <c r="O64" s="12">
         <v>40</v>
       </c>
       <c r="Q64" s="2">
@@ -4971,19 +4976,19 @@
       <c r="B65" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="8">
         <v>220041723008</v>
       </c>
-      <c r="D65" s="14">
-        <v>3</v>
-      </c>
-      <c r="E65" s="14">
+      <c r="D65" s="12">
+        <v>3</v>
+      </c>
+      <c r="E65" s="12">
         <v>8</v>
       </c>
-      <c r="F65" s="14">
-        <v>5</v>
-      </c>
-      <c r="G65" s="14">
+      <c r="F65" s="12">
+        <v>5</v>
+      </c>
+      <c r="G65" s="12">
         <v>4.5</v>
       </c>
       <c r="H65" s="2">
@@ -4993,12 +4998,12 @@
       <c r="I65" s="2">
         <v>5</v>
       </c>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14">
+      <c r="J65" s="12"/>
+      <c r="K65" s="12">
         <v>16</v>
       </c>
-      <c r="L65" s="11"/>
-      <c r="O65" s="14">
+      <c r="L65" s="10"/>
+      <c r="O65" s="12">
         <v>40</v>
       </c>
       <c r="Q65" s="2">
@@ -5034,19 +5039,19 @@
       <c r="B66" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="8">
         <v>220041723009</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D66" s="12">
         <v>19</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E66" s="12">
         <v>17</v>
       </c>
-      <c r="F66" s="14">
+      <c r="F66" s="12">
         <v>17</v>
       </c>
-      <c r="G66" s="14">
+      <c r="G66" s="12">
         <v>5</v>
       </c>
       <c r="H66" s="2">
@@ -5056,12 +5061,12 @@
       <c r="I66" s="2">
         <v>5</v>
       </c>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14">
+      <c r="J66" s="12"/>
+      <c r="K66" s="12">
         <v>26</v>
       </c>
-      <c r="L66" s="11"/>
-      <c r="O66" s="14">
+      <c r="L66" s="10"/>
+      <c r="O66" s="12">
         <v>40</v>
       </c>
       <c r="Q66" s="2">
@@ -5097,19 +5102,19 @@
       <c r="B67" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C67" s="12">
+      <c r="C67" s="8">
         <v>220041723011</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D67" s="12">
         <v>13</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E67" s="12">
         <v>8</v>
       </c>
-      <c r="F67" s="14">
+      <c r="F67" s="12">
         <v>20</v>
       </c>
-      <c r="G67" s="14">
+      <c r="G67" s="12">
         <v>5</v>
       </c>
       <c r="H67" s="2">
@@ -5119,12 +5124,12 @@
       <c r="I67" s="2">
         <v>5</v>
       </c>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14">
+      <c r="J67" s="12"/>
+      <c r="K67" s="12">
         <v>25</v>
       </c>
-      <c r="L67" s="11"/>
-      <c r="O67" s="14">
+      <c r="L67" s="10"/>
+      <c r="O67" s="12">
         <v>40</v>
       </c>
       <c r="Q67" s="2">
@@ -5160,19 +5165,19 @@
       <c r="B68" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="8">
         <v>220041723012</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D68" s="12">
         <v>14</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E68" s="12">
         <v>22</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F68" s="12">
         <v>21</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G68" s="11">
         <v>0</v>
       </c>
       <c r="H68" s="2">
@@ -5182,12 +5187,12 @@
       <c r="I68" s="2">
         <v>5</v>
       </c>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14">
+      <c r="J68" s="12"/>
+      <c r="K68" s="12">
         <v>28</v>
       </c>
-      <c r="L68" s="11"/>
-      <c r="O68" s="14"/>
+      <c r="L68" s="10"/>
+      <c r="O68" s="12"/>
       <c r="Q68" s="2">
         <f t="shared" ref="Q68:Q131" si="6">O68*5/40</f>
         <v>0</v>
@@ -5221,19 +5226,19 @@
       <c r="B69" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C69" s="12">
+      <c r="C69" s="8">
         <v>220041723013</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D69" s="12">
         <v>9</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E69" s="12">
         <v>14</v>
       </c>
-      <c r="F69" s="14">
+      <c r="F69" s="12">
         <v>12</v>
       </c>
-      <c r="G69" s="14">
+      <c r="G69" s="12">
         <v>4.5</v>
       </c>
       <c r="H69" s="2">
@@ -5243,12 +5248,12 @@
       <c r="I69" s="2">
         <v>5</v>
       </c>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14">
+      <c r="J69" s="12"/>
+      <c r="K69" s="12">
         <v>22</v>
       </c>
-      <c r="L69" s="11"/>
-      <c r="O69" s="14">
+      <c r="L69" s="10"/>
+      <c r="O69" s="12">
         <v>40</v>
       </c>
       <c r="Q69" s="2">
@@ -5284,19 +5289,19 @@
       <c r="B70" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C70" s="12">
+      <c r="C70" s="8">
         <v>220041723014</v>
       </c>
-      <c r="D70" s="14">
-        <v>3</v>
-      </c>
-      <c r="E70" s="14">
+      <c r="D70" s="12">
+        <v>3</v>
+      </c>
+      <c r="E70" s="12">
         <v>12</v>
       </c>
-      <c r="F70" s="14">
+      <c r="F70" s="12">
         <v>16</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G70" s="12">
         <v>5</v>
       </c>
       <c r="H70" s="2">
@@ -5306,12 +5311,12 @@
       <c r="I70" s="2">
         <v>5</v>
       </c>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14">
+      <c r="J70" s="12"/>
+      <c r="K70" s="12">
         <v>24</v>
       </c>
-      <c r="L70" s="11"/>
-      <c r="O70" s="14">
+      <c r="L70" s="10"/>
+      <c r="O70" s="12">
         <v>40</v>
       </c>
       <c r="Q70" s="2">
@@ -5347,19 +5352,19 @@
       <c r="B71" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C71" s="12">
+      <c r="C71" s="8">
         <v>220041723015</v>
       </c>
-      <c r="D71" s="14">
-        <v>4</v>
-      </c>
-      <c r="E71" s="14">
+      <c r="D71" s="12">
+        <v>4</v>
+      </c>
+      <c r="E71" s="12">
         <v>12</v>
       </c>
-      <c r="F71" s="14">
+      <c r="F71" s="12">
         <v>16</v>
       </c>
-      <c r="G71" s="14">
+      <c r="G71" s="12">
         <v>5</v>
       </c>
       <c r="H71" s="2">
@@ -5369,12 +5374,12 @@
       <c r="I71" s="2">
         <v>5</v>
       </c>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14">
-        <v>21</v>
-      </c>
-      <c r="L71" s="11"/>
-      <c r="O71" s="14">
+      <c r="J71" s="12"/>
+      <c r="K71" s="12">
+        <v>22</v>
+      </c>
+      <c r="L71" s="10"/>
+      <c r="O71" s="12">
         <v>40</v>
       </c>
       <c r="Q71" s="2">
@@ -5410,19 +5415,19 @@
       <c r="B72" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C72" s="12">
+      <c r="C72" s="8">
         <v>220041723016</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D72" s="12">
         <v>21</v>
       </c>
-      <c r="E72" s="14">
+      <c r="E72" s="12">
         <v>26</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F72" s="12">
         <v>13</v>
       </c>
-      <c r="G72" s="14">
+      <c r="G72" s="12">
         <v>5</v>
       </c>
       <c r="H72" s="2">
@@ -5432,12 +5437,12 @@
       <c r="I72" s="2">
         <v>5</v>
       </c>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14">
+      <c r="J72" s="12"/>
+      <c r="K72" s="12">
         <v>33</v>
       </c>
-      <c r="L72" s="11"/>
-      <c r="O72" s="14">
+      <c r="L72" s="10"/>
+      <c r="O72" s="12">
         <v>40</v>
       </c>
       <c r="Q72" s="2">
@@ -5473,19 +5478,19 @@
       <c r="B73" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="8">
         <v>210041700070</v>
       </c>
-      <c r="D73" s="14">
-        <v>5</v>
-      </c>
-      <c r="E73" s="14">
+      <c r="D73" s="12">
+        <v>5</v>
+      </c>
+      <c r="E73" s="12">
         <v>17</v>
       </c>
-      <c r="F73" s="14">
+      <c r="F73" s="12">
         <v>14</v>
       </c>
-      <c r="G73" s="14">
+      <c r="G73" s="12">
         <v>5</v>
       </c>
       <c r="H73" s="2">
@@ -5495,12 +5500,12 @@
       <c r="I73" s="2">
         <v>5</v>
       </c>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14">
-        <v>23</v>
-      </c>
-      <c r="L73" s="11"/>
-      <c r="O73" s="14">
+      <c r="J73" s="12"/>
+      <c r="K73" s="12">
+        <v>24</v>
+      </c>
+      <c r="L73" s="10"/>
+      <c r="O73" s="12">
         <v>40</v>
       </c>
       <c r="Q73" s="2">
@@ -5536,19 +5541,19 @@
       <c r="B74" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C74" s="12">
+      <c r="C74" s="8">
         <v>210041700089</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D74" s="12">
         <v>7</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E74" s="12">
         <v>16</v>
       </c>
-      <c r="F74" s="14">
+      <c r="F74" s="12">
         <v>16</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G74" s="12">
         <v>5</v>
       </c>
       <c r="H74" s="2">
@@ -5558,12 +5563,12 @@
       <c r="I74" s="2">
         <v>5</v>
       </c>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14">
-        <v>21</v>
-      </c>
-      <c r="L74" s="11"/>
-      <c r="O74" s="14"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12">
+        <v>22</v>
+      </c>
+      <c r="L74" s="10"/>
+      <c r="O74" s="12"/>
       <c r="Q74" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -5594,22 +5599,22 @@
       <c r="A75" s="2">
         <v>73</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="7">
         <v>220041700069</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D75" s="12">
         <v>2</v>
       </c>
-      <c r="E75" s="14">
-        <v>5</v>
-      </c>
-      <c r="F75" s="14">
-        <v>3</v>
-      </c>
-      <c r="G75" s="13">
+      <c r="E75" s="12">
+        <v>5</v>
+      </c>
+      <c r="F75" s="12">
+        <v>3</v>
+      </c>
+      <c r="G75" s="11">
         <v>0</v>
       </c>
       <c r="H75" s="2">
@@ -5619,12 +5624,12 @@
       <c r="I75" s="2">
         <v>0</v>
       </c>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14">
+      <c r="J75" s="12"/>
+      <c r="K75" s="12">
         <v>7</v>
       </c>
-      <c r="L75" s="11"/>
-      <c r="O75" s="14"/>
+      <c r="L75" s="10"/>
+      <c r="O75" s="12"/>
       <c r="Q75" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -5655,22 +5660,22 @@
       <c r="A76" s="2">
         <v>74</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="7">
         <v>220041700070</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D76" s="12">
         <v>2</v>
       </c>
-      <c r="E76" s="14">
+      <c r="E76" s="12">
         <v>15</v>
       </c>
-      <c r="F76" s="14">
+      <c r="F76" s="12">
         <v>7</v>
       </c>
-      <c r="G76" s="14">
+      <c r="G76" s="12">
         <v>5</v>
       </c>
       <c r="H76" s="2">
@@ -5680,12 +5685,12 @@
       <c r="I76" s="2">
         <v>0</v>
       </c>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14">
+      <c r="J76" s="12"/>
+      <c r="K76" s="12">
         <v>16</v>
       </c>
-      <c r="L76" s="11"/>
-      <c r="O76" s="14"/>
+      <c r="L76" s="10"/>
+      <c r="O76" s="12"/>
       <c r="Q76" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -5716,22 +5721,22 @@
       <c r="A77" s="2">
         <v>75</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="7">
         <v>220041700071</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D77" s="12">
         <v>16</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E77" s="12">
         <v>28</v>
       </c>
-      <c r="F77" s="14">
+      <c r="F77" s="12">
         <v>22</v>
       </c>
-      <c r="G77" s="14">
+      <c r="G77" s="12">
         <v>5</v>
       </c>
       <c r="H77" s="2">
@@ -5741,12 +5746,12 @@
       <c r="I77" s="2">
         <v>5</v>
       </c>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14">
+      <c r="J77" s="12"/>
+      <c r="K77" s="12">
         <v>35</v>
       </c>
-      <c r="L77" s="11"/>
-      <c r="O77" s="14">
+      <c r="L77" s="10"/>
+      <c r="O77" s="12">
         <v>40</v>
       </c>
       <c r="Q77" s="2">
@@ -5779,22 +5784,22 @@
       <c r="A78" s="2">
         <v>76</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="7">
         <v>220041700072</v>
       </c>
-      <c r="D78" s="14">
-        <v>0</v>
-      </c>
-      <c r="E78" s="14" t="s">
+      <c r="D78" s="12">
+        <v>0</v>
+      </c>
+      <c r="E78" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F78" s="14">
+      <c r="F78" s="12">
         <v>12</v>
       </c>
-      <c r="G78" s="14">
+      <c r="G78" s="12">
         <v>3</v>
       </c>
       <c r="H78" s="2">
@@ -5804,12 +5809,12 @@
       <c r="I78" s="2">
         <v>5</v>
       </c>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14">
-        <v>13</v>
-      </c>
-      <c r="L78" s="11"/>
-      <c r="O78" s="14">
+      <c r="J78" s="12"/>
+      <c r="K78" s="12">
+        <v>16</v>
+      </c>
+      <c r="L78" s="10"/>
+      <c r="O78" s="12">
         <v>40</v>
       </c>
       <c r="Q78" s="2">
@@ -5842,22 +5847,22 @@
       <c r="A79" s="2">
         <v>77</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="7">
         <v>220041700073</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D79" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="E79" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F79" s="14" t="s">
+      <c r="F79" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G79" s="13">
+      <c r="G79" s="11">
         <v>0</v>
       </c>
       <c r="H79" s="2">
@@ -5867,12 +5872,12 @@
       <c r="I79" s="2">
         <v>0</v>
       </c>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14">
-        <v>0</v>
-      </c>
-      <c r="L79" s="11"/>
-      <c r="O79" s="14"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12">
+        <v>0</v>
+      </c>
+      <c r="L79" s="10"/>
+      <c r="O79" s="12"/>
       <c r="Q79" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -5903,22 +5908,22 @@
       <c r="A80" s="2">
         <v>78</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="7">
         <v>220041700077</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D80" s="12">
         <v>6</v>
       </c>
-      <c r="E80" s="14">
+      <c r="E80" s="12">
         <v>18</v>
       </c>
-      <c r="F80" s="14">
+      <c r="F80" s="12">
         <v>15</v>
       </c>
-      <c r="G80" s="14">
+      <c r="G80" s="12">
         <v>5</v>
       </c>
       <c r="H80" s="2">
@@ -5928,12 +5933,12 @@
       <c r="I80" s="2">
         <v>5</v>
       </c>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14">
+      <c r="J80" s="12"/>
+      <c r="K80" s="12">
         <v>27</v>
       </c>
-      <c r="L80" s="11"/>
-      <c r="O80" s="14">
+      <c r="L80" s="10"/>
+      <c r="O80" s="12">
         <v>40</v>
       </c>
       <c r="Q80" s="2">
@@ -5966,22 +5971,22 @@
       <c r="A81" s="2">
         <v>79</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81" s="7">
         <v>220041700078</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D81" s="12">
         <v>14</v>
       </c>
-      <c r="E81" s="14">
+      <c r="E81" s="12">
         <v>18</v>
       </c>
-      <c r="F81" s="14">
+      <c r="F81" s="12">
         <v>18</v>
       </c>
-      <c r="G81" s="14">
+      <c r="G81" s="12">
         <v>5</v>
       </c>
       <c r="H81" s="2">
@@ -5991,12 +5996,12 @@
       <c r="I81" s="2">
         <v>5</v>
       </c>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14">
+      <c r="J81" s="12"/>
+      <c r="K81" s="12">
         <v>28</v>
       </c>
-      <c r="L81" s="11"/>
-      <c r="O81" s="14">
+      <c r="L81" s="10"/>
+      <c r="O81" s="12">
         <v>40</v>
       </c>
       <c r="Q81" s="2">
@@ -6029,22 +6034,22 @@
       <c r="A82" s="2">
         <v>80</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82" s="7">
         <v>220041700080</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D82" s="12">
         <v>2</v>
       </c>
-      <c r="E82" s="14">
+      <c r="E82" s="12">
         <v>15</v>
       </c>
-      <c r="F82" s="14">
-        <v>3</v>
-      </c>
-      <c r="G82" s="14">
+      <c r="F82" s="12">
+        <v>3</v>
+      </c>
+      <c r="G82" s="12">
         <v>3</v>
       </c>
       <c r="H82" s="2">
@@ -6054,12 +6059,12 @@
       <c r="I82" s="2">
         <v>0</v>
       </c>
-      <c r="J82" s="14"/>
-      <c r="K82" s="14">
-        <v>17</v>
-      </c>
-      <c r="L82" s="11"/>
-      <c r="O82" s="14">
+      <c r="J82" s="12"/>
+      <c r="K82" s="12">
+        <v>20</v>
+      </c>
+      <c r="L82" s="10"/>
+      <c r="O82" s="12">
         <v>40</v>
       </c>
       <c r="Q82" s="2">
@@ -6092,22 +6097,22 @@
       <c r="A83" s="2">
         <v>81</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C83" s="8">
+      <c r="C83" s="7">
         <v>220041700081</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D83" s="12">
         <v>8</v>
       </c>
-      <c r="E83" s="14">
+      <c r="E83" s="12">
         <v>14</v>
       </c>
-      <c r="F83" s="14">
-        <v>3</v>
-      </c>
-      <c r="G83" s="14">
+      <c r="F83" s="12">
+        <v>3</v>
+      </c>
+      <c r="G83" s="12">
         <v>4.5</v>
       </c>
       <c r="H83" s="2">
@@ -6117,12 +6122,12 @@
       <c r="I83" s="2">
         <v>0</v>
       </c>
-      <c r="J83" s="14"/>
-      <c r="K83" s="14">
+      <c r="J83" s="12"/>
+      <c r="K83" s="12">
         <v>20</v>
       </c>
-      <c r="L83" s="11"/>
-      <c r="O83" s="14">
+      <c r="L83" s="10"/>
+      <c r="O83" s="12">
         <v>40</v>
       </c>
       <c r="Q83" s="2">
@@ -6155,22 +6160,22 @@
       <c r="A84" s="2">
         <v>82</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="7">
         <v>220041700082</v>
       </c>
-      <c r="D84" s="14">
+      <c r="D84" s="12">
         <v>6</v>
       </c>
-      <c r="E84" s="14" t="s">
+      <c r="E84" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F84" s="14">
-        <v>5</v>
-      </c>
-      <c r="G84" s="13">
+      <c r="F84" s="12">
+        <v>5</v>
+      </c>
+      <c r="G84" s="11">
         <v>0</v>
       </c>
       <c r="H84" s="2">
@@ -6180,12 +6185,12 @@
       <c r="I84" s="2">
         <v>0</v>
       </c>
-      <c r="J84" s="14"/>
-      <c r="K84" s="14">
+      <c r="J84" s="12"/>
+      <c r="K84" s="12">
         <v>6</v>
       </c>
-      <c r="L84" s="11"/>
-      <c r="O84" s="14"/>
+      <c r="L84" s="10"/>
+      <c r="O84" s="12"/>
       <c r="Q84" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -6216,22 +6221,22 @@
       <c r="A85" s="2">
         <v>83</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="7">
         <v>220041700084</v>
       </c>
-      <c r="D85" s="14">
-        <v>3</v>
-      </c>
-      <c r="E85" s="14">
+      <c r="D85" s="12">
+        <v>3</v>
+      </c>
+      <c r="E85" s="12">
         <v>13</v>
       </c>
-      <c r="F85" s="14">
-        <v>4</v>
-      </c>
-      <c r="G85" s="14">
+      <c r="F85" s="12">
+        <v>4</v>
+      </c>
+      <c r="G85" s="12">
         <v>5</v>
       </c>
       <c r="H85" s="2">
@@ -6241,12 +6246,12 @@
       <c r="I85" s="2">
         <v>5</v>
       </c>
-      <c r="J85" s="14"/>
-      <c r="K85" s="14">
-        <v>18</v>
-      </c>
-      <c r="L85" s="11"/>
-      <c r="O85" s="14">
+      <c r="J85" s="12"/>
+      <c r="K85" s="12">
+        <v>20</v>
+      </c>
+      <c r="L85" s="10"/>
+      <c r="O85" s="12">
         <v>40</v>
       </c>
       <c r="Q85" s="2">
@@ -6279,22 +6284,22 @@
       <c r="A86" s="2">
         <v>84</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="7">
         <v>220041700085</v>
       </c>
-      <c r="D86" s="14">
-        <v>4</v>
-      </c>
-      <c r="E86" s="14">
+      <c r="D86" s="12">
+        <v>4</v>
+      </c>
+      <c r="E86" s="12">
         <v>13</v>
       </c>
-      <c r="F86" s="14">
+      <c r="F86" s="12">
         <v>10</v>
       </c>
-      <c r="G86" s="14">
+      <c r="G86" s="12">
         <v>5</v>
       </c>
       <c r="H86" s="2">
@@ -6304,12 +6309,12 @@
       <c r="I86" s="2">
         <v>5</v>
       </c>
-      <c r="J86" s="14"/>
-      <c r="K86" s="14">
-        <v>19</v>
-      </c>
-      <c r="L86" s="11"/>
-      <c r="O86" s="14">
+      <c r="J86" s="12"/>
+      <c r="K86" s="12">
+        <v>20</v>
+      </c>
+      <c r="L86" s="10"/>
+      <c r="O86" s="12">
         <v>40</v>
       </c>
       <c r="Q86" s="2">
@@ -6342,22 +6347,22 @@
       <c r="A87" s="2">
         <v>85</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C87" s="8">
+      <c r="C87" s="7">
         <v>220041700086</v>
       </c>
-      <c r="D87" s="14">
+      <c r="D87" s="12">
         <v>12</v>
       </c>
-      <c r="E87" s="14">
+      <c r="E87" s="12">
         <v>16</v>
       </c>
-      <c r="F87" s="14">
+      <c r="F87" s="12">
         <v>9</v>
       </c>
-      <c r="G87" s="14">
+      <c r="G87" s="12">
         <v>5</v>
       </c>
       <c r="H87" s="2">
@@ -6367,12 +6372,12 @@
       <c r="I87" s="2">
         <v>0</v>
       </c>
-      <c r="J87" s="14"/>
-      <c r="K87" s="14">
+      <c r="J87" s="12"/>
+      <c r="K87" s="12">
         <v>21</v>
       </c>
-      <c r="L87" s="11"/>
-      <c r="O87" s="14">
+      <c r="L87" s="10"/>
+      <c r="O87" s="12">
         <v>40</v>
       </c>
       <c r="Q87" s="2">
@@ -6405,22 +6410,22 @@
       <c r="A88" s="2">
         <v>86</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C88" s="8">
+      <c r="C88" s="7">
         <v>220041700087</v>
       </c>
-      <c r="D88" s="14">
-        <v>5</v>
-      </c>
-      <c r="E88" s="14">
+      <c r="D88" s="12">
+        <v>5</v>
+      </c>
+      <c r="E88" s="12">
         <v>15</v>
       </c>
-      <c r="F88" s="14">
+      <c r="F88" s="12">
         <v>12</v>
       </c>
-      <c r="G88" s="14">
+      <c r="G88" s="12">
         <v>5</v>
       </c>
       <c r="H88" s="2">
@@ -6430,12 +6435,12 @@
       <c r="I88" s="2">
         <v>0</v>
       </c>
-      <c r="J88" s="14"/>
-      <c r="K88" s="14">
-        <v>19</v>
-      </c>
-      <c r="L88" s="11"/>
-      <c r="O88" s="14">
+      <c r="J88" s="12"/>
+      <c r="K88" s="12">
+        <v>20</v>
+      </c>
+      <c r="L88" s="10"/>
+      <c r="O88" s="12">
         <v>40</v>
       </c>
       <c r="Q88" s="2">
@@ -6468,22 +6473,22 @@
       <c r="A89" s="2">
         <v>87</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C89" s="8">
+      <c r="C89" s="7">
         <v>220041700088</v>
       </c>
-      <c r="D89" s="14">
+      <c r="D89" s="12">
         <v>8</v>
       </c>
-      <c r="E89" s="14">
+      <c r="E89" s="12">
         <v>13</v>
       </c>
-      <c r="F89" s="14">
+      <c r="F89" s="12">
         <v>9</v>
       </c>
-      <c r="G89" s="13">
+      <c r="G89" s="11">
         <v>0</v>
       </c>
       <c r="H89" s="2">
@@ -6493,12 +6498,12 @@
       <c r="I89" s="2">
         <v>0</v>
       </c>
-      <c r="J89" s="14"/>
-      <c r="K89" s="14">
-        <v>12</v>
-      </c>
-      <c r="L89" s="11"/>
-      <c r="O89" s="14"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12">
+        <v>13</v>
+      </c>
+      <c r="L89" s="10"/>
+      <c r="O89" s="12"/>
       <c r="Q89" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -6529,22 +6534,22 @@
       <c r="A90" s="2">
         <v>88</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C90" s="7">
         <v>220041700092</v>
       </c>
-      <c r="D90" s="14">
-        <v>4</v>
-      </c>
-      <c r="E90" s="14" t="s">
+      <c r="D90" s="12">
+        <v>4</v>
+      </c>
+      <c r="E90" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F90" s="14">
+      <c r="F90" s="12">
         <v>8</v>
       </c>
-      <c r="G90" s="14">
+      <c r="G90" s="12">
         <v>2.5</v>
       </c>
       <c r="H90" s="2">
@@ -6554,12 +6559,12 @@
       <c r="I90" s="2">
         <v>5</v>
       </c>
-      <c r="J90" s="14"/>
-      <c r="K90" s="14">
-        <v>14</v>
-      </c>
-      <c r="L90" s="11"/>
-      <c r="O90" s="14">
+      <c r="J90" s="12"/>
+      <c r="K90" s="12">
+        <v>16</v>
+      </c>
+      <c r="L90" s="10"/>
+      <c r="O90" s="12">
         <v>40</v>
       </c>
       <c r="Q90" s="2">
@@ -6592,22 +6597,22 @@
       <c r="A91" s="2">
         <v>89</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C91" s="8">
+      <c r="C91" s="7">
         <v>220041700096</v>
       </c>
-      <c r="D91" s="14">
+      <c r="D91" s="12">
         <v>10</v>
       </c>
-      <c r="E91" s="14">
+      <c r="E91" s="12">
         <v>8</v>
       </c>
-      <c r="F91" s="14">
+      <c r="F91" s="12">
         <v>2</v>
       </c>
-      <c r="G91" s="14">
+      <c r="G91" s="12">
         <v>5</v>
       </c>
       <c r="H91" s="2">
@@ -6617,12 +6622,12 @@
       <c r="I91" s="2">
         <v>5</v>
       </c>
-      <c r="J91" s="14"/>
-      <c r="K91" s="14">
+      <c r="J91" s="12"/>
+      <c r="K91" s="12">
         <v>17</v>
       </c>
-      <c r="L91" s="11"/>
-      <c r="O91" s="14">
+      <c r="L91" s="10"/>
+      <c r="O91" s="12">
         <v>40</v>
       </c>
       <c r="Q91" s="2">
@@ -6655,22 +6660,22 @@
       <c r="A92" s="2">
         <v>90</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C92" s="8">
+      <c r="C92" s="7">
         <v>220041700097</v>
       </c>
-      <c r="D92" s="14">
+      <c r="D92" s="12">
         <v>9</v>
       </c>
-      <c r="E92" s="14">
+      <c r="E92" s="12">
         <v>15</v>
       </c>
-      <c r="F92" s="14" t="s">
+      <c r="F92" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G92" s="13">
+      <c r="G92" s="11">
         <v>0</v>
       </c>
       <c r="H92" s="2">
@@ -6680,12 +6685,12 @@
       <c r="I92" s="2">
         <v>0</v>
       </c>
-      <c r="J92" s="14"/>
-      <c r="K92" s="14">
-        <v>17</v>
-      </c>
-      <c r="L92" s="11"/>
-      <c r="O92" s="14"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12">
+        <v>20</v>
+      </c>
+      <c r="L92" s="10"/>
+      <c r="O92" s="12"/>
       <c r="Q92" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -6716,22 +6721,22 @@
       <c r="A93" s="2">
         <v>91</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C93" s="8">
+      <c r="C93" s="7">
         <v>220041700098</v>
       </c>
-      <c r="D93" s="14">
+      <c r="D93" s="12">
         <v>12</v>
       </c>
-      <c r="E93" s="14">
+      <c r="E93" s="12">
         <v>12</v>
       </c>
-      <c r="F93" s="14">
-        <v>3</v>
-      </c>
-      <c r="G93" s="14">
+      <c r="F93" s="12">
+        <v>3</v>
+      </c>
+      <c r="G93" s="12">
         <v>4.5</v>
       </c>
       <c r="H93" s="2">
@@ -6741,12 +6746,12 @@
       <c r="I93" s="2">
         <v>5</v>
       </c>
-      <c r="J93" s="14"/>
-      <c r="K93" s="14">
+      <c r="J93" s="12"/>
+      <c r="K93" s="12">
         <v>21</v>
       </c>
-      <c r="L93" s="11"/>
-      <c r="O93" s="14">
+      <c r="L93" s="10"/>
+      <c r="O93" s="12">
         <v>35</v>
       </c>
       <c r="Q93" s="2">
@@ -6779,22 +6784,22 @@
       <c r="A94" s="2">
         <v>92</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C94" s="8">
+      <c r="C94" s="7">
         <v>220041700099</v>
       </c>
-      <c r="D94" s="14">
+      <c r="D94" s="12">
         <v>18</v>
       </c>
-      <c r="E94" s="14">
+      <c r="E94" s="12">
         <v>24</v>
       </c>
-      <c r="F94" s="14">
+      <c r="F94" s="12">
         <v>19</v>
       </c>
-      <c r="G94" s="14">
+      <c r="G94" s="12">
         <v>5</v>
       </c>
       <c r="H94" s="2">
@@ -6804,12 +6809,12 @@
       <c r="I94" s="2">
         <v>5</v>
       </c>
-      <c r="J94" s="14"/>
-      <c r="K94" s="14">
+      <c r="J94" s="12"/>
+      <c r="K94" s="12">
         <v>31</v>
       </c>
-      <c r="L94" s="11"/>
-      <c r="O94" s="14">
+      <c r="L94" s="10"/>
+      <c r="O94" s="12">
         <v>35</v>
       </c>
       <c r="Q94" s="2">
@@ -6842,22 +6847,22 @@
       <c r="A95" s="2">
         <v>93</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="B95" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C95" s="8">
+      <c r="C95" s="7">
         <v>220041700100</v>
       </c>
-      <c r="D95" s="14">
+      <c r="D95" s="12">
         <v>17</v>
       </c>
-      <c r="E95" s="14">
+      <c r="E95" s="12">
         <v>22</v>
       </c>
-      <c r="F95" s="14" t="s">
+      <c r="F95" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G95" s="14">
+      <c r="G95" s="12">
         <v>5</v>
       </c>
       <c r="H95" s="2">
@@ -6867,12 +6872,12 @@
       <c r="I95" s="2">
         <v>5</v>
       </c>
-      <c r="J95" s="14"/>
-      <c r="K95" s="14">
+      <c r="J95" s="12"/>
+      <c r="K95" s="12">
         <v>28</v>
       </c>
-      <c r="L95" s="11"/>
-      <c r="O95" s="14">
+      <c r="L95" s="10"/>
+      <c r="O95" s="12">
         <v>40</v>
       </c>
       <c r="Q95" s="2">
@@ -6905,22 +6910,22 @@
       <c r="A96" s="2">
         <v>94</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C96" s="8">
+      <c r="C96" s="7">
         <v>220041700102</v>
       </c>
-      <c r="D96" s="14">
-        <v>4</v>
-      </c>
-      <c r="E96" s="14">
+      <c r="D96" s="12">
+        <v>4</v>
+      </c>
+      <c r="E96" s="12">
         <v>12</v>
       </c>
-      <c r="F96" s="14">
+      <c r="F96" s="12">
         <v>12</v>
       </c>
-      <c r="G96" s="14">
+      <c r="G96" s="12">
         <v>5</v>
       </c>
       <c r="H96" s="2">
@@ -6930,12 +6935,12 @@
       <c r="I96" s="2">
         <v>5</v>
       </c>
-      <c r="J96" s="14"/>
-      <c r="K96" s="14">
+      <c r="J96" s="12"/>
+      <c r="K96" s="12">
         <v>21</v>
       </c>
-      <c r="L96" s="11"/>
-      <c r="O96" s="14"/>
+      <c r="L96" s="10"/>
+      <c r="O96" s="12"/>
       <c r="Q96" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -6966,22 +6971,22 @@
       <c r="A97" s="2">
         <v>95</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C97" s="8">
+      <c r="C97" s="7">
         <v>220041700103</v>
       </c>
-      <c r="D97" s="14">
+      <c r="D97" s="12">
         <v>6</v>
       </c>
-      <c r="E97" s="14">
+      <c r="E97" s="12">
         <v>15</v>
       </c>
-      <c r="F97" s="14">
+      <c r="F97" s="12">
         <v>13</v>
       </c>
-      <c r="G97" s="14">
+      <c r="G97" s="12">
         <v>4</v>
       </c>
       <c r="H97" s="2">
@@ -6991,12 +6996,12 @@
       <c r="I97" s="2">
         <v>5</v>
       </c>
-      <c r="J97" s="14"/>
-      <c r="K97" s="14">
+      <c r="J97" s="12"/>
+      <c r="K97" s="12">
         <v>23</v>
       </c>
-      <c r="L97" s="11"/>
-      <c r="O97" s="14">
+      <c r="L97" s="10"/>
+      <c r="O97" s="12">
         <v>40</v>
       </c>
       <c r="Q97" s="2">
@@ -7029,22 +7034,22 @@
       <c r="A98" s="2">
         <v>96</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C98" s="8">
+      <c r="C98" s="7">
         <v>220041700104</v>
       </c>
-      <c r="D98" s="14">
+      <c r="D98" s="12">
         <v>9</v>
       </c>
-      <c r="E98" s="14">
+      <c r="E98" s="12">
         <v>12</v>
       </c>
-      <c r="F98" s="14" t="s">
+      <c r="F98" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G98" s="13">
+      <c r="G98" s="11">
         <v>0</v>
       </c>
       <c r="H98" s="2">
@@ -7054,12 +7059,12 @@
       <c r="I98" s="2">
         <v>0</v>
       </c>
-      <c r="J98" s="14"/>
-      <c r="K98" s="14">
+      <c r="J98" s="12"/>
+      <c r="K98" s="12">
         <v>16</v>
       </c>
-      <c r="L98" s="11"/>
-      <c r="O98" s="14">
+      <c r="L98" s="10"/>
+      <c r="O98" s="12">
         <v>35</v>
       </c>
       <c r="Q98" s="2">
@@ -7092,22 +7097,22 @@
       <c r="A99" s="2">
         <v>97</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C99" s="8">
+      <c r="C99" s="7">
         <v>220041700105</v>
       </c>
-      <c r="D99" s="14">
-        <v>0</v>
-      </c>
-      <c r="E99" s="14">
-        <v>5</v>
-      </c>
-      <c r="F99" s="14">
+      <c r="D99" s="12">
+        <v>0</v>
+      </c>
+      <c r="E99" s="12">
+        <v>5</v>
+      </c>
+      <c r="F99" s="12">
         <v>6</v>
       </c>
-      <c r="G99" s="14">
+      <c r="G99" s="12">
         <v>4</v>
       </c>
       <c r="H99" s="2">
@@ -7117,12 +7122,12 @@
       <c r="I99" s="2">
         <v>5</v>
       </c>
-      <c r="J99" s="14"/>
-      <c r="K99" s="14">
-        <v>15</v>
-      </c>
-      <c r="L99" s="11"/>
-      <c r="O99" s="14">
+      <c r="J99" s="12"/>
+      <c r="K99" s="12">
+        <v>16</v>
+      </c>
+      <c r="L99" s="10"/>
+      <c r="O99" s="12">
         <v>40</v>
       </c>
       <c r="Q99" s="2">
@@ -7155,22 +7160,22 @@
       <c r="A100" s="2">
         <v>98</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C100" s="8">
+      <c r="C100" s="7">
         <v>220041700106</v>
       </c>
-      <c r="D100" s="14">
+      <c r="D100" s="12">
         <v>12</v>
       </c>
-      <c r="E100" s="14">
+      <c r="E100" s="12">
         <v>16</v>
       </c>
-      <c r="F100" s="14">
+      <c r="F100" s="12">
         <v>12</v>
       </c>
-      <c r="G100" s="14">
+      <c r="G100" s="12">
         <v>5</v>
       </c>
       <c r="H100" s="2">
@@ -7180,12 +7185,12 @@
       <c r="I100" s="2">
         <v>5</v>
       </c>
-      <c r="J100" s="14"/>
-      <c r="K100" s="14">
-        <v>22</v>
-      </c>
-      <c r="L100" s="11"/>
-      <c r="O100" s="14">
+      <c r="J100" s="12"/>
+      <c r="K100" s="12">
+        <v>23</v>
+      </c>
+      <c r="L100" s="10"/>
+      <c r="O100" s="12">
         <v>30</v>
       </c>
       <c r="Q100" s="2">
@@ -7218,22 +7223,22 @@
       <c r="A101" s="2">
         <v>99</v>
       </c>
-      <c r="B101" s="16" t="s">
+      <c r="B101" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C101" s="8">
+      <c r="C101" s="7">
         <v>220041700107</v>
       </c>
-      <c r="D101" s="14">
+      <c r="D101" s="12">
         <v>15</v>
       </c>
-      <c r="E101" s="14">
+      <c r="E101" s="12">
         <v>18</v>
       </c>
-      <c r="F101" s="14">
+      <c r="F101" s="12">
         <v>20</v>
       </c>
-      <c r="G101" s="14">
+      <c r="G101" s="12">
         <v>5</v>
       </c>
       <c r="H101" s="2">
@@ -7243,12 +7248,12 @@
       <c r="I101" s="2">
         <v>5</v>
       </c>
-      <c r="J101" s="14"/>
-      <c r="K101" s="14">
-        <v>27</v>
-      </c>
-      <c r="L101" s="11"/>
-      <c r="O101" s="14">
+      <c r="J101" s="12"/>
+      <c r="K101" s="12">
+        <v>28</v>
+      </c>
+      <c r="L101" s="10"/>
+      <c r="O101" s="12">
         <v>35</v>
       </c>
       <c r="Q101" s="2">
@@ -7281,22 +7286,22 @@
       <c r="A102" s="2">
         <v>100</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C102" s="8">
+      <c r="C102" s="7">
         <v>220041700108</v>
       </c>
-      <c r="D102" s="14">
+      <c r="D102" s="12">
         <v>2</v>
       </c>
-      <c r="E102" s="14">
+      <c r="E102" s="12">
         <v>9</v>
       </c>
-      <c r="F102" s="14">
+      <c r="F102" s="12">
         <v>6</v>
       </c>
-      <c r="G102" s="13">
+      <c r="G102" s="11">
         <v>0</v>
       </c>
       <c r="H102" s="2">
@@ -7306,12 +7311,12 @@
       <c r="I102" s="2">
         <v>0</v>
       </c>
-      <c r="J102" s="14"/>
-      <c r="K102" s="14">
-        <v>9</v>
-      </c>
-      <c r="L102" s="11"/>
-      <c r="O102" s="14"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12">
+        <v>10</v>
+      </c>
+      <c r="L102" s="10"/>
+      <c r="O102" s="12"/>
       <c r="Q102" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -7342,22 +7347,22 @@
       <c r="A103" s="2">
         <v>101</v>
       </c>
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C103" s="8">
+      <c r="C103" s="7">
         <v>220041700109</v>
       </c>
-      <c r="D103" s="14">
+      <c r="D103" s="12">
         <v>18</v>
       </c>
-      <c r="E103" s="14">
+      <c r="E103" s="12">
         <v>24</v>
       </c>
-      <c r="F103" s="14">
+      <c r="F103" s="12">
         <v>25</v>
       </c>
-      <c r="G103" s="14">
+      <c r="G103" s="12">
         <v>5</v>
       </c>
       <c r="H103" s="2">
@@ -7367,12 +7372,12 @@
       <c r="I103" s="2">
         <v>5</v>
       </c>
-      <c r="J103" s="14"/>
-      <c r="K103" s="14">
+      <c r="J103" s="12"/>
+      <c r="K103" s="12">
         <v>33</v>
       </c>
-      <c r="L103" s="11"/>
-      <c r="O103" s="14">
+      <c r="L103" s="10"/>
+      <c r="O103" s="12">
         <v>35</v>
       </c>
       <c r="Q103" s="2">
@@ -7405,22 +7410,22 @@
       <c r="A104" s="2">
         <v>102</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C104" s="8">
+      <c r="C104" s="7">
         <v>220041700110</v>
       </c>
-      <c r="D104" s="14">
-        <v>4</v>
-      </c>
-      <c r="E104" s="14">
-        <v>4</v>
-      </c>
-      <c r="F104" s="14">
+      <c r="D104" s="12">
+        <v>4</v>
+      </c>
+      <c r="E104" s="12">
+        <v>4</v>
+      </c>
+      <c r="F104" s="12">
         <v>2</v>
       </c>
-      <c r="G104" s="13">
+      <c r="G104" s="11">
         <v>0</v>
       </c>
       <c r="H104" s="2">
@@ -7430,12 +7435,12 @@
       <c r="I104" s="2">
         <v>0</v>
       </c>
-      <c r="J104" s="14"/>
-      <c r="K104" s="14">
-        <v>5</v>
-      </c>
-      <c r="L104" s="11"/>
-      <c r="O104" s="14"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12">
+        <v>5</v>
+      </c>
+      <c r="L104" s="10"/>
+      <c r="O104" s="12"/>
       <c r="Q104" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -7466,22 +7471,22 @@
       <c r="A105" s="2">
         <v>103</v>
       </c>
-      <c r="B105" s="16" t="s">
+      <c r="B105" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C105" s="8">
+      <c r="C105" s="7">
         <v>220041700112</v>
       </c>
-      <c r="D105" s="14">
+      <c r="D105" s="12">
         <v>14</v>
       </c>
-      <c r="E105" s="14">
+      <c r="E105" s="12">
         <v>12</v>
       </c>
-      <c r="F105" s="14">
+      <c r="F105" s="12">
         <v>15</v>
       </c>
-      <c r="G105" s="14">
+      <c r="G105" s="12">
         <v>4.5</v>
       </c>
       <c r="H105" s="2">
@@ -7491,12 +7496,12 @@
       <c r="I105" s="2">
         <v>5</v>
       </c>
-      <c r="J105" s="14"/>
-      <c r="K105" s="14">
-        <v>23</v>
-      </c>
-      <c r="L105" s="11"/>
-      <c r="O105" s="14">
+      <c r="J105" s="12"/>
+      <c r="K105" s="12">
+        <v>24</v>
+      </c>
+      <c r="L105" s="10"/>
+      <c r="O105" s="12">
         <v>40</v>
       </c>
       <c r="Q105" s="2">
@@ -7529,22 +7534,22 @@
       <c r="A106" s="2">
         <v>104</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C106" s="8">
+      <c r="C106" s="7">
         <v>220041700113</v>
       </c>
-      <c r="D106" s="14">
+      <c r="D106" s="12">
         <v>6</v>
       </c>
-      <c r="E106" s="14">
+      <c r="E106" s="12">
         <v>12</v>
       </c>
-      <c r="F106" s="14" t="s">
+      <c r="F106" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G106" s="13">
+      <c r="G106" s="11">
         <v>0</v>
       </c>
       <c r="H106" s="2">
@@ -7554,12 +7559,12 @@
       <c r="I106" s="2">
         <v>5</v>
       </c>
-      <c r="J106" s="14"/>
-      <c r="K106" s="14">
+      <c r="J106" s="12"/>
+      <c r="K106" s="12">
         <v>16</v>
       </c>
-      <c r="L106" s="11"/>
-      <c r="O106" s="14">
+      <c r="L106" s="10"/>
+      <c r="O106" s="12">
         <v>25</v>
       </c>
       <c r="Q106" s="2">
@@ -7592,22 +7597,22 @@
       <c r="A107" s="2">
         <v>105</v>
       </c>
-      <c r="B107" s="16" t="s">
+      <c r="B107" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C107" s="8">
+      <c r="C107" s="7">
         <v>220041700115</v>
       </c>
-      <c r="D107" s="14">
-        <v>5</v>
-      </c>
-      <c r="E107" s="14">
+      <c r="D107" s="12">
+        <v>5</v>
+      </c>
+      <c r="E107" s="12">
         <v>14</v>
       </c>
-      <c r="F107" s="14">
+      <c r="F107" s="12">
         <v>12</v>
       </c>
-      <c r="G107" s="13">
+      <c r="G107" s="11">
         <v>0</v>
       </c>
       <c r="H107" s="2">
@@ -7617,12 +7622,12 @@
       <c r="I107" s="2">
         <v>5</v>
       </c>
-      <c r="J107" s="14"/>
-      <c r="K107" s="14">
-        <v>20</v>
-      </c>
-      <c r="L107" s="11"/>
-      <c r="O107" s="14">
+      <c r="J107" s="12"/>
+      <c r="K107" s="12">
+        <v>21</v>
+      </c>
+      <c r="L107" s="10"/>
+      <c r="O107" s="12">
         <v>40</v>
       </c>
       <c r="Q107" s="2">
@@ -7655,22 +7660,22 @@
       <c r="A108" s="2">
         <v>106</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C108" s="8">
+      <c r="C108" s="7">
         <v>220041700116</v>
       </c>
-      <c r="D108" s="14">
+      <c r="D108" s="12">
         <v>9</v>
       </c>
-      <c r="E108" s="14">
+      <c r="E108" s="12">
         <v>10</v>
       </c>
-      <c r="F108" s="14" t="s">
+      <c r="F108" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G108" s="13">
+      <c r="G108" s="11">
         <v>0</v>
       </c>
       <c r="H108" s="2">
@@ -7680,12 +7685,12 @@
       <c r="I108" s="2">
         <v>0</v>
       </c>
-      <c r="J108" s="14"/>
-      <c r="K108" s="14">
-        <v>17</v>
-      </c>
-      <c r="L108" s="11"/>
-      <c r="O108" s="14"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12">
+        <v>20</v>
+      </c>
+      <c r="L108" s="10"/>
+      <c r="O108" s="12"/>
       <c r="Q108" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -7716,22 +7721,22 @@
       <c r="A109" s="2">
         <v>107</v>
       </c>
-      <c r="B109" s="16" t="s">
+      <c r="B109" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C109" s="8">
+      <c r="C109" s="7">
         <v>220041700117</v>
       </c>
-      <c r="D109" s="14">
+      <c r="D109" s="12">
         <v>19</v>
       </c>
-      <c r="E109" s="14">
+      <c r="E109" s="12">
         <v>20</v>
       </c>
-      <c r="F109" s="14" t="s">
+      <c r="F109" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G109" s="14">
+      <c r="G109" s="12">
         <v>4.5</v>
       </c>
       <c r="H109" s="2">
@@ -7741,12 +7746,12 @@
       <c r="I109" s="2">
         <v>5</v>
       </c>
-      <c r="J109" s="14"/>
-      <c r="K109" s="14">
+      <c r="J109" s="12"/>
+      <c r="K109" s="12">
         <v>28</v>
       </c>
-      <c r="L109" s="11"/>
-      <c r="O109" s="14">
+      <c r="L109" s="10"/>
+      <c r="O109" s="12">
         <v>40</v>
       </c>
       <c r="Q109" s="2">
@@ -7779,22 +7784,22 @@
       <c r="A110" s="2">
         <v>108</v>
       </c>
-      <c r="B110" s="16" t="s">
+      <c r="B110" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C110" s="8">
+      <c r="C110" s="7">
         <v>220041700118</v>
       </c>
-      <c r="D110" s="14">
-        <v>5</v>
-      </c>
-      <c r="E110" s="14">
+      <c r="D110" s="12">
+        <v>5</v>
+      </c>
+      <c r="E110" s="12">
         <v>9</v>
       </c>
-      <c r="F110" s="14">
+      <c r="F110" s="12">
         <v>12</v>
       </c>
-      <c r="G110" s="14">
+      <c r="G110" s="12">
         <v>3</v>
       </c>
       <c r="H110" s="2">
@@ -7804,12 +7809,12 @@
       <c r="I110" s="2">
         <v>5</v>
       </c>
-      <c r="J110" s="14"/>
-      <c r="K110" s="14">
+      <c r="J110" s="12"/>
+      <c r="K110" s="12">
         <v>20</v>
       </c>
-      <c r="L110" s="11"/>
-      <c r="O110" s="14">
+      <c r="L110" s="10"/>
+      <c r="O110" s="12">
         <v>40</v>
       </c>
       <c r="Q110" s="2">
@@ -7842,22 +7847,22 @@
       <c r="A111" s="2">
         <v>109</v>
       </c>
-      <c r="B111" s="16" t="s">
+      <c r="B111" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C111" s="8">
+      <c r="C111" s="7">
         <v>220041700119</v>
       </c>
-      <c r="D111" s="14" t="s">
+      <c r="D111" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E111" s="14" t="s">
+      <c r="E111" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F111" s="14" t="s">
+      <c r="F111" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G111" s="13">
+      <c r="G111" s="11">
         <v>0</v>
       </c>
       <c r="H111" s="2">
@@ -7867,12 +7872,12 @@
       <c r="I111" s="2">
         <v>0</v>
       </c>
-      <c r="J111" s="14"/>
-      <c r="K111" s="14">
-        <v>0</v>
-      </c>
-      <c r="L111" s="11"/>
-      <c r="O111" s="14"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12">
+        <v>0</v>
+      </c>
+      <c r="L111" s="10"/>
+      <c r="O111" s="12"/>
       <c r="Q111" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -7903,22 +7908,22 @@
       <c r="A112" s="2">
         <v>110</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C112" s="8">
+      <c r="C112" s="7">
         <v>220041700121</v>
       </c>
-      <c r="D112" s="14">
+      <c r="D112" s="12">
         <v>12</v>
       </c>
-      <c r="E112" s="14">
+      <c r="E112" s="12">
         <v>18</v>
       </c>
-      <c r="F112" s="14">
+      <c r="F112" s="12">
         <v>14</v>
       </c>
-      <c r="G112" s="14">
+      <c r="G112" s="12">
         <v>5</v>
       </c>
       <c r="H112" s="2">
@@ -7928,12 +7933,12 @@
       <c r="I112" s="2">
         <v>5</v>
       </c>
-      <c r="J112" s="14"/>
-      <c r="K112" s="14">
+      <c r="J112" s="12"/>
+      <c r="K112" s="12">
         <v>25</v>
       </c>
-      <c r="L112" s="11"/>
-      <c r="O112" s="14">
+      <c r="L112" s="10"/>
+      <c r="O112" s="12">
         <v>35</v>
       </c>
       <c r="Q112" s="2">
@@ -7966,22 +7971,22 @@
       <c r="A113" s="2">
         <v>111</v>
       </c>
-      <c r="B113" s="16" t="s">
+      <c r="B113" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C113" s="8">
+      <c r="C113" s="7">
         <v>220041700122</v>
       </c>
-      <c r="D113" s="14">
-        <v>4</v>
-      </c>
-      <c r="E113" s="14">
+      <c r="D113" s="12">
+        <v>4</v>
+      </c>
+      <c r="E113" s="12">
         <v>13</v>
       </c>
-      <c r="F113" s="14">
-        <v>5</v>
-      </c>
-      <c r="G113" s="14">
+      <c r="F113" s="12">
+        <v>5</v>
+      </c>
+      <c r="G113" s="12">
         <v>5</v>
       </c>
       <c r="H113" s="2">
@@ -7991,12 +7996,12 @@
       <c r="I113" s="2">
         <v>5</v>
       </c>
-      <c r="J113" s="14"/>
-      <c r="K113" s="14">
+      <c r="J113" s="12"/>
+      <c r="K113" s="12">
         <v>17</v>
       </c>
-      <c r="L113" s="11"/>
-      <c r="O113" s="14">
+      <c r="L113" s="10"/>
+      <c r="O113" s="12">
         <v>40</v>
       </c>
       <c r="Q113" s="2">
@@ -8029,22 +8034,22 @@
       <c r="A114" s="2">
         <v>112</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C114" s="8">
+      <c r="C114" s="7">
         <v>220041700123</v>
       </c>
-      <c r="D114" s="14">
+      <c r="D114" s="12">
         <v>1</v>
       </c>
-      <c r="E114" s="14">
+      <c r="E114" s="12">
         <v>19</v>
       </c>
-      <c r="F114" s="14">
-        <v>4</v>
-      </c>
-      <c r="G114" s="13">
+      <c r="F114" s="12">
+        <v>4</v>
+      </c>
+      <c r="G114" s="11">
         <v>0</v>
       </c>
       <c r="H114" s="2">
@@ -8054,12 +8059,12 @@
       <c r="I114" s="2">
         <v>5</v>
       </c>
-      <c r="J114" s="14"/>
-      <c r="K114" s="14">
+      <c r="J114" s="12"/>
+      <c r="K114" s="12">
         <v>20</v>
       </c>
-      <c r="L114" s="11"/>
-      <c r="O114" s="14">
+      <c r="L114" s="10"/>
+      <c r="O114" s="12">
         <v>40</v>
       </c>
       <c r="Q114" s="2">
@@ -8092,22 +8097,22 @@
       <c r="A115" s="2">
         <v>113</v>
       </c>
-      <c r="B115" s="16" t="s">
+      <c r="B115" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C115" s="8">
+      <c r="C115" s="7">
         <v>220041700124</v>
       </c>
-      <c r="D115" s="14">
+      <c r="D115" s="12">
         <v>1</v>
       </c>
-      <c r="E115" s="14">
+      <c r="E115" s="12">
         <v>12</v>
       </c>
-      <c r="F115" s="14">
-        <v>4</v>
-      </c>
-      <c r="G115" s="13">
+      <c r="F115" s="12">
+        <v>4</v>
+      </c>
+      <c r="G115" s="11">
         <v>0</v>
       </c>
       <c r="H115" s="2">
@@ -8117,12 +8122,12 @@
       <c r="I115" s="2">
         <v>0</v>
       </c>
-      <c r="J115" s="14"/>
-      <c r="K115" s="14">
+      <c r="J115" s="12"/>
+      <c r="K115" s="12">
         <v>12</v>
       </c>
-      <c r="L115" s="11"/>
-      <c r="O115" s="14">
+      <c r="L115" s="10"/>
+      <c r="O115" s="12">
         <v>40</v>
       </c>
       <c r="Q115" s="2">
@@ -8155,22 +8160,22 @@
       <c r="A116" s="2">
         <v>114</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C116" s="8">
+      <c r="C116" s="7">
         <v>220041700125</v>
       </c>
-      <c r="D116" s="14">
+      <c r="D116" s="12">
         <v>6</v>
       </c>
-      <c r="E116" s="14">
+      <c r="E116" s="12">
         <v>8</v>
       </c>
-      <c r="F116" s="14">
+      <c r="F116" s="12">
         <v>9</v>
       </c>
-      <c r="G116" s="14">
+      <c r="G116" s="12">
         <v>2.5</v>
       </c>
       <c r="H116" s="2">
@@ -8180,12 +8185,12 @@
       <c r="I116" s="2">
         <v>5</v>
       </c>
-      <c r="J116" s="14"/>
-      <c r="K116" s="14">
-        <v>16</v>
-      </c>
-      <c r="L116" s="11"/>
-      <c r="O116" s="14"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12">
+        <v>17</v>
+      </c>
+      <c r="L116" s="10"/>
+      <c r="O116" s="12"/>
       <c r="Q116" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -8216,22 +8221,22 @@
       <c r="A117" s="2">
         <v>115</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="B117" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C117" s="8">
+      <c r="C117" s="7">
         <v>220041700130</v>
       </c>
-      <c r="D117" s="14">
-        <v>4</v>
-      </c>
-      <c r="E117" s="14">
+      <c r="D117" s="12">
+        <v>4</v>
+      </c>
+      <c r="E117" s="12">
         <v>14</v>
       </c>
-      <c r="F117" s="14">
-        <v>5</v>
-      </c>
-      <c r="G117" s="13">
+      <c r="F117" s="12">
+        <v>5</v>
+      </c>
+      <c r="G117" s="11">
         <v>0</v>
       </c>
       <c r="H117" s="2">
@@ -8241,12 +8246,12 @@
       <c r="I117" s="2">
         <v>5</v>
       </c>
-      <c r="J117" s="14"/>
-      <c r="K117" s="14">
-        <v>19</v>
-      </c>
-      <c r="L117" s="11"/>
-      <c r="O117" s="14">
+      <c r="J117" s="12"/>
+      <c r="K117" s="12">
+        <v>20</v>
+      </c>
+      <c r="L117" s="10"/>
+      <c r="O117" s="12">
         <v>40</v>
       </c>
       <c r="Q117" s="2">
@@ -8279,22 +8284,22 @@
       <c r="A118" s="2">
         <v>116</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C118" s="8">
+      <c r="C118" s="7">
         <v>220041700131</v>
       </c>
-      <c r="D118" s="14">
-        <v>4</v>
-      </c>
-      <c r="E118" s="14">
+      <c r="D118" s="12">
+        <v>4</v>
+      </c>
+      <c r="E118" s="12">
         <v>17</v>
       </c>
-      <c r="F118" s="14">
+      <c r="F118" s="12">
         <v>19</v>
       </c>
-      <c r="G118" s="13">
+      <c r="G118" s="11">
         <v>0</v>
       </c>
       <c r="H118" s="2">
@@ -8304,12 +8309,12 @@
       <c r="I118" s="2">
         <v>5</v>
       </c>
-      <c r="J118" s="14"/>
-      <c r="K118" s="14">
-        <v>27</v>
-      </c>
-      <c r="L118" s="11"/>
-      <c r="O118" s="14">
+      <c r="J118" s="12"/>
+      <c r="K118" s="12">
+        <v>28</v>
+      </c>
+      <c r="L118" s="10"/>
+      <c r="O118" s="12">
         <v>40</v>
       </c>
       <c r="Q118" s="2">
@@ -8342,22 +8347,22 @@
       <c r="A119" s="2">
         <v>117</v>
       </c>
-      <c r="B119" s="16" t="s">
+      <c r="B119" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C119" s="8">
+      <c r="C119" s="7">
         <v>220041700132</v>
       </c>
-      <c r="D119" s="14">
+      <c r="D119" s="12">
         <v>15</v>
       </c>
-      <c r="E119" s="14" t="s">
+      <c r="E119" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F119" s="14">
+      <c r="F119" s="12">
         <v>16</v>
       </c>
-      <c r="G119" s="14">
+      <c r="G119" s="12">
         <v>5</v>
       </c>
       <c r="H119" s="2">
@@ -8367,12 +8372,12 @@
       <c r="I119" s="2">
         <v>5</v>
       </c>
-      <c r="J119" s="14"/>
-      <c r="K119" s="14">
+      <c r="J119" s="12"/>
+      <c r="K119" s="12">
         <v>25</v>
       </c>
-      <c r="L119" s="11"/>
-      <c r="O119" s="14">
+      <c r="L119" s="10"/>
+      <c r="O119" s="12">
         <v>40</v>
       </c>
       <c r="Q119" s="2">
@@ -8405,22 +8410,22 @@
       <c r="A120" s="2">
         <v>118</v>
       </c>
-      <c r="B120" s="16" t="s">
+      <c r="B120" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C120" s="8">
+      <c r="C120" s="7">
         <v>220041700133</v>
       </c>
-      <c r="D120" s="14">
+      <c r="D120" s="12">
         <v>8</v>
       </c>
-      <c r="E120" s="14">
+      <c r="E120" s="12">
         <v>17</v>
       </c>
-      <c r="F120" s="14">
+      <c r="F120" s="12">
         <v>16</v>
       </c>
-      <c r="G120" s="14">
+      <c r="G120" s="12">
         <v>4.5</v>
       </c>
       <c r="H120" s="2">
@@ -8430,12 +8435,12 @@
       <c r="I120" s="2">
         <v>5</v>
       </c>
-      <c r="J120" s="14"/>
-      <c r="K120" s="14">
+      <c r="J120" s="12"/>
+      <c r="K120" s="12">
         <v>26</v>
       </c>
-      <c r="L120" s="11"/>
-      <c r="O120" s="14">
+      <c r="L120" s="10"/>
+      <c r="O120" s="12">
         <v>40</v>
       </c>
       <c r="Q120" s="2">
@@ -8468,22 +8473,22 @@
       <c r="A121" s="2">
         <v>119</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B121" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C121" s="8">
+      <c r="C121" s="7">
         <v>220041700134</v>
       </c>
-      <c r="D121" s="14">
+      <c r="D121" s="12">
         <v>17</v>
       </c>
-      <c r="E121" s="14">
+      <c r="E121" s="12">
         <v>18</v>
       </c>
-      <c r="F121" s="14" t="s">
+      <c r="F121" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G121" s="13">
+      <c r="G121" s="11">
         <v>0</v>
       </c>
       <c r="H121" s="2">
@@ -8493,12 +8498,12 @@
       <c r="I121" s="2">
         <v>0</v>
       </c>
-      <c r="J121" s="14"/>
-      <c r="K121" s="14">
+      <c r="J121" s="12"/>
+      <c r="K121" s="12">
         <v>20</v>
       </c>
-      <c r="L121" s="11"/>
-      <c r="O121" s="14"/>
+      <c r="L121" s="10"/>
+      <c r="O121" s="12"/>
       <c r="Q121" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -8532,19 +8537,19 @@
       <c r="B122" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C122" s="9">
+      <c r="C122" s="8">
         <v>220041723018</v>
       </c>
-      <c r="D122" s="14">
+      <c r="D122" s="12">
         <v>7</v>
       </c>
-      <c r="E122" s="14">
+      <c r="E122" s="12">
         <v>14</v>
       </c>
-      <c r="F122" s="14">
+      <c r="F122" s="12">
         <v>7</v>
       </c>
-      <c r="G122" s="13">
+      <c r="G122" s="11">
         <v>0</v>
       </c>
       <c r="H122" s="2">
@@ -8554,12 +8559,12 @@
       <c r="I122" s="2">
         <v>5</v>
       </c>
-      <c r="J122" s="14"/>
-      <c r="K122" s="14">
-        <v>18</v>
-      </c>
-      <c r="L122" s="11"/>
-      <c r="O122" s="14">
+      <c r="J122" s="12"/>
+      <c r="K122" s="12">
+        <v>20</v>
+      </c>
+      <c r="L122" s="10"/>
+      <c r="O122" s="12">
         <v>40</v>
       </c>
       <c r="Q122" s="2">
@@ -8595,19 +8600,19 @@
       <c r="B123" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C123" s="9">
+      <c r="C123" s="8">
         <v>220041723019</v>
       </c>
-      <c r="D123" s="14">
+      <c r="D123" s="12">
         <v>7</v>
       </c>
-      <c r="E123" s="14">
+      <c r="E123" s="12">
         <v>6</v>
       </c>
-      <c r="F123" s="14">
+      <c r="F123" s="12">
         <v>7</v>
       </c>
-      <c r="G123" s="13">
+      <c r="G123" s="11">
         <v>0</v>
       </c>
       <c r="H123" s="2">
@@ -8617,12 +8622,12 @@
       <c r="I123" s="2">
         <v>5</v>
       </c>
-      <c r="J123" s="14"/>
-      <c r="K123" s="14">
+      <c r="J123" s="12"/>
+      <c r="K123" s="12">
         <v>16</v>
       </c>
-      <c r="L123" s="11"/>
-      <c r="O123" s="14">
+      <c r="L123" s="10"/>
+      <c r="O123" s="12">
         <v>40</v>
       </c>
       <c r="Q123" s="2">
@@ -8658,19 +8663,19 @@
       <c r="B124" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C124" s="9">
+      <c r="C124" s="8">
         <v>220041723020</v>
       </c>
-      <c r="D124" s="14">
+      <c r="D124" s="12">
         <v>15</v>
       </c>
-      <c r="E124" s="14">
+      <c r="E124" s="12">
         <v>18</v>
       </c>
-      <c r="F124" s="14">
+      <c r="F124" s="12">
         <v>15</v>
       </c>
-      <c r="G124" s="14">
+      <c r="G124" s="12">
         <v>5</v>
       </c>
       <c r="H124" s="2">
@@ -8680,12 +8685,12 @@
       <c r="I124" s="2">
         <v>5</v>
       </c>
-      <c r="J124" s="14"/>
-      <c r="K124" s="14">
+      <c r="J124" s="12"/>
+      <c r="K124" s="12">
         <v>27</v>
       </c>
-      <c r="L124" s="11"/>
-      <c r="O124" s="14">
+      <c r="L124" s="10"/>
+      <c r="O124" s="12">
         <v>40</v>
       </c>
       <c r="Q124" s="2">
@@ -8721,19 +8726,19 @@
       <c r="B125" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C125" s="9">
+      <c r="C125" s="8">
         <v>220041723021</v>
       </c>
-      <c r="D125" s="14">
+      <c r="D125" s="12">
         <v>9</v>
       </c>
-      <c r="E125" s="14">
+      <c r="E125" s="12">
         <v>12</v>
       </c>
-      <c r="F125" s="14">
+      <c r="F125" s="12">
         <v>13</v>
       </c>
-      <c r="G125" s="13">
+      <c r="G125" s="11">
         <v>0</v>
       </c>
       <c r="H125" s="2">
@@ -8743,12 +8748,12 @@
       <c r="I125" s="2">
         <v>5</v>
       </c>
-      <c r="J125" s="14"/>
-      <c r="K125" s="14">
-        <v>20</v>
-      </c>
-      <c r="L125" s="11"/>
-      <c r="O125" s="14">
+      <c r="J125" s="12"/>
+      <c r="K125" s="12">
+        <v>21</v>
+      </c>
+      <c r="L125" s="10"/>
+      <c r="O125" s="12">
         <v>40</v>
       </c>
       <c r="Q125" s="2">
@@ -8784,19 +8789,19 @@
       <c r="B126" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C126" s="9">
+      <c r="C126" s="8">
         <v>220041723022</v>
       </c>
-      <c r="D126" s="14">
+      <c r="D126" s="12">
         <v>12</v>
       </c>
-      <c r="E126" s="14">
+      <c r="E126" s="12">
         <v>15</v>
       </c>
-      <c r="F126" s="14">
+      <c r="F126" s="12">
         <v>2</v>
       </c>
-      <c r="G126" s="14">
+      <c r="G126" s="12">
         <v>4</v>
       </c>
       <c r="H126" s="2">
@@ -8806,12 +8811,12 @@
       <c r="I126" s="2">
         <v>0</v>
       </c>
-      <c r="J126" s="14"/>
-      <c r="K126" s="14">
+      <c r="J126" s="12"/>
+      <c r="K126" s="12">
         <v>22</v>
       </c>
-      <c r="L126" s="11"/>
-      <c r="O126" s="14">
+      <c r="L126" s="10"/>
+      <c r="O126" s="12">
         <v>40</v>
       </c>
       <c r="Q126" s="2">
@@ -8847,19 +8852,19 @@
       <c r="B127" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C127" s="9">
+      <c r="C127" s="8">
         <v>220041723023</v>
       </c>
-      <c r="D127" s="14" t="s">
+      <c r="D127" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E127" s="14" t="s">
+      <c r="E127" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F127" s="14" t="s">
+      <c r="F127" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G127" s="14">
+      <c r="G127" s="12">
         <v>5</v>
       </c>
       <c r="H127" s="2">
@@ -8869,12 +8874,12 @@
       <c r="I127" s="2">
         <v>0</v>
       </c>
-      <c r="J127" s="14"/>
-      <c r="K127" s="14">
-        <v>4</v>
-      </c>
-      <c r="L127" s="11"/>
-      <c r="O127" s="14"/>
+      <c r="J127" s="12"/>
+      <c r="K127" s="12">
+        <v>4</v>
+      </c>
+      <c r="L127" s="10"/>
+      <c r="O127" s="12"/>
       <c r="Q127" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -8908,19 +8913,19 @@
       <c r="B128" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C128" s="9">
+      <c r="C128" s="8">
         <v>220041723025</v>
       </c>
-      <c r="D128" s="14">
-        <v>4</v>
-      </c>
-      <c r="E128" s="14">
-        <v>5</v>
-      </c>
-      <c r="F128" s="14">
+      <c r="D128" s="12">
+        <v>4</v>
+      </c>
+      <c r="E128" s="12">
+        <v>5</v>
+      </c>
+      <c r="F128" s="12">
         <v>6</v>
       </c>
-      <c r="G128" s="13">
+      <c r="G128" s="11">
         <v>0</v>
       </c>
       <c r="H128" s="2">
@@ -8930,12 +8935,12 @@
       <c r="I128" s="2">
         <v>5</v>
       </c>
-      <c r="J128" s="14"/>
-      <c r="K128" s="14">
-        <v>13</v>
-      </c>
-      <c r="L128" s="11"/>
-      <c r="O128" s="14">
+      <c r="J128" s="12"/>
+      <c r="K128" s="12">
+        <v>16</v>
+      </c>
+      <c r="L128" s="10"/>
+      <c r="O128" s="12">
         <v>40</v>
       </c>
       <c r="Q128" s="2">
@@ -8971,19 +8976,19 @@
       <c r="B129" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C129" s="9">
+      <c r="C129" s="8">
         <v>220041723027</v>
       </c>
-      <c r="D129" s="14">
+      <c r="D129" s="12">
         <v>19</v>
       </c>
-      <c r="E129" s="14">
+      <c r="E129" s="12">
         <v>25</v>
       </c>
-      <c r="F129" s="14">
+      <c r="F129" s="12">
         <v>20</v>
       </c>
-      <c r="G129" s="14">
+      <c r="G129" s="12">
         <v>5</v>
       </c>
       <c r="H129" s="2">
@@ -8993,12 +8998,12 @@
       <c r="I129" s="2">
         <v>5</v>
       </c>
-      <c r="J129" s="14"/>
-      <c r="K129" s="14">
+      <c r="J129" s="12"/>
+      <c r="K129" s="12">
         <v>32</v>
       </c>
-      <c r="L129" s="11"/>
-      <c r="O129" s="14">
+      <c r="L129" s="10"/>
+      <c r="O129" s="12">
         <v>40</v>
       </c>
       <c r="Q129" s="2">
@@ -9034,19 +9039,19 @@
       <c r="B130" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C130" s="9">
+      <c r="C130" s="8">
         <v>220041723028</v>
       </c>
-      <c r="D130" s="14">
+      <c r="D130" s="12">
         <v>6</v>
       </c>
-      <c r="E130" s="14">
+      <c r="E130" s="12">
         <v>12</v>
       </c>
-      <c r="F130" s="14" t="s">
+      <c r="F130" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G130" s="13">
+      <c r="G130" s="11">
         <v>0</v>
       </c>
       <c r="H130" s="2">
@@ -9056,12 +9061,12 @@
       <c r="I130" s="2">
         <v>5</v>
       </c>
-      <c r="J130" s="14"/>
-      <c r="K130" s="14">
-        <v>16</v>
-      </c>
-      <c r="L130" s="11"/>
-      <c r="O130" s="14">
+      <c r="J130" s="12"/>
+      <c r="K130" s="12">
+        <v>21</v>
+      </c>
+      <c r="L130" s="10"/>
+      <c r="O130" s="12">
         <v>40</v>
       </c>
       <c r="Q130" s="2">
@@ -9097,19 +9102,19 @@
       <c r="B131" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C131" s="9">
+      <c r="C131" s="8">
         <v>220041723032</v>
       </c>
-      <c r="D131" s="14">
+      <c r="D131" s="12">
         <v>14</v>
       </c>
-      <c r="E131" s="14">
+      <c r="E131" s="12">
         <v>24</v>
       </c>
-      <c r="F131" s="14">
+      <c r="F131" s="12">
         <v>13</v>
       </c>
-      <c r="G131" s="14">
+      <c r="G131" s="12">
         <v>4.5</v>
       </c>
       <c r="H131" s="2">
@@ -9119,12 +9124,12 @@
       <c r="I131" s="2">
         <v>5</v>
       </c>
-      <c r="J131" s="14"/>
-      <c r="K131" s="14">
+      <c r="J131" s="12"/>
+      <c r="K131" s="12">
         <v>29</v>
       </c>
-      <c r="L131" s="11"/>
-      <c r="O131" s="14">
+      <c r="L131" s="10"/>
+      <c r="O131" s="12">
         <v>40</v>
       </c>
       <c r="Q131" s="2">
@@ -9160,19 +9165,19 @@
       <c r="B132" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C132" s="9">
+      <c r="C132" s="8">
         <v>220041723033</v>
       </c>
-      <c r="D132" s="14">
+      <c r="D132" s="12">
         <v>9</v>
       </c>
-      <c r="E132" s="14">
+      <c r="E132" s="12">
         <v>21</v>
       </c>
       <c r="F132" s="1">
         <v>13</v>
       </c>
-      <c r="G132" s="14">
+      <c r="G132" s="12">
         <v>4</v>
       </c>
       <c r="H132" s="2">
@@ -9182,12 +9187,12 @@
       <c r="I132" s="2">
         <v>5</v>
       </c>
-      <c r="J132" s="14"/>
-      <c r="K132" s="14">
+      <c r="J132" s="12"/>
+      <c r="K132" s="12">
         <v>27</v>
       </c>
-      <c r="L132" s="11"/>
-      <c r="O132" s="14">
+      <c r="L132" s="10"/>
+      <c r="O132" s="12">
         <v>40</v>
       </c>
       <c r="Q132" s="2">
@@ -9223,19 +9228,19 @@
       <c r="B133" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C133" s="9">
+      <c r="C133" s="8">
         <v>220041723034</v>
       </c>
-      <c r="D133" s="14">
+      <c r="D133" s="12">
         <v>15</v>
       </c>
-      <c r="E133" s="14">
+      <c r="E133" s="12">
         <v>19</v>
       </c>
-      <c r="F133" s="14">
+      <c r="F133" s="12">
         <v>17</v>
       </c>
-      <c r="G133" s="14">
+      <c r="G133" s="12">
         <v>3</v>
       </c>
       <c r="H133" s="2">
@@ -9245,12 +9250,12 @@
       <c r="I133" s="2">
         <v>5</v>
       </c>
-      <c r="J133" s="14"/>
-      <c r="K133" s="14">
+      <c r="J133" s="12"/>
+      <c r="K133" s="12">
         <v>27</v>
       </c>
-      <c r="L133" s="11"/>
-      <c r="O133" s="14">
+      <c r="L133" s="10"/>
+      <c r="O133" s="12">
         <v>40</v>
       </c>
       <c r="Q133" s="2">
@@ -9296,7 +9301,7 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="L134:L1048576">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>

--- a/static/Upload/4th sem.xlsx
+++ b/static/Upload/4th sem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Amit Jangra\Website\MechanicalCodingThunder.github.io\static\Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AB60D1-D4AA-47B4-B0D0-8BF0FCB480CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F60497-68CE-4F11-A2BF-BED95EA43D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="12900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12645" windowHeight="12900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WT-III" sheetId="2" r:id="rId1"/>
@@ -496,7 +496,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,6 +506,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
@@ -557,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -614,21 +638,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -989,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J107" sqref="J107"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,63 +1771,63 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:24" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
         <v>11</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="22">
         <v>220041700012</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="23">
         <v>13</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="12">
-        <v>4</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="G13" s="23">
+        <v>4</v>
+      </c>
+      <c r="H13" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12">
+      <c r="I13" s="20">
+        <v>0</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23">
         <v>9</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="O13" s="12"/>
-      <c r="Q13" s="2">
+      <c r="L13" s="24"/>
+      <c r="O13" s="23"/>
+      <c r="Q13" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S13" s="1">
-        <v>0</v>
-      </c>
-      <c r="T13" s="1">
+      <c r="S13" s="25">
+        <v>0</v>
+      </c>
+      <c r="T13" s="25">
         <v>1</v>
       </c>
-      <c r="U13" s="1">
-        <v>0</v>
-      </c>
-      <c r="V13" s="2">
+      <c r="U13" s="25">
+        <v>0</v>
+      </c>
+      <c r="V13" s="20">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="W13" s="2">
+      <c r="W13" s="20">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="X13" s="2">
+      <c r="X13" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2345,63 +2397,63 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:24" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26">
         <v>21</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="28">
         <v>220041700026</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="29">
         <v>2</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="29">
         <v>8</v>
       </c>
-      <c r="G23" s="11">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
+      <c r="G23" s="30">
+        <v>0</v>
+      </c>
+      <c r="H23" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12">
+      <c r="I23" s="26">
+        <v>0</v>
+      </c>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29">
         <v>6</v>
       </c>
-      <c r="L23" s="10"/>
-      <c r="O23" s="12"/>
-      <c r="Q23" s="2">
+      <c r="L23" s="31"/>
+      <c r="O23" s="29"/>
+      <c r="Q23" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S23" s="1">
-        <v>0</v>
-      </c>
-      <c r="T23" s="1">
+      <c r="S23" s="32">
+        <v>0</v>
+      </c>
+      <c r="T23" s="32">
         <v>1</v>
       </c>
-      <c r="U23" s="1">
-        <v>0</v>
-      </c>
-      <c r="V23" s="2">
+      <c r="U23" s="32">
+        <v>0</v>
+      </c>
+      <c r="V23" s="26">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="W23" s="2">
+      <c r="W23" s="26">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="X23" s="2">
+      <c r="X23" s="26">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
@@ -3471,63 +3523,63 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="41" spans="1:24" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="26">
         <v>39</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="28">
         <v>220041700048</v>
       </c>
-      <c r="D41" s="12">
-        <v>4</v>
-      </c>
-      <c r="E41" s="12">
-        <v>3</v>
-      </c>
-      <c r="F41" s="12">
+      <c r="D41" s="29">
+        <v>4</v>
+      </c>
+      <c r="E41" s="29">
+        <v>3</v>
+      </c>
+      <c r="F41" s="29">
         <v>8</v>
       </c>
-      <c r="G41" s="11">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2">
+      <c r="G41" s="30">
+        <v>0</v>
+      </c>
+      <c r="H41" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="2">
-        <v>0</v>
-      </c>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12">
+      <c r="I41" s="26">
+        <v>0</v>
+      </c>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29">
         <v>8</v>
       </c>
-      <c r="L41" s="10"/>
-      <c r="O41" s="12"/>
-      <c r="Q41" s="2">
+      <c r="L41" s="31"/>
+      <c r="O41" s="29"/>
+      <c r="Q41" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S41" s="1">
-        <v>3</v>
-      </c>
-      <c r="T41" s="1">
+      <c r="S41" s="32">
+        <v>3</v>
+      </c>
+      <c r="T41" s="32">
         <v>2</v>
       </c>
-      <c r="U41" s="1">
-        <v>0</v>
-      </c>
-      <c r="V41" s="2">
+      <c r="U41" s="32">
+        <v>0</v>
+      </c>
+      <c r="V41" s="26">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="W41" s="2">
+      <c r="W41" s="26">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="X41" s="2">
+      <c r="X41" s="26">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
@@ -3784,63 +3836,63 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="46" spans="1:24" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="26">
         <v>44</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="28">
         <v>220041700055</v>
       </c>
-      <c r="D46" s="12">
-        <v>0</v>
-      </c>
-      <c r="E46" s="12" t="s">
+      <c r="D46" s="29">
+        <v>0</v>
+      </c>
+      <c r="E46" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="29">
         <v>4.5</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I46" s="2">
-        <v>0</v>
-      </c>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12">
-        <v>4</v>
-      </c>
-      <c r="L46" s="10"/>
-      <c r="O46" s="12"/>
-      <c r="Q46" s="2">
+      <c r="I46" s="26">
+        <v>0</v>
+      </c>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29">
+        <v>4</v>
+      </c>
+      <c r="L46" s="31"/>
+      <c r="O46" s="29"/>
+      <c r="Q46" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S46" s="1">
-        <v>3</v>
-      </c>
-      <c r="T46" s="1">
-        <v>0</v>
-      </c>
-      <c r="U46" s="1">
-        <v>0</v>
-      </c>
-      <c r="V46" s="2">
+      <c r="S46" s="32">
+        <v>3</v>
+      </c>
+      <c r="T46" s="32">
+        <v>0</v>
+      </c>
+      <c r="U46" s="32">
+        <v>0</v>
+      </c>
+      <c r="V46" s="26">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="W46" s="2">
+      <c r="W46" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X46" s="2">
+      <c r="X46" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4032,63 +4084,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+    <row r="50" spans="1:24" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="26">
         <v>48</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="28">
         <v>220041700059</v>
       </c>
-      <c r="D50" s="12">
-        <v>3</v>
-      </c>
-      <c r="E50" s="12" t="s">
+      <c r="D50" s="29">
+        <v>3</v>
+      </c>
+      <c r="E50" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="G50" s="11">
-        <v>0</v>
-      </c>
-      <c r="H50" s="2">
+      <c r="G50" s="30">
+        <v>0</v>
+      </c>
+      <c r="H50" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I50" s="2">
-        <v>0</v>
-      </c>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12">
+      <c r="I50" s="26">
+        <v>0</v>
+      </c>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29">
         <v>2</v>
       </c>
-      <c r="L50" s="10"/>
-      <c r="O50" s="12"/>
-      <c r="Q50" s="2">
+      <c r="L50" s="31"/>
+      <c r="O50" s="29"/>
+      <c r="Q50" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S50" s="1">
-        <v>0</v>
-      </c>
-      <c r="T50" s="1">
-        <v>0</v>
-      </c>
-      <c r="U50" s="1">
-        <v>0</v>
-      </c>
-      <c r="V50" s="2">
+      <c r="S50" s="32">
+        <v>0</v>
+      </c>
+      <c r="T50" s="32">
+        <v>0</v>
+      </c>
+      <c r="U50" s="32">
+        <v>0</v>
+      </c>
+      <c r="V50" s="26">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="W50" s="2">
+      <c r="W50" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X50" s="2">
+      <c r="X50" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4219,63 +4271,63 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+    <row r="53" spans="1:24" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="26">
         <v>51</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="28">
         <v>220041700063</v>
       </c>
-      <c r="D53" s="12">
-        <v>0</v>
-      </c>
-      <c r="E53" s="12" t="s">
+      <c r="D53" s="29">
+        <v>0</v>
+      </c>
+      <c r="E53" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="F53" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="G53" s="12">
-        <v>4</v>
-      </c>
-      <c r="H53" s="2">
+      <c r="G53" s="29">
+        <v>4</v>
+      </c>
+      <c r="H53" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I53" s="2">
-        <v>5</v>
-      </c>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12">
+      <c r="I53" s="26">
+        <v>5</v>
+      </c>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29">
         <v>6</v>
       </c>
-      <c r="L53" s="10"/>
-      <c r="O53" s="12"/>
-      <c r="Q53" s="2">
+      <c r="L53" s="31"/>
+      <c r="O53" s="29"/>
+      <c r="Q53" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S53" s="1">
+      <c r="S53" s="32">
         <v>2</v>
       </c>
-      <c r="T53" s="1">
-        <v>0</v>
-      </c>
-      <c r="U53" s="1">
-        <v>0</v>
-      </c>
-      <c r="V53" s="2">
+      <c r="T53" s="32">
+        <v>0</v>
+      </c>
+      <c r="U53" s="32">
+        <v>0</v>
+      </c>
+      <c r="V53" s="26">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="W53" s="2">
+      <c r="W53" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X53" s="2">
+      <c r="X53" s="26">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -4845,63 +4897,63 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+    <row r="63" spans="1:24" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="26">
         <v>61</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="33">
         <v>220041723006</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D63" s="29">
         <v>2</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E63" s="29">
         <v>13</v>
       </c>
-      <c r="F63" s="12" t="s">
+      <c r="F63" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="G63" s="11">
-        <v>0</v>
-      </c>
-      <c r="H63" s="2">
+      <c r="G63" s="30">
+        <v>0</v>
+      </c>
+      <c r="H63" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I63" s="2">
-        <v>0</v>
-      </c>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12">
+      <c r="I63" s="26">
+        <v>0</v>
+      </c>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29">
         <v>9</v>
       </c>
-      <c r="L63" s="10"/>
-      <c r="O63" s="12"/>
-      <c r="Q63" s="2">
+      <c r="L63" s="31"/>
+      <c r="O63" s="29"/>
+      <c r="Q63" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S63" s="1">
-        <v>0</v>
-      </c>
-      <c r="T63" s="1">
+      <c r="S63" s="32">
+        <v>0</v>
+      </c>
+      <c r="T63" s="32">
         <v>2</v>
       </c>
-      <c r="U63" s="1">
-        <v>0</v>
-      </c>
-      <c r="V63" s="2">
+      <c r="U63" s="32">
+        <v>0</v>
+      </c>
+      <c r="V63" s="26">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="W63" s="2">
+      <c r="W63" s="26">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="X63" s="2">
+      <c r="X63" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5595,63 +5647,63 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+    <row r="75" spans="1:24" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="26">
         <v>73</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="28">
         <v>220041700069</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D75" s="29">
         <v>2</v>
       </c>
-      <c r="E75" s="12">
-        <v>5</v>
-      </c>
-      <c r="F75" s="12">
-        <v>3</v>
-      </c>
-      <c r="G75" s="11">
-        <v>0</v>
-      </c>
-      <c r="H75" s="2">
+      <c r="E75" s="29">
+        <v>5</v>
+      </c>
+      <c r="F75" s="29">
+        <v>3</v>
+      </c>
+      <c r="G75" s="30">
+        <v>0</v>
+      </c>
+      <c r="H75" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I75" s="2">
-        <v>0</v>
-      </c>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12">
+      <c r="I75" s="26">
+        <v>0</v>
+      </c>
+      <c r="J75" s="29"/>
+      <c r="K75" s="29">
         <v>7</v>
       </c>
-      <c r="L75" s="10"/>
-      <c r="O75" s="12"/>
-      <c r="Q75" s="2">
+      <c r="L75" s="31"/>
+      <c r="O75" s="29"/>
+      <c r="Q75" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S75" s="1">
-        <v>0</v>
-      </c>
-      <c r="T75" s="1">
-        <v>3</v>
-      </c>
-      <c r="U75" s="1">
+      <c r="S75" s="32">
+        <v>0</v>
+      </c>
+      <c r="T75" s="32">
+        <v>3</v>
+      </c>
+      <c r="U75" s="32">
         <v>2</v>
       </c>
-      <c r="V75" s="2">
+      <c r="V75" s="26">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="W75" s="2">
+      <c r="W75" s="26">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="X75" s="2">
+      <c r="X75" s="26">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
@@ -5843,63 +5895,63 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+    <row r="79" spans="1:24" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="26">
         <v>77</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="28">
         <v>220041700073</v>
       </c>
-      <c r="D79" s="12" t="s">
+      <c r="D79" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E79" s="12" t="s">
+      <c r="E79" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="F79" s="12" t="s">
+      <c r="F79" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="G79" s="11">
-        <v>0</v>
-      </c>
-      <c r="H79" s="2">
+      <c r="G79" s="30">
+        <v>0</v>
+      </c>
+      <c r="H79" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I79" s="2">
-        <v>0</v>
-      </c>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12">
-        <v>0</v>
-      </c>
-      <c r="L79" s="10"/>
-      <c r="O79" s="12"/>
-      <c r="Q79" s="2">
+      <c r="I79" s="26">
+        <v>0</v>
+      </c>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29">
+        <v>0</v>
+      </c>
+      <c r="L79" s="31"/>
+      <c r="O79" s="29"/>
+      <c r="Q79" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S79" s="1">
-        <v>0</v>
-      </c>
-      <c r="T79" s="1">
-        <v>0</v>
-      </c>
-      <c r="U79" s="1">
-        <v>0</v>
-      </c>
-      <c r="V79" s="2">
+      <c r="S79" s="32">
+        <v>0</v>
+      </c>
+      <c r="T79" s="32">
+        <v>0</v>
+      </c>
+      <c r="U79" s="32">
+        <v>0</v>
+      </c>
+      <c r="V79" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W79" s="2">
+      <c r="W79" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X79" s="2">
+      <c r="X79" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -6156,63 +6208,63 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+    <row r="84" spans="1:24" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="26">
         <v>82</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="28">
         <v>220041700082</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D84" s="29">
         <v>6</v>
       </c>
-      <c r="E84" s="12" t="s">
+      <c r="E84" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="F84" s="12">
-        <v>5</v>
-      </c>
-      <c r="G84" s="11">
-        <v>0</v>
-      </c>
-      <c r="H84" s="2">
+      <c r="F84" s="29">
+        <v>5</v>
+      </c>
+      <c r="G84" s="30">
+        <v>0</v>
+      </c>
+      <c r="H84" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I84" s="2">
-        <v>0</v>
-      </c>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12">
+      <c r="I84" s="26">
+        <v>0</v>
+      </c>
+      <c r="J84" s="29"/>
+      <c r="K84" s="29">
         <v>6</v>
       </c>
-      <c r="L84" s="10"/>
-      <c r="O84" s="12"/>
-      <c r="Q84" s="2">
+      <c r="L84" s="31"/>
+      <c r="O84" s="29"/>
+      <c r="Q84" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S84" s="1">
-        <v>0</v>
-      </c>
-      <c r="T84" s="1">
-        <v>0</v>
-      </c>
-      <c r="U84" s="1">
-        <v>0</v>
-      </c>
-      <c r="V84" s="2">
+      <c r="S84" s="32">
+        <v>0</v>
+      </c>
+      <c r="T84" s="32">
+        <v>0</v>
+      </c>
+      <c r="U84" s="32">
+        <v>0</v>
+      </c>
+      <c r="V84" s="26">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="W84" s="2">
+      <c r="W84" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X84" s="2">
+      <c r="X84" s="26">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
@@ -6469,63 +6521,63 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
+    <row r="89" spans="1:24" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="26">
         <v>87</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C89" s="28">
         <v>220041700088</v>
       </c>
-      <c r="D89" s="12">
+      <c r="D89" s="29">
         <v>8</v>
       </c>
-      <c r="E89" s="12">
+      <c r="E89" s="29">
         <v>13</v>
       </c>
-      <c r="F89" s="12">
+      <c r="F89" s="29">
         <v>9</v>
       </c>
-      <c r="G89" s="11">
-        <v>0</v>
-      </c>
-      <c r="H89" s="2">
+      <c r="G89" s="30">
+        <v>0</v>
+      </c>
+      <c r="H89" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I89" s="2">
-        <v>0</v>
-      </c>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12">
+      <c r="I89" s="26">
+        <v>0</v>
+      </c>
+      <c r="J89" s="29"/>
+      <c r="K89" s="29">
         <v>13</v>
       </c>
-      <c r="L89" s="10"/>
-      <c r="O89" s="12"/>
-      <c r="Q89" s="2">
+      <c r="L89" s="31"/>
+      <c r="O89" s="29"/>
+      <c r="Q89" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S89" s="1">
-        <v>0</v>
-      </c>
-      <c r="T89" s="1">
+      <c r="S89" s="32">
+        <v>0</v>
+      </c>
+      <c r="T89" s="32">
         <v>2</v>
       </c>
-      <c r="U89" s="1">
-        <v>0</v>
-      </c>
-      <c r="V89" s="2">
+      <c r="U89" s="32">
+        <v>0</v>
+      </c>
+      <c r="V89" s="26">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="W89" s="2">
+      <c r="W89" s="26">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="X89" s="2">
+      <c r="X89" s="26">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
@@ -7282,63 +7334,63 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
+    <row r="102" spans="1:24" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="26">
         <v>100</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C102" s="7">
+      <c r="C102" s="28">
         <v>220041700108</v>
       </c>
-      <c r="D102" s="12">
+      <c r="D102" s="29">
         <v>2</v>
       </c>
-      <c r="E102" s="12">
+      <c r="E102" s="29">
         <v>9</v>
       </c>
-      <c r="F102" s="12">
+      <c r="F102" s="29">
         <v>6</v>
       </c>
-      <c r="G102" s="11">
-        <v>0</v>
-      </c>
-      <c r="H102" s="2">
+      <c r="G102" s="30">
+        <v>0</v>
+      </c>
+      <c r="H102" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I102" s="2">
-        <v>0</v>
-      </c>
-      <c r="J102" s="12"/>
-      <c r="K102" s="12">
+      <c r="I102" s="26">
+        <v>0</v>
+      </c>
+      <c r="J102" s="29"/>
+      <c r="K102" s="29">
         <v>10</v>
       </c>
-      <c r="L102" s="10"/>
-      <c r="O102" s="12"/>
-      <c r="Q102" s="2">
+      <c r="L102" s="31"/>
+      <c r="O102" s="29"/>
+      <c r="Q102" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S102" s="1">
-        <v>0</v>
-      </c>
-      <c r="T102" s="1">
+      <c r="S102" s="32">
+        <v>0</v>
+      </c>
+      <c r="T102" s="32">
         <v>2</v>
       </c>
-      <c r="U102" s="1">
+      <c r="U102" s="32">
         <v>1</v>
       </c>
-      <c r="V102" s="2">
+      <c r="V102" s="26">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="W102" s="2">
+      <c r="W102" s="26">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="X102" s="2">
+      <c r="X102" s="26">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
@@ -7406,63 +7458,63 @@
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
+    <row r="104" spans="1:24" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="26">
         <v>102</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C104" s="7">
+      <c r="C104" s="28">
         <v>220041700110</v>
       </c>
-      <c r="D104" s="12">
-        <v>4</v>
-      </c>
-      <c r="E104" s="12">
-        <v>4</v>
-      </c>
-      <c r="F104" s="12">
+      <c r="D104" s="29">
+        <v>4</v>
+      </c>
+      <c r="E104" s="29">
+        <v>4</v>
+      </c>
+      <c r="F104" s="29">
         <v>2</v>
       </c>
-      <c r="G104" s="11">
-        <v>0</v>
-      </c>
-      <c r="H104" s="2">
+      <c r="G104" s="30">
+        <v>0</v>
+      </c>
+      <c r="H104" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I104" s="2">
-        <v>0</v>
-      </c>
-      <c r="J104" s="12"/>
-      <c r="K104" s="12">
-        <v>5</v>
-      </c>
-      <c r="L104" s="10"/>
-      <c r="O104" s="12"/>
-      <c r="Q104" s="2">
+      <c r="I104" s="26">
+        <v>0</v>
+      </c>
+      <c r="J104" s="29"/>
+      <c r="K104" s="29">
+        <v>5</v>
+      </c>
+      <c r="L104" s="31"/>
+      <c r="O104" s="29"/>
+      <c r="Q104" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S104" s="1">
-        <v>0</v>
-      </c>
-      <c r="T104" s="1">
+      <c r="S104" s="32">
+        <v>0</v>
+      </c>
+      <c r="T104" s="32">
         <v>2</v>
       </c>
-      <c r="U104" s="1">
-        <v>0</v>
-      </c>
-      <c r="V104" s="2">
+      <c r="U104" s="32">
+        <v>0</v>
+      </c>
+      <c r="V104" s="26">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="W104" s="2">
+      <c r="W104" s="26">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="X104" s="2">
+      <c r="X104" s="26">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
@@ -7530,65 +7582,65 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
+    <row r="106" spans="1:24" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="26">
         <v>104</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="B106" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C106" s="7">
+      <c r="C106" s="28">
         <v>220041700113</v>
       </c>
-      <c r="D106" s="12">
+      <c r="D106" s="29">
         <v>6</v>
       </c>
-      <c r="E106" s="12">
+      <c r="E106" s="29">
         <v>12</v>
       </c>
-      <c r="F106" s="12" t="s">
+      <c r="F106" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="G106" s="11">
-        <v>0</v>
-      </c>
-      <c r="H106" s="2">
+      <c r="G106" s="30">
+        <v>0</v>
+      </c>
+      <c r="H106" s="26">
         <f t="shared" si="5"/>
         <v>3.125</v>
       </c>
-      <c r="I106" s="2">
-        <v>5</v>
-      </c>
-      <c r="J106" s="12"/>
-      <c r="K106" s="12">
+      <c r="I106" s="26">
+        <v>5</v>
+      </c>
+      <c r="J106" s="29"/>
+      <c r="K106" s="29">
         <v>16</v>
       </c>
-      <c r="L106" s="10"/>
-      <c r="O106" s="12">
+      <c r="L106" s="31"/>
+      <c r="O106" s="29">
         <v>25</v>
       </c>
-      <c r="Q106" s="2">
+      <c r="Q106" s="26">
         <f t="shared" si="6"/>
         <v>3.125</v>
       </c>
-      <c r="S106" s="1">
+      <c r="S106" s="32">
         <v>2</v>
       </c>
-      <c r="T106" s="1">
+      <c r="T106" s="32">
         <v>2</v>
       </c>
-      <c r="U106" s="1">
-        <v>4</v>
-      </c>
-      <c r="V106" s="2">
+      <c r="U106" s="32">
+        <v>4</v>
+      </c>
+      <c r="V106" s="26">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="W106" s="2">
+      <c r="W106" s="26">
         <f t="shared" si="8"/>
         <v>17.125</v>
       </c>
-      <c r="X106" s="2">
+      <c r="X106" s="26">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
@@ -7843,63 +7895,63 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
+    <row r="111" spans="1:24" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="26">
         <v>109</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C111" s="7">
+      <c r="C111" s="28">
         <v>220041700119</v>
       </c>
-      <c r="D111" s="12" t="s">
+      <c r="D111" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E111" s="12" t="s">
+      <c r="E111" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="F111" s="12" t="s">
+      <c r="F111" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="G111" s="11">
-        <v>0</v>
-      </c>
-      <c r="H111" s="2">
+      <c r="G111" s="30">
+        <v>0</v>
+      </c>
+      <c r="H111" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I111" s="2">
-        <v>0</v>
-      </c>
-      <c r="J111" s="12"/>
-      <c r="K111" s="12">
-        <v>0</v>
-      </c>
-      <c r="L111" s="10"/>
-      <c r="O111" s="12"/>
-      <c r="Q111" s="2">
+      <c r="I111" s="26">
+        <v>0</v>
+      </c>
+      <c r="J111" s="29"/>
+      <c r="K111" s="29">
+        <v>0</v>
+      </c>
+      <c r="L111" s="31"/>
+      <c r="O111" s="29"/>
+      <c r="Q111" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S111" s="1">
-        <v>0</v>
-      </c>
-      <c r="T111" s="1">
-        <v>0</v>
-      </c>
-      <c r="U111" s="1">
-        <v>0</v>
-      </c>
-      <c r="V111" s="2">
+      <c r="S111" s="32">
+        <v>0</v>
+      </c>
+      <c r="T111" s="32">
+        <v>0</v>
+      </c>
+      <c r="U111" s="32">
+        <v>0</v>
+      </c>
+      <c r="V111" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W111" s="2">
+      <c r="W111" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X111" s="2">
+      <c r="X111" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -8093,65 +8145,65 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
+    <row r="115" spans="1:24" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="26">
         <v>113</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C115" s="7">
+      <c r="C115" s="28">
         <v>220041700124</v>
       </c>
-      <c r="D115" s="12">
+      <c r="D115" s="29">
         <v>1</v>
       </c>
-      <c r="E115" s="12">
+      <c r="E115" s="29">
         <v>12</v>
       </c>
-      <c r="F115" s="12">
-        <v>4</v>
-      </c>
-      <c r="G115" s="11">
-        <v>0</v>
-      </c>
-      <c r="H115" s="2">
+      <c r="F115" s="29">
+        <v>4</v>
+      </c>
+      <c r="G115" s="30">
+        <v>0</v>
+      </c>
+      <c r="H115" s="26">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I115" s="2">
-        <v>0</v>
-      </c>
-      <c r="J115" s="12"/>
-      <c r="K115" s="12">
+      <c r="I115" s="26">
+        <v>0</v>
+      </c>
+      <c r="J115" s="29"/>
+      <c r="K115" s="29">
         <v>12</v>
       </c>
-      <c r="L115" s="10"/>
-      <c r="O115" s="12">
+      <c r="L115" s="31"/>
+      <c r="O115" s="29">
         <v>40</v>
       </c>
-      <c r="Q115" s="2">
+      <c r="Q115" s="26">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="S115" s="1">
-        <v>0</v>
-      </c>
-      <c r="T115" s="1">
+      <c r="S115" s="32">
+        <v>0</v>
+      </c>
+      <c r="T115" s="32">
         <v>2</v>
       </c>
-      <c r="U115" s="1">
+      <c r="U115" s="32">
         <v>1</v>
       </c>
-      <c r="V115" s="2">
+      <c r="V115" s="26">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="W115" s="2">
+      <c r="W115" s="26">
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
-      <c r="X115" s="2">
+      <c r="X115" s="26">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
@@ -8845,63 +8897,63 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
+    <row r="127" spans="1:24" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="26">
         <v>125</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="C127" s="8">
+      <c r="C127" s="33">
         <v>220041723023</v>
       </c>
-      <c r="D127" s="12" t="s">
+      <c r="D127" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E127" s="12" t="s">
+      <c r="E127" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="F127" s="12" t="s">
+      <c r="F127" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="G127" s="12">
-        <v>5</v>
-      </c>
-      <c r="H127" s="2">
+      <c r="G127" s="29">
+        <v>5</v>
+      </c>
+      <c r="H127" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I127" s="2">
-        <v>0</v>
-      </c>
-      <c r="J127" s="12"/>
-      <c r="K127" s="12">
-        <v>4</v>
-      </c>
-      <c r="L127" s="10"/>
-      <c r="O127" s="12"/>
-      <c r="Q127" s="2">
+      <c r="I127" s="26">
+        <v>0</v>
+      </c>
+      <c r="J127" s="29"/>
+      <c r="K127" s="29">
+        <v>4</v>
+      </c>
+      <c r="L127" s="31"/>
+      <c r="O127" s="29"/>
+      <c r="Q127" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S127" s="1">
+      <c r="S127" s="32">
         <v>2</v>
       </c>
-      <c r="T127" s="1">
-        <v>0</v>
-      </c>
-      <c r="U127" s="1">
-        <v>0</v>
-      </c>
-      <c r="V127" s="2">
+      <c r="T127" s="32">
+        <v>0</v>
+      </c>
+      <c r="U127" s="32">
+        <v>0</v>
+      </c>
+      <c r="V127" s="26">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="W127" s="2">
+      <c r="W127" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X127" s="2">
+      <c r="X127" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -9301,7 +9353,7 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="L134:L1048576">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
